--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,45 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Greece Super League</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Olympiakos Piraeus</t>
+  </si>
+  <si>
+    <t>Panserraikos</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['35', '45+3', '60']</t>
+  </si>
+  <si>
+    <t>['13', '73']</t>
+  </si>
+  <si>
+    <t>['31', '49']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +309,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +821,418 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7537287</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45521.58333333334</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2">
+        <v>8.5</v>
+      </c>
+      <c r="R2">
+        <v>2.63</v>
+      </c>
+      <c r="S2">
+        <v>1.73</v>
+      </c>
+      <c r="T2">
+        <v>1.29</v>
+      </c>
+      <c r="U2">
+        <v>3.5</v>
+      </c>
+      <c r="V2">
+        <v>2.25</v>
+      </c>
+      <c r="W2">
+        <v>1.57</v>
+      </c>
+      <c r="X2">
+        <v>5.5</v>
+      </c>
+      <c r="Y2">
+        <v>1.14</v>
+      </c>
+      <c r="Z2">
+        <v>11</v>
+      </c>
+      <c r="AA2">
+        <v>5.5</v>
+      </c>
+      <c r="AB2">
+        <v>1.2</v>
+      </c>
+      <c r="AC2">
+        <v>1.02</v>
+      </c>
+      <c r="AD2">
+        <v>19</v>
+      </c>
+      <c r="AE2">
+        <v>1.16</v>
+      </c>
+      <c r="AF2">
+        <v>4.33</v>
+      </c>
+      <c r="AG2">
+        <v>1.54</v>
+      </c>
+      <c r="AH2">
+        <v>2.3</v>
+      </c>
+      <c r="AI2">
+        <v>2</v>
+      </c>
+      <c r="AJ2">
+        <v>1.75</v>
+      </c>
+      <c r="AK2">
+        <v>3.75</v>
+      </c>
+      <c r="AL2">
+        <v>1.1</v>
+      </c>
+      <c r="AM2">
+        <v>1.01</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>3</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>3</v>
+      </c>
+      <c r="AV2">
+        <v>6</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>7</v>
+      </c>
+      <c r="AY2">
+        <v>4</v>
+      </c>
+      <c r="AZ2">
+        <v>13</v>
+      </c>
+      <c r="BA2">
+        <v>3</v>
+      </c>
+      <c r="BB2">
+        <v>3</v>
+      </c>
+      <c r="BC2">
+        <v>6</v>
+      </c>
+      <c r="BD2">
+        <v>5.73</v>
+      </c>
+      <c r="BE2">
+        <v>10</v>
+      </c>
+      <c r="BF2">
+        <v>1.19</v>
+      </c>
+      <c r="BG2">
+        <v>1.5</v>
+      </c>
+      <c r="BH2">
+        <v>2.5</v>
+      </c>
+      <c r="BI2">
+        <v>1.9</v>
+      </c>
+      <c r="BJ2">
+        <v>1.9</v>
+      </c>
+      <c r="BK2">
+        <v>2.4</v>
+      </c>
+      <c r="BL2">
+        <v>1.53</v>
+      </c>
+      <c r="BM2">
+        <v>3.3</v>
+      </c>
+      <c r="BN2">
+        <v>1.3</v>
+      </c>
+      <c r="BO2">
+        <v>4</v>
+      </c>
+      <c r="BP2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7537291</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45521.58333333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3">
+        <v>1.57</v>
+      </c>
+      <c r="R3">
+        <v>2.88</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>1.22</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>2.1</v>
+      </c>
+      <c r="W3">
+        <v>1.67</v>
+      </c>
+      <c r="X3">
+        <v>4.5</v>
+      </c>
+      <c r="Y3">
+        <v>1.18</v>
+      </c>
+      <c r="Z3">
+        <v>1.14</v>
+      </c>
+      <c r="AA3">
+        <v>6.5</v>
+      </c>
+      <c r="AB3">
+        <v>13</v>
+      </c>
+      <c r="AC3">
+        <v>1.01</v>
+      </c>
+      <c r="AD3">
+        <v>25</v>
+      </c>
+      <c r="AE3">
+        <v>1.11</v>
+      </c>
+      <c r="AF3">
+        <v>5.1</v>
+      </c>
+      <c r="AG3">
+        <v>1.45</v>
+      </c>
+      <c r="AH3">
+        <v>2.55</v>
+      </c>
+      <c r="AI3">
+        <v>2.05</v>
+      </c>
+      <c r="AJ3">
+        <v>1.7</v>
+      </c>
+      <c r="AK3">
+        <v>1.03</v>
+      </c>
+      <c r="AL3">
+        <v>1.07</v>
+      </c>
+      <c r="AM3">
+        <v>4.7</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>3</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>8</v>
+      </c>
+      <c r="AV3">
+        <v>6</v>
+      </c>
+      <c r="AW3">
+        <v>5</v>
+      </c>
+      <c r="AX3">
+        <v>5</v>
+      </c>
+      <c r="AY3">
+        <v>13</v>
+      </c>
+      <c r="AZ3">
+        <v>11</v>
+      </c>
+      <c r="BA3">
+        <v>9</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>10</v>
+      </c>
+      <c r="BD3">
+        <v>1.02</v>
+      </c>
+      <c r="BE3">
+        <v>17</v>
+      </c>
+      <c r="BF3">
+        <v>20</v>
+      </c>
+      <c r="BG3">
+        <v>1.5</v>
+      </c>
+      <c r="BH3">
+        <v>2.5</v>
+      </c>
+      <c r="BI3">
+        <v>1.9</v>
+      </c>
+      <c r="BJ3">
+        <v>1.9</v>
+      </c>
+      <c r="BK3">
+        <v>2.4</v>
+      </c>
+      <c r="BL3">
+        <v>1.53</v>
+      </c>
+      <c r="BM3">
+        <v>3.3</v>
+      </c>
+      <c r="BN3">
+        <v>1.3</v>
+      </c>
+      <c r="BO3">
+        <v>4.3</v>
+      </c>
+      <c r="BP3">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,22 +232,58 @@
     <t>PAOK</t>
   </si>
   <si>
+    <t>Levadiakos</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>AEK Athens</t>
+  </si>
+  <si>
     <t>Olympiakos Piraeus</t>
   </si>
   <si>
     <t>Panserraikos</t>
   </si>
   <si>
+    <t>Kallithea</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>OFI</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
     <t>['35', '45+3', '60']</t>
   </si>
   <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['11', '14', '82']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
     <t>['31', '49']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['66']</t>
   </si>
 </sst>
 </file>
@@ -609,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP3"/>
+  <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -844,7 +880,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -865,10 +901,10 @@
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1050,7 +1086,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1071,10 +1107,10 @@
         <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1231,6 +1267,830 @@
       </c>
       <c r="BP3">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7537288</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45522.54166666666</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4">
+        <v>3.1</v>
+      </c>
+      <c r="R4">
+        <v>1.98</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>1.52</v>
+      </c>
+      <c r="U4">
+        <v>2.39</v>
+      </c>
+      <c r="V4">
+        <v>3.52</v>
+      </c>
+      <c r="W4">
+        <v>1.26</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>1.05</v>
+      </c>
+      <c r="Z4">
+        <v>2.1</v>
+      </c>
+      <c r="AA4">
+        <v>3.2</v>
+      </c>
+      <c r="AB4">
+        <v>3.2</v>
+      </c>
+      <c r="AC4">
+        <v>1.05</v>
+      </c>
+      <c r="AD4">
+        <v>7</v>
+      </c>
+      <c r="AE4">
+        <v>1.41</v>
+      </c>
+      <c r="AF4">
+        <v>2.61</v>
+      </c>
+      <c r="AG4">
+        <v>2.29</v>
+      </c>
+      <c r="AH4">
+        <v>1.55</v>
+      </c>
+      <c r="AI4">
+        <v>2.05</v>
+      </c>
+      <c r="AJ4">
+        <v>1.75</v>
+      </c>
+      <c r="AK4">
+        <v>1.35</v>
+      </c>
+      <c r="AL4">
+        <v>1.32</v>
+      </c>
+      <c r="AM4">
+        <v>1.63</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>4</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>8</v>
+      </c>
+      <c r="AX4">
+        <v>2</v>
+      </c>
+      <c r="AY4">
+        <v>12</v>
+      </c>
+      <c r="AZ4">
+        <v>2</v>
+      </c>
+      <c r="BA4">
+        <v>2</v>
+      </c>
+      <c r="BB4">
+        <v>5</v>
+      </c>
+      <c r="BC4">
+        <v>7</v>
+      </c>
+      <c r="BD4">
+        <v>1.56</v>
+      </c>
+      <c r="BE4">
+        <v>6.75</v>
+      </c>
+      <c r="BF4">
+        <v>3.28</v>
+      </c>
+      <c r="BG4">
+        <v>1.35</v>
+      </c>
+      <c r="BH4">
+        <v>3</v>
+      </c>
+      <c r="BI4">
+        <v>1.6</v>
+      </c>
+      <c r="BJ4">
+        <v>2.22</v>
+      </c>
+      <c r="BK4">
+        <v>2.1</v>
+      </c>
+      <c r="BL4">
+        <v>1.67</v>
+      </c>
+      <c r="BM4">
+        <v>2.75</v>
+      </c>
+      <c r="BN4">
+        <v>1.41</v>
+      </c>
+      <c r="BO4">
+        <v>3.4</v>
+      </c>
+      <c r="BP4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7537289</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45522.58333333334</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5">
+        <v>1.8</v>
+      </c>
+      <c r="R5">
+        <v>2.5</v>
+      </c>
+      <c r="S5">
+        <v>8</v>
+      </c>
+      <c r="T5">
+        <v>1.3</v>
+      </c>
+      <c r="U5">
+        <v>3.4</v>
+      </c>
+      <c r="V5">
+        <v>2.5</v>
+      </c>
+      <c r="W5">
+        <v>1.5</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>1.13</v>
+      </c>
+      <c r="Z5">
+        <v>1.27</v>
+      </c>
+      <c r="AA5">
+        <v>4.02</v>
+      </c>
+      <c r="AB5">
+        <v>7.49</v>
+      </c>
+      <c r="AC5">
+        <v>1.03</v>
+      </c>
+      <c r="AD5">
+        <v>15</v>
+      </c>
+      <c r="AE5">
+        <v>1.17</v>
+      </c>
+      <c r="AF5">
+        <v>4.2</v>
+      </c>
+      <c r="AG5">
+        <v>1.65</v>
+      </c>
+      <c r="AH5">
+        <v>2.05</v>
+      </c>
+      <c r="AI5">
+        <v>2</v>
+      </c>
+      <c r="AJ5">
+        <v>1.75</v>
+      </c>
+      <c r="AK5">
+        <v>1.04</v>
+      </c>
+      <c r="AL5">
+        <v>1.12</v>
+      </c>
+      <c r="AM5">
+        <v>3.4</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>3</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>2</v>
+      </c>
+      <c r="AV5">
+        <v>4</v>
+      </c>
+      <c r="AW5">
+        <v>7</v>
+      </c>
+      <c r="AX5">
+        <v>6</v>
+      </c>
+      <c r="AY5">
+        <v>9</v>
+      </c>
+      <c r="AZ5">
+        <v>10</v>
+      </c>
+      <c r="BA5">
+        <v>8</v>
+      </c>
+      <c r="BB5">
+        <v>2</v>
+      </c>
+      <c r="BC5">
+        <v>10</v>
+      </c>
+      <c r="BD5">
+        <v>1.18</v>
+      </c>
+      <c r="BE5">
+        <v>11</v>
+      </c>
+      <c r="BF5">
+        <v>6.16</v>
+      </c>
+      <c r="BG5">
+        <v>1.4</v>
+      </c>
+      <c r="BH5">
+        <v>2.8</v>
+      </c>
+      <c r="BI5">
+        <v>1.7</v>
+      </c>
+      <c r="BJ5">
+        <v>2.1</v>
+      </c>
+      <c r="BK5">
+        <v>2.25</v>
+      </c>
+      <c r="BL5">
+        <v>1.6</v>
+      </c>
+      <c r="BM5">
+        <v>3.05</v>
+      </c>
+      <c r="BN5">
+        <v>1.35</v>
+      </c>
+      <c r="BO5">
+        <v>3.6</v>
+      </c>
+      <c r="BP5">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7537286</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45522.60416666666</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6">
+        <v>3.4</v>
+      </c>
+      <c r="R6">
+        <v>2.1</v>
+      </c>
+      <c r="S6">
+        <v>3.1</v>
+      </c>
+      <c r="T6">
+        <v>1.4</v>
+      </c>
+      <c r="U6">
+        <v>2.75</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>1.36</v>
+      </c>
+      <c r="X6">
+        <v>8</v>
+      </c>
+      <c r="Y6">
+        <v>1.08</v>
+      </c>
+      <c r="Z6">
+        <v>1.68</v>
+      </c>
+      <c r="AA6">
+        <v>3.07</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6">
+        <v>1.02</v>
+      </c>
+      <c r="AD6">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE6">
+        <v>1.29</v>
+      </c>
+      <c r="AF6">
+        <v>3.15</v>
+      </c>
+      <c r="AG6">
+        <v>1.77</v>
+      </c>
+      <c r="AH6">
+        <v>1.77</v>
+      </c>
+      <c r="AI6">
+        <v>1.75</v>
+      </c>
+      <c r="AJ6">
+        <v>2</v>
+      </c>
+      <c r="AK6">
+        <v>1.55</v>
+      </c>
+      <c r="AL6">
+        <v>1.28</v>
+      </c>
+      <c r="AM6">
+        <v>1.45</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>6</v>
+      </c>
+      <c r="AV6">
+        <v>3</v>
+      </c>
+      <c r="AW6">
+        <v>2</v>
+      </c>
+      <c r="AX6">
+        <v>4</v>
+      </c>
+      <c r="AY6">
+        <v>8</v>
+      </c>
+      <c r="AZ6">
+        <v>7</v>
+      </c>
+      <c r="BA6">
+        <v>3</v>
+      </c>
+      <c r="BB6">
+        <v>4</v>
+      </c>
+      <c r="BC6">
+        <v>7</v>
+      </c>
+      <c r="BD6">
+        <v>2.29</v>
+      </c>
+      <c r="BE6">
+        <v>7.5</v>
+      </c>
+      <c r="BF6">
+        <v>1.85</v>
+      </c>
+      <c r="BG6">
+        <v>1.45</v>
+      </c>
+      <c r="BH6">
+        <v>2.65</v>
+      </c>
+      <c r="BI6">
+        <v>1.95</v>
+      </c>
+      <c r="BJ6">
+        <v>1.85</v>
+      </c>
+      <c r="BK6">
+        <v>2.65</v>
+      </c>
+      <c r="BL6">
+        <v>1.45</v>
+      </c>
+      <c r="BM6">
+        <v>3.7</v>
+      </c>
+      <c r="BN6">
+        <v>1.25</v>
+      </c>
+      <c r="BO6">
+        <v>4.33</v>
+      </c>
+      <c r="BP6">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7537285</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45522.66666666666</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7">
+        <v>1.62</v>
+      </c>
+      <c r="R7">
+        <v>2.88</v>
+      </c>
+      <c r="S7">
+        <v>9.5</v>
+      </c>
+      <c r="T7">
+        <v>1.25</v>
+      </c>
+      <c r="U7">
+        <v>3.75</v>
+      </c>
+      <c r="V7">
+        <v>2.2</v>
+      </c>
+      <c r="W7">
+        <v>1.62</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>1.17</v>
+      </c>
+      <c r="Z7">
+        <v>1.13</v>
+      </c>
+      <c r="AA7">
+        <v>5.09</v>
+      </c>
+      <c r="AB7">
+        <v>11.29</v>
+      </c>
+      <c r="AC7">
+        <v>1.01</v>
+      </c>
+      <c r="AD7">
+        <v>23</v>
+      </c>
+      <c r="AE7">
+        <v>1.12</v>
+      </c>
+      <c r="AF7">
+        <v>4.9</v>
+      </c>
+      <c r="AG7">
+        <v>1.5</v>
+      </c>
+      <c r="AH7">
+        <v>2.4</v>
+      </c>
+      <c r="AI7">
+        <v>2.05</v>
+      </c>
+      <c r="AJ7">
+        <v>1.7</v>
+      </c>
+      <c r="AK7">
+        <v>1.02</v>
+      </c>
+      <c r="AL7">
+        <v>1.07</v>
+      </c>
+      <c r="AM7">
+        <v>4.5</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>6</v>
+      </c>
+      <c r="AV7">
+        <v>2</v>
+      </c>
+      <c r="AW7">
+        <v>10</v>
+      </c>
+      <c r="AX7">
+        <v>2</v>
+      </c>
+      <c r="AY7">
+        <v>16</v>
+      </c>
+      <c r="AZ7">
+        <v>4</v>
+      </c>
+      <c r="BA7">
+        <v>6</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>7</v>
+      </c>
+      <c r="BD7">
+        <v>1.14</v>
+      </c>
+      <c r="BE7">
+        <v>11</v>
+      </c>
+      <c r="BF7">
+        <v>7.08</v>
+      </c>
+      <c r="BG7">
+        <v>1.4</v>
+      </c>
+      <c r="BH7">
+        <v>2.8</v>
+      </c>
+      <c r="BI7">
+        <v>1.65</v>
+      </c>
+      <c r="BJ7">
+        <v>2.15</v>
+      </c>
+      <c r="BK7">
+        <v>2.1</v>
+      </c>
+      <c r="BL7">
+        <v>1.7</v>
+      </c>
+      <c r="BM7">
+        <v>2.8</v>
+      </c>
+      <c r="BN7">
+        <v>1.4</v>
+      </c>
+      <c r="BO7">
+        <v>3.7</v>
+      </c>
+      <c r="BP7">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -244,6 +244,9 @@
     <t>AEK Athens</t>
   </si>
   <si>
+    <t>Panaitolikos</t>
+  </si>
+  <si>
     <t>Olympiakos Piraeus</t>
   </si>
   <si>
@@ -262,6 +265,9 @@
     <t>OFI</t>
   </si>
   <si>
+    <t>Lamia</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -284,6 +290,9 @@
   </si>
   <si>
     <t>['66']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -645,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP7"/>
+  <dimension ref="A1:BP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,7 +889,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -901,10 +910,10 @@
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1086,7 +1095,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1107,10 +1116,10 @@
         <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1292,7 +1301,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1313,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1498,7 +1507,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1519,10 +1528,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1704,7 +1713,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1725,10 +1734,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -1910,7 +1919,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1931,10 +1940,10 @@
         <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2091,6 +2100,212 @@
       </c>
       <c r="BP7">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7537290</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45523.625</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8">
+        <v>2.88</v>
+      </c>
+      <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>1.44</v>
+      </c>
+      <c r="U8">
+        <v>2.63</v>
+      </c>
+      <c r="V8">
+        <v>3.25</v>
+      </c>
+      <c r="W8">
+        <v>1.33</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <v>1.06</v>
+      </c>
+      <c r="Z8">
+        <v>2.13</v>
+      </c>
+      <c r="AA8">
+        <v>2.95</v>
+      </c>
+      <c r="AB8">
+        <v>2.92</v>
+      </c>
+      <c r="AC8">
+        <v>1.03</v>
+      </c>
+      <c r="AD8">
+        <v>8.1</v>
+      </c>
+      <c r="AE8">
+        <v>1.33</v>
+      </c>
+      <c r="AF8">
+        <v>2.93</v>
+      </c>
+      <c r="AG8">
+        <v>2.11</v>
+      </c>
+      <c r="AH8">
+        <v>1.65</v>
+      </c>
+      <c r="AI8">
+        <v>1.95</v>
+      </c>
+      <c r="AJ8">
+        <v>1.8</v>
+      </c>
+      <c r="AK8">
+        <v>1.26</v>
+      </c>
+      <c r="AL8">
+        <v>1.28</v>
+      </c>
+      <c r="AM8">
+        <v>1.8</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>3</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>5</v>
+      </c>
+      <c r="AV8">
+        <v>5</v>
+      </c>
+      <c r="AW8">
+        <v>6</v>
+      </c>
+      <c r="AX8">
+        <v>8</v>
+      </c>
+      <c r="AY8">
+        <v>11</v>
+      </c>
+      <c r="AZ8">
+        <v>13</v>
+      </c>
+      <c r="BA8">
+        <v>4</v>
+      </c>
+      <c r="BB8">
+        <v>3</v>
+      </c>
+      <c r="BC8">
+        <v>7</v>
+      </c>
+      <c r="BD8">
+        <v>1.69</v>
+      </c>
+      <c r="BE8">
+        <v>8</v>
+      </c>
+      <c r="BF8">
+        <v>2.65</v>
+      </c>
+      <c r="BG8">
+        <v>1.4</v>
+      </c>
+      <c r="BH8">
+        <v>2.8</v>
+      </c>
+      <c r="BI8">
+        <v>1.7</v>
+      </c>
+      <c r="BJ8">
+        <v>2.1</v>
+      </c>
+      <c r="BK8">
+        <v>2.15</v>
+      </c>
+      <c r="BL8">
+        <v>1.65</v>
+      </c>
+      <c r="BM8">
+        <v>2.8</v>
+      </c>
+      <c r="BN8">
+        <v>1.4</v>
+      </c>
+      <c r="BO8">
+        <v>3.8</v>
+      </c>
+      <c r="BP8">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -247,12 +247,15 @@
     <t>Panaitolikos</t>
   </si>
   <si>
+    <t>OFI</t>
+  </si>
+  <si>
+    <t>Panserraikos</t>
+  </si>
+  <si>
     <t>Olympiakos Piraeus</t>
   </si>
   <si>
-    <t>Panserraikos</t>
-  </si>
-  <si>
     <t>Kallithea</t>
   </si>
   <si>
@@ -262,9 +265,6 @@
     <t>Aris</t>
   </si>
   <si>
-    <t>OFI</t>
-  </si>
-  <si>
     <t>Lamia</t>
   </si>
   <si>
@@ -280,6 +280,12 @@
     <t>['11', '14', '82']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -293,6 +299,15 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -654,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP8"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +904,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -913,7 +928,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1119,7 +1134,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1301,7 +1316,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1507,7 +1522,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1531,7 +1546,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1713,7 +1728,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1737,7 +1752,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -1818,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -1919,7 +1934,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -2021,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2149,7 +2164,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2230,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2306,6 +2321,624 @@
       </c>
       <c r="BP8">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7537295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45528.5625</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9">
+        <v>2.5</v>
+      </c>
+      <c r="R9">
+        <v>2.15</v>
+      </c>
+      <c r="S9">
+        <v>4.1</v>
+      </c>
+      <c r="T9">
+        <v>1.38</v>
+      </c>
+      <c r="U9">
+        <v>2.8</v>
+      </c>
+      <c r="V9">
+        <v>2.75</v>
+      </c>
+      <c r="W9">
+        <v>1.4</v>
+      </c>
+      <c r="X9">
+        <v>7.25</v>
+      </c>
+      <c r="Y9">
+        <v>1.09</v>
+      </c>
+      <c r="Z9">
+        <v>2.26</v>
+      </c>
+      <c r="AA9">
+        <v>3.5</v>
+      </c>
+      <c r="AB9">
+        <v>2.85</v>
+      </c>
+      <c r="AC9">
+        <v>1.05</v>
+      </c>
+      <c r="AD9">
+        <v>11.5</v>
+      </c>
+      <c r="AE9">
+        <v>1.27</v>
+      </c>
+      <c r="AF9">
+        <v>3.4</v>
+      </c>
+      <c r="AG9">
+        <v>1.94</v>
+      </c>
+      <c r="AH9">
+        <v>1.94</v>
+      </c>
+      <c r="AI9">
+        <v>1.75</v>
+      </c>
+      <c r="AJ9">
+        <v>2</v>
+      </c>
+      <c r="AK9">
+        <v>1.25</v>
+      </c>
+      <c r="AL9">
+        <v>1.27</v>
+      </c>
+      <c r="AM9">
+        <v>1.78</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>3</v>
+      </c>
+      <c r="AV9">
+        <v>3</v>
+      </c>
+      <c r="AW9">
+        <v>5</v>
+      </c>
+      <c r="AX9">
+        <v>8</v>
+      </c>
+      <c r="AY9">
+        <v>8</v>
+      </c>
+      <c r="AZ9">
+        <v>11</v>
+      </c>
+      <c r="BA9">
+        <v>4</v>
+      </c>
+      <c r="BB9">
+        <v>3</v>
+      </c>
+      <c r="BC9">
+        <v>7</v>
+      </c>
+      <c r="BD9">
+        <v>1.45</v>
+      </c>
+      <c r="BE9">
+        <v>6.95</v>
+      </c>
+      <c r="BF9">
+        <v>3.84</v>
+      </c>
+      <c r="BG9">
+        <v>1.46</v>
+      </c>
+      <c r="BH9">
+        <v>2.52</v>
+      </c>
+      <c r="BI9">
+        <v>1.88</v>
+      </c>
+      <c r="BJ9">
+        <v>1.92</v>
+      </c>
+      <c r="BK9">
+        <v>2.39</v>
+      </c>
+      <c r="BL9">
+        <v>1.51</v>
+      </c>
+      <c r="BM9">
+        <v>3.28</v>
+      </c>
+      <c r="BN9">
+        <v>1.27</v>
+      </c>
+      <c r="BO9">
+        <v>4</v>
+      </c>
+      <c r="BP9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7537297</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45528.58333333334</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10">
+        <v>3.4</v>
+      </c>
+      <c r="R10">
+        <v>2.05</v>
+      </c>
+      <c r="S10">
+        <v>3.05</v>
+      </c>
+      <c r="T10">
+        <v>1.45</v>
+      </c>
+      <c r="U10">
+        <v>2.6</v>
+      </c>
+      <c r="V10">
+        <v>2.95</v>
+      </c>
+      <c r="W10">
+        <v>1.35</v>
+      </c>
+      <c r="X10">
+        <v>8.5</v>
+      </c>
+      <c r="Y10">
+        <v>1.07</v>
+      </c>
+      <c r="Z10">
+        <v>2.68</v>
+      </c>
+      <c r="AA10">
+        <v>3.15</v>
+      </c>
+      <c r="AB10">
+        <v>2.57</v>
+      </c>
+      <c r="AC10">
+        <v>1.06</v>
+      </c>
+      <c r="AD10">
+        <v>9.75</v>
+      </c>
+      <c r="AE10">
+        <v>1.32</v>
+      </c>
+      <c r="AF10">
+        <v>3.05</v>
+      </c>
+      <c r="AG10">
+        <v>1.8</v>
+      </c>
+      <c r="AH10">
+        <v>1.9</v>
+      </c>
+      <c r="AI10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ10">
+        <v>1.9</v>
+      </c>
+      <c r="AK10">
+        <v>1.5</v>
+      </c>
+      <c r="AL10">
+        <v>1.3</v>
+      </c>
+      <c r="AM10">
+        <v>1.38</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>2</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>1.01</v>
+      </c>
+      <c r="AT10">
+        <v>1.01</v>
+      </c>
+      <c r="AU10">
+        <v>4</v>
+      </c>
+      <c r="AV10">
+        <v>9</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>3</v>
+      </c>
+      <c r="AY10">
+        <v>7</v>
+      </c>
+      <c r="AZ10">
+        <v>12</v>
+      </c>
+      <c r="BA10">
+        <v>4</v>
+      </c>
+      <c r="BB10">
+        <v>2</v>
+      </c>
+      <c r="BC10">
+        <v>6</v>
+      </c>
+      <c r="BD10">
+        <v>2.05</v>
+      </c>
+      <c r="BE10">
+        <v>7.5</v>
+      </c>
+      <c r="BF10">
+        <v>2</v>
+      </c>
+      <c r="BG10">
+        <v>1.61</v>
+      </c>
+      <c r="BH10">
+        <v>2.28</v>
+      </c>
+      <c r="BI10">
+        <v>1.95</v>
+      </c>
+      <c r="BJ10">
+        <v>1.77</v>
+      </c>
+      <c r="BK10">
+        <v>2.62</v>
+      </c>
+      <c r="BL10">
+        <v>1.47</v>
+      </c>
+      <c r="BM10">
+        <v>3.7</v>
+      </c>
+      <c r="BN10">
+        <v>1.25</v>
+      </c>
+      <c r="BO10">
+        <v>5.1</v>
+      </c>
+      <c r="BP10">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7537292</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45528.64583333334</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q11">
+        <v>1.45</v>
+      </c>
+      <c r="R11">
+        <v>3.1</v>
+      </c>
+      <c r="S11">
+        <v>12</v>
+      </c>
+      <c r="T11">
+        <v>1.19</v>
+      </c>
+      <c r="U11">
+        <v>4.3</v>
+      </c>
+      <c r="V11">
+        <v>1.95</v>
+      </c>
+      <c r="W11">
+        <v>1.78</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+      <c r="Y11">
+        <v>1.22</v>
+      </c>
+      <c r="Z11">
+        <v>1.1</v>
+      </c>
+      <c r="AA11">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>17.5</v>
+      </c>
+      <c r="AC11">
+        <v>1.01</v>
+      </c>
+      <c r="AD11">
+        <v>35</v>
+      </c>
+      <c r="AE11">
+        <v>1.09</v>
+      </c>
+      <c r="AF11">
+        <v>6</v>
+      </c>
+      <c r="AG11">
+        <v>1.34</v>
+      </c>
+      <c r="AH11">
+        <v>2.99</v>
+      </c>
+      <c r="AI11">
+        <v>2.2</v>
+      </c>
+      <c r="AJ11">
+        <v>1.6</v>
+      </c>
+      <c r="AK11">
+        <v>1.02</v>
+      </c>
+      <c r="AL11">
+        <v>1.04</v>
+      </c>
+      <c r="AM11">
+        <v>6</v>
+      </c>
+      <c r="AN11">
+        <v>3</v>
+      </c>
+      <c r="AO11">
+        <v>3</v>
+      </c>
+      <c r="AP11">
+        <v>2</v>
+      </c>
+      <c r="AQ11">
+        <v>2</v>
+      </c>
+      <c r="AR11">
+        <v>2.01</v>
+      </c>
+      <c r="AS11">
+        <v>1.35</v>
+      </c>
+      <c r="AT11">
+        <v>3.36</v>
+      </c>
+      <c r="AU11">
+        <v>6</v>
+      </c>
+      <c r="AV11">
+        <v>2</v>
+      </c>
+      <c r="AW11">
+        <v>17</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>23</v>
+      </c>
+      <c r="AZ11">
+        <v>3</v>
+      </c>
+      <c r="BA11">
+        <v>13</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>14</v>
+      </c>
+      <c r="BD11">
+        <v>1.06</v>
+      </c>
+      <c r="BE11">
+        <v>15</v>
+      </c>
+      <c r="BF11">
+        <v>11.1</v>
+      </c>
+      <c r="BG11">
+        <v>1.24</v>
+      </c>
+      <c r="BH11">
+        <v>3.48</v>
+      </c>
+      <c r="BI11">
+        <v>1.46</v>
+      </c>
+      <c r="BJ11">
+        <v>2.64</v>
+      </c>
+      <c r="BK11">
+        <v>1.82</v>
+      </c>
+      <c r="BL11">
+        <v>1.98</v>
+      </c>
+      <c r="BM11">
+        <v>2.31</v>
+      </c>
+      <c r="BN11">
+        <v>1.59</v>
+      </c>
+      <c r="BO11">
+        <v>2.91</v>
+      </c>
+      <c r="BP11">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -253,15 +253,15 @@
     <t>Panserraikos</t>
   </si>
   <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
     <t>Olympiakos Piraeus</t>
   </si>
   <si>
     <t>Kallithea</t>
   </si>
   <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
     <t>Aris</t>
   </si>
   <si>
@@ -286,6 +286,12 @@
     <t>['87']</t>
   </si>
   <si>
+    <t>['51', '79']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -308,6 +314,9 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['12']</t>
   </si>
 </sst>
 </file>
@@ -669,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BP14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +913,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -928,7 +937,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1134,7 +1143,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1316,7 +1325,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1522,7 +1531,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1546,7 +1555,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1624,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>3</v>
@@ -1752,7 +1761,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2164,7 +2173,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2370,7 +2379,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2576,7 +2585,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2782,7 +2791,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -2939,6 +2948,624 @@
       </c>
       <c r="BP11">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7537293</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45529.54166666666</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12">
+        <v>2.88</v>
+      </c>
+      <c r="R12">
+        <v>2.1</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>1.44</v>
+      </c>
+      <c r="U12">
+        <v>2.63</v>
+      </c>
+      <c r="V12">
+        <v>3.25</v>
+      </c>
+      <c r="W12">
+        <v>1.33</v>
+      </c>
+      <c r="X12">
+        <v>9</v>
+      </c>
+      <c r="Y12">
+        <v>1.07</v>
+      </c>
+      <c r="Z12">
+        <v>2.15</v>
+      </c>
+      <c r="AA12">
+        <v>3.1</v>
+      </c>
+      <c r="AB12">
+        <v>3.4</v>
+      </c>
+      <c r="AC12">
+        <v>1.03</v>
+      </c>
+      <c r="AD12">
+        <v>8</v>
+      </c>
+      <c r="AE12">
+        <v>1.33</v>
+      </c>
+      <c r="AF12">
+        <v>2.93</v>
+      </c>
+      <c r="AG12">
+        <v>2</v>
+      </c>
+      <c r="AH12">
+        <v>1.7</v>
+      </c>
+      <c r="AI12">
+        <v>1.8</v>
+      </c>
+      <c r="AJ12">
+        <v>1.95</v>
+      </c>
+      <c r="AK12">
+        <v>1.32</v>
+      </c>
+      <c r="AL12">
+        <v>1.32</v>
+      </c>
+      <c r="AM12">
+        <v>1.7</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>6</v>
+      </c>
+      <c r="AV12">
+        <v>3</v>
+      </c>
+      <c r="AW12">
+        <v>10</v>
+      </c>
+      <c r="AX12">
+        <v>2</v>
+      </c>
+      <c r="AY12">
+        <v>16</v>
+      </c>
+      <c r="AZ12">
+        <v>5</v>
+      </c>
+      <c r="BA12">
+        <v>13</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>13</v>
+      </c>
+      <c r="BD12">
+        <v>1.48</v>
+      </c>
+      <c r="BE12">
+        <v>6.85</v>
+      </c>
+      <c r="BF12">
+        <v>3.78</v>
+      </c>
+      <c r="BG12">
+        <v>1.49</v>
+      </c>
+      <c r="BH12">
+        <v>2.44</v>
+      </c>
+      <c r="BI12">
+        <v>1.88</v>
+      </c>
+      <c r="BJ12">
+        <v>1.86</v>
+      </c>
+      <c r="BK12">
+        <v>2.46</v>
+      </c>
+      <c r="BL12">
+        <v>1.48</v>
+      </c>
+      <c r="BM12">
+        <v>3.42</v>
+      </c>
+      <c r="BN12">
+        <v>1.25</v>
+      </c>
+      <c r="BO12">
+        <v>4.33</v>
+      </c>
+      <c r="BP12">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7537298</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45529.60416666666</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13">
+        <v>1.62</v>
+      </c>
+      <c r="R13">
+        <v>2.75</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>1.25</v>
+      </c>
+      <c r="U13">
+        <v>3.75</v>
+      </c>
+      <c r="V13">
+        <v>2.25</v>
+      </c>
+      <c r="W13">
+        <v>1.57</v>
+      </c>
+      <c r="X13">
+        <v>5.5</v>
+      </c>
+      <c r="Y13">
+        <v>1.14</v>
+      </c>
+      <c r="Z13">
+        <v>1.17</v>
+      </c>
+      <c r="AA13">
+        <v>6.5</v>
+      </c>
+      <c r="AB13">
+        <v>18.5</v>
+      </c>
+      <c r="AC13">
+        <v>1.02</v>
+      </c>
+      <c r="AD13">
+        <v>21</v>
+      </c>
+      <c r="AE13">
+        <v>1.15</v>
+      </c>
+      <c r="AF13">
+        <v>4.75</v>
+      </c>
+      <c r="AG13">
+        <v>1.5</v>
+      </c>
+      <c r="AH13">
+        <v>2.4</v>
+      </c>
+      <c r="AI13">
+        <v>2.1</v>
+      </c>
+      <c r="AJ13">
+        <v>1.67</v>
+      </c>
+      <c r="AK13">
+        <v>1.02</v>
+      </c>
+      <c r="AL13">
+        <v>1.11</v>
+      </c>
+      <c r="AM13">
+        <v>4.4</v>
+      </c>
+      <c r="AN13">
+        <v>3</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>1.83</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>1.83</v>
+      </c>
+      <c r="AU13">
+        <v>10</v>
+      </c>
+      <c r="AV13">
+        <v>3</v>
+      </c>
+      <c r="AW13">
+        <v>4</v>
+      </c>
+      <c r="AX13">
+        <v>2</v>
+      </c>
+      <c r="AY13">
+        <v>14</v>
+      </c>
+      <c r="AZ13">
+        <v>5</v>
+      </c>
+      <c r="BA13">
+        <v>4</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <v>5</v>
+      </c>
+      <c r="BD13">
+        <v>1.1</v>
+      </c>
+      <c r="BE13">
+        <v>12.7</v>
+      </c>
+      <c r="BF13">
+        <v>9.9</v>
+      </c>
+      <c r="BG13">
+        <v>1.47</v>
+      </c>
+      <c r="BH13">
+        <v>2.49</v>
+      </c>
+      <c r="BI13">
+        <v>1.86</v>
+      </c>
+      <c r="BJ13">
+        <v>1.88</v>
+      </c>
+      <c r="BK13">
+        <v>2.39</v>
+      </c>
+      <c r="BL13">
+        <v>1.51</v>
+      </c>
+      <c r="BM13">
+        <v>3.28</v>
+      </c>
+      <c r="BN13">
+        <v>1.27</v>
+      </c>
+      <c r="BO13">
+        <v>4</v>
+      </c>
+      <c r="BP13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7537296</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45529.625</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14">
+        <v>1.62</v>
+      </c>
+      <c r="R14">
+        <v>2.63</v>
+      </c>
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>1.33</v>
+      </c>
+      <c r="U14">
+        <v>3.25</v>
+      </c>
+      <c r="V14">
+        <v>2.5</v>
+      </c>
+      <c r="W14">
+        <v>1.5</v>
+      </c>
+      <c r="X14">
+        <v>6</v>
+      </c>
+      <c r="Y14">
+        <v>1.13</v>
+      </c>
+      <c r="Z14">
+        <v>1.16</v>
+      </c>
+      <c r="AA14">
+        <v>7.25</v>
+      </c>
+      <c r="AB14">
+        <v>18</v>
+      </c>
+      <c r="AC14">
+        <v>1.03</v>
+      </c>
+      <c r="AD14">
+        <v>16</v>
+      </c>
+      <c r="AE14">
+        <v>1.2</v>
+      </c>
+      <c r="AF14">
+        <v>4</v>
+      </c>
+      <c r="AG14">
+        <v>1.65</v>
+      </c>
+      <c r="AH14">
+        <v>2.1</v>
+      </c>
+      <c r="AI14">
+        <v>2.63</v>
+      </c>
+      <c r="AJ14">
+        <v>1.44</v>
+      </c>
+      <c r="AK14">
+        <v>1.02</v>
+      </c>
+      <c r="AL14">
+        <v>1.12</v>
+      </c>
+      <c r="AM14">
+        <v>4.4</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>1.5</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>1.21</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>1.21</v>
+      </c>
+      <c r="AU14">
+        <v>6</v>
+      </c>
+      <c r="AV14">
+        <v>4</v>
+      </c>
+      <c r="AW14">
+        <v>6</v>
+      </c>
+      <c r="AX14">
+        <v>3</v>
+      </c>
+      <c r="AY14">
+        <v>12</v>
+      </c>
+      <c r="AZ14">
+        <v>7</v>
+      </c>
+      <c r="BA14">
+        <v>7</v>
+      </c>
+      <c r="BB14">
+        <v>3</v>
+      </c>
+      <c r="BC14">
+        <v>10</v>
+      </c>
+      <c r="BD14">
+        <v>1.14</v>
+      </c>
+      <c r="BE14">
+        <v>12</v>
+      </c>
+      <c r="BF14">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="BG14">
+        <v>1.43</v>
+      </c>
+      <c r="BH14">
+        <v>2.62</v>
+      </c>
+      <c r="BI14">
+        <v>1.78</v>
+      </c>
+      <c r="BJ14">
+        <v>1.97</v>
+      </c>
+      <c r="BK14">
+        <v>2.27</v>
+      </c>
+      <c r="BL14">
+        <v>1.56</v>
+      </c>
+      <c r="BM14">
+        <v>3.04</v>
+      </c>
+      <c r="BN14">
+        <v>1.31</v>
+      </c>
+      <c r="BO14">
+        <v>3.8</v>
+      </c>
+      <c r="BP14">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -292,6 +292,9 @@
     <t>['90+6']</t>
   </si>
   <si>
+    <t>['14', '77']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -317,6 +320,9 @@
   </si>
   <si>
     <t>['12']</t>
+  </si>
+  <si>
+    <t>['60']</t>
   </si>
 </sst>
 </file>
@@ -678,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP14"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -937,7 +943,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1143,7 +1149,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1430,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1555,7 +1561,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1761,7 +1767,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2173,7 +2179,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2379,7 +2385,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2585,7 +2591,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2791,7 +2797,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -2997,7 +3003,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3566,6 +3572,212 @@
       </c>
       <c r="BP14">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7537294</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45530.60416666666</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15">
+        <v>1.44</v>
+      </c>
+      <c r="R15">
+        <v>3.08</v>
+      </c>
+      <c r="S15">
+        <v>13.5</v>
+      </c>
+      <c r="T15">
+        <v>1.25</v>
+      </c>
+      <c r="U15">
+        <v>3.72</v>
+      </c>
+      <c r="V15">
+        <v>2.2</v>
+      </c>
+      <c r="W15">
+        <v>1.63</v>
+      </c>
+      <c r="X15">
+        <v>4.85</v>
+      </c>
+      <c r="Y15">
+        <v>1.16</v>
+      </c>
+      <c r="Z15">
+        <v>1.1</v>
+      </c>
+      <c r="AA15">
+        <v>7.5</v>
+      </c>
+      <c r="AB15">
+        <v>19</v>
+      </c>
+      <c r="AC15">
+        <v>1.02</v>
+      </c>
+      <c r="AD15">
+        <v>20</v>
+      </c>
+      <c r="AE15">
+        <v>1.12</v>
+      </c>
+      <c r="AF15">
+        <v>4.9</v>
+      </c>
+      <c r="AG15">
+        <v>1.48</v>
+      </c>
+      <c r="AH15">
+        <v>2.47</v>
+      </c>
+      <c r="AI15">
+        <v>2.77</v>
+      </c>
+      <c r="AJ15">
+        <v>1.41</v>
+      </c>
+      <c r="AK15">
+        <v>1.01</v>
+      </c>
+      <c r="AL15">
+        <v>1.06</v>
+      </c>
+      <c r="AM15">
+        <v>6.5</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15">
+        <v>0.5</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0.36</v>
+      </c>
+      <c r="AT15">
+        <v>0.36</v>
+      </c>
+      <c r="AU15">
+        <v>6</v>
+      </c>
+      <c r="AV15">
+        <v>4</v>
+      </c>
+      <c r="AW15">
+        <v>5</v>
+      </c>
+      <c r="AX15">
+        <v>2</v>
+      </c>
+      <c r="AY15">
+        <v>11</v>
+      </c>
+      <c r="AZ15">
+        <v>6</v>
+      </c>
+      <c r="BA15">
+        <v>7</v>
+      </c>
+      <c r="BB15">
+        <v>3</v>
+      </c>
+      <c r="BC15">
+        <v>10</v>
+      </c>
+      <c r="BD15">
+        <v>1.16</v>
+      </c>
+      <c r="BE15">
+        <v>11.5</v>
+      </c>
+      <c r="BF15">
+        <v>7.21</v>
+      </c>
+      <c r="BG15">
+        <v>1.42</v>
+      </c>
+      <c r="BH15">
+        <v>2.65</v>
+      </c>
+      <c r="BI15">
+        <v>1.76</v>
+      </c>
+      <c r="BJ15">
+        <v>2</v>
+      </c>
+      <c r="BK15">
+        <v>2.25</v>
+      </c>
+      <c r="BL15">
+        <v>1.57</v>
+      </c>
+      <c r="BM15">
+        <v>2.98</v>
+      </c>
+      <c r="BN15">
+        <v>1.32</v>
+      </c>
+      <c r="BO15">
+        <v>3.6</v>
+      </c>
+      <c r="BP15">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -259,15 +259,15 @@
     <t>Olympiakos Piraeus</t>
   </si>
   <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
     <t>Kallithea</t>
   </si>
   <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -295,6 +295,12 @@
     <t>['14', '77']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['27', '50', '75']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -323,6 +329,12 @@
   </si>
   <si>
     <t>['60']</t>
+  </si>
+  <si>
+    <t>['41', '79', '81']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -684,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP15"/>
+  <dimension ref="A1:BP18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -943,7 +955,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1149,7 +1161,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1331,7 +1343,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1561,7 +1573,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1642,7 +1654,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1767,7 +1779,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2155,7 +2167,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2179,7 +2191,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2257,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2385,7 +2397,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2591,7 +2603,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2773,7 +2785,7 @@
         <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2797,7 +2809,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3003,7 +3015,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3597,7 +3609,7 @@
         <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3621,7 +3633,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3778,6 +3790,624 @@
       </c>
       <c r="BP15">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7537306</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45535.5625</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16">
+        <v>8.5</v>
+      </c>
+      <c r="R16">
+        <v>2.88</v>
+      </c>
+      <c r="S16">
+        <v>1.67</v>
+      </c>
+      <c r="T16">
+        <v>1.22</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+      <c r="V16">
+        <v>2.1</v>
+      </c>
+      <c r="W16">
+        <v>1.67</v>
+      </c>
+      <c r="X16">
+        <v>4.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.18</v>
+      </c>
+      <c r="Z16">
+        <v>12</v>
+      </c>
+      <c r="AA16">
+        <v>6</v>
+      </c>
+      <c r="AB16">
+        <v>1.25</v>
+      </c>
+      <c r="AC16">
+        <v>1.02</v>
+      </c>
+      <c r="AD16">
+        <v>23</v>
+      </c>
+      <c r="AE16">
+        <v>1.13</v>
+      </c>
+      <c r="AF16">
+        <v>6</v>
+      </c>
+      <c r="AG16">
+        <v>1.42</v>
+      </c>
+      <c r="AH16">
+        <v>2.65</v>
+      </c>
+      <c r="AI16">
+        <v>1.91</v>
+      </c>
+      <c r="AJ16">
+        <v>1.91</v>
+      </c>
+      <c r="AK16">
+        <v>3.8</v>
+      </c>
+      <c r="AL16">
+        <v>1.1</v>
+      </c>
+      <c r="AM16">
+        <v>1.05</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>3</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>3</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>1.71</v>
+      </c>
+      <c r="AT16">
+        <v>1.71</v>
+      </c>
+      <c r="AU16">
+        <v>4</v>
+      </c>
+      <c r="AV16">
+        <v>8</v>
+      </c>
+      <c r="AW16">
+        <v>3</v>
+      </c>
+      <c r="AX16">
+        <v>5</v>
+      </c>
+      <c r="AY16">
+        <v>7</v>
+      </c>
+      <c r="AZ16">
+        <v>13</v>
+      </c>
+      <c r="BA16">
+        <v>4</v>
+      </c>
+      <c r="BB16">
+        <v>6</v>
+      </c>
+      <c r="BC16">
+        <v>10</v>
+      </c>
+      <c r="BD16">
+        <v>8.1</v>
+      </c>
+      <c r="BE16">
+        <v>11.75</v>
+      </c>
+      <c r="BF16">
+        <v>1.13</v>
+      </c>
+      <c r="BG16">
+        <v>1.51</v>
+      </c>
+      <c r="BH16">
+        <v>2.39</v>
+      </c>
+      <c r="BI16">
+        <v>1.95</v>
+      </c>
+      <c r="BJ16">
+        <v>1.85</v>
+      </c>
+      <c r="BK16">
+        <v>2.52</v>
+      </c>
+      <c r="BL16">
+        <v>1.46</v>
+      </c>
+      <c r="BM16">
+        <v>3.42</v>
+      </c>
+      <c r="BN16">
+        <v>1.25</v>
+      </c>
+      <c r="BO16">
+        <v>4.33</v>
+      </c>
+      <c r="BP16">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7537301</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17">
+        <v>2.5</v>
+      </c>
+      <c r="R17">
+        <v>2.1</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>1.44</v>
+      </c>
+      <c r="U17">
+        <v>2.63</v>
+      </c>
+      <c r="V17">
+        <v>3.25</v>
+      </c>
+      <c r="W17">
+        <v>1.33</v>
+      </c>
+      <c r="X17">
+        <v>9</v>
+      </c>
+      <c r="Y17">
+        <v>1.07</v>
+      </c>
+      <c r="Z17">
+        <v>1.67</v>
+      </c>
+      <c r="AA17">
+        <v>3.7</v>
+      </c>
+      <c r="AB17">
+        <v>5.25</v>
+      </c>
+      <c r="AC17">
+        <v>1.05</v>
+      </c>
+      <c r="AD17">
+        <v>11</v>
+      </c>
+      <c r="AE17">
+        <v>1.33</v>
+      </c>
+      <c r="AF17">
+        <v>3.4</v>
+      </c>
+      <c r="AG17">
+        <v>2</v>
+      </c>
+      <c r="AH17">
+        <v>1.78</v>
+      </c>
+      <c r="AI17">
+        <v>1.95</v>
+      </c>
+      <c r="AJ17">
+        <v>1.8</v>
+      </c>
+      <c r="AK17">
+        <v>1.17</v>
+      </c>
+      <c r="AL17">
+        <v>1.22</v>
+      </c>
+      <c r="AM17">
+        <v>2.2</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>3</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>2</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>1.15</v>
+      </c>
+      <c r="AT17">
+        <v>1.15</v>
+      </c>
+      <c r="AU17">
+        <v>7</v>
+      </c>
+      <c r="AV17">
+        <v>6</v>
+      </c>
+      <c r="AW17">
+        <v>5</v>
+      </c>
+      <c r="AX17">
+        <v>3</v>
+      </c>
+      <c r="AY17">
+        <v>12</v>
+      </c>
+      <c r="AZ17">
+        <v>9</v>
+      </c>
+      <c r="BA17">
+        <v>4</v>
+      </c>
+      <c r="BB17">
+        <v>3</v>
+      </c>
+      <c r="BC17">
+        <v>7</v>
+      </c>
+      <c r="BD17">
+        <v>1.39</v>
+      </c>
+      <c r="BE17">
+        <v>7.2</v>
+      </c>
+      <c r="BF17">
+        <v>4.25</v>
+      </c>
+      <c r="BG17">
+        <v>1.42</v>
+      </c>
+      <c r="BH17">
+        <v>2.65</v>
+      </c>
+      <c r="BI17">
+        <v>1.8</v>
+      </c>
+      <c r="BJ17">
+        <v>2</v>
+      </c>
+      <c r="BK17">
+        <v>2.27</v>
+      </c>
+      <c r="BL17">
+        <v>1.56</v>
+      </c>
+      <c r="BM17">
+        <v>3.04</v>
+      </c>
+      <c r="BN17">
+        <v>1.31</v>
+      </c>
+      <c r="BO17">
+        <v>4.1</v>
+      </c>
+      <c r="BP17">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7537305</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18">
+        <v>2.88</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>4.33</v>
+      </c>
+      <c r="T18">
+        <v>1.5</v>
+      </c>
+      <c r="U18">
+        <v>2.5</v>
+      </c>
+      <c r="V18">
+        <v>3.4</v>
+      </c>
+      <c r="W18">
+        <v>1.3</v>
+      </c>
+      <c r="X18">
+        <v>10</v>
+      </c>
+      <c r="Y18">
+        <v>1.06</v>
+      </c>
+      <c r="Z18">
+        <v>1.95</v>
+      </c>
+      <c r="AA18">
+        <v>3.3</v>
+      </c>
+      <c r="AB18">
+        <v>4.3</v>
+      </c>
+      <c r="AC18">
+        <v>1.04</v>
+      </c>
+      <c r="AD18">
+        <v>7.4</v>
+      </c>
+      <c r="AE18">
+        <v>1.38</v>
+      </c>
+      <c r="AF18">
+        <v>2.72</v>
+      </c>
+      <c r="AG18">
+        <v>2.2</v>
+      </c>
+      <c r="AH18">
+        <v>1.6</v>
+      </c>
+      <c r="AI18">
+        <v>2</v>
+      </c>
+      <c r="AJ18">
+        <v>1.75</v>
+      </c>
+      <c r="AK18">
+        <v>1.28</v>
+      </c>
+      <c r="AL18">
+        <v>1.33</v>
+      </c>
+      <c r="AM18">
+        <v>1.76</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>1.5</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>1.26</v>
+      </c>
+      <c r="AS18">
+        <v>1.24</v>
+      </c>
+      <c r="AT18">
+        <v>2.5</v>
+      </c>
+      <c r="AU18">
+        <v>8</v>
+      </c>
+      <c r="AV18">
+        <v>6</v>
+      </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
+        <v>6</v>
+      </c>
+      <c r="AY18">
+        <v>11</v>
+      </c>
+      <c r="AZ18">
+        <v>12</v>
+      </c>
+      <c r="BA18">
+        <v>3</v>
+      </c>
+      <c r="BB18">
+        <v>4</v>
+      </c>
+      <c r="BC18">
+        <v>7</v>
+      </c>
+      <c r="BD18">
+        <v>1.74</v>
+      </c>
+      <c r="BE18">
+        <v>6.35</v>
+      </c>
+      <c r="BF18">
+        <v>2.77</v>
+      </c>
+      <c r="BG18">
+        <v>1.46</v>
+      </c>
+      <c r="BH18">
+        <v>2.52</v>
+      </c>
+      <c r="BI18">
+        <v>1.88</v>
+      </c>
+      <c r="BJ18">
+        <v>1.92</v>
+      </c>
+      <c r="BK18">
+        <v>2.39</v>
+      </c>
+      <c r="BL18">
+        <v>1.51</v>
+      </c>
+      <c r="BM18">
+        <v>3.28</v>
+      </c>
+      <c r="BN18">
+        <v>1.27</v>
+      </c>
+      <c r="BO18">
+        <v>4.5</v>
+      </c>
+      <c r="BP18">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="114">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -301,6 +301,15 @@
     <t>['27', '50', '75']</t>
   </si>
   <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['28', '80']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -335,6 +344,18 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['45', '53', '82']</t>
+  </si>
+  <si>
+    <t>['11', '50', '60']</t>
+  </si>
+  <si>
+    <t>['45', '90']</t>
+  </si>
+  <si>
+    <t>['32', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -696,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP18"/>
+  <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -955,7 +976,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1161,7 +1182,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1445,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -1573,7 +1594,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1779,7 +1800,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -1857,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2066,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2191,7 +2212,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2397,7 +2418,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2603,7 +2624,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2809,7 +2830,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3015,7 +3036,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3633,7 +3654,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3839,7 +3860,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4045,7 +4066,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4408,6 +4429,830 @@
       </c>
       <c r="BP18">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7537304</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45536.54166666666</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>2.75</v>
+      </c>
+      <c r="S19">
+        <v>1.62</v>
+      </c>
+      <c r="T19">
+        <v>1.25</v>
+      </c>
+      <c r="U19">
+        <v>3.75</v>
+      </c>
+      <c r="V19">
+        <v>2.2</v>
+      </c>
+      <c r="W19">
+        <v>1.62</v>
+      </c>
+      <c r="X19">
+        <v>5</v>
+      </c>
+      <c r="Y19">
+        <v>1.17</v>
+      </c>
+      <c r="Z19">
+        <v>11</v>
+      </c>
+      <c r="AA19">
+        <v>5.8</v>
+      </c>
+      <c r="AB19">
+        <v>1.2</v>
+      </c>
+      <c r="AC19">
+        <v>1.01</v>
+      </c>
+      <c r="AD19">
+        <v>17</v>
+      </c>
+      <c r="AE19">
+        <v>1.11</v>
+      </c>
+      <c r="AF19">
+        <v>5.5</v>
+      </c>
+      <c r="AG19">
+        <v>1.5</v>
+      </c>
+      <c r="AH19">
+        <v>2.4</v>
+      </c>
+      <c r="AI19">
+        <v>2.05</v>
+      </c>
+      <c r="AJ19">
+        <v>1.7</v>
+      </c>
+      <c r="AK19">
+        <v>3.94</v>
+      </c>
+      <c r="AL19">
+        <v>1.13</v>
+      </c>
+      <c r="AM19">
+        <v>1.03</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0.5</v>
+      </c>
+      <c r="AQ19">
+        <v>3</v>
+      </c>
+      <c r="AR19">
+        <v>1.38</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>1.38</v>
+      </c>
+      <c r="AU19">
+        <v>2</v>
+      </c>
+      <c r="AV19">
+        <v>5</v>
+      </c>
+      <c r="AW19">
+        <v>2</v>
+      </c>
+      <c r="AX19">
+        <v>6</v>
+      </c>
+      <c r="AY19">
+        <v>4</v>
+      </c>
+      <c r="AZ19">
+        <v>11</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>6</v>
+      </c>
+      <c r="BC19">
+        <v>6</v>
+      </c>
+      <c r="BD19">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BE19">
+        <v>12.5</v>
+      </c>
+      <c r="BF19">
+        <v>1.12</v>
+      </c>
+      <c r="BG19">
+        <v>1.39</v>
+      </c>
+      <c r="BH19">
+        <v>2.76</v>
+      </c>
+      <c r="BI19">
+        <v>1.71</v>
+      </c>
+      <c r="BJ19">
+        <v>2.06</v>
+      </c>
+      <c r="BK19">
+        <v>2.16</v>
+      </c>
+      <c r="BL19">
+        <v>1.62</v>
+      </c>
+      <c r="BM19">
+        <v>2.84</v>
+      </c>
+      <c r="BN19">
+        <v>1.35</v>
+      </c>
+      <c r="BO19">
+        <v>3.3</v>
+      </c>
+      <c r="BP19">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7537303</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45536.5625</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20">
+        <v>3.1</v>
+      </c>
+      <c r="R20">
+        <v>2.05</v>
+      </c>
+      <c r="S20">
+        <v>3.75</v>
+      </c>
+      <c r="T20">
+        <v>1.44</v>
+      </c>
+      <c r="U20">
+        <v>2.63</v>
+      </c>
+      <c r="V20">
+        <v>3.25</v>
+      </c>
+      <c r="W20">
+        <v>1.33</v>
+      </c>
+      <c r="X20">
+        <v>9</v>
+      </c>
+      <c r="Y20">
+        <v>1.07</v>
+      </c>
+      <c r="Z20">
+        <v>2.25</v>
+      </c>
+      <c r="AA20">
+        <v>3.2</v>
+      </c>
+      <c r="AB20">
+        <v>2.9</v>
+      </c>
+      <c r="AC20">
+        <v>1.03</v>
+      </c>
+      <c r="AD20">
+        <v>8</v>
+      </c>
+      <c r="AE20">
+        <v>1.33</v>
+      </c>
+      <c r="AF20">
+        <v>2.93</v>
+      </c>
+      <c r="AG20">
+        <v>2</v>
+      </c>
+      <c r="AH20">
+        <v>1.7</v>
+      </c>
+      <c r="AI20">
+        <v>1.91</v>
+      </c>
+      <c r="AJ20">
+        <v>1.91</v>
+      </c>
+      <c r="AK20">
+        <v>1.38</v>
+      </c>
+      <c r="AL20">
+        <v>1.33</v>
+      </c>
+      <c r="AM20">
+        <v>1.61</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>1.5</v>
+      </c>
+      <c r="AR20">
+        <v>0.67</v>
+      </c>
+      <c r="AS20">
+        <v>0.53</v>
+      </c>
+      <c r="AT20">
+        <v>1.2</v>
+      </c>
+      <c r="AU20">
+        <v>4</v>
+      </c>
+      <c r="AV20">
+        <v>4</v>
+      </c>
+      <c r="AW20">
+        <v>6</v>
+      </c>
+      <c r="AX20">
+        <v>2</v>
+      </c>
+      <c r="AY20">
+        <v>10</v>
+      </c>
+      <c r="AZ20">
+        <v>6</v>
+      </c>
+      <c r="BA20">
+        <v>7</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>7</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>1.85</v>
+      </c>
+      <c r="BJ20">
+        <v>1.95</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7537302</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45536.60416666666</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>96</v>
+      </c>
+      <c r="P21" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>2.5</v>
+      </c>
+      <c r="S21">
+        <v>1.95</v>
+      </c>
+      <c r="T21">
+        <v>1.3</v>
+      </c>
+      <c r="U21">
+        <v>3.4</v>
+      </c>
+      <c r="V21">
+        <v>2.38</v>
+      </c>
+      <c r="W21">
+        <v>1.53</v>
+      </c>
+      <c r="X21">
+        <v>6</v>
+      </c>
+      <c r="Y21">
+        <v>1.13</v>
+      </c>
+      <c r="Z21">
+        <v>6.5</v>
+      </c>
+      <c r="AA21">
+        <v>4.6</v>
+      </c>
+      <c r="AB21">
+        <v>1.36</v>
+      </c>
+      <c r="AC21">
+        <v>1.01</v>
+      </c>
+      <c r="AD21">
+        <v>13</v>
+      </c>
+      <c r="AE21">
+        <v>1.16</v>
+      </c>
+      <c r="AF21">
+        <v>4.4</v>
+      </c>
+      <c r="AG21">
+        <v>1.6</v>
+      </c>
+      <c r="AH21">
+        <v>2.2</v>
+      </c>
+      <c r="AI21">
+        <v>1.8</v>
+      </c>
+      <c r="AJ21">
+        <v>1.95</v>
+      </c>
+      <c r="AK21">
+        <v>2.75</v>
+      </c>
+      <c r="AL21">
+        <v>1.15</v>
+      </c>
+      <c r="AM21">
+        <v>1.1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0.5</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>1.23</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>1.23</v>
+      </c>
+      <c r="AU21">
+        <v>4</v>
+      </c>
+      <c r="AV21">
+        <v>6</v>
+      </c>
+      <c r="AW21">
+        <v>2</v>
+      </c>
+      <c r="AX21">
+        <v>2</v>
+      </c>
+      <c r="AY21">
+        <v>6</v>
+      </c>
+      <c r="AZ21">
+        <v>8</v>
+      </c>
+      <c r="BA21">
+        <v>4</v>
+      </c>
+      <c r="BB21">
+        <v>2</v>
+      </c>
+      <c r="BC21">
+        <v>6</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>1.92</v>
+      </c>
+      <c r="BJ21">
+        <v>1.88</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7537299</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22">
+        <v>9</v>
+      </c>
+      <c r="R22">
+        <v>2.75</v>
+      </c>
+      <c r="S22">
+        <v>1.62</v>
+      </c>
+      <c r="T22">
+        <v>1.25</v>
+      </c>
+      <c r="U22">
+        <v>3.75</v>
+      </c>
+      <c r="V22">
+        <v>2.2</v>
+      </c>
+      <c r="W22">
+        <v>1.62</v>
+      </c>
+      <c r="X22">
+        <v>5</v>
+      </c>
+      <c r="Y22">
+        <v>1.17</v>
+      </c>
+      <c r="Z22">
+        <v>10</v>
+      </c>
+      <c r="AA22">
+        <v>5.5</v>
+      </c>
+      <c r="AB22">
+        <v>1.22</v>
+      </c>
+      <c r="AC22">
+        <v>1.01</v>
+      </c>
+      <c r="AD22">
+        <v>17</v>
+      </c>
+      <c r="AE22">
+        <v>1.11</v>
+      </c>
+      <c r="AF22">
+        <v>5.5</v>
+      </c>
+      <c r="AG22">
+        <v>1.5</v>
+      </c>
+      <c r="AH22">
+        <v>2.4</v>
+      </c>
+      <c r="AI22">
+        <v>2</v>
+      </c>
+      <c r="AJ22">
+        <v>1.75</v>
+      </c>
+      <c r="AK22">
+        <v>3.68</v>
+      </c>
+      <c r="AL22">
+        <v>1.14</v>
+      </c>
+      <c r="AM22">
+        <v>1.05</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>9</v>
+      </c>
+      <c r="AV22">
+        <v>9</v>
+      </c>
+      <c r="AW22">
+        <v>10</v>
+      </c>
+      <c r="AX22">
+        <v>5</v>
+      </c>
+      <c r="AY22">
+        <v>19</v>
+      </c>
+      <c r="AZ22">
+        <v>14</v>
+      </c>
+      <c r="BA22">
+        <v>9</v>
+      </c>
+      <c r="BB22">
+        <v>3</v>
+      </c>
+      <c r="BC22">
+        <v>12</v>
+      </c>
+      <c r="BD22">
+        <v>7.44</v>
+      </c>
+      <c r="BE22">
+        <v>9.6</v>
+      </c>
+      <c r="BF22">
+        <v>1.18</v>
+      </c>
+      <c r="BG22">
+        <v>1.39</v>
+      </c>
+      <c r="BH22">
+        <v>2.76</v>
+      </c>
+      <c r="BI22">
+        <v>1.72</v>
+      </c>
+      <c r="BJ22">
+        <v>2.05</v>
+      </c>
+      <c r="BK22">
+        <v>2.19</v>
+      </c>
+      <c r="BL22">
+        <v>1.6</v>
+      </c>
+      <c r="BM22">
+        <v>2.93</v>
+      </c>
+      <c r="BN22">
+        <v>1.33</v>
+      </c>
+      <c r="BO22">
+        <v>3.8</v>
+      </c>
+      <c r="BP22">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -4589,13 +4589,13 @@
         <v>11</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19">
         <v>6</v>
       </c>
       <c r="BC19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD19">
         <v>8.199999999999999</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -310,6 +310,9 @@
     <t>['28', '80']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -356,6 +359,9 @@
   </si>
   <si>
     <t>['32', '90+2']</t>
+  </si>
+  <si>
+    <t>['6', '23']</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP22"/>
+  <dimension ref="A1:BP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -976,7 +982,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1182,7 +1188,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1469,7 +1475,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1594,7 +1600,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1800,7 +1806,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2212,7 +2218,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2418,7 +2424,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2499,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2624,7 +2630,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2830,7 +2836,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3036,7 +3042,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3654,7 +3660,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3735,7 +3741,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3860,7 +3866,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -3938,7 +3944,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
         <v>3</v>
@@ -4066,7 +4072,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4478,7 +4484,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4684,7 +4690,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -4890,7 +4896,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5096,7 +5102,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5252,6 +5258,418 @@
         <v>3.8</v>
       </c>
       <c r="BP22">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7537313</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45549.5</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q23">
+        <v>3.1</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>3.75</v>
+      </c>
+      <c r="T23">
+        <v>1.5</v>
+      </c>
+      <c r="U23">
+        <v>2.5</v>
+      </c>
+      <c r="V23">
+        <v>3.4</v>
+      </c>
+      <c r="W23">
+        <v>1.3</v>
+      </c>
+      <c r="X23">
+        <v>10</v>
+      </c>
+      <c r="Y23">
+        <v>1.06</v>
+      </c>
+      <c r="Z23">
+        <v>2.15</v>
+      </c>
+      <c r="AA23">
+        <v>3.1</v>
+      </c>
+      <c r="AB23">
+        <v>3.2</v>
+      </c>
+      <c r="AC23">
+        <v>1.08</v>
+      </c>
+      <c r="AD23">
+        <v>8.5</v>
+      </c>
+      <c r="AE23">
+        <v>1.44</v>
+      </c>
+      <c r="AF23">
+        <v>2.8</v>
+      </c>
+      <c r="AG23">
+        <v>2.25</v>
+      </c>
+      <c r="AH23">
+        <v>1.57</v>
+      </c>
+      <c r="AI23">
+        <v>1.95</v>
+      </c>
+      <c r="AJ23">
+        <v>1.8</v>
+      </c>
+      <c r="AK23">
+        <v>1.36</v>
+      </c>
+      <c r="AL23">
+        <v>1.3</v>
+      </c>
+      <c r="AM23">
+        <v>1.63</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0.5</v>
+      </c>
+      <c r="AP23">
+        <v>0.5</v>
+      </c>
+      <c r="AQ23">
+        <v>0.67</v>
+      </c>
+      <c r="AR23">
+        <v>0.92</v>
+      </c>
+      <c r="AS23">
+        <v>0.6</v>
+      </c>
+      <c r="AT23">
+        <v>1.52</v>
+      </c>
+      <c r="AU23">
+        <v>3</v>
+      </c>
+      <c r="AV23">
+        <v>5</v>
+      </c>
+      <c r="AW23">
+        <v>5</v>
+      </c>
+      <c r="AX23">
+        <v>5</v>
+      </c>
+      <c r="AY23">
+        <v>8</v>
+      </c>
+      <c r="AZ23">
+        <v>10</v>
+      </c>
+      <c r="BA23">
+        <v>1</v>
+      </c>
+      <c r="BB23">
+        <v>3</v>
+      </c>
+      <c r="BC23">
+        <v>4</v>
+      </c>
+      <c r="BD23">
+        <v>1.91</v>
+      </c>
+      <c r="BE23">
+        <v>7.5</v>
+      </c>
+      <c r="BF23">
+        <v>2.2</v>
+      </c>
+      <c r="BG23">
+        <v>1.5</v>
+      </c>
+      <c r="BH23">
+        <v>2.45</v>
+      </c>
+      <c r="BI23">
+        <v>1.85</v>
+      </c>
+      <c r="BJ23">
+        <v>1.95</v>
+      </c>
+      <c r="BK23">
+        <v>2.45</v>
+      </c>
+      <c r="BL23">
+        <v>1.5</v>
+      </c>
+      <c r="BM23">
+        <v>3.3</v>
+      </c>
+      <c r="BN23">
+        <v>1.3</v>
+      </c>
+      <c r="BO23">
+        <v>3.8</v>
+      </c>
+      <c r="BP23">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7537308</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45549.58333333334</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q24">
+        <v>2.63</v>
+      </c>
+      <c r="R24">
+        <v>2.05</v>
+      </c>
+      <c r="S24">
+        <v>4.75</v>
+      </c>
+      <c r="T24">
+        <v>1.5</v>
+      </c>
+      <c r="U24">
+        <v>2.5</v>
+      </c>
+      <c r="V24">
+        <v>3.4</v>
+      </c>
+      <c r="W24">
+        <v>1.3</v>
+      </c>
+      <c r="X24">
+        <v>10</v>
+      </c>
+      <c r="Y24">
+        <v>1.06</v>
+      </c>
+      <c r="Z24">
+        <v>1.83</v>
+      </c>
+      <c r="AA24">
+        <v>3.25</v>
+      </c>
+      <c r="AB24">
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <v>1.08</v>
+      </c>
+      <c r="AD24">
+        <v>8.5</v>
+      </c>
+      <c r="AE24">
+        <v>1.42</v>
+      </c>
+      <c r="AF24">
+        <v>2.9</v>
+      </c>
+      <c r="AG24">
+        <v>2.2</v>
+      </c>
+      <c r="AH24">
+        <v>1.62</v>
+      </c>
+      <c r="AI24">
+        <v>2</v>
+      </c>
+      <c r="AJ24">
+        <v>1.75</v>
+      </c>
+      <c r="AK24">
+        <v>1.25</v>
+      </c>
+      <c r="AL24">
+        <v>1.28</v>
+      </c>
+      <c r="AM24">
+        <v>1.85</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>2</v>
+      </c>
+      <c r="AR24">
+        <v>2.26</v>
+      </c>
+      <c r="AS24">
+        <v>1.32</v>
+      </c>
+      <c r="AT24">
+        <v>3.58</v>
+      </c>
+      <c r="AU24">
+        <v>6</v>
+      </c>
+      <c r="AV24">
+        <v>3</v>
+      </c>
+      <c r="AW24">
+        <v>8</v>
+      </c>
+      <c r="AX24">
+        <v>6</v>
+      </c>
+      <c r="AY24">
+        <v>14</v>
+      </c>
+      <c r="AZ24">
+        <v>9</v>
+      </c>
+      <c r="BA24">
+        <v>6</v>
+      </c>
+      <c r="BB24">
+        <v>1</v>
+      </c>
+      <c r="BC24">
+        <v>7</v>
+      </c>
+      <c r="BD24">
+        <v>1.45</v>
+      </c>
+      <c r="BE24">
+        <v>8.5</v>
+      </c>
+      <c r="BF24">
+        <v>3.33</v>
+      </c>
+      <c r="BG24">
+        <v>1.45</v>
+      </c>
+      <c r="BH24">
+        <v>2.6</v>
+      </c>
+      <c r="BI24">
+        <v>1.8</v>
+      </c>
+      <c r="BJ24">
+        <v>2</v>
+      </c>
+      <c r="BK24">
+        <v>2.35</v>
+      </c>
+      <c r="BL24">
+        <v>1.55</v>
+      </c>
+      <c r="BM24">
+        <v>3.3</v>
+      </c>
+      <c r="BN24">
+        <v>1.3</v>
+      </c>
+      <c r="BO24">
+        <v>3.8</v>
+      </c>
+      <c r="BP24">
         <v>1.22</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="121">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -313,6 +313,15 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['27', '44']</t>
+  </si>
+  <si>
+    <t>['21', '57', '82']</t>
+  </si>
+  <si>
+    <t>['22', '62']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -362,6 +371,12 @@
   </si>
   <si>
     <t>['6', '23']</t>
+  </si>
+  <si>
+    <t>['55', '75']</t>
+  </si>
+  <si>
+    <t>['68', '88']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP24"/>
+  <dimension ref="A1:BP29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,7 +997,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1188,7 +1203,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1266,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1600,7 +1615,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1806,7 +1821,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -1887,7 +1902,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2090,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2218,7 +2233,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2424,7 +2439,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2502,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -2630,7 +2645,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2708,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2836,7 +2851,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -2914,7 +2929,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3042,7 +3057,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3123,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3326,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
         <v>1.83</v>
@@ -3535,7 +3550,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>1.21</v>
@@ -3660,7 +3675,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3738,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.67</v>
@@ -3866,7 +3881,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4072,7 +4087,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4484,7 +4499,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4690,7 +4705,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -4896,7 +4911,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5102,7 +5117,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5514,7 +5529,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5670,6 +5685,1036 @@
         <v>3.8</v>
       </c>
       <c r="BP24">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7537311</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45550.4375</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>99</v>
+      </c>
+      <c r="P25" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q25">
+        <v>2.88</v>
+      </c>
+      <c r="R25">
+        <v>1.95</v>
+      </c>
+      <c r="S25">
+        <v>4.33</v>
+      </c>
+      <c r="T25">
+        <v>1.53</v>
+      </c>
+      <c r="U25">
+        <v>2.38</v>
+      </c>
+      <c r="V25">
+        <v>3.75</v>
+      </c>
+      <c r="W25">
+        <v>1.25</v>
+      </c>
+      <c r="X25">
+        <v>11</v>
+      </c>
+      <c r="Y25">
+        <v>1.05</v>
+      </c>
+      <c r="Z25">
+        <v>2.03</v>
+      </c>
+      <c r="AA25">
+        <v>3.05</v>
+      </c>
+      <c r="AB25">
+        <v>3.5</v>
+      </c>
+      <c r="AC25">
+        <v>1.09</v>
+      </c>
+      <c r="AD25">
+        <v>7.5</v>
+      </c>
+      <c r="AE25">
+        <v>1.48</v>
+      </c>
+      <c r="AF25">
+        <v>2.7</v>
+      </c>
+      <c r="AG25">
+        <v>2.38</v>
+      </c>
+      <c r="AH25">
+        <v>1.53</v>
+      </c>
+      <c r="AI25">
+        <v>2.05</v>
+      </c>
+      <c r="AJ25">
+        <v>1.7</v>
+      </c>
+      <c r="AK25">
+        <v>1.3</v>
+      </c>
+      <c r="AL25">
+        <v>1.3</v>
+      </c>
+      <c r="AM25">
+        <v>1.72</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0.5</v>
+      </c>
+      <c r="AQ25">
+        <v>0.5</v>
+      </c>
+      <c r="AR25">
+        <v>0.98</v>
+      </c>
+      <c r="AS25">
+        <v>0.9</v>
+      </c>
+      <c r="AT25">
+        <v>1.88</v>
+      </c>
+      <c r="AU25">
+        <v>4</v>
+      </c>
+      <c r="AV25">
+        <v>6</v>
+      </c>
+      <c r="AW25">
+        <v>5</v>
+      </c>
+      <c r="AX25">
+        <v>3</v>
+      </c>
+      <c r="AY25">
+        <v>9</v>
+      </c>
+      <c r="AZ25">
+        <v>9</v>
+      </c>
+      <c r="BA25">
+        <v>2</v>
+      </c>
+      <c r="BB25">
+        <v>5</v>
+      </c>
+      <c r="BC25">
+        <v>7</v>
+      </c>
+      <c r="BD25">
+        <v>1.85</v>
+      </c>
+      <c r="BE25">
+        <v>7.5</v>
+      </c>
+      <c r="BF25">
+        <v>2.29</v>
+      </c>
+      <c r="BG25">
+        <v>1.5</v>
+      </c>
+      <c r="BH25">
+        <v>2.45</v>
+      </c>
+      <c r="BI25">
+        <v>2</v>
+      </c>
+      <c r="BJ25">
+        <v>1.8</v>
+      </c>
+      <c r="BK25">
+        <v>2.5</v>
+      </c>
+      <c r="BL25">
+        <v>1.5</v>
+      </c>
+      <c r="BM25">
+        <v>3.7</v>
+      </c>
+      <c r="BN25">
+        <v>1.25</v>
+      </c>
+      <c r="BO25">
+        <v>5.25</v>
+      </c>
+      <c r="BP25">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7537309</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45550.52083333334</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>84</v>
+      </c>
+      <c r="P26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q26">
+        <v>1.53</v>
+      </c>
+      <c r="R26">
+        <v>2.88</v>
+      </c>
+      <c r="S26">
+        <v>13</v>
+      </c>
+      <c r="T26">
+        <v>1.25</v>
+      </c>
+      <c r="U26">
+        <v>3.75</v>
+      </c>
+      <c r="V26">
+        <v>2.2</v>
+      </c>
+      <c r="W26">
+        <v>1.62</v>
+      </c>
+      <c r="X26">
+        <v>5</v>
+      </c>
+      <c r="Y26">
+        <v>1.17</v>
+      </c>
+      <c r="Z26">
+        <v>1.14</v>
+      </c>
+      <c r="AA26">
+        <v>7.2</v>
+      </c>
+      <c r="AB26">
+        <v>12</v>
+      </c>
+      <c r="AC26">
+        <v>1.01</v>
+      </c>
+      <c r="AD26">
+        <v>23</v>
+      </c>
+      <c r="AE26">
+        <v>1.16</v>
+      </c>
+      <c r="AF26">
+        <v>5.5</v>
+      </c>
+      <c r="AG26">
+        <v>1.56</v>
+      </c>
+      <c r="AH26">
+        <v>2.27</v>
+      </c>
+      <c r="AI26">
+        <v>2.5</v>
+      </c>
+      <c r="AJ26">
+        <v>1.5</v>
+      </c>
+      <c r="AK26">
+        <v>1.02</v>
+      </c>
+      <c r="AL26">
+        <v>1.05</v>
+      </c>
+      <c r="AM26">
+        <v>5.5</v>
+      </c>
+      <c r="AN26">
+        <v>3</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>2</v>
+      </c>
+      <c r="AQ26">
+        <v>0.5</v>
+      </c>
+      <c r="AR26">
+        <v>1.48</v>
+      </c>
+      <c r="AS26">
+        <v>0.73</v>
+      </c>
+      <c r="AT26">
+        <v>2.21</v>
+      </c>
+      <c r="AU26">
+        <v>6</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>16</v>
+      </c>
+      <c r="AX26">
+        <v>8</v>
+      </c>
+      <c r="AY26">
+        <v>22</v>
+      </c>
+      <c r="AZ26">
+        <v>8</v>
+      </c>
+      <c r="BA26">
+        <v>8</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>8</v>
+      </c>
+      <c r="BD26">
+        <v>1.08</v>
+      </c>
+      <c r="BE26">
+        <v>10</v>
+      </c>
+      <c r="BF26">
+        <v>11</v>
+      </c>
+      <c r="BG26">
+        <v>1.5</v>
+      </c>
+      <c r="BH26">
+        <v>2.5</v>
+      </c>
+      <c r="BI26">
+        <v>1.92</v>
+      </c>
+      <c r="BJ26">
+        <v>1.88</v>
+      </c>
+      <c r="BK26">
+        <v>2.5</v>
+      </c>
+      <c r="BL26">
+        <v>1.5</v>
+      </c>
+      <c r="BM26">
+        <v>3.3</v>
+      </c>
+      <c r="BN26">
+        <v>1.3</v>
+      </c>
+      <c r="BO26">
+        <v>4.33</v>
+      </c>
+      <c r="BP26">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7537312</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45550.60416666666</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27">
+        <v>2.5</v>
+      </c>
+      <c r="R27">
+        <v>2.2</v>
+      </c>
+      <c r="S27">
+        <v>4.5</v>
+      </c>
+      <c r="T27">
+        <v>1.4</v>
+      </c>
+      <c r="U27">
+        <v>2.75</v>
+      </c>
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>1.36</v>
+      </c>
+      <c r="X27">
+        <v>8</v>
+      </c>
+      <c r="Y27">
+        <v>1.08</v>
+      </c>
+      <c r="Z27">
+        <v>1.74</v>
+      </c>
+      <c r="AA27">
+        <v>3.55</v>
+      </c>
+      <c r="AB27">
+        <v>4.1</v>
+      </c>
+      <c r="AC27">
+        <v>1.05</v>
+      </c>
+      <c r="AD27">
+        <v>11</v>
+      </c>
+      <c r="AE27">
+        <v>1.33</v>
+      </c>
+      <c r="AF27">
+        <v>3.4</v>
+      </c>
+      <c r="AG27">
+        <v>1.99</v>
+      </c>
+      <c r="AH27">
+        <v>1.85</v>
+      </c>
+      <c r="AI27">
+        <v>1.8</v>
+      </c>
+      <c r="AJ27">
+        <v>1.95</v>
+      </c>
+      <c r="AK27">
+        <v>1.22</v>
+      </c>
+      <c r="AL27">
+        <v>1.25</v>
+      </c>
+      <c r="AM27">
+        <v>1.96</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>2.33</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+      <c r="AR27">
+        <v>1.95</v>
+      </c>
+      <c r="AS27">
+        <v>1.89</v>
+      </c>
+      <c r="AT27">
+        <v>3.84</v>
+      </c>
+      <c r="AU27">
+        <v>4</v>
+      </c>
+      <c r="AV27">
+        <v>5</v>
+      </c>
+      <c r="AW27">
+        <v>6</v>
+      </c>
+      <c r="AX27">
+        <v>1</v>
+      </c>
+      <c r="AY27">
+        <v>10</v>
+      </c>
+      <c r="AZ27">
+        <v>6</v>
+      </c>
+      <c r="BA27">
+        <v>6</v>
+      </c>
+      <c r="BB27">
+        <v>4</v>
+      </c>
+      <c r="BC27">
+        <v>10</v>
+      </c>
+      <c r="BD27">
+        <v>1.65</v>
+      </c>
+      <c r="BE27">
+        <v>6</v>
+      </c>
+      <c r="BF27">
+        <v>2.85</v>
+      </c>
+      <c r="BG27">
+        <v>1.45</v>
+      </c>
+      <c r="BH27">
+        <v>2.65</v>
+      </c>
+      <c r="BI27">
+        <v>1.85</v>
+      </c>
+      <c r="BJ27">
+        <v>1.95</v>
+      </c>
+      <c r="BK27">
+        <v>2.65</v>
+      </c>
+      <c r="BL27">
+        <v>1.45</v>
+      </c>
+      <c r="BM27">
+        <v>3.55</v>
+      </c>
+      <c r="BN27">
+        <v>1.25</v>
+      </c>
+      <c r="BO27">
+        <v>4</v>
+      </c>
+      <c r="BP27">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7537310</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45550.60416666666</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q28">
+        <v>3.75</v>
+      </c>
+      <c r="R28">
+        <v>2.1</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>1.44</v>
+      </c>
+      <c r="U28">
+        <v>2.63</v>
+      </c>
+      <c r="V28">
+        <v>3.25</v>
+      </c>
+      <c r="W28">
+        <v>1.33</v>
+      </c>
+      <c r="X28">
+        <v>9</v>
+      </c>
+      <c r="Y28">
+        <v>1.07</v>
+      </c>
+      <c r="Z28">
+        <v>3.1</v>
+      </c>
+      <c r="AA28">
+        <v>3.4</v>
+      </c>
+      <c r="AB28">
+        <v>2.3</v>
+      </c>
+      <c r="AC28">
+        <v>1.06</v>
+      </c>
+      <c r="AD28">
+        <v>10</v>
+      </c>
+      <c r="AE28">
+        <v>1.33</v>
+      </c>
+      <c r="AF28">
+        <v>3.3</v>
+      </c>
+      <c r="AG28">
+        <v>2.05</v>
+      </c>
+      <c r="AH28">
+        <v>1.75</v>
+      </c>
+      <c r="AI28">
+        <v>1.8</v>
+      </c>
+      <c r="AJ28">
+        <v>1.95</v>
+      </c>
+      <c r="AK28">
+        <v>1.63</v>
+      </c>
+      <c r="AL28">
+        <v>1.28</v>
+      </c>
+      <c r="AM28">
+        <v>1.38</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>2</v>
+      </c>
+      <c r="AP28">
+        <v>2</v>
+      </c>
+      <c r="AQ28">
+        <v>1.33</v>
+      </c>
+      <c r="AR28">
+        <v>1</v>
+      </c>
+      <c r="AS28">
+        <v>1.32</v>
+      </c>
+      <c r="AT28">
+        <v>2.32</v>
+      </c>
+      <c r="AU28">
+        <v>7</v>
+      </c>
+      <c r="AV28">
+        <v>6</v>
+      </c>
+      <c r="AW28">
+        <v>4</v>
+      </c>
+      <c r="AX28">
+        <v>8</v>
+      </c>
+      <c r="AY28">
+        <v>11</v>
+      </c>
+      <c r="AZ28">
+        <v>14</v>
+      </c>
+      <c r="BA28">
+        <v>6</v>
+      </c>
+      <c r="BB28">
+        <v>7</v>
+      </c>
+      <c r="BC28">
+        <v>13</v>
+      </c>
+      <c r="BD28">
+        <v>2.6</v>
+      </c>
+      <c r="BE28">
+        <v>5.5</v>
+      </c>
+      <c r="BF28">
+        <v>1.8</v>
+      </c>
+      <c r="BG28">
+        <v>1.6</v>
+      </c>
+      <c r="BH28">
+        <v>2.25</v>
+      </c>
+      <c r="BI28">
+        <v>2</v>
+      </c>
+      <c r="BJ28">
+        <v>1.75</v>
+      </c>
+      <c r="BK28">
+        <v>2.8</v>
+      </c>
+      <c r="BL28">
+        <v>1.4</v>
+      </c>
+      <c r="BM28">
+        <v>3.7</v>
+      </c>
+      <c r="BN28">
+        <v>1.25</v>
+      </c>
+      <c r="BO28">
+        <v>4.75</v>
+      </c>
+      <c r="BP28">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7537307</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45551.58333333334</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q29">
+        <v>1.4</v>
+      </c>
+      <c r="R29">
+        <v>3.25</v>
+      </c>
+      <c r="S29">
+        <v>17</v>
+      </c>
+      <c r="T29">
+        <v>1.2</v>
+      </c>
+      <c r="U29">
+        <v>4.33</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>1.73</v>
+      </c>
+      <c r="X29">
+        <v>4.33</v>
+      </c>
+      <c r="Y29">
+        <v>1.2</v>
+      </c>
+      <c r="Z29">
+        <v>1.07</v>
+      </c>
+      <c r="AA29">
+        <v>9.5</v>
+      </c>
+      <c r="AB29">
+        <v>19</v>
+      </c>
+      <c r="AC29">
+        <v>1.01</v>
+      </c>
+      <c r="AD29">
+        <v>29</v>
+      </c>
+      <c r="AE29">
+        <v>1.12</v>
+      </c>
+      <c r="AF29">
+        <v>6.5</v>
+      </c>
+      <c r="AG29">
+        <v>1.38</v>
+      </c>
+      <c r="AH29">
+        <v>2.81</v>
+      </c>
+      <c r="AI29">
+        <v>2.63</v>
+      </c>
+      <c r="AJ29">
+        <v>1.44</v>
+      </c>
+      <c r="AK29">
+        <v>1.01</v>
+      </c>
+      <c r="AL29">
+        <v>1.02</v>
+      </c>
+      <c r="AM29">
+        <v>7.5</v>
+      </c>
+      <c r="AN29">
+        <v>2</v>
+      </c>
+      <c r="AO29">
+        <v>3</v>
+      </c>
+      <c r="AP29">
+        <v>2.33</v>
+      </c>
+      <c r="AQ29">
+        <v>1.5</v>
+      </c>
+      <c r="AR29">
+        <v>2.28</v>
+      </c>
+      <c r="AS29">
+        <v>0.62</v>
+      </c>
+      <c r="AT29">
+        <v>2.9</v>
+      </c>
+      <c r="AU29">
+        <v>6</v>
+      </c>
+      <c r="AV29">
+        <v>3</v>
+      </c>
+      <c r="AW29">
+        <v>5</v>
+      </c>
+      <c r="AX29">
+        <v>6</v>
+      </c>
+      <c r="AY29">
+        <v>11</v>
+      </c>
+      <c r="AZ29">
+        <v>9</v>
+      </c>
+      <c r="BA29">
+        <v>3</v>
+      </c>
+      <c r="BB29">
+        <v>5</v>
+      </c>
+      <c r="BC29">
+        <v>8</v>
+      </c>
+      <c r="BD29">
+        <v>1.06</v>
+      </c>
+      <c r="BE29">
+        <v>10</v>
+      </c>
+      <c r="BF29">
+        <v>12</v>
+      </c>
+      <c r="BG29">
+        <v>1.35</v>
+      </c>
+      <c r="BH29">
+        <v>3.05</v>
+      </c>
+      <c r="BI29">
+        <v>1.68</v>
+      </c>
+      <c r="BJ29">
+        <v>2.11</v>
+      </c>
+      <c r="BK29">
+        <v>2.25</v>
+      </c>
+      <c r="BL29">
+        <v>1.6</v>
+      </c>
+      <c r="BM29">
+        <v>3.05</v>
+      </c>
+      <c r="BN29">
+        <v>1.35</v>
+      </c>
+      <c r="BO29">
+        <v>4</v>
+      </c>
+      <c r="BP29">
         <v>1.22</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -322,6 +322,15 @@
     <t>['22', '62']</t>
   </si>
   <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['3', '41']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -377,6 +386,12 @@
   </si>
   <si>
     <t>['68', '88']</t>
+  </si>
+  <si>
+    <t>['24', '54', '60', '89']</t>
+  </si>
+  <si>
+    <t>['28']</t>
   </si>
 </sst>
 </file>
@@ -738,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP29"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1012,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1078,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1203,7 +1218,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1615,7 +1630,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1696,7 +1711,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1821,7 +1836,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2233,7 +2248,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2311,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2439,7 +2454,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2645,7 +2660,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2851,7 +2866,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3057,7 +3072,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3675,7 +3690,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3881,7 +3896,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -3962,7 +3977,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4087,7 +4102,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4165,10 +4180,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4371,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4499,7 +4514,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4705,7 +4720,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -4911,7 +4926,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5117,7 +5132,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5529,7 +5544,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5735,7 +5750,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6353,7 +6368,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6715,6 +6730,624 @@
         <v>4</v>
       </c>
       <c r="BP29">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7537317</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30">
+        <v>7.5</v>
+      </c>
+      <c r="R30">
+        <v>2.6</v>
+      </c>
+      <c r="S30">
+        <v>1.8</v>
+      </c>
+      <c r="T30">
+        <v>1.29</v>
+      </c>
+      <c r="U30">
+        <v>3.5</v>
+      </c>
+      <c r="V30">
+        <v>2.38</v>
+      </c>
+      <c r="W30">
+        <v>1.53</v>
+      </c>
+      <c r="X30">
+        <v>5.5</v>
+      </c>
+      <c r="Y30">
+        <v>1.14</v>
+      </c>
+      <c r="Z30">
+        <v>9</v>
+      </c>
+      <c r="AA30">
+        <v>4.75</v>
+      </c>
+      <c r="AB30">
+        <v>1.33</v>
+      </c>
+      <c r="AC30">
+        <v>1.02</v>
+      </c>
+      <c r="AD30">
+        <v>17</v>
+      </c>
+      <c r="AE30">
+        <v>1.2</v>
+      </c>
+      <c r="AF30">
+        <v>4.5</v>
+      </c>
+      <c r="AG30">
+        <v>1.57</v>
+      </c>
+      <c r="AH30">
+        <v>2.25</v>
+      </c>
+      <c r="AI30">
+        <v>1.95</v>
+      </c>
+      <c r="AJ30">
+        <v>1.8</v>
+      </c>
+      <c r="AK30">
+        <v>3.3</v>
+      </c>
+      <c r="AL30">
+        <v>1.12</v>
+      </c>
+      <c r="AM30">
+        <v>1.06</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>3</v>
+      </c>
+      <c r="AR30">
+        <v>0.96</v>
+      </c>
+      <c r="AS30">
+        <v>1.09</v>
+      </c>
+      <c r="AT30">
+        <v>2.05</v>
+      </c>
+      <c r="AU30">
+        <v>9</v>
+      </c>
+      <c r="AV30">
+        <v>9</v>
+      </c>
+      <c r="AW30">
+        <v>3</v>
+      </c>
+      <c r="AX30">
+        <v>3</v>
+      </c>
+      <c r="AY30">
+        <v>12</v>
+      </c>
+      <c r="AZ30">
+        <v>12</v>
+      </c>
+      <c r="BA30">
+        <v>4</v>
+      </c>
+      <c r="BB30">
+        <v>5</v>
+      </c>
+      <c r="BC30">
+        <v>9</v>
+      </c>
+      <c r="BD30">
+        <v>4.88</v>
+      </c>
+      <c r="BE30">
+        <v>9.5</v>
+      </c>
+      <c r="BF30">
+        <v>1.26</v>
+      </c>
+      <c r="BG30">
+        <v>1.55</v>
+      </c>
+      <c r="BH30">
+        <v>2.38</v>
+      </c>
+      <c r="BI30">
+        <v>1.92</v>
+      </c>
+      <c r="BJ30">
+        <v>1.88</v>
+      </c>
+      <c r="BK30">
+        <v>2.41</v>
+      </c>
+      <c r="BL30">
+        <v>1.53</v>
+      </c>
+      <c r="BM30">
+        <v>3.28</v>
+      </c>
+      <c r="BN30">
+        <v>1.23</v>
+      </c>
+      <c r="BO30">
+        <v>4.33</v>
+      </c>
+      <c r="BP30">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7537315</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45556.58333333334</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>103</v>
+      </c>
+      <c r="P31" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q31">
+        <v>5.5</v>
+      </c>
+      <c r="R31">
+        <v>2.3</v>
+      </c>
+      <c r="S31">
+        <v>2.2</v>
+      </c>
+      <c r="T31">
+        <v>1.36</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>2.63</v>
+      </c>
+      <c r="W31">
+        <v>1.44</v>
+      </c>
+      <c r="X31">
+        <v>7</v>
+      </c>
+      <c r="Y31">
+        <v>1.1</v>
+      </c>
+      <c r="Z31">
+        <v>5</v>
+      </c>
+      <c r="AA31">
+        <v>3.8</v>
+      </c>
+      <c r="AB31">
+        <v>1.57</v>
+      </c>
+      <c r="AC31">
+        <v>1.04</v>
+      </c>
+      <c r="AD31">
+        <v>13</v>
+      </c>
+      <c r="AE31">
+        <v>1.28</v>
+      </c>
+      <c r="AF31">
+        <v>3.75</v>
+      </c>
+      <c r="AG31">
+        <v>1.8</v>
+      </c>
+      <c r="AH31">
+        <v>1.91</v>
+      </c>
+      <c r="AI31">
+        <v>1.8</v>
+      </c>
+      <c r="AJ31">
+        <v>1.95</v>
+      </c>
+      <c r="AK31">
+        <v>2.4</v>
+      </c>
+      <c r="AL31">
+        <v>1.2</v>
+      </c>
+      <c r="AM31">
+        <v>1.14</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>2</v>
+      </c>
+      <c r="AQ31">
+        <v>2</v>
+      </c>
+      <c r="AR31">
+        <v>1.29</v>
+      </c>
+      <c r="AS31">
+        <v>1.72</v>
+      </c>
+      <c r="AT31">
+        <v>3.01</v>
+      </c>
+      <c r="AU31">
+        <v>5</v>
+      </c>
+      <c r="AV31">
+        <v>3</v>
+      </c>
+      <c r="AW31">
+        <v>3</v>
+      </c>
+      <c r="AX31">
+        <v>6</v>
+      </c>
+      <c r="AY31">
+        <v>8</v>
+      </c>
+      <c r="AZ31">
+        <v>9</v>
+      </c>
+      <c r="BA31">
+        <v>3</v>
+      </c>
+      <c r="BB31">
+        <v>5</v>
+      </c>
+      <c r="BC31">
+        <v>8</v>
+      </c>
+      <c r="BD31">
+        <v>3.3</v>
+      </c>
+      <c r="BE31">
+        <v>8</v>
+      </c>
+      <c r="BF31">
+        <v>1.45</v>
+      </c>
+      <c r="BG31">
+        <v>1.51</v>
+      </c>
+      <c r="BH31">
+        <v>2.48</v>
+      </c>
+      <c r="BI31">
+        <v>1.88</v>
+      </c>
+      <c r="BJ31">
+        <v>1.92</v>
+      </c>
+      <c r="BK31">
+        <v>2.35</v>
+      </c>
+      <c r="BL31">
+        <v>1.56</v>
+      </c>
+      <c r="BM31">
+        <v>3.08</v>
+      </c>
+      <c r="BN31">
+        <v>1.26</v>
+      </c>
+      <c r="BO31">
+        <v>4</v>
+      </c>
+      <c r="BP31">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7537320</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45556.60416666666</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>2.05</v>
+      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+      <c r="T32">
+        <v>1.5</v>
+      </c>
+      <c r="U32">
+        <v>2.5</v>
+      </c>
+      <c r="V32">
+        <v>3.4</v>
+      </c>
+      <c r="W32">
+        <v>1.3</v>
+      </c>
+      <c r="X32">
+        <v>10</v>
+      </c>
+      <c r="Y32">
+        <v>1.06</v>
+      </c>
+      <c r="Z32">
+        <v>2.15</v>
+      </c>
+      <c r="AA32">
+        <v>3.1</v>
+      </c>
+      <c r="AB32">
+        <v>3.2</v>
+      </c>
+      <c r="AC32">
+        <v>1.07</v>
+      </c>
+      <c r="AD32">
+        <v>9</v>
+      </c>
+      <c r="AE32">
+        <v>1.4</v>
+      </c>
+      <c r="AF32">
+        <v>3</v>
+      </c>
+      <c r="AG32">
+        <v>2.2</v>
+      </c>
+      <c r="AH32">
+        <v>1.62</v>
+      </c>
+      <c r="AI32">
+        <v>1.95</v>
+      </c>
+      <c r="AJ32">
+        <v>1.8</v>
+      </c>
+      <c r="AK32">
+        <v>1.36</v>
+      </c>
+      <c r="AL32">
+        <v>1.28</v>
+      </c>
+      <c r="AM32">
+        <v>1.65</v>
+      </c>
+      <c r="AN32">
+        <v>1.5</v>
+      </c>
+      <c r="AO32">
+        <v>2</v>
+      </c>
+      <c r="AP32">
+        <v>1.33</v>
+      </c>
+      <c r="AQ32">
+        <v>1.67</v>
+      </c>
+      <c r="AR32">
+        <v>1.34</v>
+      </c>
+      <c r="AS32">
+        <v>1.08</v>
+      </c>
+      <c r="AT32">
+        <v>2.42</v>
+      </c>
+      <c r="AU32">
+        <v>4</v>
+      </c>
+      <c r="AV32">
+        <v>4</v>
+      </c>
+      <c r="AW32">
+        <v>6</v>
+      </c>
+      <c r="AX32">
+        <v>5</v>
+      </c>
+      <c r="AY32">
+        <v>10</v>
+      </c>
+      <c r="AZ32">
+        <v>9</v>
+      </c>
+      <c r="BA32">
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <v>3</v>
+      </c>
+      <c r="BC32">
+        <v>4</v>
+      </c>
+      <c r="BD32">
+        <v>2</v>
+      </c>
+      <c r="BE32">
+        <v>7.5</v>
+      </c>
+      <c r="BF32">
+        <v>2.1</v>
+      </c>
+      <c r="BG32">
+        <v>1.46</v>
+      </c>
+      <c r="BH32">
+        <v>2.63</v>
+      </c>
+      <c r="BI32">
+        <v>1.8</v>
+      </c>
+      <c r="BJ32">
+        <v>2</v>
+      </c>
+      <c r="BK32">
+        <v>2.25</v>
+      </c>
+      <c r="BL32">
+        <v>1.61</v>
+      </c>
+      <c r="BM32">
+        <v>2.97</v>
+      </c>
+      <c r="BN32">
+        <v>1.28</v>
+      </c>
+      <c r="BO32">
+        <v>3.8</v>
+      </c>
+      <c r="BP32">
         <v>1.22</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="129">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,10 +325,13 @@
     <t>['56']</t>
   </si>
   <si>
-    <t>['3', '41']</t>
-  </si>
-  <si>
-    <t>['35']</t>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['10', '81', '88']</t>
+  </si>
+  <si>
+    <t>['5', '50', '70', '77']</t>
   </si>
   <si>
     <t>['13', '73']</t>
@@ -391,7 +394,13 @@
     <t>['24', '54', '60', '89']</t>
   </si>
   <si>
-    <t>['28']</t>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['39', '88']</t>
   </si>
 </sst>
 </file>
@@ -753,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1012,7 +1021,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1093,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1218,7 +1227,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1502,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ4">
         <v>0.67</v>
@@ -1630,7 +1639,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1708,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1836,7 +1845,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -1914,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2123,7 +2132,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2248,7 +2257,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2326,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
+        <v>1.5</v>
+      </c>
+      <c r="AQ8">
         <v>1.33</v>
-      </c>
-      <c r="AQ8">
-        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2454,7 +2463,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2660,7 +2669,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2866,7 +2875,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -2947,7 +2956,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>2.01</v>
@@ -3072,7 +3081,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3562,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -3690,7 +3699,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3896,7 +3905,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -3977,7 +3986,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4102,7 +4111,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4180,10 +4189,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4386,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4514,7 +4523,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4592,10 +4601,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -4720,7 +4729,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -4801,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -4926,7 +4935,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5004,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
         <v>3</v>
@@ -5132,7 +5141,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5544,7 +5553,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5750,7 +5759,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6368,7 +6377,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6780,7 +6789,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -6944,7 +6953,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7537315</v>
+        <v>7537318</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -6953,130 +6962,130 @@
         <v>69</v>
       </c>
       <c r="E31" s="2">
-        <v>45556.58333333334</v>
+        <v>45557.4375</v>
       </c>
       <c r="F31">
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O31" t="s">
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="Q31">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="R31">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="T31">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V31">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="W31">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X31">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y31">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Z31">
-        <v>5</v>
+        <v>2.65</v>
       </c>
       <c r="AA31">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="AB31">
-        <v>1.57</v>
+        <v>2.65</v>
       </c>
       <c r="AC31">
         <v>1.04</v>
       </c>
       <c r="AD31">
-        <v>13</v>
+        <v>6.45</v>
       </c>
       <c r="AE31">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AF31">
-        <v>3.75</v>
+        <v>2.66</v>
       </c>
       <c r="AG31">
+        <v>2.18</v>
+      </c>
+      <c r="AH31">
+        <v>1.58</v>
+      </c>
+      <c r="AI31">
+        <v>1.95</v>
+      </c>
+      <c r="AJ31">
         <v>1.8</v>
       </c>
-      <c r="AH31">
-        <v>1.91</v>
-      </c>
-      <c r="AI31">
-        <v>1.8</v>
-      </c>
-      <c r="AJ31">
-        <v>1.95</v>
-      </c>
       <c r="AK31">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="AL31">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AM31">
-        <v>1.14</v>
+        <v>1.52</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO31">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
-        <v>1.29</v>
+        <v>0.97</v>
       </c>
       <c r="AS31">
-        <v>1.72</v>
+        <v>0.65</v>
       </c>
       <c r="AT31">
-        <v>3.01</v>
+        <v>1.62</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7085,49 +7094,49 @@
         <v>3</v>
       </c>
       <c r="AW31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX31">
+        <v>1</v>
+      </c>
+      <c r="AY31">
+        <v>11</v>
+      </c>
+      <c r="AZ31">
+        <v>4</v>
+      </c>
+      <c r="BA31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
+        <v>2</v>
+      </c>
+      <c r="BC31">
         <v>6</v>
       </c>
-      <c r="AY31">
-        <v>8</v>
-      </c>
-      <c r="AZ31">
-        <v>9</v>
-      </c>
-      <c r="BA31">
-        <v>3</v>
-      </c>
-      <c r="BB31">
-        <v>5</v>
-      </c>
-      <c r="BC31">
-        <v>8</v>
-      </c>
       <c r="BD31">
-        <v>3.3</v>
+        <v>1.82</v>
       </c>
       <c r="BE31">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF31">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="BG31">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="BH31">
-        <v>2.48</v>
+        <v>2.53</v>
       </c>
       <c r="BI31">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BJ31">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="BK31">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="BL31">
         <v>1.56</v>
@@ -7150,7 +7159,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7537320</v>
+        <v>7537319</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7159,16 +7168,16 @@
         <v>69</v>
       </c>
       <c r="E32" s="2">
-        <v>45556.60416666666</v>
+        <v>45557.5</v>
       </c>
       <c r="F32">
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -7180,163 +7189,163 @@
         <v>2</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O32" t="s">
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>1.57</v>
       </c>
       <c r="R32">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="S32">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T32">
+        <v>1.25</v>
+      </c>
+      <c r="U32">
+        <v>3.75</v>
+      </c>
+      <c r="V32">
+        <v>2.2</v>
+      </c>
+      <c r="W32">
+        <v>1.62</v>
+      </c>
+      <c r="X32">
+        <v>5</v>
+      </c>
+      <c r="Y32">
+        <v>1.17</v>
+      </c>
+      <c r="Z32">
+        <v>1.17</v>
+      </c>
+      <c r="AA32">
+        <v>6.75</v>
+      </c>
+      <c r="AB32">
+        <v>14</v>
+      </c>
+      <c r="AC32">
+        <v>1.01</v>
+      </c>
+      <c r="AD32">
+        <v>21</v>
+      </c>
+      <c r="AE32">
+        <v>1.18</v>
+      </c>
+      <c r="AF32">
+        <v>5</v>
+      </c>
+      <c r="AG32">
         <v>1.5</v>
       </c>
-      <c r="U32">
-        <v>2.5</v>
-      </c>
-      <c r="V32">
-        <v>3.4</v>
-      </c>
-      <c r="W32">
-        <v>1.3</v>
-      </c>
-      <c r="X32">
-        <v>10</v>
-      </c>
-      <c r="Y32">
-        <v>1.06</v>
-      </c>
-      <c r="Z32">
-        <v>2.15</v>
-      </c>
-      <c r="AA32">
-        <v>3.1</v>
-      </c>
-      <c r="AB32">
-        <v>3.2</v>
-      </c>
-      <c r="AC32">
+      <c r="AH32">
+        <v>2.4</v>
+      </c>
+      <c r="AI32">
+        <v>2.25</v>
+      </c>
+      <c r="AJ32">
+        <v>1.57</v>
+      </c>
+      <c r="AK32">
+        <v>1.01</v>
+      </c>
+      <c r="AL32">
         <v>1.07</v>
       </c>
-      <c r="AD32">
-        <v>9</v>
-      </c>
-      <c r="AE32">
-        <v>1.4</v>
-      </c>
-      <c r="AF32">
-        <v>3</v>
-      </c>
-      <c r="AG32">
-        <v>2.2</v>
-      </c>
-      <c r="AH32">
-        <v>1.62</v>
-      </c>
-      <c r="AI32">
-        <v>1.95</v>
-      </c>
-      <c r="AJ32">
-        <v>1.8</v>
-      </c>
-      <c r="AK32">
-        <v>1.36</v>
-      </c>
-      <c r="AL32">
-        <v>1.28</v>
-      </c>
       <c r="AM32">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="AN32">
         <v>1.5</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AR32">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AS32">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
       <c r="AT32">
-        <v>2.42</v>
+        <v>2.8</v>
       </c>
       <c r="AU32">
+        <v>12</v>
+      </c>
+      <c r="AV32">
+        <v>7</v>
+      </c>
+      <c r="AW32">
         <v>4</v>
-      </c>
-      <c r="AV32">
-        <v>4</v>
-      </c>
-      <c r="AW32">
-        <v>6</v>
       </c>
       <c r="AX32">
         <v>5</v>
       </c>
       <c r="AY32">
+        <v>16</v>
+      </c>
+      <c r="AZ32">
+        <v>12</v>
+      </c>
+      <c r="BA32">
+        <v>7</v>
+      </c>
+      <c r="BB32">
+        <v>3</v>
+      </c>
+      <c r="BC32">
         <v>10</v>
       </c>
-      <c r="AZ32">
-        <v>9</v>
-      </c>
-      <c r="BA32">
-        <v>1</v>
-      </c>
-      <c r="BB32">
-        <v>3</v>
-      </c>
-      <c r="BC32">
-        <v>4</v>
-      </c>
       <c r="BD32">
-        <v>2</v>
+        <v>1.11</v>
       </c>
       <c r="BE32">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="BF32">
-        <v>2.1</v>
+        <v>8.25</v>
       </c>
       <c r="BG32">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="BH32">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="BI32">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="BJ32">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BK32">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="BL32">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="BM32">
         <v>2.97</v>
@@ -7349,6 +7358,418 @@
       </c>
       <c r="BP32">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7537316</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45557.60416666666</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="O33" t="s">
+        <v>105</v>
+      </c>
+      <c r="P33" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q33">
+        <v>2.4</v>
+      </c>
+      <c r="R33">
+        <v>2.2</v>
+      </c>
+      <c r="S33">
+        <v>4.75</v>
+      </c>
+      <c r="T33">
+        <v>1.4</v>
+      </c>
+      <c r="U33">
+        <v>2.75</v>
+      </c>
+      <c r="V33">
+        <v>2.75</v>
+      </c>
+      <c r="W33">
+        <v>1.4</v>
+      </c>
+      <c r="X33">
+        <v>8</v>
+      </c>
+      <c r="Y33">
+        <v>1.08</v>
+      </c>
+      <c r="Z33">
+        <v>1.8</v>
+      </c>
+      <c r="AA33">
+        <v>3.5</v>
+      </c>
+      <c r="AB33">
+        <v>4.35</v>
+      </c>
+      <c r="AC33">
+        <v>1.02</v>
+      </c>
+      <c r="AD33">
+        <v>11.4</v>
+      </c>
+      <c r="AE33">
+        <v>1.3</v>
+      </c>
+      <c r="AF33">
+        <v>3.49</v>
+      </c>
+      <c r="AG33">
+        <v>1.9</v>
+      </c>
+      <c r="AH33">
+        <v>1.8</v>
+      </c>
+      <c r="AI33">
+        <v>1.8</v>
+      </c>
+      <c r="AJ33">
+        <v>1.95</v>
+      </c>
+      <c r="AK33">
+        <v>1.22</v>
+      </c>
+      <c r="AL33">
+        <v>1.25</v>
+      </c>
+      <c r="AM33">
+        <v>2.05</v>
+      </c>
+      <c r="AN33">
+        <v>0.5</v>
+      </c>
+      <c r="AO33">
+        <v>2</v>
+      </c>
+      <c r="AP33">
+        <v>1.33</v>
+      </c>
+      <c r="AQ33">
+        <v>1.33</v>
+      </c>
+      <c r="AR33">
+        <v>1.08</v>
+      </c>
+      <c r="AS33">
+        <v>0.88</v>
+      </c>
+      <c r="AT33">
+        <v>1.96</v>
+      </c>
+      <c r="AU33">
+        <v>9</v>
+      </c>
+      <c r="AV33">
+        <v>3</v>
+      </c>
+      <c r="AW33">
+        <v>4</v>
+      </c>
+      <c r="AX33">
+        <v>2</v>
+      </c>
+      <c r="AY33">
+        <v>13</v>
+      </c>
+      <c r="AZ33">
+        <v>5</v>
+      </c>
+      <c r="BA33">
+        <v>6</v>
+      </c>
+      <c r="BB33">
+        <v>2</v>
+      </c>
+      <c r="BC33">
+        <v>8</v>
+      </c>
+      <c r="BD33">
+        <v>1.55</v>
+      </c>
+      <c r="BE33">
+        <v>8</v>
+      </c>
+      <c r="BF33">
+        <v>3.02</v>
+      </c>
+      <c r="BG33">
+        <v>1.47</v>
+      </c>
+      <c r="BH33">
+        <v>2.62</v>
+      </c>
+      <c r="BI33">
+        <v>1.82</v>
+      </c>
+      <c r="BJ33">
+        <v>1.98</v>
+      </c>
+      <c r="BK33">
+        <v>2.31</v>
+      </c>
+      <c r="BL33">
+        <v>1.59</v>
+      </c>
+      <c r="BM33">
+        <v>3.02</v>
+      </c>
+      <c r="BN33">
+        <v>1.27</v>
+      </c>
+      <c r="BO33">
+        <v>3.8</v>
+      </c>
+      <c r="BP33">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7537314</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45557.625</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>84</v>
+      </c>
+      <c r="P34" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q34">
+        <v>7</v>
+      </c>
+      <c r="R34">
+        <v>2.6</v>
+      </c>
+      <c r="S34">
+        <v>1.83</v>
+      </c>
+      <c r="T34">
+        <v>1.29</v>
+      </c>
+      <c r="U34">
+        <v>3.5</v>
+      </c>
+      <c r="V34">
+        <v>2.25</v>
+      </c>
+      <c r="W34">
+        <v>1.57</v>
+      </c>
+      <c r="X34">
+        <v>5.5</v>
+      </c>
+      <c r="Y34">
+        <v>1.14</v>
+      </c>
+      <c r="Z34">
+        <v>7.75</v>
+      </c>
+      <c r="AA34">
+        <v>5.25</v>
+      </c>
+      <c r="AB34">
+        <v>1.33</v>
+      </c>
+      <c r="AC34">
+        <v>1.01</v>
+      </c>
+      <c r="AD34">
+        <v>16.5</v>
+      </c>
+      <c r="AE34">
+        <v>1.14</v>
+      </c>
+      <c r="AF34">
+        <v>4.33</v>
+      </c>
+      <c r="AG34">
+        <v>1.55</v>
+      </c>
+      <c r="AH34">
+        <v>2.3</v>
+      </c>
+      <c r="AI34">
+        <v>1.8</v>
+      </c>
+      <c r="AJ34">
+        <v>1.95</v>
+      </c>
+      <c r="AK34">
+        <v>3.2</v>
+      </c>
+      <c r="AL34">
+        <v>1.13</v>
+      </c>
+      <c r="AM34">
+        <v>1.06</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>3</v>
+      </c>
+      <c r="AP34">
+        <v>1</v>
+      </c>
+      <c r="AQ34">
+        <v>2</v>
+      </c>
+      <c r="AR34">
+        <v>2.14</v>
+      </c>
+      <c r="AS34">
+        <v>1.5</v>
+      </c>
+      <c r="AT34">
+        <v>3.64</v>
+      </c>
+      <c r="AU34">
+        <v>3</v>
+      </c>
+      <c r="AV34">
+        <v>6</v>
+      </c>
+      <c r="AW34">
+        <v>7</v>
+      </c>
+      <c r="AX34">
+        <v>8</v>
+      </c>
+      <c r="AY34">
+        <v>10</v>
+      </c>
+      <c r="AZ34">
+        <v>14</v>
+      </c>
+      <c r="BA34">
+        <v>2</v>
+      </c>
+      <c r="BB34">
+        <v>13</v>
+      </c>
+      <c r="BC34">
+        <v>15</v>
+      </c>
+      <c r="BD34">
+        <v>4.58</v>
+      </c>
+      <c r="BE34">
+        <v>9.5</v>
+      </c>
+      <c r="BF34">
+        <v>1.3</v>
+      </c>
+      <c r="BG34">
+        <v>1.51</v>
+      </c>
+      <c r="BH34">
+        <v>2.51</v>
+      </c>
+      <c r="BI34">
+        <v>1.85</v>
+      </c>
+      <c r="BJ34">
+        <v>1.95</v>
+      </c>
+      <c r="BK34">
+        <v>2.32</v>
+      </c>
+      <c r="BL34">
+        <v>1.59</v>
+      </c>
+      <c r="BM34">
+        <v>3.08</v>
+      </c>
+      <c r="BN34">
+        <v>1.26</v>
+      </c>
+      <c r="BO34">
+        <v>4</v>
+      </c>
+      <c r="BP34">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="132">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,12 +325,18 @@
     <t>['56']</t>
   </si>
   <si>
+    <t>['3', '41']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['10', '81', '88']</t>
+  </si>
+  <si>
     <t>['46']</t>
   </si>
   <si>
-    <t>['10', '81', '88']</t>
-  </si>
-  <si>
     <t>['5', '50', '70', '77']</t>
   </si>
   <si>
@@ -394,10 +400,13 @@
     <t>['24', '54', '60', '89']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['90+4']</t>
-  </si>
-  <si>
-    <t>['15']</t>
   </si>
   <si>
     <t>['39', '88']</t>
@@ -762,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1021,7 +1030,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1102,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1227,7 +1236,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1639,7 +1648,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1720,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1845,7 +1854,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2257,7 +2266,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2335,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>1.33</v>
@@ -2463,7 +2472,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2669,7 +2678,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2875,7 +2884,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3081,7 +3090,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3699,7 +3708,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3905,7 +3914,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -3986,7 +3995,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4111,7 +4120,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4189,10 +4198,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4395,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4523,7 +4532,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4729,7 +4738,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -4935,7 +4944,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5141,7 +5150,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5553,7 +5562,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5759,7 +5768,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6377,7 +6386,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6789,7 +6798,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -6953,7 +6962,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7537318</v>
+        <v>7537315</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -6962,130 +6971,130 @@
         <v>69</v>
       </c>
       <c r="E31" s="2">
-        <v>45557.4375</v>
+        <v>45556.58333333334</v>
       </c>
       <c r="F31">
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O31" t="s">
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="Q31">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="S31">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="T31">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U31">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V31">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="W31">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="X31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y31">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z31">
-        <v>2.65</v>
+        <v>5</v>
       </c>
       <c r="AA31">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="AB31">
-        <v>2.65</v>
+        <v>1.57</v>
       </c>
       <c r="AC31">
         <v>1.04</v>
       </c>
       <c r="AD31">
-        <v>6.45</v>
+        <v>13</v>
       </c>
       <c r="AE31">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AF31">
-        <v>2.66</v>
+        <v>3.75</v>
       </c>
       <c r="AG31">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="AH31">
-        <v>1.58</v>
+        <v>1.91</v>
       </c>
       <c r="AI31">
+        <v>1.8</v>
+      </c>
+      <c r="AJ31">
         <v>1.95</v>
       </c>
-      <c r="AJ31">
-        <v>1.8</v>
-      </c>
       <c r="AK31">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="AL31">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AM31">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
       <c r="AN31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO31">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP31">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR31">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AS31">
-        <v>0.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT31">
-        <v>1.62</v>
+        <v>3.01</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7094,49 +7103,49 @@
         <v>3</v>
       </c>
       <c r="AW31">
+        <v>3</v>
+      </c>
+      <c r="AX31">
         <v>6</v>
       </c>
-      <c r="AX31">
-        <v>1</v>
-      </c>
       <c r="AY31">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD31">
-        <v>1.82</v>
+        <v>3.3</v>
       </c>
       <c r="BE31">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF31">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="BG31">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="BH31">
-        <v>2.53</v>
+        <v>2.48</v>
       </c>
       <c r="BI31">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BJ31">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="BK31">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="BL31">
         <v>1.56</v>
@@ -7159,7 +7168,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7537319</v>
+        <v>7537320</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7168,16 +7177,16 @@
         <v>69</v>
       </c>
       <c r="E32" s="2">
-        <v>45557.5</v>
+        <v>45556.60416666666</v>
       </c>
       <c r="F32">
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -7189,163 +7198,163 @@
         <v>2</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O32" t="s">
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q32">
-        <v>1.57</v>
+        <v>3</v>
       </c>
       <c r="R32">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="S32">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="T32">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="U32">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="V32">
+        <v>3.4</v>
+      </c>
+      <c r="W32">
+        <v>1.3</v>
+      </c>
+      <c r="X32">
+        <v>10</v>
+      </c>
+      <c r="Y32">
+        <v>1.06</v>
+      </c>
+      <c r="Z32">
+        <v>2.15</v>
+      </c>
+      <c r="AA32">
+        <v>3.1</v>
+      </c>
+      <c r="AB32">
+        <v>3.2</v>
+      </c>
+      <c r="AC32">
+        <v>1.07</v>
+      </c>
+      <c r="AD32">
+        <v>9</v>
+      </c>
+      <c r="AE32">
+        <v>1.4</v>
+      </c>
+      <c r="AF32">
+        <v>3</v>
+      </c>
+      <c r="AG32">
         <v>2.2</v>
       </c>
-      <c r="W32">
+      <c r="AH32">
         <v>1.62</v>
       </c>
-      <c r="X32">
-        <v>5</v>
-      </c>
-      <c r="Y32">
-        <v>1.17</v>
-      </c>
-      <c r="Z32">
-        <v>1.17</v>
-      </c>
-      <c r="AA32">
-        <v>6.75</v>
-      </c>
-      <c r="AB32">
-        <v>14</v>
-      </c>
-      <c r="AC32">
-        <v>1.01</v>
-      </c>
-      <c r="AD32">
-        <v>21</v>
-      </c>
-      <c r="AE32">
-        <v>1.18</v>
-      </c>
-      <c r="AF32">
-        <v>5</v>
-      </c>
-      <c r="AG32">
-        <v>1.5</v>
-      </c>
-      <c r="AH32">
-        <v>2.4</v>
-      </c>
       <c r="AI32">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AJ32">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AK32">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="AL32">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="AM32">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="AN32">
         <v>1.5</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="AS32">
-        <v>1.36</v>
+        <v>1.08</v>
       </c>
       <c r="AT32">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="AU32">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AV32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX32">
         <v>5</v>
       </c>
       <c r="AY32">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AZ32">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BB32">
         <v>3</v>
       </c>
       <c r="BC32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BD32">
-        <v>1.11</v>
+        <v>2</v>
       </c>
       <c r="BE32">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="BF32">
-        <v>8.25</v>
+        <v>2.1</v>
       </c>
       <c r="BG32">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="BH32">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="BI32">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="BJ32">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BK32">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="BL32">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="BM32">
         <v>2.97</v>
@@ -7365,7 +7374,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7537316</v>
+        <v>7537319</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -7374,16 +7383,16 @@
         <v>69</v>
       </c>
       <c r="E33" s="2">
-        <v>45557.60416666666</v>
+        <v>45556.875</v>
       </c>
       <c r="F33">
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -7395,151 +7404,151 @@
         <v>2</v>
       </c>
       <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
         <v>4</v>
-      </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
-      <c r="N33">
-        <v>6</v>
       </c>
       <c r="O33" t="s">
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q33">
+        <v>1.57</v>
+      </c>
+      <c r="R33">
+        <v>2.75</v>
+      </c>
+      <c r="S33">
+        <v>11</v>
+      </c>
+      <c r="T33">
+        <v>1.25</v>
+      </c>
+      <c r="U33">
+        <v>3.75</v>
+      </c>
+      <c r="V33">
+        <v>2.2</v>
+      </c>
+      <c r="W33">
+        <v>1.62</v>
+      </c>
+      <c r="X33">
+        <v>5</v>
+      </c>
+      <c r="Y33">
+        <v>1.17</v>
+      </c>
+      <c r="Z33">
+        <v>1.17</v>
+      </c>
+      <c r="AA33">
+        <v>6.75</v>
+      </c>
+      <c r="AB33">
+        <v>14</v>
+      </c>
+      <c r="AC33">
+        <v>1.01</v>
+      </c>
+      <c r="AD33">
+        <v>21</v>
+      </c>
+      <c r="AE33">
+        <v>1.18</v>
+      </c>
+      <c r="AF33">
+        <v>5</v>
+      </c>
+      <c r="AG33">
+        <v>1.5</v>
+      </c>
+      <c r="AH33">
         <v>2.4</v>
       </c>
-      <c r="R33">
-        <v>2.2</v>
-      </c>
-      <c r="S33">
+      <c r="AI33">
+        <v>2.25</v>
+      </c>
+      <c r="AJ33">
+        <v>1.57</v>
+      </c>
+      <c r="AK33">
+        <v>1.01</v>
+      </c>
+      <c r="AL33">
+        <v>1.07</v>
+      </c>
+      <c r="AM33">
         <v>4.75</v>
       </c>
-      <c r="T33">
-        <v>1.4</v>
-      </c>
-      <c r="U33">
-        <v>2.75</v>
-      </c>
-      <c r="V33">
-        <v>2.75</v>
-      </c>
-      <c r="W33">
-        <v>1.4</v>
-      </c>
-      <c r="X33">
-        <v>8</v>
-      </c>
-      <c r="Y33">
-        <v>1.08</v>
-      </c>
-      <c r="Z33">
-        <v>1.8</v>
-      </c>
-      <c r="AA33">
-        <v>3.5</v>
-      </c>
-      <c r="AB33">
-        <v>4.35</v>
-      </c>
-      <c r="AC33">
-        <v>1.02</v>
-      </c>
-      <c r="AD33">
-        <v>11.4</v>
-      </c>
-      <c r="AE33">
-        <v>1.3</v>
-      </c>
-      <c r="AF33">
-        <v>3.49</v>
-      </c>
-      <c r="AG33">
-        <v>1.9</v>
-      </c>
-      <c r="AH33">
-        <v>1.8</v>
-      </c>
-      <c r="AI33">
-        <v>1.8</v>
-      </c>
-      <c r="AJ33">
-        <v>1.95</v>
-      </c>
-      <c r="AK33">
-        <v>1.22</v>
-      </c>
-      <c r="AL33">
-        <v>1.25</v>
-      </c>
-      <c r="AM33">
-        <v>2.05</v>
-      </c>
       <c r="AN33">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AR33">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AS33">
-        <v>0.88</v>
+        <v>1.36</v>
       </c>
       <c r="AT33">
-        <v>1.96</v>
+        <v>2.8</v>
       </c>
       <c r="AU33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW33">
+        <v>3</v>
+      </c>
+      <c r="AX33">
         <v>4</v>
       </c>
-      <c r="AX33">
-        <v>2</v>
-      </c>
       <c r="AY33">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD33">
-        <v>1.55</v>
+        <v>1.11</v>
       </c>
       <c r="BE33">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BF33">
-        <v>3.02</v>
+        <v>8.25</v>
       </c>
       <c r="BG33">
         <v>1.47</v>
       </c>
       <c r="BH33">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="BI33">
         <v>1.82</v>
@@ -7548,16 +7557,16 @@
         <v>1.98</v>
       </c>
       <c r="BK33">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="BL33">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="BM33">
-        <v>3.02</v>
+        <v>2.97</v>
       </c>
       <c r="BN33">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="BO33">
         <v>3.8</v>
@@ -7580,7 +7589,7 @@
         <v>69</v>
       </c>
       <c r="E34" s="2">
-        <v>45557.625</v>
+        <v>45556.875</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -7709,16 +7718,16 @@
         <v>3</v>
       </c>
       <c r="AV34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW34">
+        <v>8</v>
+      </c>
+      <c r="AX34">
         <v>7</v>
       </c>
-      <c r="AX34">
-        <v>8</v>
-      </c>
       <c r="AY34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ34">
         <v>14</v>
@@ -7770,6 +7779,418 @@
       </c>
       <c r="BP34">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7537318</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q35">
+        <v>3.25</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>3.6</v>
+      </c>
+      <c r="T35">
+        <v>1.5</v>
+      </c>
+      <c r="U35">
+        <v>2.5</v>
+      </c>
+      <c r="V35">
+        <v>3.4</v>
+      </c>
+      <c r="W35">
+        <v>1.3</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Y35">
+        <v>1.06</v>
+      </c>
+      <c r="Z35">
+        <v>2.65</v>
+      </c>
+      <c r="AA35">
+        <v>3.1</v>
+      </c>
+      <c r="AB35">
+        <v>2.65</v>
+      </c>
+      <c r="AC35">
+        <v>1.04</v>
+      </c>
+      <c r="AD35">
+        <v>6.45</v>
+      </c>
+      <c r="AE35">
+        <v>1.36</v>
+      </c>
+      <c r="AF35">
+        <v>2.66</v>
+      </c>
+      <c r="AG35">
+        <v>2.18</v>
+      </c>
+      <c r="AH35">
+        <v>1.58</v>
+      </c>
+      <c r="AI35">
+        <v>1.95</v>
+      </c>
+      <c r="AJ35">
+        <v>1.8</v>
+      </c>
+      <c r="AK35">
+        <v>1.4</v>
+      </c>
+      <c r="AL35">
+        <v>1.38</v>
+      </c>
+      <c r="AM35">
+        <v>1.52</v>
+      </c>
+      <c r="AN35">
+        <v>0.5</v>
+      </c>
+      <c r="AO35">
+        <v>1.5</v>
+      </c>
+      <c r="AP35">
+        <v>0.67</v>
+      </c>
+      <c r="AQ35">
+        <v>1.33</v>
+      </c>
+      <c r="AR35">
+        <v>0.97</v>
+      </c>
+      <c r="AS35">
+        <v>0.65</v>
+      </c>
+      <c r="AT35">
+        <v>1.62</v>
+      </c>
+      <c r="AU35">
+        <v>5</v>
+      </c>
+      <c r="AV35">
+        <v>2</v>
+      </c>
+      <c r="AW35">
+        <v>7</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>12</v>
+      </c>
+      <c r="AZ35">
+        <v>2</v>
+      </c>
+      <c r="BA35">
+        <v>4</v>
+      </c>
+      <c r="BB35">
+        <v>2</v>
+      </c>
+      <c r="BC35">
+        <v>6</v>
+      </c>
+      <c r="BD35">
+        <v>1.82</v>
+      </c>
+      <c r="BE35">
+        <v>7.5</v>
+      </c>
+      <c r="BF35">
+        <v>2.4</v>
+      </c>
+      <c r="BG35">
+        <v>1.49</v>
+      </c>
+      <c r="BH35">
+        <v>2.53</v>
+      </c>
+      <c r="BI35">
+        <v>1.85</v>
+      </c>
+      <c r="BJ35">
+        <v>1.95</v>
+      </c>
+      <c r="BK35">
+        <v>2.36</v>
+      </c>
+      <c r="BL35">
+        <v>1.56</v>
+      </c>
+      <c r="BM35">
+        <v>3.08</v>
+      </c>
+      <c r="BN35">
+        <v>1.26</v>
+      </c>
+      <c r="BO35">
+        <v>4</v>
+      </c>
+      <c r="BP35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7537316</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45557.60416666666</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>6</v>
+      </c>
+      <c r="O36" t="s">
+        <v>107</v>
+      </c>
+      <c r="P36" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q36">
+        <v>2.4</v>
+      </c>
+      <c r="R36">
+        <v>2.2</v>
+      </c>
+      <c r="S36">
+        <v>4.75</v>
+      </c>
+      <c r="T36">
+        <v>1.4</v>
+      </c>
+      <c r="U36">
+        <v>2.75</v>
+      </c>
+      <c r="V36">
+        <v>2.75</v>
+      </c>
+      <c r="W36">
+        <v>1.4</v>
+      </c>
+      <c r="X36">
+        <v>8</v>
+      </c>
+      <c r="Y36">
+        <v>1.08</v>
+      </c>
+      <c r="Z36">
+        <v>1.8</v>
+      </c>
+      <c r="AA36">
+        <v>3.5</v>
+      </c>
+      <c r="AB36">
+        <v>4.35</v>
+      </c>
+      <c r="AC36">
+        <v>1.02</v>
+      </c>
+      <c r="AD36">
+        <v>11.4</v>
+      </c>
+      <c r="AE36">
+        <v>1.3</v>
+      </c>
+      <c r="AF36">
+        <v>3.49</v>
+      </c>
+      <c r="AG36">
+        <v>1.9</v>
+      </c>
+      <c r="AH36">
+        <v>1.8</v>
+      </c>
+      <c r="AI36">
+        <v>1.8</v>
+      </c>
+      <c r="AJ36">
+        <v>1.95</v>
+      </c>
+      <c r="AK36">
+        <v>1.22</v>
+      </c>
+      <c r="AL36">
+        <v>1.25</v>
+      </c>
+      <c r="AM36">
+        <v>2.05</v>
+      </c>
+      <c r="AN36">
+        <v>0.5</v>
+      </c>
+      <c r="AO36">
+        <v>2</v>
+      </c>
+      <c r="AP36">
+        <v>1.33</v>
+      </c>
+      <c r="AQ36">
+        <v>1.33</v>
+      </c>
+      <c r="AR36">
+        <v>1.08</v>
+      </c>
+      <c r="AS36">
+        <v>0.88</v>
+      </c>
+      <c r="AT36">
+        <v>1.96</v>
+      </c>
+      <c r="AU36">
+        <v>9</v>
+      </c>
+      <c r="AV36">
+        <v>3</v>
+      </c>
+      <c r="AW36">
+        <v>4</v>
+      </c>
+      <c r="AX36">
+        <v>2</v>
+      </c>
+      <c r="AY36">
+        <v>13</v>
+      </c>
+      <c r="AZ36">
+        <v>5</v>
+      </c>
+      <c r="BA36">
+        <v>6</v>
+      </c>
+      <c r="BB36">
+        <v>2</v>
+      </c>
+      <c r="BC36">
+        <v>8</v>
+      </c>
+      <c r="BD36">
+        <v>1.55</v>
+      </c>
+      <c r="BE36">
+        <v>8</v>
+      </c>
+      <c r="BF36">
+        <v>3.02</v>
+      </c>
+      <c r="BG36">
+        <v>1.47</v>
+      </c>
+      <c r="BH36">
+        <v>2.62</v>
+      </c>
+      <c r="BI36">
+        <v>1.82</v>
+      </c>
+      <c r="BJ36">
+        <v>1.98</v>
+      </c>
+      <c r="BK36">
+        <v>2.31</v>
+      </c>
+      <c r="BL36">
+        <v>1.59</v>
+      </c>
+      <c r="BM36">
+        <v>3.02</v>
+      </c>
+      <c r="BN36">
+        <v>1.27</v>
+      </c>
+      <c r="BO36">
+        <v>3.8</v>
+      </c>
+      <c r="BP36">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,21 @@
     <t>['5', '50', '70', '77']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['40', '74']</t>
+  </si>
+  <si>
+    <t>['30', '90+3']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -410,6 +425,15 @@
   </si>
   <si>
     <t>['39', '88']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['65', '82']</t>
   </si>
 </sst>
 </file>
@@ -771,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1108,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ2">
         <v>2</v>
@@ -1236,7 +1260,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1314,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1523,7 +1547,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1648,7 +1672,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1854,7 +1878,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -1935,7 +1959,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2138,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7">
         <v>1.33</v>
@@ -2266,7 +2290,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2472,7 +2496,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2550,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2678,7 +2702,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2759,7 +2783,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2884,7 +2908,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -2962,7 +2986,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3090,7 +3114,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3168,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3374,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>1.83</v>
@@ -3583,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR14">
         <v>1.21</v>
@@ -3708,7 +3732,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3786,10 +3810,10 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3914,7 +3938,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4120,7 +4144,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4532,7 +4556,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4738,7 +4762,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -4816,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -4944,7 +4968,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5150,7 +5174,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5231,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5437,7 +5461,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ23">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>0.92</v>
@@ -5562,7 +5586,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5640,10 +5664,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>2.26</v>
@@ -5768,7 +5792,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5849,7 +5873,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR25">
         <v>0.98</v>
@@ -6052,10 +6076,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.48</v>
@@ -6258,10 +6282,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR27">
         <v>1.95</v>
@@ -6386,7 +6410,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6464,10 +6488,10 @@
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>1</v>
@@ -6670,7 +6694,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -6798,7 +6822,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -6876,7 +6900,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ30">
         <v>3</v>
@@ -7210,7 +7234,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7416,7 +7440,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q33">
         <v>1.57</v>
@@ -7828,7 +7852,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8034,7 +8058,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q36">
         <v>2.4</v>
@@ -8191,6 +8215,1242 @@
       </c>
       <c r="BP36">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7537324</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>108</v>
+      </c>
+      <c r="P37" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>2.05</v>
+      </c>
+      <c r="S37">
+        <v>3.75</v>
+      </c>
+      <c r="T37">
+        <v>1.44</v>
+      </c>
+      <c r="U37">
+        <v>2.63</v>
+      </c>
+      <c r="V37">
+        <v>3.25</v>
+      </c>
+      <c r="W37">
+        <v>1.33</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>1.06</v>
+      </c>
+      <c r="Z37">
+        <v>2.35</v>
+      </c>
+      <c r="AA37">
+        <v>3.25</v>
+      </c>
+      <c r="AB37">
+        <v>2.8</v>
+      </c>
+      <c r="AC37">
+        <v>1.02</v>
+      </c>
+      <c r="AD37">
+        <v>7.3</v>
+      </c>
+      <c r="AE37">
+        <v>1.33</v>
+      </c>
+      <c r="AF37">
+        <v>2.77</v>
+      </c>
+      <c r="AG37">
+        <v>2</v>
+      </c>
+      <c r="AH37">
+        <v>1.72</v>
+      </c>
+      <c r="AI37">
+        <v>1.95</v>
+      </c>
+      <c r="AJ37">
+        <v>1.8</v>
+      </c>
+      <c r="AK37">
+        <v>1.35</v>
+      </c>
+      <c r="AL37">
+        <v>1.33</v>
+      </c>
+      <c r="AM37">
+        <v>1.64</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0.67</v>
+      </c>
+      <c r="AP37">
+        <v>0.25</v>
+      </c>
+      <c r="AQ37">
+        <v>0.75</v>
+      </c>
+      <c r="AR37">
+        <v>1.17</v>
+      </c>
+      <c r="AS37">
+        <v>0.83</v>
+      </c>
+      <c r="AT37">
+        <v>2</v>
+      </c>
+      <c r="AU37">
+        <v>8</v>
+      </c>
+      <c r="AV37">
+        <v>2</v>
+      </c>
+      <c r="AW37">
+        <v>7</v>
+      </c>
+      <c r="AX37">
+        <v>1</v>
+      </c>
+      <c r="AY37">
+        <v>15</v>
+      </c>
+      <c r="AZ37">
+        <v>3</v>
+      </c>
+      <c r="BA37">
+        <v>6</v>
+      </c>
+      <c r="BB37">
+        <v>4</v>
+      </c>
+      <c r="BC37">
+        <v>10</v>
+      </c>
+      <c r="BD37">
+        <v>1.99</v>
+      </c>
+      <c r="BE37">
+        <v>6.2</v>
+      </c>
+      <c r="BF37">
+        <v>2.33</v>
+      </c>
+      <c r="BG37">
+        <v>1.44</v>
+      </c>
+      <c r="BH37">
+        <v>2.51</v>
+      </c>
+      <c r="BI37">
+        <v>1.85</v>
+      </c>
+      <c r="BJ37">
+        <v>1.95</v>
+      </c>
+      <c r="BK37">
+        <v>2.34</v>
+      </c>
+      <c r="BL37">
+        <v>1.5</v>
+      </c>
+      <c r="BM37">
+        <v>3.08</v>
+      </c>
+      <c r="BN37">
+        <v>1.26</v>
+      </c>
+      <c r="BO37">
+        <v>4</v>
+      </c>
+      <c r="BP37">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7537323</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45563.58333333334</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>109</v>
+      </c>
+      <c r="P38" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q38">
+        <v>2.5</v>
+      </c>
+      <c r="R38">
+        <v>2.05</v>
+      </c>
+      <c r="S38">
+        <v>5</v>
+      </c>
+      <c r="T38">
+        <v>1.44</v>
+      </c>
+      <c r="U38">
+        <v>2.63</v>
+      </c>
+      <c r="V38">
+        <v>3.4</v>
+      </c>
+      <c r="W38">
+        <v>1.3</v>
+      </c>
+      <c r="X38">
+        <v>10</v>
+      </c>
+      <c r="Y38">
+        <v>1.06</v>
+      </c>
+      <c r="Z38">
+        <v>1.8</v>
+      </c>
+      <c r="AA38">
+        <v>3.3</v>
+      </c>
+      <c r="AB38">
+        <v>4.3</v>
+      </c>
+      <c r="AC38">
+        <v>1.03</v>
+      </c>
+      <c r="AD38">
+        <v>6.95</v>
+      </c>
+      <c r="AE38">
+        <v>1.36</v>
+      </c>
+      <c r="AF38">
+        <v>2.65</v>
+      </c>
+      <c r="AG38">
+        <v>2.23</v>
+      </c>
+      <c r="AH38">
+        <v>1.58</v>
+      </c>
+      <c r="AI38">
+        <v>2</v>
+      </c>
+      <c r="AJ38">
+        <v>1.75</v>
+      </c>
+      <c r="AK38">
+        <v>1.21</v>
+      </c>
+      <c r="AL38">
+        <v>1.31</v>
+      </c>
+      <c r="AM38">
+        <v>1.96</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0.5</v>
+      </c>
+      <c r="AP38">
+        <v>0.33</v>
+      </c>
+      <c r="AQ38">
+        <v>0.67</v>
+      </c>
+      <c r="AR38">
+        <v>1.97</v>
+      </c>
+      <c r="AS38">
+        <v>1.07</v>
+      </c>
+      <c r="AT38">
+        <v>3.04</v>
+      </c>
+      <c r="AU38">
+        <v>3</v>
+      </c>
+      <c r="AV38">
+        <v>3</v>
+      </c>
+      <c r="AW38">
+        <v>6</v>
+      </c>
+      <c r="AX38">
+        <v>6</v>
+      </c>
+      <c r="AY38">
+        <v>9</v>
+      </c>
+      <c r="AZ38">
+        <v>9</v>
+      </c>
+      <c r="BA38">
+        <v>4</v>
+      </c>
+      <c r="BB38">
+        <v>3</v>
+      </c>
+      <c r="BC38">
+        <v>7</v>
+      </c>
+      <c r="BD38">
+        <v>1.62</v>
+      </c>
+      <c r="BE38">
+        <v>6.5</v>
+      </c>
+      <c r="BF38">
+        <v>3.18</v>
+      </c>
+      <c r="BG38">
+        <v>1.46</v>
+      </c>
+      <c r="BH38">
+        <v>2.45</v>
+      </c>
+      <c r="BI38">
+        <v>1.9</v>
+      </c>
+      <c r="BJ38">
+        <v>1.9</v>
+      </c>
+      <c r="BK38">
+        <v>2.4</v>
+      </c>
+      <c r="BL38">
+        <v>1.48</v>
+      </c>
+      <c r="BM38">
+        <v>3.22</v>
+      </c>
+      <c r="BN38">
+        <v>1.24</v>
+      </c>
+      <c r="BO38">
+        <v>4.5</v>
+      </c>
+      <c r="BP38">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7537326</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45564.45833333334</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39" t="s">
+        <v>110</v>
+      </c>
+      <c r="P39" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q39">
+        <v>2.63</v>
+      </c>
+      <c r="R39">
+        <v>2.1</v>
+      </c>
+      <c r="S39">
+        <v>4.33</v>
+      </c>
+      <c r="T39">
+        <v>1.44</v>
+      </c>
+      <c r="U39">
+        <v>2.63</v>
+      </c>
+      <c r="V39">
+        <v>3</v>
+      </c>
+      <c r="W39">
+        <v>1.36</v>
+      </c>
+      <c r="X39">
+        <v>9</v>
+      </c>
+      <c r="Y39">
+        <v>1.07</v>
+      </c>
+      <c r="Z39">
+        <v>1.85</v>
+      </c>
+      <c r="AA39">
+        <v>3.3</v>
+      </c>
+      <c r="AB39">
+        <v>3.6</v>
+      </c>
+      <c r="AC39">
+        <v>1.02</v>
+      </c>
+      <c r="AD39">
+        <v>7.4</v>
+      </c>
+      <c r="AE39">
+        <v>1.3</v>
+      </c>
+      <c r="AF39">
+        <v>2.91</v>
+      </c>
+      <c r="AG39">
+        <v>1.95</v>
+      </c>
+      <c r="AH39">
+        <v>1.7</v>
+      </c>
+      <c r="AI39">
+        <v>1.91</v>
+      </c>
+      <c r="AJ39">
+        <v>1.91</v>
+      </c>
+      <c r="AK39">
+        <v>1.19</v>
+      </c>
+      <c r="AL39">
+        <v>1.28</v>
+      </c>
+      <c r="AM39">
+        <v>1.87</v>
+      </c>
+      <c r="AN39">
+        <v>2</v>
+      </c>
+      <c r="AO39">
+        <v>0.5</v>
+      </c>
+      <c r="AP39">
+        <v>1.33</v>
+      </c>
+      <c r="AQ39">
+        <v>1.33</v>
+      </c>
+      <c r="AR39">
+        <v>1.2</v>
+      </c>
+      <c r="AS39">
+        <v>0.68</v>
+      </c>
+      <c r="AT39">
+        <v>1.88</v>
+      </c>
+      <c r="AU39">
+        <v>4</v>
+      </c>
+      <c r="AV39">
+        <v>4</v>
+      </c>
+      <c r="AW39">
+        <v>5</v>
+      </c>
+      <c r="AX39">
+        <v>5</v>
+      </c>
+      <c r="AY39">
+        <v>9</v>
+      </c>
+      <c r="AZ39">
+        <v>9</v>
+      </c>
+      <c r="BA39">
+        <v>4</v>
+      </c>
+      <c r="BB39">
+        <v>2</v>
+      </c>
+      <c r="BC39">
+        <v>6</v>
+      </c>
+      <c r="BD39">
+        <v>1.64</v>
+      </c>
+      <c r="BE39">
+        <v>7.5</v>
+      </c>
+      <c r="BF39">
+        <v>2.78</v>
+      </c>
+      <c r="BG39">
+        <v>1.6</v>
+      </c>
+      <c r="BH39">
+        <v>2.25</v>
+      </c>
+      <c r="BI39">
+        <v>2.05</v>
+      </c>
+      <c r="BJ39">
+        <v>1.7</v>
+      </c>
+      <c r="BK39">
+        <v>2.65</v>
+      </c>
+      <c r="BL39">
+        <v>1.45</v>
+      </c>
+      <c r="BM39">
+        <v>3.7</v>
+      </c>
+      <c r="BN39">
+        <v>1.25</v>
+      </c>
+      <c r="BO39">
+        <v>4.8</v>
+      </c>
+      <c r="BP39">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7537325</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45564.54166666666</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>111</v>
+      </c>
+      <c r="P40" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>1.15</v>
+      </c>
+      <c r="AA40">
+        <v>6.5</v>
+      </c>
+      <c r="AB40">
+        <v>12.5</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>1.53</v>
+      </c>
+      <c r="AH40">
+        <v>2.25</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>2</v>
+      </c>
+      <c r="AO40">
+        <v>2</v>
+      </c>
+      <c r="AP40">
+        <v>2.33</v>
+      </c>
+      <c r="AQ40">
+        <v>1.33</v>
+      </c>
+      <c r="AR40">
+        <v>2.09</v>
+      </c>
+      <c r="AS40">
+        <v>1.14</v>
+      </c>
+      <c r="AT40">
+        <v>3.23</v>
+      </c>
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
+        <v>5</v>
+      </c>
+      <c r="AX40">
+        <v>2</v>
+      </c>
+      <c r="AY40">
+        <v>11</v>
+      </c>
+      <c r="AZ40">
+        <v>5</v>
+      </c>
+      <c r="BA40">
+        <v>5</v>
+      </c>
+      <c r="BB40">
+        <v>5</v>
+      </c>
+      <c r="BC40">
+        <v>10</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <v>0</v>
+      </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7537327</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45564.60416666666</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>84</v>
+      </c>
+      <c r="P41" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q41">
+        <v>2.05</v>
+      </c>
+      <c r="R41">
+        <v>2.38</v>
+      </c>
+      <c r="S41">
+        <v>6</v>
+      </c>
+      <c r="T41">
+        <v>1.33</v>
+      </c>
+      <c r="U41">
+        <v>3.25</v>
+      </c>
+      <c r="V41">
+        <v>2.63</v>
+      </c>
+      <c r="W41">
+        <v>1.44</v>
+      </c>
+      <c r="X41">
+        <v>7</v>
+      </c>
+      <c r="Y41">
+        <v>1.1</v>
+      </c>
+      <c r="Z41">
+        <v>1.53</v>
+      </c>
+      <c r="AA41">
+        <v>3.9</v>
+      </c>
+      <c r="AB41">
+        <v>6.25</v>
+      </c>
+      <c r="AC41">
+        <v>1.01</v>
+      </c>
+      <c r="AD41">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE41">
+        <v>1.21</v>
+      </c>
+      <c r="AF41">
+        <v>3.5</v>
+      </c>
+      <c r="AG41">
+        <v>1.8</v>
+      </c>
+      <c r="AH41">
+        <v>2</v>
+      </c>
+      <c r="AI41">
+        <v>1.91</v>
+      </c>
+      <c r="AJ41">
+        <v>1.91</v>
+      </c>
+      <c r="AK41">
+        <v>1.09</v>
+      </c>
+      <c r="AL41">
+        <v>1.17</v>
+      </c>
+      <c r="AM41">
+        <v>2.6</v>
+      </c>
+      <c r="AN41">
+        <v>2.33</v>
+      </c>
+      <c r="AO41">
+        <v>1.33</v>
+      </c>
+      <c r="AP41">
+        <v>1.75</v>
+      </c>
+      <c r="AQ41">
+        <v>1.75</v>
+      </c>
+      <c r="AR41">
+        <v>1.71</v>
+      </c>
+      <c r="AS41">
+        <v>1.45</v>
+      </c>
+      <c r="AT41">
+        <v>3.16</v>
+      </c>
+      <c r="AU41">
+        <v>4</v>
+      </c>
+      <c r="AV41">
+        <v>6</v>
+      </c>
+      <c r="AW41">
+        <v>10</v>
+      </c>
+      <c r="AX41">
+        <v>2</v>
+      </c>
+      <c r="AY41">
+        <v>14</v>
+      </c>
+      <c r="AZ41">
+        <v>8</v>
+      </c>
+      <c r="BA41">
+        <v>5</v>
+      </c>
+      <c r="BB41">
+        <v>5</v>
+      </c>
+      <c r="BC41">
+        <v>10</v>
+      </c>
+      <c r="BD41">
+        <v>1.22</v>
+      </c>
+      <c r="BE41">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF41">
+        <v>6.55</v>
+      </c>
+      <c r="BG41">
+        <v>1.46</v>
+      </c>
+      <c r="BH41">
+        <v>2.45</v>
+      </c>
+      <c r="BI41">
+        <v>1.87</v>
+      </c>
+      <c r="BJ41">
+        <v>1.87</v>
+      </c>
+      <c r="BK41">
+        <v>2.4</v>
+      </c>
+      <c r="BL41">
+        <v>1.48</v>
+      </c>
+      <c r="BM41">
+        <v>3.22</v>
+      </c>
+      <c r="BN41">
+        <v>1.24</v>
+      </c>
+      <c r="BO41">
+        <v>4.33</v>
+      </c>
+      <c r="BP41">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7537322</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45564.625</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>112</v>
+      </c>
+      <c r="P42" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>1.68</v>
+      </c>
+      <c r="AA42">
+        <v>3.8</v>
+      </c>
+      <c r="AB42">
+        <v>4.35</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>1.67</v>
+      </c>
+      <c r="AH42">
+        <v>2.07</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>2.33</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>2.5</v>
+      </c>
+      <c r="AQ42">
+        <v>0.67</v>
+      </c>
+      <c r="AR42">
+        <v>1.99</v>
+      </c>
+      <c r="AS42">
+        <v>1.41</v>
+      </c>
+      <c r="AT42">
+        <v>3.4</v>
+      </c>
+      <c r="AU42">
+        <v>3</v>
+      </c>
+      <c r="AV42">
+        <v>5</v>
+      </c>
+      <c r="AW42">
+        <v>10</v>
+      </c>
+      <c r="AX42">
+        <v>3</v>
+      </c>
+      <c r="AY42">
+        <v>13</v>
+      </c>
+      <c r="AZ42">
+        <v>8</v>
+      </c>
+      <c r="BA42">
+        <v>6</v>
+      </c>
+      <c r="BB42">
+        <v>1</v>
+      </c>
+      <c r="BC42">
+        <v>7</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BF42">
+        <v>0</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BH42">
+        <v>0</v>
+      </c>
+      <c r="BI42">
+        <v>0</v>
+      </c>
+      <c r="BJ42">
+        <v>0</v>
+      </c>
+      <c r="BK42">
+        <v>0</v>
+      </c>
+      <c r="BL42">
+        <v>0</v>
+      </c>
+      <c r="BM42">
+        <v>0</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
+      <c r="BO42">
+        <v>0</v>
+      </c>
+      <c r="BP42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -334,25 +334,28 @@
     <t>['10', '81', '88']</t>
   </si>
   <si>
+    <t>['5', '50', '70', '77']</t>
+  </si>
+  <si>
     <t>['46']</t>
   </si>
   <si>
-    <t>['5', '50', '70', '77']</t>
+    <t>['43']</t>
   </si>
   <si>
     <t>['37']</t>
   </si>
   <si>
-    <t>['43']</t>
+    <t>['30', '90+3']</t>
+  </si>
+  <si>
+    <t>['40', '74']</t>
   </si>
   <si>
     <t>['18']</t>
   </si>
   <si>
-    <t>['40', '74']</t>
-  </si>
-  <si>
-    <t>['30', '90+3']</t>
+    <t>['67']</t>
   </si>
   <si>
     <t>['13', '73']</t>
@@ -421,19 +424,22 @@
     <t>['15']</t>
   </si>
   <si>
+    <t>['39', '88']</t>
+  </si>
+  <si>
     <t>['90+4']</t>
   </si>
   <si>
-    <t>['39', '88']</t>
+    <t>['8']</t>
   </si>
   <si>
     <t>['22']</t>
   </si>
   <si>
-    <t>['8']</t>
-  </si>
-  <si>
     <t>['65', '82']</t>
+  </si>
+  <si>
+    <t>['36', '63']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,7 +1060,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1260,7 +1266,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1341,7 +1347,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1672,7 +1678,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1878,7 +1884,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2290,7 +2296,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2496,7 +2502,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2702,7 +2708,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2908,7 +2914,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3114,7 +3120,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3732,7 +3738,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3938,7 +3944,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4016,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -4144,7 +4150,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4431,7 +4437,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4556,7 +4562,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4762,7 +4768,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -4968,7 +4974,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5174,7 +5180,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5458,7 +5464,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ23">
         <v>0.75</v>
@@ -5586,7 +5592,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5792,7 +5798,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6410,7 +6416,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6822,7 +6828,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7234,7 +7240,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7440,7 +7446,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q33">
         <v>1.57</v>
@@ -7521,7 +7527,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
         <v>1.44</v>
@@ -7810,7 +7816,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7537318</v>
+        <v>7537316</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7825,190 +7831,190 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O35" t="s">
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q35">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S35">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="T35">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U35">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V35">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="W35">
+        <v>1.4</v>
+      </c>
+      <c r="X35">
+        <v>8</v>
+      </c>
+      <c r="Y35">
+        <v>1.08</v>
+      </c>
+      <c r="Z35">
+        <v>1.8</v>
+      </c>
+      <c r="AA35">
+        <v>3.5</v>
+      </c>
+      <c r="AB35">
+        <v>4.35</v>
+      </c>
+      <c r="AC35">
+        <v>1.02</v>
+      </c>
+      <c r="AD35">
+        <v>11.4</v>
+      </c>
+      <c r="AE35">
         <v>1.3</v>
       </c>
-      <c r="X35">
-        <v>10</v>
-      </c>
-      <c r="Y35">
-        <v>1.06</v>
-      </c>
-      <c r="Z35">
-        <v>2.65</v>
-      </c>
-      <c r="AA35">
-        <v>3.1</v>
-      </c>
-      <c r="AB35">
-        <v>2.65</v>
-      </c>
-      <c r="AC35">
-        <v>1.04</v>
-      </c>
-      <c r="AD35">
-        <v>6.45</v>
-      </c>
-      <c r="AE35">
-        <v>1.36</v>
-      </c>
       <c r="AF35">
-        <v>2.66</v>
+        <v>3.49</v>
       </c>
       <c r="AG35">
-        <v>2.18</v>
+        <v>1.9</v>
       </c>
       <c r="AH35">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="AI35">
+        <v>1.8</v>
+      </c>
+      <c r="AJ35">
         <v>1.95</v>
       </c>
-      <c r="AJ35">
-        <v>1.8</v>
-      </c>
       <c r="AK35">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AL35">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AM35">
-        <v>1.52</v>
+        <v>2.05</v>
       </c>
       <c r="AN35">
         <v>0.5</v>
       </c>
       <c r="AO35">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP35">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
       </c>
       <c r="AR35">
-        <v>0.97</v>
+        <v>1.08</v>
       </c>
       <c r="AS35">
-        <v>0.65</v>
+        <v>0.88</v>
       </c>
       <c r="AT35">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="AU35">
         <v>5</v>
       </c>
       <c r="AV35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW35">
+        <v>2</v>
+      </c>
+      <c r="AX35">
+        <v>2</v>
+      </c>
+      <c r="AY35">
         <v>7</v>
       </c>
-      <c r="AX35">
-        <v>0</v>
-      </c>
-      <c r="AY35">
-        <v>12</v>
-      </c>
       <c r="AZ35">
         <v>2</v>
       </c>
       <c r="BA35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB35">
         <v>2</v>
       </c>
       <c r="BC35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD35">
+        <v>1.55</v>
+      </c>
+      <c r="BE35">
+        <v>8</v>
+      </c>
+      <c r="BF35">
+        <v>3.02</v>
+      </c>
+      <c r="BG35">
+        <v>1.47</v>
+      </c>
+      <c r="BH35">
+        <v>2.62</v>
+      </c>
+      <c r="BI35">
         <v>1.82</v>
       </c>
-      <c r="BE35">
-        <v>7.5</v>
-      </c>
-      <c r="BF35">
-        <v>2.4</v>
-      </c>
-      <c r="BG35">
-        <v>1.49</v>
-      </c>
-      <c r="BH35">
-        <v>2.53</v>
-      </c>
-      <c r="BI35">
-        <v>1.85</v>
-      </c>
       <c r="BJ35">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BK35">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="BL35">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="BM35">
-        <v>3.08</v>
+        <v>3.02</v>
       </c>
       <c r="BN35">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="BO35">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="BP35">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8016,7 +8022,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7537316</v>
+        <v>7537318</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8025,196 +8031,196 @@
         <v>69</v>
       </c>
       <c r="E36" s="2">
-        <v>45557.60416666666</v>
+        <v>45556.875</v>
       </c>
       <c r="F36">
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O36" t="s">
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q36">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="R36">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="T36">
+        <v>1.5</v>
+      </c>
+      <c r="U36">
+        <v>2.5</v>
+      </c>
+      <c r="V36">
+        <v>3.4</v>
+      </c>
+      <c r="W36">
+        <v>1.3</v>
+      </c>
+      <c r="X36">
+        <v>10</v>
+      </c>
+      <c r="Y36">
+        <v>1.06</v>
+      </c>
+      <c r="Z36">
+        <v>2.65</v>
+      </c>
+      <c r="AA36">
+        <v>3.1</v>
+      </c>
+      <c r="AB36">
+        <v>2.65</v>
+      </c>
+      <c r="AC36">
+        <v>1.04</v>
+      </c>
+      <c r="AD36">
+        <v>6.45</v>
+      </c>
+      <c r="AE36">
+        <v>1.36</v>
+      </c>
+      <c r="AF36">
+        <v>2.66</v>
+      </c>
+      <c r="AG36">
+        <v>2.18</v>
+      </c>
+      <c r="AH36">
+        <v>1.58</v>
+      </c>
+      <c r="AI36">
+        <v>1.95</v>
+      </c>
+      <c r="AJ36">
+        <v>1.8</v>
+      </c>
+      <c r="AK36">
         <v>1.4</v>
       </c>
-      <c r="U36">
-        <v>2.75</v>
-      </c>
-      <c r="V36">
-        <v>2.75</v>
-      </c>
-      <c r="W36">
-        <v>1.4</v>
-      </c>
-      <c r="X36">
-        <v>8</v>
-      </c>
-      <c r="Y36">
-        <v>1.08</v>
-      </c>
-      <c r="Z36">
-        <v>1.8</v>
-      </c>
-      <c r="AA36">
-        <v>3.5</v>
-      </c>
-      <c r="AB36">
-        <v>4.35</v>
-      </c>
-      <c r="AC36">
-        <v>1.02</v>
-      </c>
-      <c r="AD36">
-        <v>11.4</v>
-      </c>
-      <c r="AE36">
-        <v>1.3</v>
-      </c>
-      <c r="AF36">
-        <v>3.49</v>
-      </c>
-      <c r="AG36">
-        <v>1.9</v>
-      </c>
-      <c r="AH36">
-        <v>1.8</v>
-      </c>
-      <c r="AI36">
-        <v>1.8</v>
-      </c>
-      <c r="AJ36">
-        <v>1.95</v>
-      </c>
-      <c r="AK36">
-        <v>1.22</v>
-      </c>
       <c r="AL36">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AM36">
-        <v>2.05</v>
+        <v>1.52</v>
       </c>
       <c r="AN36">
         <v>0.5</v>
       </c>
       <c r="AO36">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
       </c>
       <c r="AR36">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="AS36">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
       <c r="AT36">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="AU36">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW36">
+        <v>7</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>12</v>
+      </c>
+      <c r="AZ36">
+        <v>2</v>
+      </c>
+      <c r="BA36">
         <v>4</v>
       </c>
-      <c r="AX36">
-        <v>2</v>
-      </c>
-      <c r="AY36">
-        <v>13</v>
-      </c>
-      <c r="AZ36">
-        <v>5</v>
-      </c>
-      <c r="BA36">
+      <c r="BB36">
+        <v>2</v>
+      </c>
+      <c r="BC36">
         <v>6</v>
       </c>
-      <c r="BB36">
-        <v>2</v>
-      </c>
-      <c r="BC36">
-        <v>8</v>
-      </c>
       <c r="BD36">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="BE36">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF36">
-        <v>3.02</v>
+        <v>2.4</v>
       </c>
       <c r="BG36">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="BH36">
-        <v>2.62</v>
+        <v>2.53</v>
       </c>
       <c r="BI36">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="BJ36">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BK36">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="BL36">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="BM36">
-        <v>3.02</v>
+        <v>3.08</v>
       </c>
       <c r="BN36">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="BO36">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="BP36">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8222,7 +8228,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7537324</v>
+        <v>7537323</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8231,16 +8237,16 @@
         <v>69</v>
       </c>
       <c r="E37" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F37">
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -8264,16 +8270,16 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q37">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R37">
         <v>2.05</v>
       </c>
       <c r="S37">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T37">
         <v>1.44</v>
@@ -8282,10 +8288,10 @@
         <v>2.63</v>
       </c>
       <c r="V37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W37">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X37">
         <v>10</v>
@@ -8294,133 +8300,133 @@
         <v>1.06</v>
       </c>
       <c r="Z37">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="AA37">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AB37">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="AC37">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD37">
-        <v>7.3</v>
+        <v>6.95</v>
       </c>
       <c r="AE37">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF37">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="AG37">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="AH37">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="AI37">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AJ37">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AK37">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="AL37">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AM37">
-        <v>1.64</v>
+        <v>1.96</v>
       </c>
       <c r="AN37">
         <v>0</v>
       </c>
       <c r="AO37">
+        <v>0.5</v>
+      </c>
+      <c r="AP37">
+        <v>0.33</v>
+      </c>
+      <c r="AQ37">
         <v>0.67</v>
       </c>
-      <c r="AP37">
-        <v>0.25</v>
-      </c>
-      <c r="AQ37">
-        <v>0.75</v>
-      </c>
       <c r="AR37">
+        <v>1.97</v>
+      </c>
+      <c r="AS37">
+        <v>1.07</v>
+      </c>
+      <c r="AT37">
+        <v>3.04</v>
+      </c>
+      <c r="AU37">
+        <v>3</v>
+      </c>
+      <c r="AV37">
+        <v>2</v>
+      </c>
+      <c r="AW37">
+        <v>4</v>
+      </c>
+      <c r="AX37">
+        <v>5</v>
+      </c>
+      <c r="AY37">
+        <v>7</v>
+      </c>
+      <c r="AZ37">
+        <v>7</v>
+      </c>
+      <c r="BA37">
+        <v>4</v>
+      </c>
+      <c r="BB37">
+        <v>3</v>
+      </c>
+      <c r="BC37">
+        <v>7</v>
+      </c>
+      <c r="BD37">
+        <v>1.62</v>
+      </c>
+      <c r="BE37">
+        <v>6.5</v>
+      </c>
+      <c r="BF37">
+        <v>3.18</v>
+      </c>
+      <c r="BG37">
+        <v>1.46</v>
+      </c>
+      <c r="BH37">
+        <v>2.45</v>
+      </c>
+      <c r="BI37">
+        <v>1.9</v>
+      </c>
+      <c r="BJ37">
+        <v>1.9</v>
+      </c>
+      <c r="BK37">
+        <v>2.4</v>
+      </c>
+      <c r="BL37">
+        <v>1.48</v>
+      </c>
+      <c r="BM37">
+        <v>3.22</v>
+      </c>
+      <c r="BN37">
+        <v>1.24</v>
+      </c>
+      <c r="BO37">
+        <v>4.5</v>
+      </c>
+      <c r="BP37">
         <v>1.17</v>
-      </c>
-      <c r="AS37">
-        <v>0.83</v>
-      </c>
-      <c r="AT37">
-        <v>2</v>
-      </c>
-      <c r="AU37">
-        <v>8</v>
-      </c>
-      <c r="AV37">
-        <v>2</v>
-      </c>
-      <c r="AW37">
-        <v>7</v>
-      </c>
-      <c r="AX37">
-        <v>1</v>
-      </c>
-      <c r="AY37">
-        <v>15</v>
-      </c>
-      <c r="AZ37">
-        <v>3</v>
-      </c>
-      <c r="BA37">
-        <v>6</v>
-      </c>
-      <c r="BB37">
-        <v>4</v>
-      </c>
-      <c r="BC37">
-        <v>10</v>
-      </c>
-      <c r="BD37">
-        <v>1.99</v>
-      </c>
-      <c r="BE37">
-        <v>6.2</v>
-      </c>
-      <c r="BF37">
-        <v>2.33</v>
-      </c>
-      <c r="BG37">
-        <v>1.44</v>
-      </c>
-      <c r="BH37">
-        <v>2.51</v>
-      </c>
-      <c r="BI37">
-        <v>1.85</v>
-      </c>
-      <c r="BJ37">
-        <v>1.95</v>
-      </c>
-      <c r="BK37">
-        <v>2.34</v>
-      </c>
-      <c r="BL37">
-        <v>1.5</v>
-      </c>
-      <c r="BM37">
-        <v>3.08</v>
-      </c>
-      <c r="BN37">
-        <v>1.26</v>
-      </c>
-      <c r="BO37">
-        <v>4</v>
-      </c>
-      <c r="BP37">
-        <v>1.2</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8428,7 +8434,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7537323</v>
+        <v>7537324</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8437,16 +8443,16 @@
         <v>69</v>
       </c>
       <c r="E38" s="2">
-        <v>45563.58333333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F38">
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -8470,16 +8476,16 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q38">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R38">
         <v>2.05</v>
       </c>
       <c r="S38">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="T38">
         <v>1.44</v>
@@ -8488,10 +8494,10 @@
         <v>2.63</v>
       </c>
       <c r="V38">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W38">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X38">
         <v>10</v>
@@ -8500,133 +8506,133 @@
         <v>1.06</v>
       </c>
       <c r="Z38">
+        <v>2.35</v>
+      </c>
+      <c r="AA38">
+        <v>3.25</v>
+      </c>
+      <c r="AB38">
+        <v>2.8</v>
+      </c>
+      <c r="AC38">
+        <v>1.02</v>
+      </c>
+      <c r="AD38">
+        <v>7.3</v>
+      </c>
+      <c r="AE38">
+        <v>1.33</v>
+      </c>
+      <c r="AF38">
+        <v>2.77</v>
+      </c>
+      <c r="AG38">
+        <v>2</v>
+      </c>
+      <c r="AH38">
+        <v>1.72</v>
+      </c>
+      <c r="AI38">
+        <v>1.95</v>
+      </c>
+      <c r="AJ38">
         <v>1.8</v>
       </c>
-      <c r="AA38">
-        <v>3.3</v>
-      </c>
-      <c r="AB38">
-        <v>4.3</v>
-      </c>
-      <c r="AC38">
-        <v>1.03</v>
-      </c>
-      <c r="AD38">
-        <v>6.95</v>
-      </c>
-      <c r="AE38">
-        <v>1.36</v>
-      </c>
-      <c r="AF38">
-        <v>2.65</v>
-      </c>
-      <c r="AG38">
-        <v>2.23</v>
-      </c>
-      <c r="AH38">
-        <v>1.58</v>
-      </c>
-      <c r="AI38">
-        <v>2</v>
-      </c>
-      <c r="AJ38">
-        <v>1.75</v>
-      </c>
       <c r="AK38">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AL38">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AM38">
-        <v>1.96</v>
+        <v>1.64</v>
       </c>
       <c r="AN38">
         <v>0</v>
       </c>
       <c r="AO38">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
-        <v>1.97</v>
+        <v>1.17</v>
       </c>
       <c r="AS38">
-        <v>1.07</v>
+        <v>0.83</v>
       </c>
       <c r="AT38">
-        <v>3.04</v>
+        <v>2</v>
       </c>
       <c r="AU38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW38">
+        <v>5</v>
+      </c>
+      <c r="AX38">
+        <v>1</v>
+      </c>
+      <c r="AY38">
+        <v>11</v>
+      </c>
+      <c r="AZ38">
+        <v>3</v>
+      </c>
+      <c r="BA38">
         <v>6</v>
       </c>
-      <c r="AX38">
-        <v>6</v>
-      </c>
-      <c r="AY38">
-        <v>9</v>
-      </c>
-      <c r="AZ38">
-        <v>9</v>
-      </c>
-      <c r="BA38">
+      <c r="BB38">
         <v>4</v>
       </c>
-      <c r="BB38">
-        <v>3</v>
-      </c>
       <c r="BC38">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD38">
-        <v>1.62</v>
+        <v>1.99</v>
       </c>
       <c r="BE38">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="BF38">
-        <v>3.18</v>
+        <v>2.33</v>
       </c>
       <c r="BG38">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="BH38">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="BI38">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BJ38">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BK38">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="BL38">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BM38">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="BN38">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="BO38">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BP38">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -8634,7 +8640,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7537326</v>
+        <v>7537327</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8643,94 +8649,94 @@
         <v>69</v>
       </c>
       <c r="E39" s="2">
-        <v>45564.45833333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F39">
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="Q39">
+        <v>2.05</v>
+      </c>
+      <c r="R39">
+        <v>2.38</v>
+      </c>
+      <c r="S39">
+        <v>6</v>
+      </c>
+      <c r="T39">
+        <v>1.33</v>
+      </c>
+      <c r="U39">
+        <v>3.25</v>
+      </c>
+      <c r="V39">
         <v>2.63</v>
       </c>
-      <c r="R39">
-        <v>2.1</v>
-      </c>
-      <c r="S39">
-        <v>4.33</v>
-      </c>
-      <c r="T39">
+      <c r="W39">
         <v>1.44</v>
       </c>
-      <c r="U39">
-        <v>2.63</v>
-      </c>
-      <c r="V39">
-        <v>3</v>
-      </c>
-      <c r="W39">
-        <v>1.36</v>
-      </c>
       <c r="X39">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y39">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z39">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="AA39">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="AB39">
-        <v>3.6</v>
+        <v>6.25</v>
       </c>
       <c r="AC39">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD39">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE39">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AF39">
-        <v>2.91</v>
+        <v>3.5</v>
       </c>
       <c r="AG39">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AH39">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AI39">
         <v>1.91</v>
@@ -8739,100 +8745,100 @@
         <v>1.91</v>
       </c>
       <c r="AK39">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="AL39">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AM39">
-        <v>1.87</v>
+        <v>2.6</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO39">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
-        <v>1.2</v>
+        <v>1.71</v>
       </c>
       <c r="AS39">
-        <v>0.68</v>
+        <v>1.45</v>
       </c>
       <c r="AT39">
-        <v>1.88</v>
+        <v>3.16</v>
       </c>
       <c r="AU39">
         <v>4</v>
       </c>
       <c r="AV39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW39">
+        <v>9</v>
+      </c>
+      <c r="AX39">
+        <v>1</v>
+      </c>
+      <c r="AY39">
+        <v>13</v>
+      </c>
+      <c r="AZ39">
+        <v>8</v>
+      </c>
+      <c r="BA39">
         <v>5</v>
       </c>
-      <c r="AX39">
+      <c r="BB39">
         <v>5</v>
       </c>
-      <c r="AY39">
-        <v>9</v>
-      </c>
-      <c r="AZ39">
-        <v>9</v>
-      </c>
-      <c r="BA39">
-        <v>4</v>
-      </c>
-      <c r="BB39">
-        <v>2</v>
-      </c>
       <c r="BC39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD39">
-        <v>1.64</v>
+        <v>1.22</v>
       </c>
       <c r="BE39">
-        <v>7.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF39">
-        <v>2.78</v>
+        <v>6.55</v>
       </c>
       <c r="BG39">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="BH39">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="BI39">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="BJ39">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="BK39">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BL39">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="BM39">
-        <v>3.7</v>
+        <v>3.22</v>
       </c>
       <c r="BN39">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="BO39">
-        <v>4.8</v>
+        <v>4.33</v>
       </c>
       <c r="BP39">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -8840,7 +8846,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7537325</v>
+        <v>7537322</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -8849,16 +8855,16 @@
         <v>69</v>
       </c>
       <c r="E40" s="2">
-        <v>45564.54166666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F40">
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -8879,7 +8885,7 @@
         <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P40" t="s">
         <v>84</v>
@@ -8912,13 +8918,13 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>1.15</v>
+        <v>1.68</v>
       </c>
       <c r="AA40">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="AB40">
-        <v>12.5</v>
+        <v>4.35</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -8933,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="AG40">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AH40">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="AI40">
         <v>0</v>
@@ -8954,52 +8960,52 @@
         <v>0</v>
       </c>
       <c r="AN40">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
-        <v>2.09</v>
+        <v>1.99</v>
       </c>
       <c r="AS40">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="AT40">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="AU40">
+        <v>3</v>
+      </c>
+      <c r="AV40">
+        <v>5</v>
+      </c>
+      <c r="AW40">
+        <v>10</v>
+      </c>
+      <c r="AX40">
+        <v>3</v>
+      </c>
+      <c r="AY40">
+        <v>13</v>
+      </c>
+      <c r="AZ40">
+        <v>8</v>
+      </c>
+      <c r="BA40">
         <v>6</v>
       </c>
-      <c r="AV40">
-        <v>3</v>
-      </c>
-      <c r="AW40">
-        <v>5</v>
-      </c>
-      <c r="AX40">
-        <v>2</v>
-      </c>
-      <c r="AY40">
-        <v>11</v>
-      </c>
-      <c r="AZ40">
-        <v>5</v>
-      </c>
-      <c r="BA40">
-        <v>5</v>
-      </c>
       <c r="BB40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC40">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD40">
         <v>0</v>
@@ -9046,7 +9052,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7537327</v>
+        <v>7537325</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9055,148 +9061,148 @@
         <v>69</v>
       </c>
       <c r="E41" s="2">
-        <v>45564.60416666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F41">
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" t="s">
+        <v>111</v>
+      </c>
+      <c r="P41" t="s">
         <v>84</v>
       </c>
-      <c r="P41" t="s">
-        <v>93</v>
-      </c>
       <c r="Q41">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>1.15</v>
+      </c>
+      <c r="AA41">
+        <v>6.5</v>
+      </c>
+      <c r="AB41">
+        <v>12.5</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>1.53</v>
+      </c>
+      <c r="AH41">
+        <v>2.25</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>2</v>
+      </c>
+      <c r="AO41">
+        <v>2</v>
+      </c>
+      <c r="AP41">
+        <v>2.33</v>
+      </c>
+      <c r="AQ41">
+        <v>1.33</v>
+      </c>
+      <c r="AR41">
+        <v>2.09</v>
+      </c>
+      <c r="AS41">
+        <v>1.14</v>
+      </c>
+      <c r="AT41">
+        <v>3.23</v>
+      </c>
+      <c r="AU41">
         <v>6</v>
       </c>
-      <c r="T41">
-        <v>1.33</v>
-      </c>
-      <c r="U41">
-        <v>3.25</v>
-      </c>
-      <c r="V41">
-        <v>2.63</v>
-      </c>
-      <c r="W41">
-        <v>1.44</v>
-      </c>
-      <c r="X41">
-        <v>7</v>
-      </c>
-      <c r="Y41">
-        <v>1.1</v>
-      </c>
-      <c r="Z41">
-        <v>1.53</v>
-      </c>
-      <c r="AA41">
-        <v>3.9</v>
-      </c>
-      <c r="AB41">
-        <v>6.25</v>
-      </c>
-      <c r="AC41">
-        <v>1.01</v>
-      </c>
-      <c r="AD41">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AE41">
-        <v>1.21</v>
-      </c>
-      <c r="AF41">
-        <v>3.5</v>
-      </c>
-      <c r="AG41">
-        <v>1.8</v>
-      </c>
-      <c r="AH41">
-        <v>2</v>
-      </c>
-      <c r="AI41">
-        <v>1.91</v>
-      </c>
-      <c r="AJ41">
-        <v>1.91</v>
-      </c>
-      <c r="AK41">
-        <v>1.09</v>
-      </c>
-      <c r="AL41">
-        <v>1.17</v>
-      </c>
-      <c r="AM41">
-        <v>2.6</v>
-      </c>
-      <c r="AN41">
-        <v>2.33</v>
-      </c>
-      <c r="AO41">
-        <v>1.33</v>
-      </c>
-      <c r="AP41">
-        <v>1.75</v>
-      </c>
-      <c r="AQ41">
-        <v>1.75</v>
-      </c>
-      <c r="AR41">
-        <v>1.71</v>
-      </c>
-      <c r="AS41">
-        <v>1.45</v>
-      </c>
-      <c r="AT41">
-        <v>3.16</v>
-      </c>
-      <c r="AU41">
-        <v>4</v>
-      </c>
       <c r="AV41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX41">
         <v>2</v>
       </c>
       <c r="AY41">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ41">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA41">
         <v>5</v>
@@ -9208,43 +9214,43 @@
         <v>10</v>
       </c>
       <c r="BD41">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="BE41">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF41">
-        <v>6.55</v>
+        <v>0</v>
       </c>
       <c r="BG41">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="BH41">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="BI41">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="BJ41">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="BK41">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="BL41">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="BM41">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="BN41">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="BO41">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="BP41">
-        <v>1.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9252,7 +9258,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7537322</v>
+        <v>7537326</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9261,16 +9267,16 @@
         <v>69</v>
       </c>
       <c r="E42" s="2">
-        <v>45564.625</v>
+        <v>45563.875</v>
       </c>
       <c r="F42">
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -9282,175 +9288,381 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42" t="s">
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Z42">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AA42">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="AB42">
-        <v>4.35</v>
+        <v>3.6</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AG42">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="AH42">
-        <v>2.07</v>
+        <v>1.7</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AJ42">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AK42">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AL42">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM42">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AN42">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>2.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
-        <v>1.99</v>
+        <v>1.2</v>
       </c>
       <c r="AS42">
-        <v>1.41</v>
+        <v>0.68</v>
       </c>
       <c r="AT42">
-        <v>3.4</v>
+        <v>1.88</v>
       </c>
       <c r="AU42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV42">
+        <v>3</v>
+      </c>
+      <c r="AW42">
+        <v>3</v>
+      </c>
+      <c r="AX42">
         <v>5</v>
       </c>
-      <c r="AW42">
-        <v>10</v>
-      </c>
-      <c r="AX42">
-        <v>3</v>
-      </c>
       <c r="AY42">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AZ42">
         <v>8</v>
       </c>
       <c r="BA42">
+        <v>4</v>
+      </c>
+      <c r="BB42">
+        <v>2</v>
+      </c>
+      <c r="BC42">
         <v>6</v>
       </c>
-      <c r="BB42">
-        <v>1</v>
-      </c>
-      <c r="BC42">
+      <c r="BD42">
+        <v>1.64</v>
+      </c>
+      <c r="BE42">
+        <v>7.5</v>
+      </c>
+      <c r="BF42">
+        <v>2.78</v>
+      </c>
+      <c r="BG42">
+        <v>1.6</v>
+      </c>
+      <c r="BH42">
+        <v>2.25</v>
+      </c>
+      <c r="BI42">
+        <v>2.05</v>
+      </c>
+      <c r="BJ42">
+        <v>1.7</v>
+      </c>
+      <c r="BK42">
+        <v>2.65</v>
+      </c>
+      <c r="BL42">
+        <v>1.45</v>
+      </c>
+      <c r="BM42">
+        <v>3.7</v>
+      </c>
+      <c r="BN42">
+        <v>1.25</v>
+      </c>
+      <c r="BO42">
+        <v>4.8</v>
+      </c>
+      <c r="BP42">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7537328</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45565.58333333334</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>113</v>
+      </c>
+      <c r="P43" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>2.1</v>
+      </c>
+      <c r="S43">
+        <v>3.75</v>
+      </c>
+      <c r="T43">
+        <v>1.44</v>
+      </c>
+      <c r="U43">
+        <v>2.63</v>
+      </c>
+      <c r="V43">
+        <v>3.25</v>
+      </c>
+      <c r="W43">
+        <v>1.33</v>
+      </c>
+      <c r="X43">
+        <v>9</v>
+      </c>
+      <c r="Y43">
+        <v>1.07</v>
+      </c>
+      <c r="Z43">
+        <v>2.5</v>
+      </c>
+      <c r="AA43">
+        <v>3.2</v>
+      </c>
+      <c r="AB43">
+        <v>2.7</v>
+      </c>
+      <c r="AC43">
+        <v>1.01</v>
+      </c>
+      <c r="AD43">
+        <v>7.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.35</v>
+      </c>
+      <c r="AF43">
+        <v>3.25</v>
+      </c>
+      <c r="AG43">
+        <v>1.95</v>
+      </c>
+      <c r="AH43">
+        <v>1.75</v>
+      </c>
+      <c r="AI43">
+        <v>1.8</v>
+      </c>
+      <c r="AJ43">
+        <v>1.95</v>
+      </c>
+      <c r="AK43">
+        <v>1.33</v>
+      </c>
+      <c r="AL43">
+        <v>1.3</v>
+      </c>
+      <c r="AM43">
+        <v>1.55</v>
+      </c>
+      <c r="AN43">
+        <v>0.5</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0.33</v>
+      </c>
+      <c r="AQ43">
+        <v>0.75</v>
+      </c>
+      <c r="AR43">
+        <v>1.06</v>
+      </c>
+      <c r="AS43">
+        <v>1.36</v>
+      </c>
+      <c r="AT43">
+        <v>2.42</v>
+      </c>
+      <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
         <v>7</v>
       </c>
-      <c r="BD42">
-        <v>0</v>
-      </c>
-      <c r="BE42">
-        <v>0</v>
-      </c>
-      <c r="BF42">
-        <v>0</v>
-      </c>
-      <c r="BG42">
-        <v>0</v>
-      </c>
-      <c r="BH42">
-        <v>0</v>
-      </c>
-      <c r="BI42">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>0</v>
-      </c>
-      <c r="BK42">
-        <v>0</v>
-      </c>
-      <c r="BL42">
-        <v>0</v>
-      </c>
-      <c r="BM42">
-        <v>0</v>
-      </c>
-      <c r="BN42">
-        <v>0</v>
-      </c>
-      <c r="BO42">
-        <v>0</v>
-      </c>
-      <c r="BP42">
-        <v>0</v>
+      <c r="AW43">
+        <v>7</v>
+      </c>
+      <c r="AX43">
+        <v>4</v>
+      </c>
+      <c r="AY43">
+        <v>10</v>
+      </c>
+      <c r="AZ43">
+        <v>11</v>
+      </c>
+      <c r="BA43">
+        <v>6</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
+      <c r="BC43">
+        <v>11</v>
+      </c>
+      <c r="BD43">
+        <v>2</v>
+      </c>
+      <c r="BE43">
+        <v>7.5</v>
+      </c>
+      <c r="BF43">
+        <v>2.1</v>
+      </c>
+      <c r="BG43">
+        <v>1.57</v>
+      </c>
+      <c r="BH43">
+        <v>2.35</v>
+      </c>
+      <c r="BI43">
+        <v>1.98</v>
+      </c>
+      <c r="BJ43">
+        <v>1.82</v>
+      </c>
+      <c r="BK43">
+        <v>2.55</v>
+      </c>
+      <c r="BL43">
+        <v>1.49</v>
+      </c>
+      <c r="BM43">
+        <v>3.7</v>
+      </c>
+      <c r="BN43">
+        <v>1.25</v>
+      </c>
+      <c r="BO43">
+        <v>4.7</v>
+      </c>
+      <c r="BP43">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,33 +331,30 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['46']</t>
+  </si>
+  <si>
     <t>['10', '81', '88']</t>
   </si>
   <si>
     <t>['5', '50', '70', '77']</t>
   </si>
   <si>
-    <t>['46']</t>
+    <t>['37']</t>
   </si>
   <si>
     <t>['43']</t>
   </si>
   <si>
-    <t>['37']</t>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['40', '74']</t>
   </si>
   <si>
     <t>['30', '90+3']</t>
   </si>
   <si>
-    <t>['40', '74']</t>
-  </si>
-  <si>
-    <t>['18']</t>
-  </si>
-  <si>
-    <t>['67']</t>
-  </si>
-  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -421,25 +418,22 @@
     <t>['28']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
     <t>['15']</t>
   </si>
   <si>
     <t>['39', '88']</t>
   </si>
   <si>
-    <t>['90+4']</t>
+    <t>['22']</t>
   </si>
   <si>
     <t>['8']</t>
   </si>
   <si>
-    <t>['22']</t>
-  </si>
-  <si>
     <t>['65', '82']</t>
-  </si>
-  <si>
-    <t>['36', '63']</t>
   </si>
 </sst>
 </file>
@@ -801,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1266,7 +1260,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1347,7 +1341,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1678,7 +1672,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1884,7 +1878,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2296,7 +2290,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2502,7 +2496,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2708,7 +2702,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2914,7 +2908,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3120,7 +3114,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3738,7 +3732,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3944,7 +3938,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4022,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -4150,7 +4144,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4437,7 +4431,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ18">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4562,7 +4556,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4768,7 +4762,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -4974,7 +4968,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5180,7 +5174,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5464,7 +5458,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ23">
         <v>0.75</v>
@@ -5592,7 +5586,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5798,7 +5792,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6416,7 +6410,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6828,7 +6822,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7240,7 +7234,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7404,7 +7398,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7537319</v>
+        <v>7537318</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -7413,196 +7407,196 @@
         <v>69</v>
       </c>
       <c r="E33" s="2">
-        <v>45556.875</v>
+        <v>45557.4375</v>
       </c>
       <c r="F33">
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O33" t="s">
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q33">
-        <v>1.57</v>
+        <v>3.25</v>
       </c>
       <c r="R33">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="S33">
+        <v>3.6</v>
+      </c>
+      <c r="T33">
+        <v>1.5</v>
+      </c>
+      <c r="U33">
+        <v>2.5</v>
+      </c>
+      <c r="V33">
+        <v>3.4</v>
+      </c>
+      <c r="W33">
+        <v>1.3</v>
+      </c>
+      <c r="X33">
+        <v>10</v>
+      </c>
+      <c r="Y33">
+        <v>1.06</v>
+      </c>
+      <c r="Z33">
+        <v>2.65</v>
+      </c>
+      <c r="AA33">
+        <v>3.1</v>
+      </c>
+      <c r="AB33">
+        <v>2.65</v>
+      </c>
+      <c r="AC33">
+        <v>1.04</v>
+      </c>
+      <c r="AD33">
+        <v>6.45</v>
+      </c>
+      <c r="AE33">
+        <v>1.36</v>
+      </c>
+      <c r="AF33">
+        <v>2.66</v>
+      </c>
+      <c r="AG33">
+        <v>2.18</v>
+      </c>
+      <c r="AH33">
+        <v>1.58</v>
+      </c>
+      <c r="AI33">
+        <v>1.95</v>
+      </c>
+      <c r="AJ33">
+        <v>1.8</v>
+      </c>
+      <c r="AK33">
+        <v>1.4</v>
+      </c>
+      <c r="AL33">
+        <v>1.38</v>
+      </c>
+      <c r="AM33">
+        <v>1.52</v>
+      </c>
+      <c r="AN33">
+        <v>0.5</v>
+      </c>
+      <c r="AO33">
+        <v>1.5</v>
+      </c>
+      <c r="AP33">
+        <v>0.67</v>
+      </c>
+      <c r="AQ33">
+        <v>1.33</v>
+      </c>
+      <c r="AR33">
+        <v>0.97</v>
+      </c>
+      <c r="AS33">
+        <v>0.65</v>
+      </c>
+      <c r="AT33">
+        <v>1.62</v>
+      </c>
+      <c r="AU33">
+        <v>5</v>
+      </c>
+      <c r="AV33">
+        <v>3</v>
+      </c>
+      <c r="AW33">
+        <v>6</v>
+      </c>
+      <c r="AX33">
+        <v>1</v>
+      </c>
+      <c r="AY33">
         <v>11</v>
       </c>
-      <c r="T33">
-        <v>1.25</v>
-      </c>
-      <c r="U33">
-        <v>3.75</v>
-      </c>
-      <c r="V33">
-        <v>2.2</v>
-      </c>
-      <c r="W33">
-        <v>1.62</v>
-      </c>
-      <c r="X33">
-        <v>5</v>
-      </c>
-      <c r="Y33">
-        <v>1.17</v>
-      </c>
-      <c r="Z33">
-        <v>1.17</v>
-      </c>
-      <c r="AA33">
-        <v>6.75</v>
-      </c>
-      <c r="AB33">
-        <v>14</v>
-      </c>
-      <c r="AC33">
-        <v>1.01</v>
-      </c>
-      <c r="AD33">
-        <v>21</v>
-      </c>
-      <c r="AE33">
-        <v>1.18</v>
-      </c>
-      <c r="AF33">
-        <v>5</v>
-      </c>
-      <c r="AG33">
-        <v>1.5</v>
-      </c>
-      <c r="AH33">
+      <c r="AZ33">
+        <v>4</v>
+      </c>
+      <c r="BA33">
+        <v>4</v>
+      </c>
+      <c r="BB33">
+        <v>2</v>
+      </c>
+      <c r="BC33">
+        <v>6</v>
+      </c>
+      <c r="BD33">
+        <v>1.82</v>
+      </c>
+      <c r="BE33">
+        <v>7.5</v>
+      </c>
+      <c r="BF33">
         <v>2.4</v>
       </c>
-      <c r="AI33">
-        <v>2.25</v>
-      </c>
-      <c r="AJ33">
-        <v>1.57</v>
-      </c>
-      <c r="AK33">
-        <v>1.01</v>
-      </c>
-      <c r="AL33">
-        <v>1.07</v>
-      </c>
-      <c r="AM33">
-        <v>4.75</v>
-      </c>
-      <c r="AN33">
-        <v>1.5</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>2</v>
-      </c>
-      <c r="AQ33">
-        <v>0.75</v>
-      </c>
-      <c r="AR33">
-        <v>1.44</v>
-      </c>
-      <c r="AS33">
-        <v>1.36</v>
-      </c>
-      <c r="AT33">
-        <v>2.8</v>
-      </c>
-      <c r="AU33">
-        <v>7</v>
-      </c>
-      <c r="AV33">
-        <v>6</v>
-      </c>
-      <c r="AW33">
-        <v>3</v>
-      </c>
-      <c r="AX33">
+      <c r="BG33">
+        <v>1.49</v>
+      </c>
+      <c r="BH33">
+        <v>2.53</v>
+      </c>
+      <c r="BI33">
+        <v>1.85</v>
+      </c>
+      <c r="BJ33">
+        <v>1.95</v>
+      </c>
+      <c r="BK33">
+        <v>2.36</v>
+      </c>
+      <c r="BL33">
+        <v>1.56</v>
+      </c>
+      <c r="BM33">
+        <v>3.08</v>
+      </c>
+      <c r="BN33">
+        <v>1.26</v>
+      </c>
+      <c r="BO33">
         <v>4</v>
       </c>
-      <c r="AY33">
-        <v>10</v>
-      </c>
-      <c r="AZ33">
-        <v>10</v>
-      </c>
-      <c r="BA33">
-        <v>7</v>
-      </c>
-      <c r="BB33">
-        <v>3</v>
-      </c>
-      <c r="BC33">
-        <v>10</v>
-      </c>
-      <c r="BD33">
-        <v>1.11</v>
-      </c>
-      <c r="BE33">
-        <v>12</v>
-      </c>
-      <c r="BF33">
-        <v>8.25</v>
-      </c>
-      <c r="BG33">
-        <v>1.47</v>
-      </c>
-      <c r="BH33">
-        <v>2.64</v>
-      </c>
-      <c r="BI33">
-        <v>1.82</v>
-      </c>
-      <c r="BJ33">
-        <v>1.98</v>
-      </c>
-      <c r="BK33">
-        <v>2.35</v>
-      </c>
-      <c r="BL33">
-        <v>1.57</v>
-      </c>
-      <c r="BM33">
-        <v>2.97</v>
-      </c>
-      <c r="BN33">
-        <v>1.28</v>
-      </c>
-      <c r="BO33">
-        <v>3.8</v>
-      </c>
       <c r="BP33">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="34" spans="1:68">
@@ -7610,7 +7604,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7537314</v>
+        <v>7537319</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7619,196 +7613,196 @@
         <v>69</v>
       </c>
       <c r="E34" s="2">
-        <v>45556.875</v>
+        <v>45557.5</v>
       </c>
       <c r="F34">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O34" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>1.57</v>
       </c>
       <c r="R34">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="S34">
-        <v>1.83</v>
+        <v>11</v>
       </c>
       <c r="T34">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U34">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V34">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W34">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X34">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y34">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Z34">
-        <v>7.75</v>
+        <v>1.17</v>
       </c>
       <c r="AA34">
-        <v>5.25</v>
+        <v>6.75</v>
       </c>
       <c r="AB34">
-        <v>1.33</v>
+        <v>14</v>
       </c>
       <c r="AC34">
         <v>1.01</v>
       </c>
       <c r="AD34">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AE34">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AF34">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AG34">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AH34">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AI34">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AJ34">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="AK34">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="AL34">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AM34">
-        <v>1.06</v>
+        <v>4.75</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR34">
-        <v>2.14</v>
+        <v>1.44</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT34">
-        <v>3.64</v>
+        <v>2.8</v>
       </c>
       <c r="AU34">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AV34">
         <v>7</v>
       </c>
       <c r="AW34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX34">
+        <v>5</v>
+      </c>
+      <c r="AY34">
+        <v>16</v>
+      </c>
+      <c r="AZ34">
+        <v>12</v>
+      </c>
+      <c r="BA34">
         <v>7</v>
       </c>
-      <c r="AY34">
-        <v>11</v>
-      </c>
-      <c r="AZ34">
-        <v>14</v>
-      </c>
-      <c r="BA34">
-        <v>2</v>
-      </c>
       <c r="BB34">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BC34">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BD34">
-        <v>4.58</v>
+        <v>1.11</v>
       </c>
       <c r="BE34">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="BF34">
-        <v>1.3</v>
+        <v>8.25</v>
       </c>
       <c r="BG34">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="BH34">
-        <v>2.51</v>
+        <v>2.64</v>
       </c>
       <c r="BI34">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="BJ34">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BK34">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="BL34">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="BM34">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="BN34">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BO34">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="BP34">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -7825,7 +7819,7 @@
         <v>69</v>
       </c>
       <c r="E35" s="2">
-        <v>45556.875</v>
+        <v>45557.60416666666</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -7855,7 +7849,7 @@
         <v>6</v>
       </c>
       <c r="O35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P35" t="s">
         <v>136</v>
@@ -7951,22 +7945,22 @@
         <v>1.96</v>
       </c>
       <c r="AU35">
+        <v>9</v>
+      </c>
+      <c r="AV35">
+        <v>3</v>
+      </c>
+      <c r="AW35">
+        <v>4</v>
+      </c>
+      <c r="AX35">
+        <v>2</v>
+      </c>
+      <c r="AY35">
+        <v>13</v>
+      </c>
+      <c r="AZ35">
         <v>5</v>
-      </c>
-      <c r="AV35">
-        <v>0</v>
-      </c>
-      <c r="AW35">
-        <v>2</v>
-      </c>
-      <c r="AX35">
-        <v>2</v>
-      </c>
-      <c r="AY35">
-        <v>7</v>
-      </c>
-      <c r="AZ35">
-        <v>2</v>
       </c>
       <c r="BA35">
         <v>6</v>
@@ -8022,7 +8016,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7537318</v>
+        <v>7537314</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8031,16 +8025,16 @@
         <v>69</v>
       </c>
       <c r="E36" s="2">
-        <v>45556.875</v>
+        <v>45557.625</v>
       </c>
       <c r="F36">
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -8052,151 +8046,151 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="Q36">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="S36">
-        <v>3.6</v>
+        <v>1.83</v>
       </c>
       <c r="T36">
+        <v>1.29</v>
+      </c>
+      <c r="U36">
+        <v>3.5</v>
+      </c>
+      <c r="V36">
+        <v>2.25</v>
+      </c>
+      <c r="W36">
+        <v>1.57</v>
+      </c>
+      <c r="X36">
+        <v>5.5</v>
+      </c>
+      <c r="Y36">
+        <v>1.14</v>
+      </c>
+      <c r="Z36">
+        <v>7.75</v>
+      </c>
+      <c r="AA36">
+        <v>5.25</v>
+      </c>
+      <c r="AB36">
+        <v>1.33</v>
+      </c>
+      <c r="AC36">
+        <v>1.01</v>
+      </c>
+      <c r="AD36">
+        <v>16.5</v>
+      </c>
+      <c r="AE36">
+        <v>1.14</v>
+      </c>
+      <c r="AF36">
+        <v>4.33</v>
+      </c>
+      <c r="AG36">
+        <v>1.55</v>
+      </c>
+      <c r="AH36">
+        <v>2.3</v>
+      </c>
+      <c r="AI36">
+        <v>1.8</v>
+      </c>
+      <c r="AJ36">
+        <v>1.95</v>
+      </c>
+      <c r="AK36">
+        <v>3.2</v>
+      </c>
+      <c r="AL36">
+        <v>1.13</v>
+      </c>
+      <c r="AM36">
+        <v>1.06</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>2</v>
+      </c>
+      <c r="AR36">
+        <v>2.14</v>
+      </c>
+      <c r="AS36">
         <v>1.5</v>
       </c>
-      <c r="U36">
-        <v>2.5</v>
-      </c>
-      <c r="V36">
-        <v>3.4</v>
-      </c>
-      <c r="W36">
-        <v>1.3</v>
-      </c>
-      <c r="X36">
-        <v>10</v>
-      </c>
-      <c r="Y36">
-        <v>1.06</v>
-      </c>
-      <c r="Z36">
-        <v>2.65</v>
-      </c>
-      <c r="AA36">
-        <v>3.1</v>
-      </c>
-      <c r="AB36">
-        <v>2.65</v>
-      </c>
-      <c r="AC36">
-        <v>1.04</v>
-      </c>
-      <c r="AD36">
-        <v>6.45</v>
-      </c>
-      <c r="AE36">
-        <v>1.36</v>
-      </c>
-      <c r="AF36">
-        <v>2.66</v>
-      </c>
-      <c r="AG36">
-        <v>2.18</v>
-      </c>
-      <c r="AH36">
-        <v>1.58</v>
-      </c>
-      <c r="AI36">
-        <v>1.95</v>
-      </c>
-      <c r="AJ36">
-        <v>1.8</v>
-      </c>
-      <c r="AK36">
-        <v>1.4</v>
-      </c>
-      <c r="AL36">
-        <v>1.38</v>
-      </c>
-      <c r="AM36">
-        <v>1.52</v>
-      </c>
-      <c r="AN36">
-        <v>0.5</v>
-      </c>
-      <c r="AO36">
-        <v>1.5</v>
-      </c>
-      <c r="AP36">
-        <v>0.67</v>
-      </c>
-      <c r="AQ36">
-        <v>1.33</v>
-      </c>
-      <c r="AR36">
-        <v>0.97</v>
-      </c>
-      <c r="AS36">
-        <v>0.65</v>
-      </c>
       <c r="AT36">
-        <v>1.62</v>
+        <v>3.64</v>
       </c>
       <c r="AU36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW36">
         <v>7</v>
       </c>
       <c r="AX36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AY36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ36">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BA36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB36">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="BC36">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BD36">
-        <v>1.82</v>
+        <v>4.58</v>
       </c>
       <c r="BE36">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF36">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="BG36">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="BH36">
-        <v>2.53</v>
+        <v>2.51</v>
       </c>
       <c r="BI36">
         <v>1.85</v>
@@ -8205,10 +8199,10 @@
         <v>1.95</v>
       </c>
       <c r="BK36">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="BL36">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="BM36">
         <v>3.08</v>
@@ -8228,7 +8222,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7537323</v>
+        <v>7537324</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8237,16 +8231,16 @@
         <v>69</v>
       </c>
       <c r="E37" s="2">
-        <v>45562.875</v>
+        <v>45563.45833333334</v>
       </c>
       <c r="F37">
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -8270,16 +8264,16 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q37">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R37">
         <v>2.05</v>
       </c>
       <c r="S37">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="T37">
         <v>1.44</v>
@@ -8288,10 +8282,10 @@
         <v>2.63</v>
       </c>
       <c r="V37">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W37">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X37">
         <v>10</v>
@@ -8300,133 +8294,133 @@
         <v>1.06</v>
       </c>
       <c r="Z37">
+        <v>2.35</v>
+      </c>
+      <c r="AA37">
+        <v>3.25</v>
+      </c>
+      <c r="AB37">
+        <v>2.8</v>
+      </c>
+      <c r="AC37">
+        <v>1.02</v>
+      </c>
+      <c r="AD37">
+        <v>7.3</v>
+      </c>
+      <c r="AE37">
+        <v>1.33</v>
+      </c>
+      <c r="AF37">
+        <v>2.77</v>
+      </c>
+      <c r="AG37">
+        <v>2</v>
+      </c>
+      <c r="AH37">
+        <v>1.72</v>
+      </c>
+      <c r="AI37">
+        <v>1.95</v>
+      </c>
+      <c r="AJ37">
         <v>1.8</v>
       </c>
-      <c r="AA37">
-        <v>3.3</v>
-      </c>
-      <c r="AB37">
-        <v>4.3</v>
-      </c>
-      <c r="AC37">
-        <v>1.03</v>
-      </c>
-      <c r="AD37">
-        <v>6.95</v>
-      </c>
-      <c r="AE37">
-        <v>1.36</v>
-      </c>
-      <c r="AF37">
-        <v>2.65</v>
-      </c>
-      <c r="AG37">
-        <v>2.23</v>
-      </c>
-      <c r="AH37">
-        <v>1.58</v>
-      </c>
-      <c r="AI37">
-        <v>2</v>
-      </c>
-      <c r="AJ37">
-        <v>1.75</v>
-      </c>
       <c r="AK37">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AL37">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AM37">
-        <v>1.96</v>
+        <v>1.64</v>
       </c>
       <c r="AN37">
         <v>0</v>
       </c>
       <c r="AO37">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP37">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR37">
-        <v>1.97</v>
+        <v>1.17</v>
       </c>
       <c r="AS37">
-        <v>1.07</v>
+        <v>0.83</v>
       </c>
       <c r="AT37">
-        <v>3.04</v>
+        <v>2</v>
       </c>
       <c r="AU37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV37">
         <v>2</v>
       </c>
       <c r="AW37">
+        <v>7</v>
+      </c>
+      <c r="AX37">
+        <v>1</v>
+      </c>
+      <c r="AY37">
+        <v>15</v>
+      </c>
+      <c r="AZ37">
+        <v>3</v>
+      </c>
+      <c r="BA37">
+        <v>6</v>
+      </c>
+      <c r="BB37">
         <v>4</v>
       </c>
-      <c r="AX37">
-        <v>5</v>
-      </c>
-      <c r="AY37">
-        <v>7</v>
-      </c>
-      <c r="AZ37">
-        <v>7</v>
-      </c>
-      <c r="BA37">
+      <c r="BC37">
+        <v>10</v>
+      </c>
+      <c r="BD37">
+        <v>1.99</v>
+      </c>
+      <c r="BE37">
+        <v>6.2</v>
+      </c>
+      <c r="BF37">
+        <v>2.33</v>
+      </c>
+      <c r="BG37">
+        <v>1.44</v>
+      </c>
+      <c r="BH37">
+        <v>2.51</v>
+      </c>
+      <c r="BI37">
+        <v>1.85</v>
+      </c>
+      <c r="BJ37">
+        <v>1.95</v>
+      </c>
+      <c r="BK37">
+        <v>2.34</v>
+      </c>
+      <c r="BL37">
+        <v>1.5</v>
+      </c>
+      <c r="BM37">
+        <v>3.08</v>
+      </c>
+      <c r="BN37">
+        <v>1.26</v>
+      </c>
+      <c r="BO37">
         <v>4</v>
       </c>
-      <c r="BB37">
-        <v>3</v>
-      </c>
-      <c r="BC37">
-        <v>7</v>
-      </c>
-      <c r="BD37">
-        <v>1.62</v>
-      </c>
-      <c r="BE37">
-        <v>6.5</v>
-      </c>
-      <c r="BF37">
-        <v>3.18</v>
-      </c>
-      <c r="BG37">
-        <v>1.46</v>
-      </c>
-      <c r="BH37">
-        <v>2.45</v>
-      </c>
-      <c r="BI37">
-        <v>1.9</v>
-      </c>
-      <c r="BJ37">
-        <v>1.9</v>
-      </c>
-      <c r="BK37">
-        <v>2.4</v>
-      </c>
-      <c r="BL37">
-        <v>1.48</v>
-      </c>
-      <c r="BM37">
-        <v>3.22</v>
-      </c>
-      <c r="BN37">
-        <v>1.24</v>
-      </c>
-      <c r="BO37">
-        <v>4.5</v>
-      </c>
       <c r="BP37">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8434,7 +8428,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7537324</v>
+        <v>7537323</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8443,16 +8437,16 @@
         <v>69</v>
       </c>
       <c r="E38" s="2">
-        <v>45562.875</v>
+        <v>45563.58333333334</v>
       </c>
       <c r="F38">
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -8476,16 +8470,16 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R38">
         <v>2.05</v>
       </c>
       <c r="S38">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T38">
         <v>1.44</v>
@@ -8494,10 +8488,10 @@
         <v>2.63</v>
       </c>
       <c r="V38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W38">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X38">
         <v>10</v>
@@ -8506,133 +8500,133 @@
         <v>1.06</v>
       </c>
       <c r="Z38">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="AA38">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AB38">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="AC38">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD38">
-        <v>7.3</v>
+        <v>6.95</v>
       </c>
       <c r="AE38">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF38">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="AG38">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="AH38">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="AI38">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AJ38">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AK38">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="AL38">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AM38">
-        <v>1.64</v>
+        <v>1.96</v>
       </c>
       <c r="AN38">
         <v>0</v>
       </c>
       <c r="AO38">
+        <v>0.5</v>
+      </c>
+      <c r="AP38">
+        <v>0.33</v>
+      </c>
+      <c r="AQ38">
         <v>0.67</v>
       </c>
-      <c r="AP38">
-        <v>0.25</v>
-      </c>
-      <c r="AQ38">
-        <v>0.75</v>
-      </c>
       <c r="AR38">
+        <v>1.97</v>
+      </c>
+      <c r="AS38">
+        <v>1.07</v>
+      </c>
+      <c r="AT38">
+        <v>3.04</v>
+      </c>
+      <c r="AU38">
+        <v>3</v>
+      </c>
+      <c r="AV38">
+        <v>3</v>
+      </c>
+      <c r="AW38">
+        <v>6</v>
+      </c>
+      <c r="AX38">
+        <v>6</v>
+      </c>
+      <c r="AY38">
+        <v>9</v>
+      </c>
+      <c r="AZ38">
+        <v>9</v>
+      </c>
+      <c r="BA38">
+        <v>4</v>
+      </c>
+      <c r="BB38">
+        <v>3</v>
+      </c>
+      <c r="BC38">
+        <v>7</v>
+      </c>
+      <c r="BD38">
+        <v>1.62</v>
+      </c>
+      <c r="BE38">
+        <v>6.5</v>
+      </c>
+      <c r="BF38">
+        <v>3.18</v>
+      </c>
+      <c r="BG38">
+        <v>1.46</v>
+      </c>
+      <c r="BH38">
+        <v>2.45</v>
+      </c>
+      <c r="BI38">
+        <v>1.9</v>
+      </c>
+      <c r="BJ38">
+        <v>1.9</v>
+      </c>
+      <c r="BK38">
+        <v>2.4</v>
+      </c>
+      <c r="BL38">
+        <v>1.48</v>
+      </c>
+      <c r="BM38">
+        <v>3.22</v>
+      </c>
+      <c r="BN38">
+        <v>1.24</v>
+      </c>
+      <c r="BO38">
+        <v>4.5</v>
+      </c>
+      <c r="BP38">
         <v>1.17</v>
-      </c>
-      <c r="AS38">
-        <v>0.83</v>
-      </c>
-      <c r="AT38">
-        <v>2</v>
-      </c>
-      <c r="AU38">
-        <v>6</v>
-      </c>
-      <c r="AV38">
-        <v>2</v>
-      </c>
-      <c r="AW38">
-        <v>5</v>
-      </c>
-      <c r="AX38">
-        <v>1</v>
-      </c>
-      <c r="AY38">
-        <v>11</v>
-      </c>
-      <c r="AZ38">
-        <v>3</v>
-      </c>
-      <c r="BA38">
-        <v>6</v>
-      </c>
-      <c r="BB38">
-        <v>4</v>
-      </c>
-      <c r="BC38">
-        <v>10</v>
-      </c>
-      <c r="BD38">
-        <v>1.99</v>
-      </c>
-      <c r="BE38">
-        <v>6.2</v>
-      </c>
-      <c r="BF38">
-        <v>2.33</v>
-      </c>
-      <c r="BG38">
-        <v>1.44</v>
-      </c>
-      <c r="BH38">
-        <v>2.51</v>
-      </c>
-      <c r="BI38">
-        <v>1.85</v>
-      </c>
-      <c r="BJ38">
-        <v>1.95</v>
-      </c>
-      <c r="BK38">
-        <v>2.34</v>
-      </c>
-      <c r="BL38">
-        <v>1.5</v>
-      </c>
-      <c r="BM38">
-        <v>3.08</v>
-      </c>
-      <c r="BN38">
-        <v>1.26</v>
-      </c>
-      <c r="BO38">
-        <v>4</v>
-      </c>
-      <c r="BP38">
-        <v>1.2</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -8640,7 +8634,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7537327</v>
+        <v>7537326</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8649,94 +8643,94 @@
         <v>69</v>
       </c>
       <c r="E39" s="2">
-        <v>45563.875</v>
+        <v>45564.45833333334</v>
       </c>
       <c r="F39">
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O39" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="Q39">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="R39">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="S39">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="T39">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="U39">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="V39">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W39">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="X39">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y39">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z39">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="AA39">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="AB39">
-        <v>6.25</v>
+        <v>3.6</v>
       </c>
       <c r="AC39">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD39">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AE39">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AF39">
-        <v>3.5</v>
+        <v>2.91</v>
       </c>
       <c r="AG39">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AH39">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AI39">
         <v>1.91</v>
@@ -8745,100 +8739,100 @@
         <v>1.91</v>
       </c>
       <c r="AK39">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="AL39">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AM39">
-        <v>2.6</v>
+        <v>1.87</v>
       </c>
       <c r="AN39">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO39">
+        <v>0.5</v>
+      </c>
+      <c r="AP39">
         <v>1.33</v>
       </c>
-      <c r="AP39">
-        <v>1.75</v>
-      </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
-        <v>1.71</v>
+        <v>1.2</v>
       </c>
       <c r="AS39">
-        <v>1.45</v>
+        <v>0.68</v>
       </c>
       <c r="AT39">
-        <v>3.16</v>
+        <v>1.88</v>
       </c>
       <c r="AU39">
         <v>4</v>
       </c>
       <c r="AV39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW39">
+        <v>5</v>
+      </c>
+      <c r="AX39">
+        <v>5</v>
+      </c>
+      <c r="AY39">
         <v>9</v>
       </c>
-      <c r="AX39">
-        <v>1</v>
-      </c>
-      <c r="AY39">
-        <v>13</v>
-      </c>
       <c r="AZ39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC39">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BD39">
-        <v>1.22</v>
+        <v>1.64</v>
       </c>
       <c r="BE39">
-        <v>8.800000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="BF39">
-        <v>6.55</v>
+        <v>2.78</v>
       </c>
       <c r="BG39">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="BH39">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="BI39">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="BJ39">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="BK39">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BL39">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="BM39">
-        <v>3.22</v>
+        <v>3.7</v>
       </c>
       <c r="BN39">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="BO39">
-        <v>4.33</v>
+        <v>4.8</v>
       </c>
       <c r="BP39">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -8846,7 +8840,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7537322</v>
+        <v>7537325</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -8855,16 +8849,16 @@
         <v>69</v>
       </c>
       <c r="E40" s="2">
-        <v>45563.875</v>
+        <v>45564.5</v>
       </c>
       <c r="F40">
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -8885,166 +8879,166 @@
         <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P40" t="s">
         <v>84</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z40">
-        <v>1.68</v>
+        <v>1.15</v>
       </c>
       <c r="AA40">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="AB40">
-        <v>4.35</v>
+        <v>12.5</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AG40">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AH40">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AJ40">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AK40">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AL40">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AM40">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="AN40">
+        <v>2</v>
+      </c>
+      <c r="AO40">
+        <v>2</v>
+      </c>
+      <c r="AP40">
         <v>2.33</v>
       </c>
-      <c r="AO40">
-        <v>1</v>
-      </c>
-      <c r="AP40">
-        <v>2.5</v>
-      </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="AS40">
-        <v>1.41</v>
+        <v>1.14</v>
       </c>
       <c r="AT40">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="AU40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
+        <v>6</v>
+      </c>
+      <c r="AX40">
+        <v>2</v>
+      </c>
+      <c r="AY40">
+        <v>14</v>
+      </c>
+      <c r="AZ40">
         <v>5</v>
       </c>
-      <c r="AW40">
+      <c r="BA40">
+        <v>5</v>
+      </c>
+      <c r="BB40">
+        <v>5</v>
+      </c>
+      <c r="BC40">
         <v>10</v>
       </c>
-      <c r="AX40">
-        <v>3</v>
-      </c>
-      <c r="AY40">
-        <v>13</v>
-      </c>
-      <c r="AZ40">
-        <v>8</v>
-      </c>
-      <c r="BA40">
-        <v>6</v>
-      </c>
-      <c r="BB40">
-        <v>1</v>
-      </c>
-      <c r="BC40">
-        <v>7</v>
-      </c>
       <c r="BD40">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="BE40">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="BF40">
-        <v>0</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="BG40">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="BH40">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="BI40">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BJ40">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="BK40">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="BL40">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="BM40">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="BN40">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BO40">
-        <v>0</v>
+        <v>4.64</v>
       </c>
       <c r="BP40">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9052,7 +9046,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7537325</v>
+        <v>7537327</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9061,148 +9055,148 @@
         <v>69</v>
       </c>
       <c r="E41" s="2">
-        <v>45563.875</v>
+        <v>45564.60416666666</v>
       </c>
       <c r="F41">
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z41">
-        <v>1.15</v>
+        <v>1.53</v>
       </c>
       <c r="AA41">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="AB41">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF41">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AG41">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AH41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AI41">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AJ41">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AK41">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AL41">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AM41">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO41">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
-        <v>2.09</v>
+        <v>1.71</v>
       </c>
       <c r="AS41">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="AT41">
-        <v>3.23</v>
+        <v>3.16</v>
       </c>
       <c r="AU41">
+        <v>4</v>
+      </c>
+      <c r="AV41">
         <v>6</v>
       </c>
-      <c r="AV41">
-        <v>3</v>
-      </c>
       <c r="AW41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX41">
         <v>2</v>
       </c>
       <c r="AY41">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ41">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA41">
         <v>5</v>
@@ -9214,43 +9208,43 @@
         <v>10</v>
       </c>
       <c r="BD41">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BE41">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF41">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="BG41">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="BH41">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="BI41">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="BJ41">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="BK41">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BL41">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BM41">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="BN41">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BO41">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="BP41">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9258,7 +9252,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7537326</v>
+        <v>7537322</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9267,16 +9261,16 @@
         <v>69</v>
       </c>
       <c r="E42" s="2">
-        <v>45563.875</v>
+        <v>45564.64583333334</v>
       </c>
       <c r="F42">
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -9288,381 +9282,175 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O42" t="s">
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="Q42">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="R42">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S42">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T42">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U42">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V42">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W42">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y42">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z42">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AA42">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AB42">
-        <v>3.6</v>
+        <v>4.35</v>
       </c>
       <c r="AC42">
         <v>1.02</v>
       </c>
       <c r="AD42">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AE42">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF42">
-        <v>2.91</v>
+        <v>3.75</v>
       </c>
       <c r="AG42">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="AH42">
+        <v>2.07</v>
+      </c>
+      <c r="AI42">
         <v>1.7</v>
       </c>
-      <c r="AI42">
-        <v>1.91</v>
-      </c>
       <c r="AJ42">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AK42">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AL42">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AM42">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
-        <v>1.2</v>
+        <v>1.99</v>
       </c>
       <c r="AS42">
-        <v>0.68</v>
+        <v>1.41</v>
       </c>
       <c r="AT42">
-        <v>1.88</v>
+        <v>3.4</v>
       </c>
       <c r="AU42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV42">
         <v>3</v>
       </c>
       <c r="AW42">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY42">
+        <v>12</v>
+      </c>
+      <c r="AZ42">
+        <v>6</v>
+      </c>
+      <c r="BA42">
+        <v>6</v>
+      </c>
+      <c r="BB42">
+        <v>1</v>
+      </c>
+      <c r="BC42">
         <v>7</v>
       </c>
-      <c r="AZ42">
-        <v>8</v>
-      </c>
-      <c r="BA42">
-        <v>4</v>
-      </c>
-      <c r="BB42">
-        <v>2</v>
-      </c>
-      <c r="BC42">
-        <v>6</v>
-      </c>
       <c r="BD42">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="BE42">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="BF42">
-        <v>2.78</v>
+        <v>3.78</v>
       </c>
       <c r="BG42">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="BH42">
-        <v>2.25</v>
+        <v>3.12</v>
       </c>
       <c r="BI42">
-        <v>2.05</v>
+        <v>1.63</v>
       </c>
       <c r="BJ42">
-        <v>1.7</v>
+        <v>2.28</v>
       </c>
       <c r="BK42">
-        <v>2.65</v>
+        <v>2.03</v>
       </c>
       <c r="BL42">
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
       <c r="BM42">
-        <v>3.7</v>
+        <v>2.68</v>
       </c>
       <c r="BN42">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="BO42">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="BP42">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:68">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>7537328</v>
-      </c>
-      <c r="C43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="2">
-        <v>45565.58333333334</v>
-      </c>
-      <c r="F43">
-        <v>6</v>
-      </c>
-      <c r="G43" t="s">
-        <v>81</v>
-      </c>
-      <c r="H43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>2</v>
-      </c>
-      <c r="N43">
-        <v>3</v>
-      </c>
-      <c r="O43" t="s">
-        <v>113</v>
-      </c>
-      <c r="P43" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q43">
-        <v>3</v>
-      </c>
-      <c r="R43">
-        <v>2.1</v>
-      </c>
-      <c r="S43">
-        <v>3.75</v>
-      </c>
-      <c r="T43">
-        <v>1.44</v>
-      </c>
-      <c r="U43">
-        <v>2.63</v>
-      </c>
-      <c r="V43">
-        <v>3.25</v>
-      </c>
-      <c r="W43">
-        <v>1.33</v>
-      </c>
-      <c r="X43">
-        <v>9</v>
-      </c>
-      <c r="Y43">
-        <v>1.07</v>
-      </c>
-      <c r="Z43">
-        <v>2.5</v>
-      </c>
-      <c r="AA43">
-        <v>3.2</v>
-      </c>
-      <c r="AB43">
-        <v>2.7</v>
-      </c>
-      <c r="AC43">
-        <v>1.01</v>
-      </c>
-      <c r="AD43">
-        <v>7.5</v>
-      </c>
-      <c r="AE43">
-        <v>1.35</v>
-      </c>
-      <c r="AF43">
-        <v>3.25</v>
-      </c>
-      <c r="AG43">
-        <v>1.95</v>
-      </c>
-      <c r="AH43">
-        <v>1.75</v>
-      </c>
-      <c r="AI43">
-        <v>1.8</v>
-      </c>
-      <c r="AJ43">
-        <v>1.95</v>
-      </c>
-      <c r="AK43">
-        <v>1.33</v>
-      </c>
-      <c r="AL43">
-        <v>1.3</v>
-      </c>
-      <c r="AM43">
-        <v>1.55</v>
-      </c>
-      <c r="AN43">
-        <v>0.5</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>0.33</v>
-      </c>
-      <c r="AQ43">
-        <v>0.75</v>
-      </c>
-      <c r="AR43">
-        <v>1.06</v>
-      </c>
-      <c r="AS43">
-        <v>1.36</v>
-      </c>
-      <c r="AT43">
-        <v>2.42</v>
-      </c>
-      <c r="AU43">
-        <v>3</v>
-      </c>
-      <c r="AV43">
-        <v>7</v>
-      </c>
-      <c r="AW43">
-        <v>7</v>
-      </c>
-      <c r="AX43">
-        <v>4</v>
-      </c>
-      <c r="AY43">
-        <v>10</v>
-      </c>
-      <c r="AZ43">
-        <v>11</v>
-      </c>
-      <c r="BA43">
-        <v>6</v>
-      </c>
-      <c r="BB43">
-        <v>5</v>
-      </c>
-      <c r="BC43">
-        <v>11</v>
-      </c>
-      <c r="BD43">
-        <v>2</v>
-      </c>
-      <c r="BE43">
-        <v>7.5</v>
-      </c>
-      <c r="BF43">
-        <v>2.1</v>
-      </c>
-      <c r="BG43">
-        <v>1.57</v>
-      </c>
-      <c r="BH43">
-        <v>2.35</v>
-      </c>
-      <c r="BI43">
-        <v>1.98</v>
-      </c>
-      <c r="BJ43">
-        <v>1.82</v>
-      </c>
-      <c r="BK43">
-        <v>2.55</v>
-      </c>
-      <c r="BL43">
-        <v>1.49</v>
-      </c>
-      <c r="BM43">
-        <v>3.7</v>
-      </c>
-      <c r="BN43">
-        <v>1.25</v>
-      </c>
-      <c r="BO43">
-        <v>4.7</v>
-      </c>
-      <c r="BP43">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,6 +355,9 @@
     <t>['30', '90+3']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -434,6 +437,9 @@
   </si>
   <si>
     <t>['65', '82']</t>
+  </si>
+  <si>
+    <t>['36', '63']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,7 +1060,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1159,10 +1165,10 @@
         <v>7</v>
       </c>
       <c r="AY2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA2">
         <v>3</v>
@@ -1260,7 +1266,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1341,7 +1347,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1365,10 +1371,10 @@
         <v>5</v>
       </c>
       <c r="AY3">
+        <v>19</v>
+      </c>
+      <c r="AZ3">
         <v>13</v>
-      </c>
-      <c r="AZ3">
-        <v>11</v>
       </c>
       <c r="BA3">
         <v>9</v>
@@ -1571,10 +1577,10 @@
         <v>2</v>
       </c>
       <c r="AY4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA4">
         <v>2</v>
@@ -1672,7 +1678,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1777,10 +1783,10 @@
         <v>6</v>
       </c>
       <c r="AY5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA5">
         <v>8</v>
@@ -1878,7 +1884,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -1986,7 +1992,7 @@
         <v>8</v>
       </c>
       <c r="AZ6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA6">
         <v>3</v>
@@ -2189,10 +2195,10 @@
         <v>2</v>
       </c>
       <c r="AY7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA7">
         <v>6</v>
@@ -2290,7 +2296,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2395,7 +2401,7 @@
         <v>8</v>
       </c>
       <c r="AY8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ8">
         <v>13</v>
@@ -2496,7 +2502,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2601,10 +2607,10 @@
         <v>8</v>
       </c>
       <c r="AY9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA9">
         <v>4</v>
@@ -2702,7 +2708,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2807,10 +2813,10 @@
         <v>3</v>
       </c>
       <c r="AY10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA10">
         <v>4</v>
@@ -2908,7 +2914,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3013,10 +3019,10 @@
         <v>1</v>
       </c>
       <c r="AY11">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AZ11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA11">
         <v>13</v>
@@ -3114,7 +3120,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3219,10 +3225,10 @@
         <v>2</v>
       </c>
       <c r="AY12">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA12">
         <v>13</v>
@@ -3425,10 +3431,10 @@
         <v>2</v>
       </c>
       <c r="AY13">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA13">
         <v>4</v>
@@ -3631,10 +3637,10 @@
         <v>3</v>
       </c>
       <c r="AY14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA14">
         <v>7</v>
@@ -3732,7 +3738,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3837,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="AY15">
+        <v>13</v>
+      </c>
+      <c r="AZ15">
         <v>11</v>
-      </c>
-      <c r="AZ15">
-        <v>6</v>
       </c>
       <c r="BA15">
         <v>7</v>
@@ -3938,7 +3944,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4016,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -4043,10 +4049,10 @@
         <v>5</v>
       </c>
       <c r="AY16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA16">
         <v>4</v>
@@ -4144,7 +4150,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4249,10 +4255,10 @@
         <v>3</v>
       </c>
       <c r="AY17">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA17">
         <v>4</v>
@@ -4431,7 +4437,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4455,10 +4461,10 @@
         <v>6</v>
       </c>
       <c r="AY18">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA18">
         <v>3</v>
@@ -4556,7 +4562,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4661,10 +4667,10 @@
         <v>6</v>
       </c>
       <c r="AY19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ19">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA19">
         <v>1</v>
@@ -4762,7 +4768,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -4867,10 +4873,10 @@
         <v>2</v>
       </c>
       <c r="AY20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA20">
         <v>7</v>
@@ -4968,7 +4974,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5073,10 +5079,10 @@
         <v>2</v>
       </c>
       <c r="AY21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA21">
         <v>4</v>
@@ -5174,7 +5180,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5279,10 +5285,10 @@
         <v>5</v>
       </c>
       <c r="AY22">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AZ22">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA22">
         <v>9</v>
@@ -5458,7 +5464,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ23">
         <v>0.75</v>
@@ -5485,10 +5491,10 @@
         <v>5</v>
       </c>
       <c r="AY23">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA23">
         <v>1</v>
@@ -5586,7 +5592,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5691,7 +5697,7 @@
         <v>6</v>
       </c>
       <c r="AY24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ24">
         <v>9</v>
@@ -5792,7 +5798,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5897,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="AY25">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA25">
         <v>2</v>
@@ -6103,7 +6109,7 @@
         <v>8</v>
       </c>
       <c r="AY26">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="AZ26">
         <v>8</v>
@@ -6309,10 +6315,10 @@
         <v>1</v>
       </c>
       <c r="AY27">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA27">
         <v>6</v>
@@ -6410,7 +6416,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6515,10 +6521,10 @@
         <v>8</v>
       </c>
       <c r="AY28">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ28">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA28">
         <v>6</v>
@@ -6721,10 +6727,10 @@
         <v>6</v>
       </c>
       <c r="AY29">
+        <v>17</v>
+      </c>
+      <c r="AZ29">
         <v>11</v>
-      </c>
-      <c r="AZ29">
-        <v>9</v>
       </c>
       <c r="BA29">
         <v>3</v>
@@ -6822,7 +6828,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -6927,10 +6933,10 @@
         <v>3</v>
       </c>
       <c r="AY30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ30">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA30">
         <v>4</v>
@@ -7133,10 +7139,10 @@
         <v>6</v>
       </c>
       <c r="AY31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA31">
         <v>3</v>
@@ -7234,7 +7240,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7339,10 +7345,10 @@
         <v>5</v>
       </c>
       <c r="AY32">
+        <v>13</v>
+      </c>
+      <c r="AZ32">
         <v>10</v>
-      </c>
-      <c r="AZ32">
-        <v>9</v>
       </c>
       <c r="BA32">
         <v>1</v>
@@ -7440,7 +7446,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7545,10 +7551,10 @@
         <v>1</v>
       </c>
       <c r="AY33">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA33">
         <v>4</v>
@@ -7646,7 +7652,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7727,7 +7733,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR34">
         <v>1.44</v>
@@ -7751,10 +7757,10 @@
         <v>5</v>
       </c>
       <c r="AY34">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA34">
         <v>7</v>
@@ -7852,7 +7858,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -7957,10 +7963,10 @@
         <v>2</v>
       </c>
       <c r="AY35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA35">
         <v>6</v>
@@ -8163,10 +8169,10 @@
         <v>8</v>
       </c>
       <c r="AY36">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ36">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA36">
         <v>2</v>
@@ -8264,7 +8270,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8369,10 +8375,10 @@
         <v>1</v>
       </c>
       <c r="AY37">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA37">
         <v>6</v>
@@ -8470,7 +8476,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8575,10 +8581,10 @@
         <v>6</v>
       </c>
       <c r="AY38">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ38">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA38">
         <v>4</v>
@@ -8676,7 +8682,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8781,10 +8787,10 @@
         <v>5</v>
       </c>
       <c r="AY39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA39">
         <v>4</v>
@@ -8987,10 +8993,10 @@
         <v>2</v>
       </c>
       <c r="AY40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA40">
         <v>5</v>
@@ -9193,10 +9199,10 @@
         <v>2</v>
       </c>
       <c r="AY41">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA41">
         <v>5</v>
@@ -9399,10 +9405,10 @@
         <v>3</v>
       </c>
       <c r="AY42">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ42">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA42">
         <v>6</v>
@@ -9451,6 +9457,212 @@
       </c>
       <c r="BP42">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7537328</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45565.58333333334</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>113</v>
+      </c>
+      <c r="P43" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>2.1</v>
+      </c>
+      <c r="S43">
+        <v>3.75</v>
+      </c>
+      <c r="T43">
+        <v>1.44</v>
+      </c>
+      <c r="U43">
+        <v>2.63</v>
+      </c>
+      <c r="V43">
+        <v>3.25</v>
+      </c>
+      <c r="W43">
+        <v>1.33</v>
+      </c>
+      <c r="X43">
+        <v>9</v>
+      </c>
+      <c r="Y43">
+        <v>1.07</v>
+      </c>
+      <c r="Z43">
+        <v>2.5</v>
+      </c>
+      <c r="AA43">
+        <v>3.2</v>
+      </c>
+      <c r="AB43">
+        <v>2.7</v>
+      </c>
+      <c r="AC43">
+        <v>1.01</v>
+      </c>
+      <c r="AD43">
+        <v>7.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.35</v>
+      </c>
+      <c r="AF43">
+        <v>3.25</v>
+      </c>
+      <c r="AG43">
+        <v>1.95</v>
+      </c>
+      <c r="AH43">
+        <v>1.75</v>
+      </c>
+      <c r="AI43">
+        <v>1.8</v>
+      </c>
+      <c r="AJ43">
+        <v>1.95</v>
+      </c>
+      <c r="AK43">
+        <v>1.33</v>
+      </c>
+      <c r="AL43">
+        <v>1.3</v>
+      </c>
+      <c r="AM43">
+        <v>1.55</v>
+      </c>
+      <c r="AN43">
+        <v>0.5</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0.33</v>
+      </c>
+      <c r="AQ43">
+        <v>0.75</v>
+      </c>
+      <c r="AR43">
+        <v>1.06</v>
+      </c>
+      <c r="AS43">
+        <v>1.37</v>
+      </c>
+      <c r="AT43">
+        <v>2.43</v>
+      </c>
+      <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
+        <v>7</v>
+      </c>
+      <c r="AW43">
+        <v>7</v>
+      </c>
+      <c r="AX43">
+        <v>4</v>
+      </c>
+      <c r="AY43">
+        <v>12</v>
+      </c>
+      <c r="AZ43">
+        <v>13</v>
+      </c>
+      <c r="BA43">
+        <v>6</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
+      <c r="BC43">
+        <v>11</v>
+      </c>
+      <c r="BD43">
+        <v>2</v>
+      </c>
+      <c r="BE43">
+        <v>7.5</v>
+      </c>
+      <c r="BF43">
+        <v>2.1</v>
+      </c>
+      <c r="BG43">
+        <v>1.57</v>
+      </c>
+      <c r="BH43">
+        <v>2.35</v>
+      </c>
+      <c r="BI43">
+        <v>1.98</v>
+      </c>
+      <c r="BJ43">
+        <v>1.82</v>
+      </c>
+      <c r="BK43">
+        <v>2.55</v>
+      </c>
+      <c r="BL43">
+        <v>1.49</v>
+      </c>
+      <c r="BM43">
+        <v>3.7</v>
+      </c>
+      <c r="BN43">
+        <v>1.25</v>
+      </c>
+      <c r="BO43">
+        <v>4.7</v>
+      </c>
+      <c r="BP43">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,12 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['4', '43']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -440,6 +446,9 @@
   </si>
   <si>
     <t>['36', '63']</t>
+  </si>
+  <si>
+    <t>['66', '68']</t>
   </si>
 </sst>
 </file>
@@ -801,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1069,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1266,7 +1275,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1678,7 +1687,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1884,7 +1893,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -1962,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1.75</v>
@@ -2296,7 +2305,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2374,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2502,7 +2511,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2708,7 +2717,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2914,7 +2923,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -2995,7 +3004,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>2.01</v>
@@ -3120,7 +3129,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3201,7 +3210,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3738,7 +3747,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3944,7 +3953,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4150,7 +4159,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4228,7 +4237,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
         <v>1.67</v>
@@ -4434,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
         <v>0.75</v>
@@ -4562,7 +4571,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4643,7 +4652,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -4768,7 +4777,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -4974,7 +4983,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5052,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>3</v>
@@ -5180,7 +5189,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5592,7 +5601,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5798,7 +5807,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6416,7 +6425,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6703,7 +6712,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -6828,7 +6837,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7112,7 +7121,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7240,7 +7249,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7318,7 +7327,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
         <v>1.67</v>
@@ -7446,7 +7455,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7652,7 +7661,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7858,7 +7867,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -7936,10 +7945,10 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8145,7 +8154,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>2.14</v>
@@ -8270,7 +8279,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8476,7 +8485,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8682,7 +8691,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9506,7 +9515,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9663,6 +9672,624 @@
       </c>
       <c r="BP43">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7537331</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45570.52083333334</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44" t="s">
+        <v>114</v>
+      </c>
+      <c r="P44" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q44">
+        <v>2.5</v>
+      </c>
+      <c r="R44">
+        <v>2.05</v>
+      </c>
+      <c r="S44">
+        <v>5</v>
+      </c>
+      <c r="T44">
+        <v>1.44</v>
+      </c>
+      <c r="U44">
+        <v>2.63</v>
+      </c>
+      <c r="V44">
+        <v>3.4</v>
+      </c>
+      <c r="W44">
+        <v>1.3</v>
+      </c>
+      <c r="X44">
+        <v>10</v>
+      </c>
+      <c r="Y44">
+        <v>1.06</v>
+      </c>
+      <c r="Z44">
+        <v>1.75</v>
+      </c>
+      <c r="AA44">
+        <v>3.25</v>
+      </c>
+      <c r="AB44">
+        <v>4.73</v>
+      </c>
+      <c r="AC44">
+        <v>1.02</v>
+      </c>
+      <c r="AD44">
+        <v>7.1</v>
+      </c>
+      <c r="AE44">
+        <v>1.34</v>
+      </c>
+      <c r="AF44">
+        <v>2.73</v>
+      </c>
+      <c r="AG44">
+        <v>1.85</v>
+      </c>
+      <c r="AH44">
+        <v>1.85</v>
+      </c>
+      <c r="AI44">
+        <v>2</v>
+      </c>
+      <c r="AJ44">
+        <v>1.75</v>
+      </c>
+      <c r="AK44">
+        <v>1.17</v>
+      </c>
+      <c r="AL44">
+        <v>1.29</v>
+      </c>
+      <c r="AM44">
+        <v>1.85</v>
+      </c>
+      <c r="AN44">
+        <v>1.33</v>
+      </c>
+      <c r="AO44">
+        <v>1.5</v>
+      </c>
+      <c r="AP44">
+        <v>1</v>
+      </c>
+      <c r="AQ44">
+        <v>2</v>
+      </c>
+      <c r="AR44">
+        <v>1.35</v>
+      </c>
+      <c r="AS44">
+        <v>0.82</v>
+      </c>
+      <c r="AT44">
+        <v>2.17</v>
+      </c>
+      <c r="AU44">
+        <v>4</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>8</v>
+      </c>
+      <c r="AX44">
+        <v>1</v>
+      </c>
+      <c r="AY44">
+        <v>15</v>
+      </c>
+      <c r="AZ44">
+        <v>7</v>
+      </c>
+      <c r="BA44">
+        <v>5</v>
+      </c>
+      <c r="BB44">
+        <v>1</v>
+      </c>
+      <c r="BC44">
+        <v>6</v>
+      </c>
+      <c r="BD44">
+        <v>1.51</v>
+      </c>
+      <c r="BE44">
+        <v>8</v>
+      </c>
+      <c r="BF44">
+        <v>3.17</v>
+      </c>
+      <c r="BG44">
+        <v>1.53</v>
+      </c>
+      <c r="BH44">
+        <v>2.41</v>
+      </c>
+      <c r="BI44">
+        <v>1.95</v>
+      </c>
+      <c r="BJ44">
+        <v>1.85</v>
+      </c>
+      <c r="BK44">
+        <v>2.49</v>
+      </c>
+      <c r="BL44">
+        <v>1.51</v>
+      </c>
+      <c r="BM44">
+        <v>3.34</v>
+      </c>
+      <c r="BN44">
+        <v>1.22</v>
+      </c>
+      <c r="BO44">
+        <v>4.5</v>
+      </c>
+      <c r="BP44">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7537334</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45570.5625</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>86</v>
+      </c>
+      <c r="P45" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q45">
+        <v>8.5</v>
+      </c>
+      <c r="R45">
+        <v>2.4</v>
+      </c>
+      <c r="S45">
+        <v>1.83</v>
+      </c>
+      <c r="T45">
+        <v>1.33</v>
+      </c>
+      <c r="U45">
+        <v>3.25</v>
+      </c>
+      <c r="V45">
+        <v>2.63</v>
+      </c>
+      <c r="W45">
+        <v>1.44</v>
+      </c>
+      <c r="X45">
+        <v>6.5</v>
+      </c>
+      <c r="Y45">
+        <v>1.11</v>
+      </c>
+      <c r="Z45">
+        <v>9.85</v>
+      </c>
+      <c r="AA45">
+        <v>4.85</v>
+      </c>
+      <c r="AB45">
+        <v>1.28</v>
+      </c>
+      <c r="AC45">
+        <v>1.01</v>
+      </c>
+      <c r="AD45">
+        <v>13.5</v>
+      </c>
+      <c r="AE45">
+        <v>1.2</v>
+      </c>
+      <c r="AF45">
+        <v>3.58</v>
+      </c>
+      <c r="AG45">
+        <v>1.55</v>
+      </c>
+      <c r="AH45">
+        <v>2.3</v>
+      </c>
+      <c r="AI45">
+        <v>2.1</v>
+      </c>
+      <c r="AJ45">
+        <v>1.67</v>
+      </c>
+      <c r="AK45">
+        <v>2.9</v>
+      </c>
+      <c r="AL45">
+        <v>1.13</v>
+      </c>
+      <c r="AM45">
+        <v>1.06</v>
+      </c>
+      <c r="AN45">
+        <v>1.33</v>
+      </c>
+      <c r="AO45">
+        <v>2</v>
+      </c>
+      <c r="AP45">
+        <v>1.75</v>
+      </c>
+      <c r="AQ45">
+        <v>1.33</v>
+      </c>
+      <c r="AR45">
+        <v>1.33</v>
+      </c>
+      <c r="AS45">
+        <v>1.66</v>
+      </c>
+      <c r="AT45">
+        <v>2.99</v>
+      </c>
+      <c r="AU45">
+        <v>8</v>
+      </c>
+      <c r="AV45">
+        <v>4</v>
+      </c>
+      <c r="AW45">
+        <v>3</v>
+      </c>
+      <c r="AX45">
+        <v>13</v>
+      </c>
+      <c r="AY45">
+        <v>13</v>
+      </c>
+      <c r="AZ45">
+        <v>20</v>
+      </c>
+      <c r="BA45">
+        <v>4</v>
+      </c>
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>8</v>
+      </c>
+      <c r="BD45">
+        <v>6.09</v>
+      </c>
+      <c r="BE45">
+        <v>11</v>
+      </c>
+      <c r="BF45">
+        <v>1.19</v>
+      </c>
+      <c r="BG45">
+        <v>1.38</v>
+      </c>
+      <c r="BH45">
+        <v>2.71</v>
+      </c>
+      <c r="BI45">
+        <v>1.7</v>
+      </c>
+      <c r="BJ45">
+        <v>2.05</v>
+      </c>
+      <c r="BK45">
+        <v>2.05</v>
+      </c>
+      <c r="BL45">
+        <v>1.7</v>
+      </c>
+      <c r="BM45">
+        <v>2.82</v>
+      </c>
+      <c r="BN45">
+        <v>1.31</v>
+      </c>
+      <c r="BO45">
+        <v>3.9</v>
+      </c>
+      <c r="BP45">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7537330</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45570.58333333334</v>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>115</v>
+      </c>
+      <c r="P46" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q46">
+        <v>1.95</v>
+      </c>
+      <c r="R46">
+        <v>2.38</v>
+      </c>
+      <c r="S46">
+        <v>6.5</v>
+      </c>
+      <c r="T46">
+        <v>1.33</v>
+      </c>
+      <c r="U46">
+        <v>3.25</v>
+      </c>
+      <c r="V46">
+        <v>2.63</v>
+      </c>
+      <c r="W46">
+        <v>1.44</v>
+      </c>
+      <c r="X46">
+        <v>7</v>
+      </c>
+      <c r="Y46">
+        <v>1.1</v>
+      </c>
+      <c r="Z46">
+        <v>1.37</v>
+      </c>
+      <c r="AA46">
+        <v>4.22</v>
+      </c>
+      <c r="AB46">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC46">
+        <v>1.03</v>
+      </c>
+      <c r="AD46">
+        <v>13.7</v>
+      </c>
+      <c r="AE46">
+        <v>1.19</v>
+      </c>
+      <c r="AF46">
+        <v>3.68</v>
+      </c>
+      <c r="AG46">
+        <v>1.75</v>
+      </c>
+      <c r="AH46">
+        <v>1.95</v>
+      </c>
+      <c r="AI46">
+        <v>1.95</v>
+      </c>
+      <c r="AJ46">
+        <v>1.8</v>
+      </c>
+      <c r="AK46">
+        <v>1.08</v>
+      </c>
+      <c r="AL46">
+        <v>1.17</v>
+      </c>
+      <c r="AM46">
+        <v>2.55</v>
+      </c>
+      <c r="AN46">
+        <v>2</v>
+      </c>
+      <c r="AO46">
+        <v>1.33</v>
+      </c>
+      <c r="AP46">
+        <v>2.33</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1.16</v>
+      </c>
+      <c r="AS46">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT46">
+        <v>1.97</v>
+      </c>
+      <c r="AU46">
+        <v>7</v>
+      </c>
+      <c r="AV46">
+        <v>3</v>
+      </c>
+      <c r="AW46">
+        <v>3</v>
+      </c>
+      <c r="AX46">
+        <v>8</v>
+      </c>
+      <c r="AY46">
+        <v>15</v>
+      </c>
+      <c r="AZ46">
+        <v>12</v>
+      </c>
+      <c r="BA46">
+        <v>4</v>
+      </c>
+      <c r="BB46">
+        <v>1</v>
+      </c>
+      <c r="BC46">
+        <v>5</v>
+      </c>
+      <c r="BD46">
+        <v>1.21</v>
+      </c>
+      <c r="BE46">
+        <v>10</v>
+      </c>
+      <c r="BF46">
+        <v>5.65</v>
+      </c>
+      <c r="BG46">
+        <v>1.37</v>
+      </c>
+      <c r="BH46">
+        <v>2.75</v>
+      </c>
+      <c r="BI46">
+        <v>1.7</v>
+      </c>
+      <c r="BJ46">
+        <v>2.05</v>
+      </c>
+      <c r="BK46">
+        <v>2.05</v>
+      </c>
+      <c r="BL46">
+        <v>1.7</v>
+      </c>
+      <c r="BM46">
+        <v>2.82</v>
+      </c>
+      <c r="BN46">
+        <v>1.31</v>
+      </c>
+      <c r="BO46">
+        <v>3.8</v>
+      </c>
+      <c r="BP46">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,10 +358,16 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['4', '43']</t>
+  </si>
+  <si>
     <t>['41']</t>
   </si>
   <si>
-    <t>['4', '43']</t>
+    <t>['28', '45']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
   </si>
   <si>
     <t>['13', '73']</t>
@@ -449,6 +455,15 @@
   </si>
   <si>
     <t>['66', '68']</t>
+  </si>
+  <si>
+    <t>['8', '26', '89']</t>
+  </si>
+  <si>
+    <t>['19', '71', '77']</t>
+  </si>
+  <si>
+    <t>['86', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -810,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,7 +1084,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1150,7 +1165,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1275,7 +1290,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1559,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
         <v>0.75</v>
@@ -1687,7 +1702,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1765,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1893,7 +1908,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2180,7 +2195,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2305,7 +2320,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2511,7 +2526,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2717,7 +2732,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2795,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ10">
         <v>1.75</v>
@@ -2923,7 +2938,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3129,7 +3144,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3619,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
         <v>0.67</v>
@@ -3747,7 +3762,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3953,7 +3968,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4034,7 +4049,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4159,7 +4174,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4240,7 +4255,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4571,7 +4586,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4649,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -4777,7 +4792,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -4858,7 +4873,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -4983,7 +4998,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5189,7 +5204,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5267,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ22">
         <v>0.67</v>
@@ -5601,7 +5616,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5807,7 +5822,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5885,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ25">
         <v>0.67</v>
@@ -6177,7 +6192,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7537312</v>
+        <v>7537310</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6192,88 +6207,88 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O27" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="Q27">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R27">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S27">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="T27">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U27">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V27">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W27">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y27">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z27">
-        <v>1.74</v>
+        <v>3.1</v>
       </c>
       <c r="AA27">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AB27">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="AC27">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE27">
         <v>1.33</v>
       </c>
       <c r="AF27">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AG27">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="AH27">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AI27">
         <v>1.8</v>
@@ -6282,100 +6297,100 @@
         <v>1.95</v>
       </c>
       <c r="AK27">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="AL27">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM27">
-        <v>1.96</v>
+        <v>1.38</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP27">
+        <v>1.33</v>
+      </c>
+      <c r="AQ27">
         <v>1.75</v>
       </c>
-      <c r="AQ27">
-        <v>0.67</v>
-      </c>
       <c r="AR27">
-        <v>1.95</v>
+        <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.89</v>
+        <v>1.32</v>
       </c>
       <c r="AT27">
-        <v>3.84</v>
+        <v>2.32</v>
       </c>
       <c r="AU27">
+        <v>7</v>
+      </c>
+      <c r="AV27">
+        <v>6</v>
+      </c>
+      <c r="AW27">
         <v>4</v>
       </c>
-      <c r="AV27">
-        <v>5</v>
-      </c>
-      <c r="AW27">
-        <v>6</v>
-      </c>
       <c r="AX27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY27">
         <v>16</v>
       </c>
       <c r="AZ27">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="BA27">
         <v>6</v>
       </c>
       <c r="BB27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC27">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD27">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="BE27">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BF27">
-        <v>2.85</v>
+        <v>1.8</v>
       </c>
       <c r="BG27">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="BH27">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="BI27">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BJ27">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="BK27">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BL27">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="BM27">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="BN27">
         <v>1.25</v>
       </c>
       <c r="BO27">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="BP27">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6383,7 +6398,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7537310</v>
+        <v>7537312</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6398,88 +6413,88 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q28">
+        <v>2.5</v>
+      </c>
+      <c r="R28">
+        <v>2.2</v>
+      </c>
+      <c r="S28">
+        <v>4.5</v>
+      </c>
+      <c r="T28">
+        <v>1.4</v>
+      </c>
+      <c r="U28">
+        <v>2.75</v>
+      </c>
+      <c r="V28">
         <v>3</v>
       </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-      <c r="N28">
-        <v>5</v>
-      </c>
-      <c r="O28" t="s">
-        <v>100</v>
-      </c>
-      <c r="P28" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q28">
-        <v>3.75</v>
-      </c>
-      <c r="R28">
-        <v>2.1</v>
-      </c>
-      <c r="S28">
-        <v>3</v>
-      </c>
-      <c r="T28">
-        <v>1.44</v>
-      </c>
-      <c r="U28">
-        <v>2.63</v>
-      </c>
-      <c r="V28">
-        <v>3.25</v>
-      </c>
       <c r="W28">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y28">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z28">
-        <v>3.1</v>
+        <v>1.74</v>
       </c>
       <c r="AA28">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AB28">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="AC28">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE28">
         <v>1.33</v>
       </c>
       <c r="AF28">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AG28">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="AH28">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AI28">
         <v>1.8</v>
@@ -6488,100 +6503,100 @@
         <v>1.95</v>
       </c>
       <c r="AK28">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="AL28">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM28">
-        <v>1.38</v>
+        <v>1.96</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
-        <v>1</v>
+        <v>1.95</v>
       </c>
       <c r="AS28">
-        <v>1.32</v>
+        <v>1.89</v>
       </c>
       <c r="AT28">
-        <v>2.32</v>
+        <v>3.84</v>
       </c>
       <c r="AU28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV28">
+        <v>5</v>
+      </c>
+      <c r="AW28">
         <v>6</v>
       </c>
-      <c r="AW28">
-        <v>4</v>
-      </c>
       <c r="AX28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AY28">
         <v>16</v>
       </c>
       <c r="AZ28">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="BA28">
         <v>6</v>
       </c>
       <c r="BB28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC28">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD28">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="BE28">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="BF28">
-        <v>1.8</v>
+        <v>2.85</v>
       </c>
       <c r="BG28">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="BH28">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="BI28">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BJ28">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="BK28">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BL28">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="BM28">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="BN28">
         <v>1.25</v>
       </c>
       <c r="BO28">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="BP28">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6837,7 +6852,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7124,7 +7139,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7249,7 +7264,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7330,7 +7345,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7455,7 +7470,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7533,10 +7548,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>0.97</v>
@@ -7661,7 +7676,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7739,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
         <v>0.75</v>
@@ -7867,7 +7882,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8151,7 +8166,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -8279,7 +8294,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8485,7 +8500,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8691,7 +8706,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9515,7 +9530,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9679,7 +9694,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7537331</v>
+        <v>7537334</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9688,196 +9703,196 @@
         <v>69</v>
       </c>
       <c r="E44" s="2">
-        <v>45570.52083333334</v>
+        <v>45569.875</v>
       </c>
       <c r="F44">
         <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O44" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="Q44">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="R44">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="S44">
-        <v>5</v>
+        <v>1.83</v>
       </c>
       <c r="T44">
+        <v>1.33</v>
+      </c>
+      <c r="U44">
+        <v>3.25</v>
+      </c>
+      <c r="V44">
+        <v>2.63</v>
+      </c>
+      <c r="W44">
         <v>1.44</v>
       </c>
-      <c r="U44">
-        <v>2.63</v>
-      </c>
-      <c r="V44">
-        <v>3.4</v>
-      </c>
-      <c r="W44">
-        <v>1.3</v>
-      </c>
       <c r="X44">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y44">
+        <v>1.11</v>
+      </c>
+      <c r="Z44">
+        <v>9.85</v>
+      </c>
+      <c r="AA44">
+        <v>4.85</v>
+      </c>
+      <c r="AB44">
+        <v>1.28</v>
+      </c>
+      <c r="AC44">
+        <v>1.01</v>
+      </c>
+      <c r="AD44">
+        <v>13.5</v>
+      </c>
+      <c r="AE44">
+        <v>1.2</v>
+      </c>
+      <c r="AF44">
+        <v>3.58</v>
+      </c>
+      <c r="AG44">
+        <v>1.55</v>
+      </c>
+      <c r="AH44">
+        <v>2.3</v>
+      </c>
+      <c r="AI44">
+        <v>2.1</v>
+      </c>
+      <c r="AJ44">
+        <v>1.67</v>
+      </c>
+      <c r="AK44">
+        <v>2.9</v>
+      </c>
+      <c r="AL44">
+        <v>1.13</v>
+      </c>
+      <c r="AM44">
         <v>1.06</v>
-      </c>
-      <c r="Z44">
-        <v>1.75</v>
-      </c>
-      <c r="AA44">
-        <v>3.25</v>
-      </c>
-      <c r="AB44">
-        <v>4.73</v>
-      </c>
-      <c r="AC44">
-        <v>1.02</v>
-      </c>
-      <c r="AD44">
-        <v>7.1</v>
-      </c>
-      <c r="AE44">
-        <v>1.34</v>
-      </c>
-      <c r="AF44">
-        <v>2.73</v>
-      </c>
-      <c r="AG44">
-        <v>1.85</v>
-      </c>
-      <c r="AH44">
-        <v>1.85</v>
-      </c>
-      <c r="AI44">
-        <v>2</v>
-      </c>
-      <c r="AJ44">
-        <v>1.75</v>
-      </c>
-      <c r="AK44">
-        <v>1.17</v>
-      </c>
-      <c r="AL44">
-        <v>1.29</v>
-      </c>
-      <c r="AM44">
-        <v>1.85</v>
       </c>
       <c r="AN44">
         <v>1.33</v>
       </c>
       <c r="AO44">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AS44">
-        <v>0.82</v>
+        <v>1.66</v>
       </c>
       <c r="AT44">
-        <v>2.17</v>
+        <v>2.99</v>
       </c>
       <c r="AU44">
+        <v>6</v>
+      </c>
+      <c r="AV44">
+        <v>6</v>
+      </c>
+      <c r="AW44">
+        <v>3</v>
+      </c>
+      <c r="AX44">
+        <v>11</v>
+      </c>
+      <c r="AY44">
+        <v>9</v>
+      </c>
+      <c r="AZ44">
+        <v>17</v>
+      </c>
+      <c r="BA44">
         <v>4</v>
       </c>
-      <c r="AV44">
+      <c r="BB44">
         <v>4</v>
       </c>
-      <c r="AW44">
+      <c r="BC44">
         <v>8</v>
       </c>
-      <c r="AX44">
-        <v>1</v>
-      </c>
-      <c r="AY44">
-        <v>15</v>
-      </c>
-      <c r="AZ44">
-        <v>7</v>
-      </c>
-      <c r="BA44">
-        <v>5</v>
-      </c>
-      <c r="BB44">
-        <v>1</v>
-      </c>
-      <c r="BC44">
-        <v>6</v>
-      </c>
       <c r="BD44">
-        <v>1.51</v>
+        <v>6.09</v>
       </c>
       <c r="BE44">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BF44">
-        <v>3.17</v>
+        <v>1.19</v>
       </c>
       <c r="BG44">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="BH44">
-        <v>2.41</v>
+        <v>2.71</v>
       </c>
       <c r="BI44">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="BJ44">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="BK44">
-        <v>2.49</v>
+        <v>2.05</v>
       </c>
       <c r="BL44">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="BM44">
-        <v>3.34</v>
+        <v>2.82</v>
       </c>
       <c r="BN44">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="BO44">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="BP44">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -9885,7 +9900,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7537334</v>
+        <v>7537330</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -9894,49 +9909,49 @@
         <v>69</v>
       </c>
       <c r="E45" s="2">
-        <v>45570.5625</v>
+        <v>45569.875</v>
       </c>
       <c r="F45">
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="P45" t="s">
         <v>84</v>
       </c>
       <c r="Q45">
-        <v>8.5</v>
+        <v>1.95</v>
       </c>
       <c r="R45">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="S45">
-        <v>1.83</v>
+        <v>6.5</v>
       </c>
       <c r="T45">
         <v>1.33</v>
@@ -9951,115 +9966,115 @@
         <v>1.44</v>
       </c>
       <c r="X45">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y45">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z45">
-        <v>9.85</v>
+        <v>1.37</v>
       </c>
       <c r="AA45">
-        <v>4.85</v>
+        <v>4.22</v>
       </c>
       <c r="AB45">
-        <v>1.28</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC45">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD45">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="AE45">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AF45">
-        <v>3.58</v>
+        <v>3.68</v>
       </c>
       <c r="AG45">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AH45">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="AI45">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AJ45">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AK45">
-        <v>2.9</v>
+        <v>1.08</v>
       </c>
       <c r="AL45">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AM45">
-        <v>1.06</v>
+        <v>2.55</v>
       </c>
       <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
         <v>1.33</v>
       </c>
-      <c r="AO45">
-        <v>2</v>
-      </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR45">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AS45">
-        <v>1.66</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT45">
-        <v>2.99</v>
+        <v>1.97</v>
       </c>
       <c r="AU45">
+        <v>5</v>
+      </c>
+      <c r="AV45">
+        <v>3</v>
+      </c>
+      <c r="AW45">
+        <v>2</v>
+      </c>
+      <c r="AX45">
         <v>8</v>
       </c>
-      <c r="AV45">
-        <v>4</v>
-      </c>
-      <c r="AW45">
-        <v>3</v>
-      </c>
-      <c r="AX45">
-        <v>13</v>
-      </c>
       <c r="AY45">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AZ45">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="BA45">
         <v>4</v>
       </c>
       <c r="BB45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC45">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BD45">
-        <v>6.09</v>
+        <v>1.21</v>
       </c>
       <c r="BE45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BF45">
-        <v>1.19</v>
+        <v>5.65</v>
       </c>
       <c r="BG45">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="BH45">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="BI45">
         <v>1.7</v>
@@ -10080,10 +10095,10 @@
         <v>1.31</v>
       </c>
       <c r="BO45">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="BP45">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -10091,7 +10106,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7537330</v>
+        <v>7537331</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10100,196 +10115,1020 @@
         <v>69</v>
       </c>
       <c r="E46" s="2">
-        <v>45570.58333333334</v>
+        <v>45570.52083333334</v>
       </c>
       <c r="F46">
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O46" t="s">
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="Q46">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="R46">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="S46">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="T46">
+        <v>1.44</v>
+      </c>
+      <c r="U46">
+        <v>2.63</v>
+      </c>
+      <c r="V46">
+        <v>3.4</v>
+      </c>
+      <c r="W46">
+        <v>1.3</v>
+      </c>
+      <c r="X46">
+        <v>10</v>
+      </c>
+      <c r="Y46">
+        <v>1.06</v>
+      </c>
+      <c r="Z46">
+        <v>1.75</v>
+      </c>
+      <c r="AA46">
+        <v>3.25</v>
+      </c>
+      <c r="AB46">
+        <v>4.73</v>
+      </c>
+      <c r="AC46">
+        <v>1.02</v>
+      </c>
+      <c r="AD46">
+        <v>7.1</v>
+      </c>
+      <c r="AE46">
+        <v>1.34</v>
+      </c>
+      <c r="AF46">
+        <v>2.73</v>
+      </c>
+      <c r="AG46">
+        <v>1.85</v>
+      </c>
+      <c r="AH46">
+        <v>1.85</v>
+      </c>
+      <c r="AI46">
+        <v>2</v>
+      </c>
+      <c r="AJ46">
+        <v>1.75</v>
+      </c>
+      <c r="AK46">
+        <v>1.17</v>
+      </c>
+      <c r="AL46">
+        <v>1.29</v>
+      </c>
+      <c r="AM46">
+        <v>1.85</v>
+      </c>
+      <c r="AN46">
         <v>1.33</v>
       </c>
-      <c r="U46">
-        <v>3.25</v>
-      </c>
-      <c r="V46">
-        <v>2.63</v>
-      </c>
-      <c r="W46">
-        <v>1.44</v>
-      </c>
-      <c r="X46">
-        <v>7</v>
-      </c>
-      <c r="Y46">
-        <v>1.1</v>
-      </c>
-      <c r="Z46">
-        <v>1.37</v>
-      </c>
-      <c r="AA46">
-        <v>4.22</v>
-      </c>
-      <c r="AB46">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC46">
-        <v>1.03</v>
-      </c>
-      <c r="AD46">
-        <v>13.7</v>
-      </c>
-      <c r="AE46">
-        <v>1.19</v>
-      </c>
-      <c r="AF46">
-        <v>3.68</v>
-      </c>
-      <c r="AG46">
-        <v>1.75</v>
-      </c>
-      <c r="AH46">
-        <v>1.95</v>
-      </c>
-      <c r="AI46">
-        <v>1.95</v>
-      </c>
-      <c r="AJ46">
-        <v>1.8</v>
-      </c>
-      <c r="AK46">
-        <v>1.08</v>
-      </c>
-      <c r="AL46">
-        <v>1.17</v>
-      </c>
-      <c r="AM46">
-        <v>2.55</v>
-      </c>
-      <c r="AN46">
-        <v>2</v>
-      </c>
       <c r="AO46">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR46">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="AS46">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT46">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="AU46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW46">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX46">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AY46">
         <v>15</v>
       </c>
       <c r="AZ46">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA46">
+        <v>5</v>
+      </c>
+      <c r="BB46">
+        <v>1</v>
+      </c>
+      <c r="BC46">
+        <v>6</v>
+      </c>
+      <c r="BD46">
+        <v>1.51</v>
+      </c>
+      <c r="BE46">
+        <v>8</v>
+      </c>
+      <c r="BF46">
+        <v>3.17</v>
+      </c>
+      <c r="BG46">
+        <v>1.53</v>
+      </c>
+      <c r="BH46">
+        <v>2.41</v>
+      </c>
+      <c r="BI46">
+        <v>1.95</v>
+      </c>
+      <c r="BJ46">
+        <v>1.85</v>
+      </c>
+      <c r="BK46">
+        <v>2.49</v>
+      </c>
+      <c r="BL46">
+        <v>1.51</v>
+      </c>
+      <c r="BM46">
+        <v>3.34</v>
+      </c>
+      <c r="BN46">
+        <v>1.22</v>
+      </c>
+      <c r="BO46">
+        <v>4.5</v>
+      </c>
+      <c r="BP46">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7537335</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45571.41666666666</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
         <v>4</v>
       </c>
-      <c r="BB46">
-        <v>1</v>
-      </c>
-      <c r="BC46">
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
         <v>5</v>
       </c>
-      <c r="BD46">
+      <c r="O47" t="s">
+        <v>116</v>
+      </c>
+      <c r="P47" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q47">
+        <v>3.4</v>
+      </c>
+      <c r="R47">
+        <v>2.05</v>
+      </c>
+      <c r="S47">
+        <v>3.4</v>
+      </c>
+      <c r="T47">
+        <v>1.44</v>
+      </c>
+      <c r="U47">
+        <v>2.63</v>
+      </c>
+      <c r="V47">
+        <v>3.25</v>
+      </c>
+      <c r="W47">
+        <v>1.33</v>
+      </c>
+      <c r="X47">
+        <v>10</v>
+      </c>
+      <c r="Y47">
+        <v>1.06</v>
+      </c>
+      <c r="Z47">
+        <v>2.45</v>
+      </c>
+      <c r="AA47">
+        <v>3.3</v>
+      </c>
+      <c r="AB47">
+        <v>2.7</v>
+      </c>
+      <c r="AC47">
+        <v>1.02</v>
+      </c>
+      <c r="AD47">
+        <v>7.3</v>
+      </c>
+      <c r="AE47">
+        <v>1.33</v>
+      </c>
+      <c r="AF47">
+        <v>2.77</v>
+      </c>
+      <c r="AG47">
+        <v>2.1</v>
+      </c>
+      <c r="AH47">
+        <v>1.65</v>
+      </c>
+      <c r="AI47">
+        <v>1.8</v>
+      </c>
+      <c r="AJ47">
+        <v>1.95</v>
+      </c>
+      <c r="AK47">
+        <v>1.39</v>
+      </c>
+      <c r="AL47">
+        <v>1.29</v>
+      </c>
+      <c r="AM47">
+        <v>1.47</v>
+      </c>
+      <c r="AN47">
+        <v>0.5</v>
+      </c>
+      <c r="AO47">
+        <v>1.33</v>
+      </c>
+      <c r="AP47">
+        <v>0.33</v>
+      </c>
+      <c r="AQ47">
+        <v>1.75</v>
+      </c>
+      <c r="AR47">
+        <v>1.06</v>
+      </c>
+      <c r="AS47">
+        <v>0.66</v>
+      </c>
+      <c r="AT47">
+        <v>1.72</v>
+      </c>
+      <c r="AU47">
+        <v>8</v>
+      </c>
+      <c r="AV47">
+        <v>8</v>
+      </c>
+      <c r="AW47">
+        <v>4</v>
+      </c>
+      <c r="AX47">
+        <v>5</v>
+      </c>
+      <c r="AY47">
+        <v>18</v>
+      </c>
+      <c r="AZ47">
+        <v>15</v>
+      </c>
+      <c r="BA47">
+        <v>7</v>
+      </c>
+      <c r="BB47">
+        <v>4</v>
+      </c>
+      <c r="BC47">
+        <v>11</v>
+      </c>
+      <c r="BD47">
+        <v>2.1</v>
+      </c>
+      <c r="BE47">
+        <v>7</v>
+      </c>
+      <c r="BF47">
+        <v>2</v>
+      </c>
+      <c r="BG47">
+        <v>1.7</v>
+      </c>
+      <c r="BH47">
+        <v>2.11</v>
+      </c>
+      <c r="BI47">
+        <v>2</v>
+      </c>
+      <c r="BJ47">
+        <v>1.8</v>
+      </c>
+      <c r="BK47">
+        <v>2.82</v>
+      </c>
+      <c r="BL47">
+        <v>1.31</v>
+      </c>
+      <c r="BM47">
+        <v>4</v>
+      </c>
+      <c r="BN47">
+        <v>1.2</v>
+      </c>
+      <c r="BO47">
+        <v>5.8</v>
+      </c>
+      <c r="BP47">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7537329</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45571.45833333334</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48" t="s">
+        <v>117</v>
+      </c>
+      <c r="P48" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q48">
+        <v>3.25</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>3.6</v>
+      </c>
+      <c r="T48">
+        <v>1.5</v>
+      </c>
+      <c r="U48">
+        <v>2.5</v>
+      </c>
+      <c r="V48">
+        <v>3.4</v>
+      </c>
+      <c r="W48">
+        <v>1.3</v>
+      </c>
+      <c r="X48">
+        <v>10</v>
+      </c>
+      <c r="Y48">
+        <v>1.06</v>
+      </c>
+      <c r="Z48">
+        <v>2.45</v>
+      </c>
+      <c r="AA48">
+        <v>2.95</v>
+      </c>
+      <c r="AB48">
+        <v>2.95</v>
+      </c>
+      <c r="AC48">
+        <v>1.03</v>
+      </c>
+      <c r="AD48">
+        <v>6.85</v>
+      </c>
+      <c r="AE48">
+        <v>1.35</v>
+      </c>
+      <c r="AF48">
+        <v>3.2</v>
+      </c>
+      <c r="AG48">
+        <v>2.28</v>
+      </c>
+      <c r="AH48">
+        <v>1.56</v>
+      </c>
+      <c r="AI48">
+        <v>1.95</v>
+      </c>
+      <c r="AJ48">
+        <v>1.8</v>
+      </c>
+      <c r="AK48">
+        <v>1.45</v>
+      </c>
+      <c r="AL48">
+        <v>1.32</v>
+      </c>
+      <c r="AM48">
+        <v>1.39</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>1.67</v>
+      </c>
+      <c r="AP48">
+        <v>0.67</v>
+      </c>
+      <c r="AQ48">
+        <v>2</v>
+      </c>
+      <c r="AR48">
+        <v>1.58</v>
+      </c>
+      <c r="AS48">
+        <v>1.05</v>
+      </c>
+      <c r="AT48">
+        <v>2.63</v>
+      </c>
+      <c r="AU48">
+        <v>4</v>
+      </c>
+      <c r="AV48">
+        <v>7</v>
+      </c>
+      <c r="AW48">
+        <v>3</v>
+      </c>
+      <c r="AX48">
+        <v>4</v>
+      </c>
+      <c r="AY48">
+        <v>9</v>
+      </c>
+      <c r="AZ48">
+        <v>13</v>
+      </c>
+      <c r="BA48">
+        <v>1</v>
+      </c>
+      <c r="BB48">
+        <v>1</v>
+      </c>
+      <c r="BC48">
+        <v>2</v>
+      </c>
+      <c r="BD48">
+        <v>1.75</v>
+      </c>
+      <c r="BE48">
+        <v>7.5</v>
+      </c>
+      <c r="BF48">
+        <v>2.53</v>
+      </c>
+      <c r="BG48">
+        <v>1.44</v>
+      </c>
+      <c r="BH48">
+        <v>2.51</v>
+      </c>
+      <c r="BI48">
+        <v>1.85</v>
+      </c>
+      <c r="BJ48">
+        <v>1.95</v>
+      </c>
+      <c r="BK48">
+        <v>2.34</v>
+      </c>
+      <c r="BL48">
+        <v>1.5</v>
+      </c>
+      <c r="BM48">
+        <v>3.08</v>
+      </c>
+      <c r="BN48">
+        <v>1.26</v>
+      </c>
+      <c r="BO48">
+        <v>4.2</v>
+      </c>
+      <c r="BP48">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7537332</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45571.60416666666</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P49" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q49">
+        <v>7</v>
+      </c>
+      <c r="R49">
+        <v>2.3</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49">
+        <v>2.75</v>
+      </c>
+      <c r="V49">
+        <v>2.75</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>8</v>
+      </c>
+      <c r="Y49">
+        <v>1.08</v>
+      </c>
+      <c r="Z49">
+        <v>6.5</v>
+      </c>
+      <c r="AA49">
+        <v>4.3</v>
+      </c>
+      <c r="AB49">
+        <v>1.42</v>
+      </c>
+      <c r="AC49">
+        <v>1.01</v>
+      </c>
+      <c r="AD49">
+        <v>11</v>
+      </c>
+      <c r="AE49">
+        <v>1.19</v>
+      </c>
+      <c r="AF49">
+        <v>4.8</v>
+      </c>
+      <c r="AG49">
+        <v>1.71</v>
+      </c>
+      <c r="AH49">
+        <v>2.02</v>
+      </c>
+      <c r="AI49">
+        <v>2.1</v>
+      </c>
+      <c r="AJ49">
+        <v>1.67</v>
+      </c>
+      <c r="AK49">
+        <v>2.55</v>
+      </c>
+      <c r="AL49">
+        <v>1.17</v>
+      </c>
+      <c r="AM49">
+        <v>1.08</v>
+      </c>
+      <c r="AN49">
+        <v>0.67</v>
+      </c>
+      <c r="AO49">
+        <v>3</v>
+      </c>
+      <c r="AP49">
+        <v>0.5</v>
+      </c>
+      <c r="AQ49">
+        <v>3</v>
+      </c>
+      <c r="AR49">
+        <v>1.09</v>
+      </c>
+      <c r="AS49">
+        <v>1.47</v>
+      </c>
+      <c r="AT49">
+        <v>2.56</v>
+      </c>
+      <c r="AU49">
+        <v>2</v>
+      </c>
+      <c r="AV49">
+        <v>4</v>
+      </c>
+      <c r="AW49">
+        <v>8</v>
+      </c>
+      <c r="AX49">
+        <v>3</v>
+      </c>
+      <c r="AY49">
+        <v>11</v>
+      </c>
+      <c r="AZ49">
+        <v>11</v>
+      </c>
+      <c r="BA49">
+        <v>3</v>
+      </c>
+      <c r="BB49">
+        <v>3</v>
+      </c>
+      <c r="BC49">
+        <v>6</v>
+      </c>
+      <c r="BD49">
+        <v>3.59</v>
+      </c>
+      <c r="BE49">
+        <v>8.5</v>
+      </c>
+      <c r="BF49">
+        <v>1.41</v>
+      </c>
+      <c r="BG49">
+        <v>1.52</v>
+      </c>
+      <c r="BH49">
+        <v>2.46</v>
+      </c>
+      <c r="BI49">
+        <v>1.88</v>
+      </c>
+      <c r="BJ49">
+        <v>1.92</v>
+      </c>
+      <c r="BK49">
+        <v>2.36</v>
+      </c>
+      <c r="BL49">
+        <v>1.56</v>
+      </c>
+      <c r="BM49">
+        <v>3.14</v>
+      </c>
+      <c r="BN49">
+        <v>1.25</v>
+      </c>
+      <c r="BO49">
+        <v>4.3</v>
+      </c>
+      <c r="BP49">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7537333</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45571.60416666666</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>84</v>
+      </c>
+      <c r="P50" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q50">
+        <v>3.2</v>
+      </c>
+      <c r="R50">
+        <v>2.1</v>
+      </c>
+      <c r="S50">
+        <v>3.4</v>
+      </c>
+      <c r="T50">
+        <v>1.44</v>
+      </c>
+      <c r="U50">
+        <v>2.63</v>
+      </c>
+      <c r="V50">
+        <v>3.25</v>
+      </c>
+      <c r="W50">
+        <v>1.33</v>
+      </c>
+      <c r="X50">
+        <v>9</v>
+      </c>
+      <c r="Y50">
+        <v>1.07</v>
+      </c>
+      <c r="Z50">
+        <v>2.65</v>
+      </c>
+      <c r="AA50">
+        <v>3.05</v>
+      </c>
+      <c r="AB50">
+        <v>2.6</v>
+      </c>
+      <c r="AC50">
+        <v>1.01</v>
+      </c>
+      <c r="AD50">
+        <v>7.9</v>
+      </c>
+      <c r="AE50">
+        <v>1.35</v>
+      </c>
+      <c r="AF50">
+        <v>3.2</v>
+      </c>
+      <c r="AG50">
+        <v>1.95</v>
+      </c>
+      <c r="AH50">
+        <v>1.76</v>
+      </c>
+      <c r="AI50">
+        <v>1.8</v>
+      </c>
+      <c r="AJ50">
+        <v>1.95</v>
+      </c>
+      <c r="AK50">
+        <v>1.36</v>
+      </c>
+      <c r="AL50">
+        <v>1.31</v>
+      </c>
+      <c r="AM50">
+        <v>1.49</v>
+      </c>
+      <c r="AN50">
+        <v>2</v>
+      </c>
+      <c r="AO50">
+        <v>2</v>
+      </c>
+      <c r="AP50">
+        <v>1.75</v>
+      </c>
+      <c r="AQ50">
+        <v>1.75</v>
+      </c>
+      <c r="AR50">
+        <v>1.74</v>
+      </c>
+      <c r="AS50">
+        <v>1.58</v>
+      </c>
+      <c r="AT50">
+        <v>3.32</v>
+      </c>
+      <c r="AU50">
+        <v>5</v>
+      </c>
+      <c r="AV50">
+        <v>8</v>
+      </c>
+      <c r="AW50">
+        <v>6</v>
+      </c>
+      <c r="AX50">
+        <v>6</v>
+      </c>
+      <c r="AY50">
+        <v>17</v>
+      </c>
+      <c r="AZ50">
+        <v>20</v>
+      </c>
+      <c r="BA50">
+        <v>6</v>
+      </c>
+      <c r="BB50">
+        <v>7</v>
+      </c>
+      <c r="BC50">
+        <v>13</v>
+      </c>
+      <c r="BD50">
+        <v>2.04</v>
+      </c>
+      <c r="BE50">
+        <v>6.3</v>
+      </c>
+      <c r="BF50">
+        <v>2.25</v>
+      </c>
+      <c r="BG50">
+        <v>1.39</v>
+      </c>
+      <c r="BH50">
+        <v>2.67</v>
+      </c>
+      <c r="BI50">
+        <v>1.74</v>
+      </c>
+      <c r="BJ50">
+        <v>2.02</v>
+      </c>
+      <c r="BK50">
+        <v>2.19</v>
+      </c>
+      <c r="BL50">
+        <v>1.57</v>
+      </c>
+      <c r="BM50">
+        <v>2.88</v>
+      </c>
+      <c r="BN50">
+        <v>1.3</v>
+      </c>
+      <c r="BO50">
+        <v>3.9</v>
+      </c>
+      <c r="BP50">
         <v>1.21</v>
-      </c>
-      <c r="BE46">
-        <v>10</v>
-      </c>
-      <c r="BF46">
-        <v>5.65</v>
-      </c>
-      <c r="BG46">
-        <v>1.37</v>
-      </c>
-      <c r="BH46">
-        <v>2.75</v>
-      </c>
-      <c r="BI46">
-        <v>1.7</v>
-      </c>
-      <c r="BJ46">
-        <v>2.05</v>
-      </c>
-      <c r="BK46">
-        <v>2.05</v>
-      </c>
-      <c r="BL46">
-        <v>1.7</v>
-      </c>
-      <c r="BM46">
-        <v>2.82</v>
-      </c>
-      <c r="BN46">
-        <v>1.31</v>
-      </c>
-      <c r="BO46">
-        <v>3.8</v>
-      </c>
-      <c r="BP46">
-        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -364,12 +364,12 @@
     <t>['41']</t>
   </si>
   <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
     <t>['28', '45']</t>
   </si>
   <si>
-    <t>['45+4']</t>
-  </si>
-  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -457,13 +457,13 @@
     <t>['66', '68']</t>
   </si>
   <si>
+    <t>['86', '90+2']</t>
+  </si>
+  <si>
+    <t>['19', '71', '77']</t>
+  </si>
+  <si>
     <t>['8', '26', '89']</t>
-  </si>
-  <si>
-    <t>['19', '71', '77']</t>
-  </si>
-  <si>
-    <t>['86', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -10312,7 +10312,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7537335</v>
+        <v>7537332</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10321,196 +10321,196 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45571.41666666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O47" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="P47" t="s">
         <v>147</v>
       </c>
       <c r="Q47">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="R47">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S47">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U47">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V47">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W47">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X47">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y47">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z47">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="AA47">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="AB47">
-        <v>2.7</v>
+        <v>1.42</v>
       </c>
       <c r="AC47">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD47">
-        <v>7.3</v>
+        <v>11</v>
       </c>
       <c r="AE47">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AF47">
-        <v>2.77</v>
+        <v>4.8</v>
       </c>
       <c r="AG47">
+        <v>1.71</v>
+      </c>
+      <c r="AH47">
+        <v>2.02</v>
+      </c>
+      <c r="AI47">
         <v>2.1</v>
       </c>
-      <c r="AH47">
-        <v>1.65</v>
-      </c>
-      <c r="AI47">
-        <v>1.8</v>
-      </c>
       <c r="AJ47">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="AK47">
-        <v>1.39</v>
+        <v>2.55</v>
       </c>
       <c r="AL47">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AM47">
+        <v>1.08</v>
+      </c>
+      <c r="AN47">
+        <v>0.67</v>
+      </c>
+      <c r="AO47">
+        <v>3</v>
+      </c>
+      <c r="AP47">
+        <v>0.5</v>
+      </c>
+      <c r="AQ47">
+        <v>3</v>
+      </c>
+      <c r="AR47">
+        <v>1.09</v>
+      </c>
+      <c r="AS47">
         <v>1.47</v>
       </c>
-      <c r="AN47">
-        <v>0.5</v>
-      </c>
-      <c r="AO47">
-        <v>1.33</v>
-      </c>
-      <c r="AP47">
-        <v>0.33</v>
-      </c>
-      <c r="AQ47">
-        <v>1.75</v>
-      </c>
-      <c r="AR47">
-        <v>1.06</v>
-      </c>
-      <c r="AS47">
-        <v>0.66</v>
-      </c>
       <c r="AT47">
-        <v>1.72</v>
+        <v>2.56</v>
       </c>
       <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
         <v>8</v>
       </c>
-      <c r="AV47">
+      <c r="AX47">
+        <v>2</v>
+      </c>
+      <c r="AY47">
         <v>8</v>
       </c>
-      <c r="AW47">
-        <v>4</v>
-      </c>
-      <c r="AX47">
-        <v>5</v>
-      </c>
-      <c r="AY47">
-        <v>18</v>
-      </c>
       <c r="AZ47">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BA47">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC47">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD47">
-        <v>2.1</v>
+        <v>3.59</v>
       </c>
       <c r="BE47">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BF47">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="BG47">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="BH47">
-        <v>2.11</v>
+        <v>2.46</v>
       </c>
       <c r="BI47">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="BJ47">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="BK47">
-        <v>2.82</v>
+        <v>2.36</v>
       </c>
       <c r="BL47">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="BM47">
-        <v>4</v>
+        <v>3.14</v>
       </c>
       <c r="BN47">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="BO47">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="BP47">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10518,7 +10518,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7537329</v>
+        <v>7537333</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10527,82 +10527,82 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45571.45833333334</v>
+        <v>45570.875</v>
       </c>
       <c r="F48">
         <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="Q48">
+        <v>3.2</v>
+      </c>
+      <c r="R48">
+        <v>2.1</v>
+      </c>
+      <c r="S48">
+        <v>3.4</v>
+      </c>
+      <c r="T48">
+        <v>1.44</v>
+      </c>
+      <c r="U48">
+        <v>2.63</v>
+      </c>
+      <c r="V48">
         <v>3.25</v>
       </c>
-      <c r="R48">
-        <v>2</v>
-      </c>
-      <c r="S48">
-        <v>3.6</v>
-      </c>
-      <c r="T48">
-        <v>1.5</v>
-      </c>
-      <c r="U48">
-        <v>2.5</v>
-      </c>
-      <c r="V48">
-        <v>3.4</v>
-      </c>
       <c r="W48">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y48">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z48">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="AA48">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AB48">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="AC48">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD48">
-        <v>6.85</v>
+        <v>7.9</v>
       </c>
       <c r="AE48">
         <v>1.35</v>
@@ -10611,112 +10611,112 @@
         <v>3.2</v>
       </c>
       <c r="AG48">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="AH48">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="AI48">
+        <v>1.8</v>
+      </c>
+      <c r="AJ48">
         <v>1.95</v>
       </c>
-      <c r="AJ48">
-        <v>1.8</v>
-      </c>
       <c r="AK48">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AL48">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AM48">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO48">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP48">
-        <v>0.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
+        <v>1.74</v>
+      </c>
+      <c r="AS48">
         <v>1.58</v>
       </c>
-      <c r="AS48">
-        <v>1.05</v>
-      </c>
       <c r="AT48">
-        <v>2.63</v>
+        <v>3.32</v>
       </c>
       <c r="AU48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV48">
         <v>7</v>
       </c>
       <c r="AW48">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY48">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ48">
+        <v>14</v>
+      </c>
+      <c r="BA48">
+        <v>6</v>
+      </c>
+      <c r="BB48">
+        <v>7</v>
+      </c>
+      <c r="BC48">
         <v>13</v>
       </c>
-      <c r="BA48">
-        <v>1</v>
-      </c>
-      <c r="BB48">
-        <v>1</v>
-      </c>
-      <c r="BC48">
-        <v>2</v>
-      </c>
       <c r="BD48">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="BE48">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="BF48">
-        <v>2.53</v>
+        <v>2.25</v>
       </c>
       <c r="BG48">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="BH48">
-        <v>2.51</v>
+        <v>2.67</v>
       </c>
       <c r="BI48">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="BJ48">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="BK48">
-        <v>2.34</v>
+        <v>2.19</v>
       </c>
       <c r="BL48">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="BM48">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
       <c r="BN48">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BO48">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="BP48">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10724,7 +10724,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7537332</v>
+        <v>7537329</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10733,130 +10733,130 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45571.60416666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F49">
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O49" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q49">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="R49">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="T49">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U49">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V49">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="W49">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X49">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y49">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z49">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="AA49">
-        <v>4.3</v>
+        <v>2.95</v>
       </c>
       <c r="AB49">
-        <v>1.42</v>
+        <v>2.95</v>
       </c>
       <c r="AC49">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD49">
-        <v>11</v>
+        <v>6.85</v>
       </c>
       <c r="AE49">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AF49">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="AG49">
-        <v>1.71</v>
+        <v>2.28</v>
       </c>
       <c r="AH49">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="AI49">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AJ49">
+        <v>1.8</v>
+      </c>
+      <c r="AK49">
+        <v>1.45</v>
+      </c>
+      <c r="AL49">
+        <v>1.32</v>
+      </c>
+      <c r="AM49">
+        <v>1.39</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>1.67</v>
       </c>
-      <c r="AK49">
-        <v>2.55</v>
-      </c>
-      <c r="AL49">
-        <v>1.17</v>
-      </c>
-      <c r="AM49">
-        <v>1.08</v>
-      </c>
-      <c r="AN49">
+      <c r="AP49">
         <v>0.67</v>
       </c>
-      <c r="AO49">
-        <v>3</v>
-      </c>
-      <c r="AP49">
-        <v>0.5</v>
-      </c>
       <c r="AQ49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR49">
-        <v>1.09</v>
+        <v>1.58</v>
       </c>
       <c r="AS49">
-        <v>1.47</v>
+        <v>1.05</v>
       </c>
       <c r="AT49">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="AU49">
         <v>2</v>
@@ -10865,64 +10865,64 @@
         <v>4</v>
       </c>
       <c r="AW49">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX49">
         <v>3</v>
       </c>
       <c r="AY49">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AZ49">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BD49">
-        <v>3.59</v>
+        <v>1.75</v>
       </c>
       <c r="BE49">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF49">
-        <v>1.41</v>
+        <v>2.53</v>
       </c>
       <c r="BG49">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="BH49">
-        <v>2.46</v>
+        <v>2.51</v>
       </c>
       <c r="BI49">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BJ49">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="BK49">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="BL49">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="BM49">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="BN49">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BO49">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BP49">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -10930,7 +10930,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7537333</v>
+        <v>7537335</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -10939,46 +10939,46 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45571.60416666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O50" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="Q50">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="R50">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
         <v>3.4</v>
@@ -10996,37 +10996,37 @@
         <v>1.33</v>
       </c>
       <c r="X50">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y50">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z50">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="AA50">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="AB50">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AC50">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD50">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AE50">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AF50">
-        <v>3.2</v>
+        <v>2.77</v>
       </c>
       <c r="AG50">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AH50">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="AI50">
         <v>1.8</v>
@@ -11035,100 +11035,100 @@
         <v>1.95</v>
       </c>
       <c r="AK50">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AL50">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AM50">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AN50">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AO50">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>0.33</v>
       </c>
       <c r="AQ50">
         <v>1.75</v>
       </c>
       <c r="AR50">
-        <v>1.74</v>
+        <v>1.06</v>
       </c>
       <c r="AS50">
-        <v>1.58</v>
+        <v>0.66</v>
       </c>
       <c r="AT50">
-        <v>3.32</v>
+        <v>1.72</v>
       </c>
       <c r="AU50">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY50">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ50">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BA50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB50">
+        <v>4</v>
+      </c>
+      <c r="BC50">
+        <v>11</v>
+      </c>
+      <c r="BD50">
+        <v>2.1</v>
+      </c>
+      <c r="BE50">
         <v>7</v>
       </c>
-      <c r="BC50">
-        <v>13</v>
-      </c>
-      <c r="BD50">
-        <v>2.04</v>
-      </c>
-      <c r="BE50">
-        <v>6.3</v>
-      </c>
       <c r="BF50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BG50">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="BH50">
-        <v>2.67</v>
+        <v>2.11</v>
       </c>
       <c r="BI50">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="BJ50">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="BK50">
-        <v>2.19</v>
+        <v>2.82</v>
       </c>
       <c r="BL50">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="BM50">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="BN50">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="BO50">
-        <v>3.9</v>
+        <v>5.8</v>
       </c>
       <c r="BP50">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -358,18 +358,18 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['4', '43']</t>
   </si>
   <si>
-    <t>['41']</t>
+    <t>['28', '45']</t>
   </si>
   <si>
     <t>['45+4']</t>
   </si>
   <si>
-    <t>['28', '45']</t>
-  </si>
-  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -457,13 +457,13 @@
     <t>['66', '68']</t>
   </si>
   <si>
+    <t>['8', '26', '89']</t>
+  </si>
+  <si>
+    <t>['19', '71', '77']</t>
+  </si>
+  <si>
     <t>['86', '90+2']</t>
-  </si>
-  <si>
-    <t>['19', '71', '77']</t>
-  </si>
-  <si>
-    <t>['8', '26', '89']</t>
   </si>
 </sst>
 </file>
@@ -6192,7 +6192,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7537310</v>
+        <v>7537312</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6207,88 +6207,88 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27">
+        <v>2.5</v>
+      </c>
+      <c r="R27">
+        <v>2.2</v>
+      </c>
+      <c r="S27">
+        <v>4.5</v>
+      </c>
+      <c r="T27">
+        <v>1.4</v>
+      </c>
+      <c r="U27">
+        <v>2.75</v>
+      </c>
+      <c r="V27">
         <v>3</v>
       </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27">
-        <v>5</v>
-      </c>
-      <c r="O27" t="s">
-        <v>100</v>
-      </c>
-      <c r="P27" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q27">
-        <v>3.75</v>
-      </c>
-      <c r="R27">
-        <v>2.1</v>
-      </c>
-      <c r="S27">
-        <v>3</v>
-      </c>
-      <c r="T27">
-        <v>1.44</v>
-      </c>
-      <c r="U27">
-        <v>2.63</v>
-      </c>
-      <c r="V27">
-        <v>3.25</v>
-      </c>
       <c r="W27">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y27">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z27">
-        <v>3.1</v>
+        <v>1.74</v>
       </c>
       <c r="AA27">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AB27">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="AC27">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE27">
         <v>1.33</v>
       </c>
       <c r="AF27">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AG27">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="AH27">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AI27">
         <v>1.8</v>
@@ -6297,100 +6297,100 @@
         <v>1.95</v>
       </c>
       <c r="AK27">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="AL27">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM27">
-        <v>1.38</v>
+        <v>1.96</v>
       </c>
       <c r="AN27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>1.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR27">
-        <v>1</v>
+        <v>1.95</v>
       </c>
       <c r="AS27">
-        <v>1.32</v>
+        <v>1.89</v>
       </c>
       <c r="AT27">
-        <v>2.32</v>
+        <v>3.84</v>
       </c>
       <c r="AU27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV27">
+        <v>5</v>
+      </c>
+      <c r="AW27">
         <v>6</v>
       </c>
-      <c r="AW27">
-        <v>4</v>
-      </c>
       <c r="AX27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AY27">
         <v>16</v>
       </c>
       <c r="AZ27">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="BA27">
         <v>6</v>
       </c>
       <c r="BB27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD27">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="BE27">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="BF27">
-        <v>1.8</v>
+        <v>2.85</v>
       </c>
       <c r="BG27">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="BH27">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="BI27">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BJ27">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="BK27">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BL27">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="BM27">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="BN27">
         <v>1.25</v>
       </c>
       <c r="BO27">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="BP27">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6398,7 +6398,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7537312</v>
+        <v>7537310</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6413,88 +6413,88 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O28" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="Q28">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R28">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S28">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="T28">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U28">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V28">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W28">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y28">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z28">
-        <v>1.74</v>
+        <v>3.1</v>
       </c>
       <c r="AA28">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AB28">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="AC28">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE28">
         <v>1.33</v>
       </c>
       <c r="AF28">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AG28">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="AH28">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AI28">
         <v>1.8</v>
@@ -6503,100 +6503,100 @@
         <v>1.95</v>
       </c>
       <c r="AK28">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="AL28">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM28">
-        <v>1.96</v>
+        <v>1.38</v>
       </c>
       <c r="AN28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP28">
+        <v>1.33</v>
+      </c>
+      <c r="AQ28">
         <v>1.75</v>
       </c>
-      <c r="AQ28">
-        <v>0.67</v>
-      </c>
       <c r="AR28">
-        <v>1.95</v>
+        <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.89</v>
+        <v>1.32</v>
       </c>
       <c r="AT28">
-        <v>3.84</v>
+        <v>2.32</v>
       </c>
       <c r="AU28">
+        <v>7</v>
+      </c>
+      <c r="AV28">
+        <v>6</v>
+      </c>
+      <c r="AW28">
         <v>4</v>
       </c>
-      <c r="AV28">
-        <v>5</v>
-      </c>
-      <c r="AW28">
-        <v>6</v>
-      </c>
       <c r="AX28">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY28">
         <v>16</v>
       </c>
       <c r="AZ28">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="BA28">
         <v>6</v>
       </c>
       <c r="BB28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC28">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD28">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="BE28">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BF28">
-        <v>2.85</v>
+        <v>1.8</v>
       </c>
       <c r="BG28">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="BH28">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="BI28">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BJ28">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="BK28">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BL28">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="BM28">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="BN28">
         <v>1.25</v>
       </c>
       <c r="BO28">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="BP28">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -9694,7 +9694,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7537334</v>
+        <v>7537331</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9703,196 +9703,196 @@
         <v>69</v>
       </c>
       <c r="E44" s="2">
-        <v>45569.875</v>
+        <v>45570.52083333334</v>
       </c>
       <c r="F44">
         <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O44" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="Q44">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="R44">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="S44">
-        <v>1.83</v>
+        <v>5</v>
       </c>
       <c r="T44">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="U44">
+        <v>2.63</v>
+      </c>
+      <c r="V44">
+        <v>3.4</v>
+      </c>
+      <c r="W44">
+        <v>1.3</v>
+      </c>
+      <c r="X44">
+        <v>10</v>
+      </c>
+      <c r="Y44">
+        <v>1.06</v>
+      </c>
+      <c r="Z44">
+        <v>1.75</v>
+      </c>
+      <c r="AA44">
         <v>3.25</v>
       </c>
-      <c r="V44">
-        <v>2.63</v>
-      </c>
-      <c r="W44">
-        <v>1.44</v>
-      </c>
-      <c r="X44">
-        <v>6.5</v>
-      </c>
-      <c r="Y44">
-        <v>1.11</v>
-      </c>
-      <c r="Z44">
-        <v>9.85</v>
-      </c>
-      <c r="AA44">
-        <v>4.85</v>
-      </c>
       <c r="AB44">
-        <v>1.28</v>
+        <v>4.73</v>
       </c>
       <c r="AC44">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD44">
-        <v>13.5</v>
+        <v>7.1</v>
       </c>
       <c r="AE44">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="AF44">
-        <v>3.58</v>
+        <v>2.73</v>
       </c>
       <c r="AG44">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="AH44">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="AI44">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AJ44">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AK44">
-        <v>2.9</v>
+        <v>1.17</v>
       </c>
       <c r="AL44">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AM44">
-        <v>1.06</v>
+        <v>1.85</v>
       </c>
       <c r="AN44">
         <v>1.33</v>
       </c>
       <c r="AO44">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR44">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AS44">
-        <v>1.66</v>
+        <v>0.82</v>
       </c>
       <c r="AT44">
-        <v>2.99</v>
+        <v>2.17</v>
       </c>
       <c r="AU44">
+        <v>4</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>8</v>
+      </c>
+      <c r="AX44">
+        <v>1</v>
+      </c>
+      <c r="AY44">
+        <v>15</v>
+      </c>
+      <c r="AZ44">
+        <v>7</v>
+      </c>
+      <c r="BA44">
+        <v>5</v>
+      </c>
+      <c r="BB44">
+        <v>1</v>
+      </c>
+      <c r="BC44">
         <v>6</v>
       </c>
-      <c r="AV44">
-        <v>6</v>
-      </c>
-      <c r="AW44">
-        <v>3</v>
-      </c>
-      <c r="AX44">
-        <v>11</v>
-      </c>
-      <c r="AY44">
-        <v>9</v>
-      </c>
-      <c r="AZ44">
-        <v>17</v>
-      </c>
-      <c r="BA44">
-        <v>4</v>
-      </c>
-      <c r="BB44">
-        <v>4</v>
-      </c>
-      <c r="BC44">
+      <c r="BD44">
+        <v>1.51</v>
+      </c>
+      <c r="BE44">
         <v>8</v>
       </c>
-      <c r="BD44">
-        <v>6.09</v>
-      </c>
-      <c r="BE44">
-        <v>11</v>
-      </c>
       <c r="BF44">
-        <v>1.19</v>
+        <v>3.17</v>
       </c>
       <c r="BG44">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="BH44">
-        <v>2.71</v>
+        <v>2.41</v>
       </c>
       <c r="BI44">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="BJ44">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="BK44">
-        <v>2.05</v>
+        <v>2.49</v>
       </c>
       <c r="BL44">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="BM44">
-        <v>2.82</v>
+        <v>3.34</v>
       </c>
       <c r="BN44">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="BO44">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="BP44">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -9900,7 +9900,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7537330</v>
+        <v>7537334</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -9909,49 +9909,49 @@
         <v>69</v>
       </c>
       <c r="E45" s="2">
-        <v>45569.875</v>
+        <v>45570.5625</v>
       </c>
       <c r="F45">
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="P45" t="s">
         <v>84</v>
       </c>
       <c r="Q45">
-        <v>1.95</v>
+        <v>8.5</v>
       </c>
       <c r="R45">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S45">
-        <v>6.5</v>
+        <v>1.83</v>
       </c>
       <c r="T45">
         <v>1.33</v>
@@ -9966,115 +9966,115 @@
         <v>1.44</v>
       </c>
       <c r="X45">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y45">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z45">
-        <v>1.37</v>
+        <v>9.85</v>
       </c>
       <c r="AA45">
-        <v>4.22</v>
+        <v>4.85</v>
       </c>
       <c r="AB45">
-        <v>8.199999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="AC45">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD45">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="AE45">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AF45">
-        <v>3.68</v>
+        <v>3.58</v>
       </c>
       <c r="AG45">
+        <v>1.55</v>
+      </c>
+      <c r="AH45">
+        <v>2.3</v>
+      </c>
+      <c r="AI45">
+        <v>2.1</v>
+      </c>
+      <c r="AJ45">
+        <v>1.67</v>
+      </c>
+      <c r="AK45">
+        <v>2.9</v>
+      </c>
+      <c r="AL45">
+        <v>1.13</v>
+      </c>
+      <c r="AM45">
+        <v>1.06</v>
+      </c>
+      <c r="AN45">
+        <v>1.33</v>
+      </c>
+      <c r="AO45">
+        <v>2</v>
+      </c>
+      <c r="AP45">
         <v>1.75</v>
       </c>
-      <c r="AH45">
-        <v>1.95</v>
-      </c>
-      <c r="AI45">
-        <v>1.95</v>
-      </c>
-      <c r="AJ45">
-        <v>1.8</v>
-      </c>
-      <c r="AK45">
-        <v>1.08</v>
-      </c>
-      <c r="AL45">
-        <v>1.17</v>
-      </c>
-      <c r="AM45">
-        <v>2.55</v>
-      </c>
-      <c r="AN45">
-        <v>2</v>
-      </c>
-      <c r="AO45">
+      <c r="AQ45">
         <v>1.33</v>
       </c>
-      <c r="AP45">
-        <v>2.33</v>
-      </c>
-      <c r="AQ45">
-        <v>1</v>
-      </c>
       <c r="AR45">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>0.8100000000000001</v>
+        <v>1.66</v>
       </c>
       <c r="AT45">
-        <v>1.97</v>
+        <v>2.99</v>
       </c>
       <c r="AU45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV45">
+        <v>6</v>
+      </c>
+      <c r="AW45">
         <v>3</v>
       </c>
-      <c r="AW45">
-        <v>2</v>
-      </c>
       <c r="AX45">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY45">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ45">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA45">
         <v>4</v>
       </c>
       <c r="BB45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD45">
-        <v>1.21</v>
+        <v>6.09</v>
       </c>
       <c r="BE45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BF45">
-        <v>5.65</v>
+        <v>1.19</v>
       </c>
       <c r="BG45">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="BH45">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="BI45">
         <v>1.7</v>
@@ -10095,10 +10095,10 @@
         <v>1.31</v>
       </c>
       <c r="BO45">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="BP45">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -10106,7 +10106,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7537331</v>
+        <v>7537330</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10115,196 +10115,196 @@
         <v>69</v>
       </c>
       <c r="E46" s="2">
-        <v>45570.52083333334</v>
+        <v>45570.58333333334</v>
       </c>
       <c r="F46">
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O46" t="s">
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="Q46">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="R46">
+        <v>2.38</v>
+      </c>
+      <c r="S46">
+        <v>6.5</v>
+      </c>
+      <c r="T46">
+        <v>1.33</v>
+      </c>
+      <c r="U46">
+        <v>3.25</v>
+      </c>
+      <c r="V46">
+        <v>2.63</v>
+      </c>
+      <c r="W46">
+        <v>1.44</v>
+      </c>
+      <c r="X46">
+        <v>7</v>
+      </c>
+      <c r="Y46">
+        <v>1.1</v>
+      </c>
+      <c r="Z46">
+        <v>1.37</v>
+      </c>
+      <c r="AA46">
+        <v>4.22</v>
+      </c>
+      <c r="AB46">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC46">
+        <v>1.03</v>
+      </c>
+      <c r="AD46">
+        <v>13.7</v>
+      </c>
+      <c r="AE46">
+        <v>1.19</v>
+      </c>
+      <c r="AF46">
+        <v>3.68</v>
+      </c>
+      <c r="AG46">
+        <v>1.75</v>
+      </c>
+      <c r="AH46">
+        <v>1.95</v>
+      </c>
+      <c r="AI46">
+        <v>1.95</v>
+      </c>
+      <c r="AJ46">
+        <v>1.8</v>
+      </c>
+      <c r="AK46">
+        <v>1.08</v>
+      </c>
+      <c r="AL46">
+        <v>1.17</v>
+      </c>
+      <c r="AM46">
+        <v>2.55</v>
+      </c>
+      <c r="AN46">
+        <v>2</v>
+      </c>
+      <c r="AO46">
+        <v>1.33</v>
+      </c>
+      <c r="AP46">
+        <v>2.33</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1.16</v>
+      </c>
+      <c r="AS46">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT46">
+        <v>1.97</v>
+      </c>
+      <c r="AU46">
+        <v>5</v>
+      </c>
+      <c r="AV46">
+        <v>3</v>
+      </c>
+      <c r="AW46">
+        <v>2</v>
+      </c>
+      <c r="AX46">
+        <v>8</v>
+      </c>
+      <c r="AY46">
+        <v>7</v>
+      </c>
+      <c r="AZ46">
+        <v>11</v>
+      </c>
+      <c r="BA46">
+        <v>4</v>
+      </c>
+      <c r="BB46">
+        <v>1</v>
+      </c>
+      <c r="BC46">
+        <v>5</v>
+      </c>
+      <c r="BD46">
+        <v>1.21</v>
+      </c>
+      <c r="BE46">
+        <v>10</v>
+      </c>
+      <c r="BF46">
+        <v>5.65</v>
+      </c>
+      <c r="BG46">
+        <v>1.37</v>
+      </c>
+      <c r="BH46">
+        <v>2.75</v>
+      </c>
+      <c r="BI46">
+        <v>1.7</v>
+      </c>
+      <c r="BJ46">
         <v>2.05</v>
       </c>
-      <c r="S46">
-        <v>5</v>
-      </c>
-      <c r="T46">
-        <v>1.44</v>
-      </c>
-      <c r="U46">
-        <v>2.63</v>
-      </c>
-      <c r="V46">
-        <v>3.4</v>
-      </c>
-      <c r="W46">
-        <v>1.3</v>
-      </c>
-      <c r="X46">
-        <v>10</v>
-      </c>
-      <c r="Y46">
-        <v>1.06</v>
-      </c>
-      <c r="Z46">
-        <v>1.75</v>
-      </c>
-      <c r="AA46">
-        <v>3.25</v>
-      </c>
-      <c r="AB46">
-        <v>4.73</v>
-      </c>
-      <c r="AC46">
-        <v>1.02</v>
-      </c>
-      <c r="AD46">
-        <v>7.1</v>
-      </c>
-      <c r="AE46">
-        <v>1.34</v>
-      </c>
-      <c r="AF46">
-        <v>2.73</v>
-      </c>
-      <c r="AG46">
-        <v>1.85</v>
-      </c>
-      <c r="AH46">
-        <v>1.85</v>
-      </c>
-      <c r="AI46">
-        <v>2</v>
-      </c>
-      <c r="AJ46">
-        <v>1.75</v>
-      </c>
-      <c r="AK46">
-        <v>1.17</v>
-      </c>
-      <c r="AL46">
-        <v>1.29</v>
-      </c>
-      <c r="AM46">
-        <v>1.85</v>
-      </c>
-      <c r="AN46">
-        <v>1.33</v>
-      </c>
-      <c r="AO46">
-        <v>1.5</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46">
-        <v>2</v>
-      </c>
-      <c r="AR46">
-        <v>1.35</v>
-      </c>
-      <c r="AS46">
-        <v>0.82</v>
-      </c>
-      <c r="AT46">
-        <v>2.17</v>
-      </c>
-      <c r="AU46">
-        <v>4</v>
-      </c>
-      <c r="AV46">
-        <v>4</v>
-      </c>
-      <c r="AW46">
-        <v>8</v>
-      </c>
-      <c r="AX46">
-        <v>1</v>
-      </c>
-      <c r="AY46">
-        <v>15</v>
-      </c>
-      <c r="AZ46">
-        <v>7</v>
-      </c>
-      <c r="BA46">
-        <v>5</v>
-      </c>
-      <c r="BB46">
-        <v>1</v>
-      </c>
-      <c r="BC46">
-        <v>6</v>
-      </c>
-      <c r="BD46">
-        <v>1.51</v>
-      </c>
-      <c r="BE46">
-        <v>8</v>
-      </c>
-      <c r="BF46">
-        <v>3.17</v>
-      </c>
-      <c r="BG46">
-        <v>1.53</v>
-      </c>
-      <c r="BH46">
-        <v>2.41</v>
-      </c>
-      <c r="BI46">
-        <v>1.95</v>
-      </c>
-      <c r="BJ46">
-        <v>1.85</v>
-      </c>
       <c r="BK46">
-        <v>2.49</v>
+        <v>2.05</v>
       </c>
       <c r="BL46">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="BM46">
-        <v>3.34</v>
+        <v>2.82</v>
       </c>
       <c r="BN46">
+        <v>1.31</v>
+      </c>
+      <c r="BO46">
+        <v>3.8</v>
+      </c>
+      <c r="BP46">
         <v>1.22</v>
-      </c>
-      <c r="BO46">
-        <v>4.5</v>
-      </c>
-      <c r="BP46">
-        <v>1.16</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -10312,7 +10312,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7537332</v>
+        <v>7537335</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10321,196 +10321,196 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45570.875</v>
+        <v>45571.41666666666</v>
       </c>
       <c r="F47">
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O47" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="P47" t="s">
         <v>147</v>
       </c>
       <c r="Q47">
+        <v>3.4</v>
+      </c>
+      <c r="R47">
+        <v>2.05</v>
+      </c>
+      <c r="S47">
+        <v>3.4</v>
+      </c>
+      <c r="T47">
+        <v>1.44</v>
+      </c>
+      <c r="U47">
+        <v>2.63</v>
+      </c>
+      <c r="V47">
+        <v>3.25</v>
+      </c>
+      <c r="W47">
+        <v>1.33</v>
+      </c>
+      <c r="X47">
+        <v>10</v>
+      </c>
+      <c r="Y47">
+        <v>1.06</v>
+      </c>
+      <c r="Z47">
+        <v>2.45</v>
+      </c>
+      <c r="AA47">
+        <v>3.3</v>
+      </c>
+      <c r="AB47">
+        <v>2.7</v>
+      </c>
+      <c r="AC47">
+        <v>1.02</v>
+      </c>
+      <c r="AD47">
+        <v>7.3</v>
+      </c>
+      <c r="AE47">
+        <v>1.33</v>
+      </c>
+      <c r="AF47">
+        <v>2.77</v>
+      </c>
+      <c r="AG47">
+        <v>2.1</v>
+      </c>
+      <c r="AH47">
+        <v>1.65</v>
+      </c>
+      <c r="AI47">
+        <v>1.8</v>
+      </c>
+      <c r="AJ47">
+        <v>1.95</v>
+      </c>
+      <c r="AK47">
+        <v>1.39</v>
+      </c>
+      <c r="AL47">
+        <v>1.29</v>
+      </c>
+      <c r="AM47">
+        <v>1.47</v>
+      </c>
+      <c r="AN47">
+        <v>0.5</v>
+      </c>
+      <c r="AO47">
+        <v>1.33</v>
+      </c>
+      <c r="AP47">
+        <v>0.33</v>
+      </c>
+      <c r="AQ47">
+        <v>1.75</v>
+      </c>
+      <c r="AR47">
+        <v>1.06</v>
+      </c>
+      <c r="AS47">
+        <v>0.66</v>
+      </c>
+      <c r="AT47">
+        <v>1.72</v>
+      </c>
+      <c r="AU47">
+        <v>9</v>
+      </c>
+      <c r="AV47">
+        <v>6</v>
+      </c>
+      <c r="AW47">
+        <v>4</v>
+      </c>
+      <c r="AX47">
+        <v>4</v>
+      </c>
+      <c r="AY47">
+        <v>13</v>
+      </c>
+      <c r="AZ47">
+        <v>10</v>
+      </c>
+      <c r="BA47">
         <v>7</v>
       </c>
-      <c r="R47">
-        <v>2.3</v>
-      </c>
-      <c r="S47">
-        <v>2</v>
-      </c>
-      <c r="T47">
-        <v>1.4</v>
-      </c>
-      <c r="U47">
-        <v>2.75</v>
-      </c>
-      <c r="V47">
-        <v>2.75</v>
-      </c>
-      <c r="W47">
-        <v>1.4</v>
-      </c>
-      <c r="X47">
-        <v>8</v>
-      </c>
-      <c r="Y47">
-        <v>1.08</v>
-      </c>
-      <c r="Z47">
-        <v>6.5</v>
-      </c>
-      <c r="AA47">
-        <v>4.3</v>
-      </c>
-      <c r="AB47">
-        <v>1.42</v>
-      </c>
-      <c r="AC47">
-        <v>1.01</v>
-      </c>
-      <c r="AD47">
+      <c r="BB47">
+        <v>4</v>
+      </c>
+      <c r="BC47">
         <v>11</v>
       </c>
-      <c r="AE47">
-        <v>1.19</v>
-      </c>
-      <c r="AF47">
-        <v>4.8</v>
-      </c>
-      <c r="AG47">
-        <v>1.71</v>
-      </c>
-      <c r="AH47">
-        <v>2.02</v>
-      </c>
-      <c r="AI47">
+      <c r="BD47">
         <v>2.1</v>
       </c>
-      <c r="AJ47">
-        <v>1.67</v>
-      </c>
-      <c r="AK47">
-        <v>2.55</v>
-      </c>
-      <c r="AL47">
-        <v>1.17</v>
-      </c>
-      <c r="AM47">
-        <v>1.08</v>
-      </c>
-      <c r="AN47">
-        <v>0.67</v>
-      </c>
-      <c r="AO47">
-        <v>3</v>
-      </c>
-      <c r="AP47">
-        <v>0.5</v>
-      </c>
-      <c r="AQ47">
-        <v>3</v>
-      </c>
-      <c r="AR47">
-        <v>1.09</v>
-      </c>
-      <c r="AS47">
-        <v>1.47</v>
-      </c>
-      <c r="AT47">
-        <v>2.56</v>
-      </c>
-      <c r="AU47">
-        <v>0</v>
-      </c>
-      <c r="AV47">
+      <c r="BE47">
+        <v>7</v>
+      </c>
+      <c r="BF47">
+        <v>2</v>
+      </c>
+      <c r="BG47">
+        <v>1.7</v>
+      </c>
+      <c r="BH47">
+        <v>2.11</v>
+      </c>
+      <c r="BI47">
+        <v>2</v>
+      </c>
+      <c r="BJ47">
+        <v>1.8</v>
+      </c>
+      <c r="BK47">
+        <v>2.82</v>
+      </c>
+      <c r="BL47">
+        <v>1.31</v>
+      </c>
+      <c r="BM47">
         <v>4</v>
       </c>
-      <c r="AW47">
-        <v>8</v>
-      </c>
-      <c r="AX47">
-        <v>2</v>
-      </c>
-      <c r="AY47">
-        <v>8</v>
-      </c>
-      <c r="AZ47">
-        <v>6</v>
-      </c>
-      <c r="BA47">
-        <v>3</v>
-      </c>
-      <c r="BB47">
-        <v>3</v>
-      </c>
-      <c r="BC47">
-        <v>6</v>
-      </c>
-      <c r="BD47">
-        <v>3.59</v>
-      </c>
-      <c r="BE47">
-        <v>8.5</v>
-      </c>
-      <c r="BF47">
-        <v>1.41</v>
-      </c>
-      <c r="BG47">
-        <v>1.52</v>
-      </c>
-      <c r="BH47">
-        <v>2.46</v>
-      </c>
-      <c r="BI47">
-        <v>1.88</v>
-      </c>
-      <c r="BJ47">
-        <v>1.92</v>
-      </c>
-      <c r="BK47">
-        <v>2.36</v>
-      </c>
-      <c r="BL47">
-        <v>1.56</v>
-      </c>
-      <c r="BM47">
-        <v>3.14</v>
-      </c>
       <c r="BN47">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="BO47">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="BP47">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10518,7 +10518,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7537333</v>
+        <v>7537329</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10527,82 +10527,82 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45570.875</v>
+        <v>45571.45833333334</v>
       </c>
       <c r="F48">
         <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O48" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="Q48">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R48">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S48">
+        <v>3.6</v>
+      </c>
+      <c r="T48">
+        <v>1.5</v>
+      </c>
+      <c r="U48">
+        <v>2.5</v>
+      </c>
+      <c r="V48">
         <v>3.4</v>
       </c>
-      <c r="T48">
-        <v>1.44</v>
-      </c>
-      <c r="U48">
-        <v>2.63</v>
-      </c>
-      <c r="V48">
-        <v>3.25</v>
-      </c>
       <c r="W48">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y48">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z48">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="AA48">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AB48">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="AC48">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD48">
-        <v>7.9</v>
+        <v>6.85</v>
       </c>
       <c r="AE48">
         <v>1.35</v>
@@ -10611,112 +10611,112 @@
         <v>3.2</v>
       </c>
       <c r="AG48">
+        <v>2.28</v>
+      </c>
+      <c r="AH48">
+        <v>1.56</v>
+      </c>
+      <c r="AI48">
         <v>1.95</v>
       </c>
-      <c r="AH48">
-        <v>1.76</v>
-      </c>
-      <c r="AI48">
+      <c r="AJ48">
         <v>1.8</v>
       </c>
-      <c r="AJ48">
+      <c r="AK48">
+        <v>1.45</v>
+      </c>
+      <c r="AL48">
+        <v>1.32</v>
+      </c>
+      <c r="AM48">
+        <v>1.39</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>1.67</v>
+      </c>
+      <c r="AP48">
+        <v>0.67</v>
+      </c>
+      <c r="AQ48">
+        <v>2</v>
+      </c>
+      <c r="AR48">
+        <v>1.58</v>
+      </c>
+      <c r="AS48">
+        <v>1.05</v>
+      </c>
+      <c r="AT48">
+        <v>2.63</v>
+      </c>
+      <c r="AU48">
+        <v>2</v>
+      </c>
+      <c r="AV48">
+        <v>4</v>
+      </c>
+      <c r="AW48">
+        <v>3</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>5</v>
+      </c>
+      <c r="AZ48">
+        <v>7</v>
+      </c>
+      <c r="BA48">
+        <v>1</v>
+      </c>
+      <c r="BB48">
+        <v>1</v>
+      </c>
+      <c r="BC48">
+        <v>2</v>
+      </c>
+      <c r="BD48">
+        <v>1.75</v>
+      </c>
+      <c r="BE48">
+        <v>7.5</v>
+      </c>
+      <c r="BF48">
+        <v>2.53</v>
+      </c>
+      <c r="BG48">
+        <v>1.44</v>
+      </c>
+      <c r="BH48">
+        <v>2.51</v>
+      </c>
+      <c r="BI48">
+        <v>1.85</v>
+      </c>
+      <c r="BJ48">
         <v>1.95</v>
       </c>
-      <c r="AK48">
-        <v>1.36</v>
-      </c>
-      <c r="AL48">
-        <v>1.31</v>
-      </c>
-      <c r="AM48">
-        <v>1.49</v>
-      </c>
-      <c r="AN48">
-        <v>2</v>
-      </c>
-      <c r="AO48">
-        <v>2</v>
-      </c>
-      <c r="AP48">
-        <v>1.75</v>
-      </c>
-      <c r="AQ48">
-        <v>1.75</v>
-      </c>
-      <c r="AR48">
-        <v>1.74</v>
-      </c>
-      <c r="AS48">
-        <v>1.58</v>
-      </c>
-      <c r="AT48">
-        <v>3.32</v>
-      </c>
-      <c r="AU48">
-        <v>7</v>
-      </c>
-      <c r="AV48">
-        <v>7</v>
-      </c>
-      <c r="AW48">
-        <v>7</v>
-      </c>
-      <c r="AX48">
-        <v>7</v>
-      </c>
-      <c r="AY48">
-        <v>14</v>
-      </c>
-      <c r="AZ48">
-        <v>14</v>
-      </c>
-      <c r="BA48">
-        <v>6</v>
-      </c>
-      <c r="BB48">
-        <v>7</v>
-      </c>
-      <c r="BC48">
-        <v>13</v>
-      </c>
-      <c r="BD48">
-        <v>2.04</v>
-      </c>
-      <c r="BE48">
-        <v>6.3</v>
-      </c>
-      <c r="BF48">
-        <v>2.25</v>
-      </c>
-      <c r="BG48">
-        <v>1.39</v>
-      </c>
-      <c r="BH48">
-        <v>2.67</v>
-      </c>
-      <c r="BI48">
-        <v>1.74</v>
-      </c>
-      <c r="BJ48">
-        <v>2.02</v>
-      </c>
       <c r="BK48">
-        <v>2.19</v>
+        <v>2.34</v>
       </c>
       <c r="BL48">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="BM48">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="BN48">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BO48">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="BP48">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10724,7 +10724,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7537329</v>
+        <v>7537332</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10733,196 +10733,196 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45570.875</v>
+        <v>45571.60416666666</v>
       </c>
       <c r="F49">
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P49" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q49">
+        <v>7</v>
+      </c>
+      <c r="R49">
+        <v>2.3</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49">
+        <v>2.75</v>
+      </c>
+      <c r="V49">
+        <v>2.75</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>8</v>
+      </c>
+      <c r="Y49">
+        <v>1.08</v>
+      </c>
+      <c r="Z49">
+        <v>6.5</v>
+      </c>
+      <c r="AA49">
+        <v>4.3</v>
+      </c>
+      <c r="AB49">
+        <v>1.42</v>
+      </c>
+      <c r="AC49">
+        <v>1.01</v>
+      </c>
+      <c r="AD49">
+        <v>11</v>
+      </c>
+      <c r="AE49">
+        <v>1.19</v>
+      </c>
+      <c r="AF49">
+        <v>4.8</v>
+      </c>
+      <c r="AG49">
+        <v>1.71</v>
+      </c>
+      <c r="AH49">
+        <v>2.02</v>
+      </c>
+      <c r="AI49">
+        <v>2.1</v>
+      </c>
+      <c r="AJ49">
+        <v>1.67</v>
+      </c>
+      <c r="AK49">
+        <v>2.55</v>
+      </c>
+      <c r="AL49">
+        <v>1.17</v>
+      </c>
+      <c r="AM49">
+        <v>1.08</v>
+      </c>
+      <c r="AN49">
+        <v>0.67</v>
+      </c>
+      <c r="AO49">
         <v>3</v>
       </c>
-      <c r="N49">
-        <v>4</v>
-      </c>
-      <c r="O49" t="s">
-        <v>116</v>
-      </c>
-      <c r="P49" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q49">
-        <v>3.25</v>
-      </c>
-      <c r="R49">
-        <v>2</v>
-      </c>
-      <c r="S49">
-        <v>3.6</v>
-      </c>
-      <c r="T49">
-        <v>1.5</v>
-      </c>
-      <c r="U49">
-        <v>2.5</v>
-      </c>
-      <c r="V49">
-        <v>3.4</v>
-      </c>
-      <c r="W49">
-        <v>1.3</v>
-      </c>
-      <c r="X49">
-        <v>10</v>
-      </c>
-      <c r="Y49">
-        <v>1.06</v>
-      </c>
-      <c r="Z49">
-        <v>2.45</v>
-      </c>
-      <c r="AA49">
-        <v>2.95</v>
-      </c>
-      <c r="AB49">
-        <v>2.95</v>
-      </c>
-      <c r="AC49">
-        <v>1.03</v>
-      </c>
-      <c r="AD49">
-        <v>6.85</v>
-      </c>
-      <c r="AE49">
-        <v>1.35</v>
-      </c>
-      <c r="AF49">
-        <v>3.2</v>
-      </c>
-      <c r="AG49">
-        <v>2.28</v>
-      </c>
-      <c r="AH49">
-        <v>1.56</v>
-      </c>
-      <c r="AI49">
-        <v>1.95</v>
-      </c>
-      <c r="AJ49">
-        <v>1.8</v>
-      </c>
-      <c r="AK49">
-        <v>1.45</v>
-      </c>
-      <c r="AL49">
-        <v>1.32</v>
-      </c>
-      <c r="AM49">
-        <v>1.39</v>
-      </c>
-      <c r="AN49">
-        <v>1</v>
-      </c>
-      <c r="AO49">
-        <v>1.67</v>
-      </c>
       <c r="AP49">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR49">
-        <v>1.58</v>
+        <v>1.09</v>
       </c>
       <c r="AS49">
-        <v>1.05</v>
+        <v>1.47</v>
       </c>
       <c r="AT49">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="AU49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV49">
         <v>4</v>
       </c>
       <c r="AW49">
+        <v>8</v>
+      </c>
+      <c r="AX49">
+        <v>2</v>
+      </c>
+      <c r="AY49">
+        <v>8</v>
+      </c>
+      <c r="AZ49">
+        <v>6</v>
+      </c>
+      <c r="BA49">
         <v>3</v>
       </c>
-      <c r="AX49">
+      <c r="BB49">
         <v>3</v>
       </c>
-      <c r="AY49">
-        <v>5</v>
-      </c>
-      <c r="AZ49">
-        <v>7</v>
-      </c>
-      <c r="BA49">
-        <v>1</v>
-      </c>
-      <c r="BB49">
-        <v>1</v>
-      </c>
       <c r="BC49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BD49">
-        <v>1.75</v>
+        <v>3.59</v>
       </c>
       <c r="BE49">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF49">
-        <v>2.53</v>
+        <v>1.41</v>
       </c>
       <c r="BG49">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="BH49">
-        <v>2.51</v>
+        <v>2.46</v>
       </c>
       <c r="BI49">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BJ49">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="BK49">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="BL49">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="BM49">
-        <v>3.08</v>
+        <v>3.14</v>
       </c>
       <c r="BN49">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="BO49">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BP49">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -10930,7 +10930,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7537335</v>
+        <v>7537333</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -10939,46 +10939,46 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45570.875</v>
+        <v>45571.60416666666</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="Q50">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S50">
         <v>3.4</v>
@@ -10996,37 +10996,37 @@
         <v>1.33</v>
       </c>
       <c r="X50">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y50">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z50">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="AA50">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="AB50">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AC50">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD50">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AE50">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AF50">
-        <v>2.77</v>
+        <v>3.2</v>
       </c>
       <c r="AG50">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AH50">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="AI50">
         <v>1.8</v>
@@ -11035,100 +11035,100 @@
         <v>1.95</v>
       </c>
       <c r="AK50">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AL50">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AM50">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AN50">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AO50">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP50">
-        <v>0.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
         <v>1.75</v>
       </c>
       <c r="AR50">
-        <v>1.06</v>
+        <v>1.74</v>
       </c>
       <c r="AS50">
-        <v>0.66</v>
+        <v>1.58</v>
       </c>
       <c r="AT50">
-        <v>1.72</v>
+        <v>3.32</v>
       </c>
       <c r="AU50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV50">
+        <v>7</v>
+      </c>
+      <c r="AW50">
+        <v>7</v>
+      </c>
+      <c r="AX50">
+        <v>7</v>
+      </c>
+      <c r="AY50">
+        <v>14</v>
+      </c>
+      <c r="AZ50">
+        <v>14</v>
+      </c>
+      <c r="BA50">
         <v>6</v>
       </c>
-      <c r="AW50">
-        <v>4</v>
-      </c>
-      <c r="AX50">
-        <v>4</v>
-      </c>
-      <c r="AY50">
+      <c r="BB50">
+        <v>7</v>
+      </c>
+      <c r="BC50">
         <v>13</v>
       </c>
-      <c r="AZ50">
-        <v>10</v>
-      </c>
-      <c r="BA50">
-        <v>7</v>
-      </c>
-      <c r="BB50">
-        <v>4</v>
-      </c>
-      <c r="BC50">
-        <v>11</v>
-      </c>
       <c r="BD50">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="BE50">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="BF50">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BG50">
-        <v>1.7</v>
+        <v>1.39</v>
       </c>
       <c r="BH50">
-        <v>2.11</v>
+        <v>2.67</v>
       </c>
       <c r="BI50">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="BJ50">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="BK50">
-        <v>2.82</v>
+        <v>2.19</v>
       </c>
       <c r="BL50">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="BM50">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="BN50">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="BO50">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="BP50">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1574,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ6">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2192,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2398,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2601,22 +2601,22 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AU9">
         <v>3</v>
@@ -2810,19 +2810,19 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AS10">
         <v>1.01</v>
       </c>
       <c r="AT10">
-        <v>1.01</v>
+        <v>2.25</v>
       </c>
       <c r="AU10">
         <v>4</v>
@@ -3016,10 +3016,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR11">
         <v>2.01</v>
@@ -3216,25 +3216,25 @@
         <v>1.7</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AU12">
         <v>6</v>
@@ -3428,19 +3428,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR13">
         <v>1.83</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AT13">
-        <v>1.83</v>
+        <v>3.09</v>
       </c>
       <c r="AU13">
         <v>10</v>
@@ -3631,22 +3631,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AQ14">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR14">
         <v>1.21</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AT14">
-        <v>1.21</v>
+        <v>2.59</v>
       </c>
       <c r="AU14">
         <v>6</v>
@@ -3834,25 +3834,25 @@
         <v>6.5</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO15">
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AS15">
         <v>0.36</v>
       </c>
       <c r="AT15">
-        <v>0.36</v>
+        <v>2.07</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -4040,25 +4040,25 @@
         <v>1.05</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO16">
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AS16">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT16">
-        <v>1.71</v>
+        <v>2.48</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4246,25 +4246,25 @@
         <v>2.2</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AS17">
-        <v>1.15</v>
+        <v>1.7</v>
       </c>
       <c r="AT17">
-        <v>1.15</v>
+        <v>3.02</v>
       </c>
       <c r="AU17">
         <v>7</v>
@@ -4458,19 +4458,19 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AQ18">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="AR18">
-        <v>1.26</v>
+        <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="AT18">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="AU18">
         <v>8</v>
@@ -4658,25 +4658,25 @@
         <v>1.03</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR19">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AT19">
-        <v>1.38</v>
+        <v>3.42</v>
       </c>
       <c r="AU19">
         <v>2</v>
@@ -4864,25 +4864,25 @@
         <v>1.61</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP20">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR20">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="AS20">
-        <v>0.53</v>
+        <v>0.76</v>
       </c>
       <c r="AT20">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -5073,22 +5073,22 @@
         <v>1</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ21">
-        <v>3</v>
+        <v>2.29</v>
       </c>
       <c r="AR21">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AT21">
-        <v>1.23</v>
+        <v>3.23</v>
       </c>
       <c r="AU21">
         <v>4</v>
@@ -5276,25 +5276,25 @@
         <v>1.05</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AU22">
         <v>9</v>
@@ -5482,25 +5482,25 @@
         <v>1.63</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO23">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP23">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR23">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AS23">
-        <v>0.6</v>
+        <v>1.11</v>
       </c>
       <c r="AT23">
-        <v>1.52</v>
+        <v>2</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -5688,25 +5688,25 @@
         <v>1.85</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP24">
-        <v>0.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
-        <v>2.26</v>
+        <v>1.47</v>
       </c>
       <c r="AS24">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AT24">
-        <v>3.58</v>
+        <v>2.63</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -5897,22 +5897,22 @@
         <v>0</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP25">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR25">
-        <v>0.98</v>
+        <v>1.23</v>
       </c>
       <c r="AS25">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="AT25">
-        <v>1.88</v>
+        <v>2.18</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6103,22 +6103,22 @@
         <v>3</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR26">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="AS26">
-        <v>0.73</v>
+        <v>1.14</v>
       </c>
       <c r="AT26">
-        <v>2.21</v>
+        <v>2.78</v>
       </c>
       <c r="AU26">
         <v>6</v>
@@ -6309,22 +6309,22 @@
         <v>3</v>
       </c>
       <c r="AO27">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
       <c r="AQ27">
-        <v>0.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR27">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="AS27">
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
       <c r="AT27">
-        <v>3.84</v>
+        <v>3.26</v>
       </c>
       <c r="AU27">
         <v>4</v>
@@ -6512,25 +6512,25 @@
         <v>1.38</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO28">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR28">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AS28">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AT28">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="AU28">
         <v>7</v>
@@ -6718,25 +6718,25 @@
         <v>7.5</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR29">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="AS29">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="AT29">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -6924,25 +6924,25 @@
         <v>1.06</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AP30">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>3</v>
+        <v>2.29</v>
       </c>
       <c r="AR30">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="AS30">
-        <v>1.09</v>
+        <v>1.56</v>
       </c>
       <c r="AT30">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7130,25 +7130,25 @@
         <v>1.14</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO31">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AP31">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR31">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AS31">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="AT31">
-        <v>3.01</v>
+        <v>3.32</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7336,25 +7336,25 @@
         <v>1.65</v>
       </c>
       <c r="AN32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="AS32">
-        <v>1.08</v>
+        <v>1.53</v>
       </c>
       <c r="AT32">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -7545,22 +7545,22 @@
         <v>0.5</v>
       </c>
       <c r="AO33">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP33">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR33">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
       <c r="AS33">
-        <v>0.65</v>
+        <v>0.93</v>
       </c>
       <c r="AT33">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="AU33">
         <v>5</v>
@@ -7748,25 +7748,25 @@
         <v>4.75</v>
       </c>
       <c r="AN34">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="AR34">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AS34">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="AT34">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="AU34">
         <v>12</v>
@@ -7954,25 +7954,25 @@
         <v>2.05</v>
       </c>
       <c r="AN35">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO35">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR35">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AS35">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="AT35">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="AU35">
         <v>9</v>
@@ -8160,25 +8160,25 @@
         <v>1.06</v>
       </c>
       <c r="AN36">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AP36">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR36">
-        <v>2.14</v>
+        <v>1.16</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="AT36">
-        <v>3.64</v>
+        <v>3.03</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8366,25 +8366,25 @@
         <v>1.64</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO37">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AP37">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR37">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="AS37">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="AT37">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AU37">
         <v>8</v>
@@ -8572,25 +8572,25 @@
         <v>1.96</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO38">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP38">
-        <v>0.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR38">
-        <v>1.97</v>
+        <v>1.42</v>
       </c>
       <c r="AS38">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AT38">
-        <v>3.04</v>
+        <v>2.5</v>
       </c>
       <c r="AU38">
         <v>3</v>
@@ -8778,25 +8778,25 @@
         <v>1.87</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR39">
-        <v>1.2</v>
+        <v>0.87</v>
       </c>
       <c r="AS39">
-        <v>0.68</v>
+        <v>1.07</v>
       </c>
       <c r="AT39">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -8987,22 +8987,22 @@
         <v>2</v>
       </c>
       <c r="AO40">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR40">
-        <v>2.09</v>
+        <v>1.79</v>
       </c>
       <c r="AS40">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="AT40">
-        <v>3.23</v>
+        <v>3.05</v>
       </c>
       <c r="AU40">
         <v>8</v>
@@ -9190,25 +9190,25 @@
         <v>2.6</v>
       </c>
       <c r="AN41">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="AO41">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AP41">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR41">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="AS41">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AT41">
-        <v>3.16</v>
+        <v>2.96</v>
       </c>
       <c r="AU41">
         <v>4</v>
@@ -9396,25 +9396,25 @@
         <v>1.85</v>
       </c>
       <c r="AN42">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AP42">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>1.29</v>
       </c>
       <c r="AR42">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="AS42">
-        <v>1.41</v>
+        <v>1.61</v>
       </c>
       <c r="AT42">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -9602,25 +9602,25 @@
         <v>1.55</v>
       </c>
       <c r="AN43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP43">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="AR43">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="AS43">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="AT43">
-        <v>2.43</v>
+        <v>2.16</v>
       </c>
       <c r="AU43">
         <v>3</v>
@@ -9811,22 +9811,22 @@
         <v>1.33</v>
       </c>
       <c r="AO44">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR44">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AS44">
-        <v>0.82</v>
+        <v>1.17</v>
       </c>
       <c r="AT44">
-        <v>2.17</v>
+        <v>2.37</v>
       </c>
       <c r="AU44">
         <v>4</v>
@@ -10017,22 +10017,22 @@
         <v>1.33</v>
       </c>
       <c r="AO45">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR45">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AS45">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="AT45">
-        <v>2.99</v>
+        <v>2.87</v>
       </c>
       <c r="AU45">
         <v>6</v>
@@ -10220,25 +10220,25 @@
         <v>2.55</v>
       </c>
       <c r="AN46">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO46">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP46">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR46">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="AS46">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="AT46">
-        <v>1.97</v>
+        <v>2.27</v>
       </c>
       <c r="AU46">
         <v>5</v>
@@ -10426,25 +10426,25 @@
         <v>1.47</v>
       </c>
       <c r="AN47">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO47">
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
       <c r="AQ47">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AR47">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="AS47">
-        <v>0.66</v>
+        <v>0.91</v>
       </c>
       <c r="AT47">
-        <v>1.72</v>
+        <v>2.21</v>
       </c>
       <c r="AU47">
         <v>9</v>
@@ -10632,25 +10632,25 @@
         <v>1.39</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO48">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP48">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AR48">
-        <v>1.58</v>
+        <v>1.04</v>
       </c>
       <c r="AS48">
-        <v>1.05</v>
+        <v>1.37</v>
       </c>
       <c r="AT48">
-        <v>2.63</v>
+        <v>2.41</v>
       </c>
       <c r="AU48">
         <v>2</v>
@@ -10841,22 +10841,22 @@
         <v>0.67</v>
       </c>
       <c r="AO49">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="AP49">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ49">
-        <v>3</v>
+        <v>2.29</v>
       </c>
       <c r="AR49">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AS49">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="AT49">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -11044,25 +11044,25 @@
         <v>1.49</v>
       </c>
       <c r="AN50">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO50">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AQ50">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR50">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="AT50">
-        <v>3.32</v>
+        <v>3.31</v>
       </c>
       <c r="AU50">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,6 +370,15 @@
     <t>['45+4']</t>
   </si>
   <si>
+    <t>['2', '21']</t>
+  </si>
+  <si>
+    <t>['65', '88']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -464,6 +473,15 @@
   </si>
   <si>
     <t>['86', '90+2']</t>
+  </si>
+  <si>
+    <t>['14', '37']</t>
+  </si>
+  <si>
+    <t>['45+1', '57']</t>
+  </si>
+  <si>
+    <t>['6']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1102,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1162,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1290,7 +1308,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1368,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>0.57</v>
+        <v>1.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1574,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1702,7 +1720,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1780,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1908,7 +1926,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -1986,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.14</v>
+        <v>0.8</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2192,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ7">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2320,7 +2338,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2398,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2526,7 +2544,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2601,22 +2619,22 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>3</v>
@@ -2732,7 +2750,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2810,19 +2828,19 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AS10">
         <v>1.01</v>
       </c>
       <c r="AT10">
-        <v>2.25</v>
+        <v>1.01</v>
       </c>
       <c r="AU10">
         <v>4</v>
@@ -2938,7 +2956,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3016,10 +3034,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ11">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>2.01</v>
@@ -3144,7 +3162,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3216,25 +3234,25 @@
         <v>1.7</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR12">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>6</v>
@@ -3428,19 +3446,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>1.83</v>
       </c>
       <c r="AS13">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.09</v>
+        <v>1.83</v>
       </c>
       <c r="AU13">
         <v>10</v>
@@ -3631,22 +3649,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
         <v>1.21</v>
       </c>
       <c r="AS14">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.59</v>
+        <v>1.21</v>
       </c>
       <c r="AU14">
         <v>6</v>
@@ -3762,7 +3780,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3834,7 +3852,7 @@
         <v>6.5</v>
       </c>
       <c r="AN15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO15">
         <v>1</v>
@@ -3843,16 +3861,16 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="AR15">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AS15">
         <v>0.36</v>
       </c>
       <c r="AT15">
-        <v>2.07</v>
+        <v>0.36</v>
       </c>
       <c r="AU15">
         <v>6</v>
@@ -3968,7 +3986,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4040,25 +4058,25 @@
         <v>1.05</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO16">
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AT16">
-        <v>2.48</v>
+        <v>1.71</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4174,7 +4192,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4246,25 +4264,25 @@
         <v>2.2</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ17">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="AR17">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.7</v>
+        <v>1.15</v>
       </c>
       <c r="AT17">
-        <v>3.02</v>
+        <v>1.15</v>
       </c>
       <c r="AU17">
         <v>7</v>
@@ -4458,19 +4476,19 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>0.57</v>
+        <v>1.2</v>
       </c>
       <c r="AR18">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="AS18">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="AT18">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="AU18">
         <v>8</v>
@@ -4586,7 +4604,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4658,25 +4676,25 @@
         <v>1.03</v>
       </c>
       <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
         <v>0.5</v>
       </c>
-      <c r="AO19">
-        <v>2</v>
-      </c>
-      <c r="AP19">
-        <v>0.57</v>
-      </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AS19">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>3.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU19">
         <v>2</v>
@@ -4792,7 +4810,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -4864,25 +4882,25 @@
         <v>1.61</v>
       </c>
       <c r="AN20">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AQ20">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR20">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AS20">
-        <v>0.76</v>
+        <v>0.53</v>
       </c>
       <c r="AT20">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -4998,7 +5016,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5073,22 +5091,22 @@
         <v>1</v>
       </c>
       <c r="AO21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.14</v>
+        <v>0.8</v>
       </c>
       <c r="AQ21">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="AR21">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AS21">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AT21">
-        <v>3.23</v>
+        <v>1.23</v>
       </c>
       <c r="AU21">
         <v>4</v>
@@ -5204,7 +5222,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5276,25 +5294,25 @@
         <v>1.05</v>
       </c>
       <c r="AN22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AT22">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AU22">
         <v>9</v>
@@ -5482,25 +5500,25 @@
         <v>1.63</v>
       </c>
       <c r="AN23">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AQ23">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="AR23">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="AS23">
-        <v>1.11</v>
+        <v>0.6</v>
       </c>
       <c r="AT23">
-        <v>2</v>
+        <v>1.52</v>
       </c>
       <c r="AU23">
         <v>3</v>
@@ -5616,7 +5634,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5688,25 +5706,25 @@
         <v>1.85</v>
       </c>
       <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>0.33</v>
+      </c>
+      <c r="AQ24">
         <v>1.33</v>
       </c>
-      <c r="AO24">
-        <v>0.67</v>
-      </c>
-      <c r="AP24">
-        <v>1.29</v>
-      </c>
-      <c r="AQ24">
-        <v>1.14</v>
-      </c>
       <c r="AR24">
-        <v>1.47</v>
+        <v>2.26</v>
       </c>
       <c r="AS24">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="AT24">
-        <v>2.63</v>
+        <v>3.58</v>
       </c>
       <c r="AU24">
         <v>6</v>
@@ -5822,7 +5840,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5897,22 +5915,22 @@
         <v>0</v>
       </c>
       <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
         <v>0.33</v>
       </c>
-      <c r="AP25">
-        <v>0.57</v>
-      </c>
       <c r="AQ25">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
-        <v>1.23</v>
+        <v>0.98</v>
       </c>
       <c r="AS25">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AT25">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -6103,22 +6121,22 @@
         <v>3</v>
       </c>
       <c r="AO26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26">
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR26">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="AS26">
-        <v>1.14</v>
+        <v>0.73</v>
       </c>
       <c r="AT26">
-        <v>2.78</v>
+        <v>2.21</v>
       </c>
       <c r="AU26">
         <v>6</v>
@@ -6309,22 +6327,22 @@
         <v>3</v>
       </c>
       <c r="AO27">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP27">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="AS27">
-        <v>1.59</v>
+        <v>1.89</v>
       </c>
       <c r="AT27">
-        <v>3.26</v>
+        <v>3.84</v>
       </c>
       <c r="AU27">
         <v>4</v>
@@ -6440,7 +6458,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6512,25 +6530,25 @@
         <v>1.38</v>
       </c>
       <c r="AN28">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO28">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP28">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AT28">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="AU28">
         <v>7</v>
@@ -6718,25 +6736,25 @@
         <v>7.5</v>
       </c>
       <c r="AN29">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR29">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="AS29">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="AT29">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -6852,7 +6870,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -6924,25 +6942,25 @@
         <v>1.06</v>
       </c>
       <c r="AN30">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>0.2</v>
+      </c>
+      <c r="AQ30">
         <v>2.5</v>
       </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30">
-        <v>2.29</v>
-      </c>
       <c r="AR30">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="AS30">
-        <v>1.56</v>
+        <v>1.09</v>
       </c>
       <c r="AT30">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7130,25 +7148,25 @@
         <v>1.14</v>
       </c>
       <c r="AN31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
         <v>2.5</v>
       </c>
-      <c r="AP31">
-        <v>2</v>
-      </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AS31">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="AT31">
-        <v>3.32</v>
+        <v>3.01</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7264,7 +7282,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7336,25 +7354,25 @@
         <v>1.65</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="AR32">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="AS32">
-        <v>1.53</v>
+        <v>1.08</v>
       </c>
       <c r="AT32">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -7470,7 +7488,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7545,22 +7563,22 @@
         <v>0.5</v>
       </c>
       <c r="AO33">
+        <v>1.5</v>
+      </c>
+      <c r="AP33">
+        <v>0.5</v>
+      </c>
+      <c r="AQ33">
         <v>1.75</v>
       </c>
-      <c r="AP33">
-        <v>0.57</v>
-      </c>
-      <c r="AQ33">
-        <v>1.57</v>
-      </c>
       <c r="AR33">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="AS33">
-        <v>0.93</v>
+        <v>0.65</v>
       </c>
       <c r="AT33">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="AU33">
         <v>5</v>
@@ -7676,7 +7694,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7748,25 +7766,25 @@
         <v>4.75</v>
       </c>
       <c r="AN34">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO34">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
-        <v>0.57</v>
+        <v>1.2</v>
       </c>
       <c r="AR34">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AS34">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="AT34">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="AU34">
         <v>12</v>
@@ -7882,7 +7900,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -7954,25 +7972,25 @@
         <v>2.05</v>
       </c>
       <c r="AN35">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO35">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.14</v>
+        <v>0.8</v>
       </c>
       <c r="AQ35">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR35">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AS35">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="AT35">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="AU35">
         <v>9</v>
@@ -8160,25 +8178,25 @@
         <v>1.06</v>
       </c>
       <c r="AN36">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO36">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
-        <v>1.16</v>
+        <v>2.14</v>
       </c>
       <c r="AS36">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="AT36">
-        <v>3.03</v>
+        <v>3.64</v>
       </c>
       <c r="AU36">
         <v>3</v>
@@ -8294,7 +8312,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8366,25 +8384,25 @@
         <v>1.64</v>
       </c>
       <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0.67</v>
+      </c>
+      <c r="AP37">
+        <v>0.2</v>
+      </c>
+      <c r="AQ37">
         <v>0.6</v>
       </c>
-      <c r="AO37">
-        <v>0.8</v>
-      </c>
-      <c r="AP37">
-        <v>1</v>
-      </c>
-      <c r="AQ37">
-        <v>0.71</v>
-      </c>
       <c r="AR37">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="AS37">
-        <v>1.13</v>
+        <v>0.83</v>
       </c>
       <c r="AT37">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="AU37">
         <v>8</v>
@@ -8500,7 +8518,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8572,25 +8590,25 @@
         <v>1.96</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ38">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
-        <v>1.42</v>
+        <v>1.97</v>
       </c>
       <c r="AS38">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT38">
-        <v>2.5</v>
+        <v>3.04</v>
       </c>
       <c r="AU38">
         <v>3</v>
@@ -8706,7 +8724,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8778,25 +8796,25 @@
         <v>1.87</v>
       </c>
       <c r="AN39">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
-        <v>0.87</v>
+        <v>1.2</v>
       </c>
       <c r="AS39">
-        <v>1.07</v>
+        <v>0.68</v>
       </c>
       <c r="AT39">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -8987,22 +9005,22 @@
         <v>2</v>
       </c>
       <c r="AO40">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP40">
         <v>2</v>
       </c>
       <c r="AQ40">
+        <v>1.33</v>
+      </c>
+      <c r="AR40">
+        <v>2.09</v>
+      </c>
+      <c r="AS40">
         <v>1.14</v>
       </c>
-      <c r="AR40">
-        <v>1.79</v>
-      </c>
-      <c r="AS40">
-        <v>1.26</v>
-      </c>
       <c r="AT40">
-        <v>3.05</v>
+        <v>3.23</v>
       </c>
       <c r="AU40">
         <v>8</v>
@@ -9190,25 +9208,25 @@
         <v>2.6</v>
       </c>
       <c r="AN41">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AO41">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR41">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AS41">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AT41">
-        <v>2.96</v>
+        <v>3.16</v>
       </c>
       <c r="AU41">
         <v>4</v>
@@ -9396,25 +9414,25 @@
         <v>1.85</v>
       </c>
       <c r="AN42">
+        <v>2.33</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
         <v>2.2</v>
       </c>
-      <c r="AO42">
-        <v>1.6</v>
-      </c>
-      <c r="AP42">
-        <v>2</v>
-      </c>
       <c r="AQ42">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR42">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="AS42">
-        <v>1.61</v>
+        <v>1.41</v>
       </c>
       <c r="AT42">
-        <v>3.47</v>
+        <v>3.4</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -9530,7 +9548,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9602,25 +9620,25 @@
         <v>1.55</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO43">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AQ43">
-        <v>0.57</v>
+        <v>1.2</v>
       </c>
       <c r="AR43">
-        <v>0.91</v>
+        <v>1.06</v>
       </c>
       <c r="AS43">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="AT43">
-        <v>2.16</v>
+        <v>2.43</v>
       </c>
       <c r="AU43">
         <v>3</v>
@@ -9736,7 +9754,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -9811,22 +9829,22 @@
         <v>1.33</v>
       </c>
       <c r="AO44">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.14</v>
+        <v>0.8</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR44">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AS44">
-        <v>1.17</v>
+        <v>0.82</v>
       </c>
       <c r="AT44">
-        <v>2.37</v>
+        <v>2.17</v>
       </c>
       <c r="AU44">
         <v>4</v>
@@ -10017,22 +10035,22 @@
         <v>1.33</v>
       </c>
       <c r="AO45">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="AT45">
-        <v>2.87</v>
+        <v>2.99</v>
       </c>
       <c r="AU45">
         <v>6</v>
@@ -10220,25 +10238,25 @@
         <v>2.55</v>
       </c>
       <c r="AN46">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO46">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ46">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR46">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="AS46">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT46">
-        <v>2.27</v>
+        <v>1.97</v>
       </c>
       <c r="AU46">
         <v>5</v>
@@ -10354,7 +10372,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10426,25 +10444,25 @@
         <v>1.47</v>
       </c>
       <c r="AN47">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO47">
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="AQ47">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR47">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="AS47">
-        <v>0.91</v>
+        <v>0.66</v>
       </c>
       <c r="AT47">
-        <v>2.21</v>
+        <v>1.72</v>
       </c>
       <c r="AU47">
         <v>9</v>
@@ -10560,7 +10578,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10632,25 +10650,25 @@
         <v>1.39</v>
       </c>
       <c r="AN48">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO48">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP48">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ48">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="AR48">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="AS48">
-        <v>1.37</v>
+        <v>1.05</v>
       </c>
       <c r="AT48">
-        <v>2.41</v>
+        <v>2.63</v>
       </c>
       <c r="AU48">
         <v>2</v>
@@ -10766,7 +10784,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10841,22 +10859,22 @@
         <v>0.67</v>
       </c>
       <c r="AO49">
-        <v>2.17</v>
+        <v>3</v>
       </c>
       <c r="AP49">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ49">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="AR49">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AS49">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AT49">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -11044,25 +11062,25 @@
         <v>1.49</v>
       </c>
       <c r="AN50">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO50">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR50">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AS50">
-        <v>1.81</v>
+        <v>1.58</v>
       </c>
       <c r="AT50">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11129,6 +11147,1448 @@
       </c>
       <c r="BP50">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7537342</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45583.875</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>84</v>
+      </c>
+      <c r="P51" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q51">
+        <v>4</v>
+      </c>
+      <c r="R51">
+        <v>2.05</v>
+      </c>
+      <c r="S51">
+        <v>2.88</v>
+      </c>
+      <c r="T51">
+        <v>1.44</v>
+      </c>
+      <c r="U51">
+        <v>2.63</v>
+      </c>
+      <c r="V51">
+        <v>3.25</v>
+      </c>
+      <c r="W51">
+        <v>1.33</v>
+      </c>
+      <c r="X51">
+        <v>9</v>
+      </c>
+      <c r="Y51">
+        <v>1.07</v>
+      </c>
+      <c r="Z51">
+        <v>3.47</v>
+      </c>
+      <c r="AA51">
+        <v>3.2</v>
+      </c>
+      <c r="AB51">
+        <v>2.11</v>
+      </c>
+      <c r="AC51">
+        <v>1.02</v>
+      </c>
+      <c r="AD51">
+        <v>7.5</v>
+      </c>
+      <c r="AE51">
+        <v>1.32</v>
+      </c>
+      <c r="AF51">
+        <v>2.81</v>
+      </c>
+      <c r="AG51">
+        <v>2.02</v>
+      </c>
+      <c r="AH51">
+        <v>1.71</v>
+      </c>
+      <c r="AI51">
+        <v>1.91</v>
+      </c>
+      <c r="AJ51">
+        <v>1.91</v>
+      </c>
+      <c r="AK51">
+        <v>1.58</v>
+      </c>
+      <c r="AL51">
+        <v>1.3</v>
+      </c>
+      <c r="AM51">
+        <v>1.3</v>
+      </c>
+      <c r="AN51">
+        <v>0.33</v>
+      </c>
+      <c r="AO51">
+        <v>2</v>
+      </c>
+      <c r="AP51">
+        <v>0.5</v>
+      </c>
+      <c r="AQ51">
+        <v>1.8</v>
+      </c>
+      <c r="AR51">
+        <v>1.1</v>
+      </c>
+      <c r="AS51">
+        <v>1.05</v>
+      </c>
+      <c r="AT51">
+        <v>2.15</v>
+      </c>
+      <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AV51">
+        <v>3</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <v>11</v>
+      </c>
+      <c r="AZ51">
+        <v>9</v>
+      </c>
+      <c r="BA51">
+        <v>6</v>
+      </c>
+      <c r="BB51">
+        <v>5</v>
+      </c>
+      <c r="BC51">
+        <v>11</v>
+      </c>
+      <c r="BD51">
+        <v>3.08</v>
+      </c>
+      <c r="BE51">
+        <v>6.45</v>
+      </c>
+      <c r="BF51">
+        <v>1.63</v>
+      </c>
+      <c r="BG51">
+        <v>1.48</v>
+      </c>
+      <c r="BH51">
+        <v>2.4</v>
+      </c>
+      <c r="BI51">
+        <v>1.9</v>
+      </c>
+      <c r="BJ51">
+        <v>1.84</v>
+      </c>
+      <c r="BK51">
+        <v>2.48</v>
+      </c>
+      <c r="BL51">
+        <v>1.45</v>
+      </c>
+      <c r="BM51">
+        <v>3.34</v>
+      </c>
+      <c r="BN51">
+        <v>1.22</v>
+      </c>
+      <c r="BO51">
+        <v>0</v>
+      </c>
+      <c r="BP51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7537338</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45583.875</v>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>84</v>
+      </c>
+      <c r="P52" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q52">
+        <v>2.5</v>
+      </c>
+      <c r="R52">
+        <v>2.1</v>
+      </c>
+      <c r="S52">
+        <v>5</v>
+      </c>
+      <c r="T52">
+        <v>1.44</v>
+      </c>
+      <c r="U52">
+        <v>2.63</v>
+      </c>
+      <c r="V52">
+        <v>3.25</v>
+      </c>
+      <c r="W52">
+        <v>1.33</v>
+      </c>
+      <c r="X52">
+        <v>10</v>
+      </c>
+      <c r="Y52">
+        <v>1.06</v>
+      </c>
+      <c r="Z52">
+        <v>1.83</v>
+      </c>
+      <c r="AA52">
+        <v>3.4</v>
+      </c>
+      <c r="AB52">
+        <v>4.2</v>
+      </c>
+      <c r="AC52">
+        <v>1.03</v>
+      </c>
+      <c r="AD52">
+        <v>6.8</v>
+      </c>
+      <c r="AE52">
+        <v>1.32</v>
+      </c>
+      <c r="AF52">
+        <v>2.81</v>
+      </c>
+      <c r="AG52">
+        <v>2.05</v>
+      </c>
+      <c r="AH52">
+        <v>1.7</v>
+      </c>
+      <c r="AI52">
+        <v>1.95</v>
+      </c>
+      <c r="AJ52">
+        <v>1.8</v>
+      </c>
+      <c r="AK52">
+        <v>1.93</v>
+      </c>
+      <c r="AL52">
+        <v>1.25</v>
+      </c>
+      <c r="AM52">
+        <v>1.18</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
+        <v>1.33</v>
+      </c>
+      <c r="AP52">
+        <v>0.8</v>
+      </c>
+      <c r="AQ52">
+        <v>1.75</v>
+      </c>
+      <c r="AR52">
+        <v>1.4</v>
+      </c>
+      <c r="AS52">
+        <v>0.84</v>
+      </c>
+      <c r="AT52">
+        <v>2.24</v>
+      </c>
+      <c r="AU52">
+        <v>5</v>
+      </c>
+      <c r="AV52">
+        <v>5</v>
+      </c>
+      <c r="AW52">
+        <v>8</v>
+      </c>
+      <c r="AX52">
+        <v>3</v>
+      </c>
+      <c r="AY52">
+        <v>20</v>
+      </c>
+      <c r="AZ52">
+        <v>8</v>
+      </c>
+      <c r="BA52">
+        <v>8</v>
+      </c>
+      <c r="BB52">
+        <v>2</v>
+      </c>
+      <c r="BC52">
+        <v>10</v>
+      </c>
+      <c r="BD52">
+        <v>1.6</v>
+      </c>
+      <c r="BE52">
+        <v>6.4</v>
+      </c>
+      <c r="BF52">
+        <v>3.2</v>
+      </c>
+      <c r="BG52">
+        <v>1.57</v>
+      </c>
+      <c r="BH52">
+        <v>2.19</v>
+      </c>
+      <c r="BI52">
+        <v>2.05</v>
+      </c>
+      <c r="BJ52">
+        <v>1.72</v>
+      </c>
+      <c r="BK52">
+        <v>2.71</v>
+      </c>
+      <c r="BL52">
+        <v>1.38</v>
+      </c>
+      <c r="BM52">
+        <v>3.74</v>
+      </c>
+      <c r="BN52">
+        <v>1.18</v>
+      </c>
+      <c r="BO52">
+        <v>0</v>
+      </c>
+      <c r="BP52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7537339</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" t="s">
+        <v>78</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P53" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q53">
+        <v>2.88</v>
+      </c>
+      <c r="R53">
+        <v>2.05</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>1.5</v>
+      </c>
+      <c r="U53">
+        <v>2.5</v>
+      </c>
+      <c r="V53">
+        <v>3.4</v>
+      </c>
+      <c r="W53">
+        <v>1.3</v>
+      </c>
+      <c r="X53">
+        <v>10</v>
+      </c>
+      <c r="Y53">
+        <v>1.06</v>
+      </c>
+      <c r="Z53">
+        <v>2.07</v>
+      </c>
+      <c r="AA53">
+        <v>3.1</v>
+      </c>
+      <c r="AB53">
+        <v>3.17</v>
+      </c>
+      <c r="AC53">
+        <v>1.04</v>
+      </c>
+      <c r="AD53">
+        <v>6.45</v>
+      </c>
+      <c r="AE53">
+        <v>1.41</v>
+      </c>
+      <c r="AF53">
+        <v>2.95</v>
+      </c>
+      <c r="AG53">
+        <v>2.15</v>
+      </c>
+      <c r="AH53">
+        <v>1.61</v>
+      </c>
+      <c r="AI53">
+        <v>1.95</v>
+      </c>
+      <c r="AJ53">
+        <v>1.8</v>
+      </c>
+      <c r="AK53">
+        <v>1.27</v>
+      </c>
+      <c r="AL53">
+        <v>1.32</v>
+      </c>
+      <c r="AM53">
+        <v>1.6</v>
+      </c>
+      <c r="AN53">
+        <v>0.25</v>
+      </c>
+      <c r="AO53">
+        <v>0.75</v>
+      </c>
+      <c r="AP53">
+        <v>0.2</v>
+      </c>
+      <c r="AQ53">
+        <v>1.2</v>
+      </c>
+      <c r="AR53">
+        <v>1.35</v>
+      </c>
+      <c r="AS53">
+        <v>1.42</v>
+      </c>
+      <c r="AT53">
+        <v>2.77</v>
+      </c>
+      <c r="AU53">
+        <v>7</v>
+      </c>
+      <c r="AV53">
+        <v>7</v>
+      </c>
+      <c r="AW53">
+        <v>7</v>
+      </c>
+      <c r="AX53">
+        <v>6</v>
+      </c>
+      <c r="AY53">
+        <v>28</v>
+      </c>
+      <c r="AZ53">
+        <v>15</v>
+      </c>
+      <c r="BA53">
+        <v>8</v>
+      </c>
+      <c r="BB53">
+        <v>5</v>
+      </c>
+      <c r="BC53">
+        <v>13</v>
+      </c>
+      <c r="BD53">
+        <v>1.65</v>
+      </c>
+      <c r="BE53">
+        <v>6.25</v>
+      </c>
+      <c r="BF53">
+        <v>3.05</v>
+      </c>
+      <c r="BG53">
+        <v>1.62</v>
+      </c>
+      <c r="BH53">
+        <v>2.1</v>
+      </c>
+      <c r="BI53">
+        <v>2.1</v>
+      </c>
+      <c r="BJ53">
+        <v>1.7</v>
+      </c>
+      <c r="BK53">
+        <v>2.88</v>
+      </c>
+      <c r="BL53">
+        <v>1.34</v>
+      </c>
+      <c r="BM53">
+        <v>3.98</v>
+      </c>
+      <c r="BN53">
+        <v>1.15</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7537340</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45585.41666666666</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>4</v>
+      </c>
+      <c r="O54" t="s">
+        <v>118</v>
+      </c>
+      <c r="P54" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q54">
+        <v>1.73</v>
+      </c>
+      <c r="R54">
+        <v>2.6</v>
+      </c>
+      <c r="S54">
+        <v>9.5</v>
+      </c>
+      <c r="T54">
+        <v>1.3</v>
+      </c>
+      <c r="U54">
+        <v>3.4</v>
+      </c>
+      <c r="V54">
+        <v>2.5</v>
+      </c>
+      <c r="W54">
+        <v>1.5</v>
+      </c>
+      <c r="X54">
+        <v>6</v>
+      </c>
+      <c r="Y54">
+        <v>1.13</v>
+      </c>
+      <c r="Z54">
+        <v>1.11</v>
+      </c>
+      <c r="AA54">
+        <v>6.5</v>
+      </c>
+      <c r="AB54">
+        <v>17</v>
+      </c>
+      <c r="AC54">
+        <v>1.01</v>
+      </c>
+      <c r="AD54">
+        <v>13</v>
+      </c>
+      <c r="AE54">
+        <v>1.22</v>
+      </c>
+      <c r="AF54">
+        <v>4.3</v>
+      </c>
+      <c r="AG54">
+        <v>1.62</v>
+      </c>
+      <c r="AH54">
+        <v>2.16</v>
+      </c>
+      <c r="AI54">
+        <v>2.25</v>
+      </c>
+      <c r="AJ54">
+        <v>1.57</v>
+      </c>
+      <c r="AK54">
+        <v>1.05</v>
+      </c>
+      <c r="AL54">
+        <v>1.11</v>
+      </c>
+      <c r="AM54">
+        <v>3.1</v>
+      </c>
+      <c r="AN54">
+        <v>2.33</v>
+      </c>
+      <c r="AO54">
+        <v>0.67</v>
+      </c>
+      <c r="AP54">
+        <v>2</v>
+      </c>
+      <c r="AQ54">
+        <v>0.75</v>
+      </c>
+      <c r="AR54">
+        <v>2.03</v>
+      </c>
+      <c r="AS54">
+        <v>1.08</v>
+      </c>
+      <c r="AT54">
+        <v>3.11</v>
+      </c>
+      <c r="AU54">
+        <v>10</v>
+      </c>
+      <c r="AV54">
+        <v>3</v>
+      </c>
+      <c r="AW54">
+        <v>7</v>
+      </c>
+      <c r="AX54">
+        <v>2</v>
+      </c>
+      <c r="AY54">
+        <v>21</v>
+      </c>
+      <c r="AZ54">
+        <v>7</v>
+      </c>
+      <c r="BA54">
+        <v>7</v>
+      </c>
+      <c r="BB54">
+        <v>2</v>
+      </c>
+      <c r="BC54">
+        <v>9</v>
+      </c>
+      <c r="BD54">
+        <v>1.26</v>
+      </c>
+      <c r="BE54">
+        <v>9.5</v>
+      </c>
+      <c r="BF54">
+        <v>4.66</v>
+      </c>
+      <c r="BG54">
+        <v>1.49</v>
+      </c>
+      <c r="BH54">
+        <v>2.43</v>
+      </c>
+      <c r="BI54">
+        <v>1.92</v>
+      </c>
+      <c r="BJ54">
+        <v>1.88</v>
+      </c>
+      <c r="BK54">
+        <v>2.36</v>
+      </c>
+      <c r="BL54">
+        <v>1.52</v>
+      </c>
+      <c r="BM54">
+        <v>3.1</v>
+      </c>
+      <c r="BN54">
+        <v>1.31</v>
+      </c>
+      <c r="BO54">
+        <v>4.4</v>
+      </c>
+      <c r="BP54">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7537341</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45585.5</v>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>84</v>
+      </c>
+      <c r="P55" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+      <c r="R55">
+        <v>2.3</v>
+      </c>
+      <c r="S55">
+        <v>2.25</v>
+      </c>
+      <c r="T55">
+        <v>1.33</v>
+      </c>
+      <c r="U55">
+        <v>3.25</v>
+      </c>
+      <c r="V55">
+        <v>2.63</v>
+      </c>
+      <c r="W55">
+        <v>1.44</v>
+      </c>
+      <c r="X55">
+        <v>7</v>
+      </c>
+      <c r="Y55">
+        <v>1.1</v>
+      </c>
+      <c r="Z55">
+        <v>4.5</v>
+      </c>
+      <c r="AA55">
+        <v>3.6</v>
+      </c>
+      <c r="AB55">
+        <v>1.6</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>11</v>
+      </c>
+      <c r="AE55">
+        <v>1.26</v>
+      </c>
+      <c r="AF55">
+        <v>3.95</v>
+      </c>
+      <c r="AG55">
+        <v>1.75</v>
+      </c>
+      <c r="AH55">
+        <v>1.95</v>
+      </c>
+      <c r="AI55">
+        <v>1.8</v>
+      </c>
+      <c r="AJ55">
+        <v>1.95</v>
+      </c>
+      <c r="AK55">
+        <v>2.04</v>
+      </c>
+      <c r="AL55">
+        <v>1.22</v>
+      </c>
+      <c r="AM55">
+        <v>1.16</v>
+      </c>
+      <c r="AN55">
+        <v>1.33</v>
+      </c>
+      <c r="AO55">
+        <v>0.67</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>1.25</v>
+      </c>
+      <c r="AR55">
+        <v>1.16</v>
+      </c>
+      <c r="AS55">
+        <v>1.27</v>
+      </c>
+      <c r="AT55">
+        <v>2.43</v>
+      </c>
+      <c r="AU55">
+        <v>6</v>
+      </c>
+      <c r="AV55">
+        <v>3</v>
+      </c>
+      <c r="AW55">
+        <v>6</v>
+      </c>
+      <c r="AX55">
+        <v>3</v>
+      </c>
+      <c r="AY55">
+        <v>18</v>
+      </c>
+      <c r="AZ55">
+        <v>10</v>
+      </c>
+      <c r="BA55">
+        <v>3</v>
+      </c>
+      <c r="BB55">
+        <v>4</v>
+      </c>
+      <c r="BC55">
+        <v>7</v>
+      </c>
+      <c r="BD55">
+        <v>3.17</v>
+      </c>
+      <c r="BE55">
+        <v>8</v>
+      </c>
+      <c r="BF55">
+        <v>1.51</v>
+      </c>
+      <c r="BG55">
+        <v>1.55</v>
+      </c>
+      <c r="BH55">
+        <v>2.35</v>
+      </c>
+      <c r="BI55">
+        <v>1.98</v>
+      </c>
+      <c r="BJ55">
+        <v>1.82</v>
+      </c>
+      <c r="BK55">
+        <v>2.55</v>
+      </c>
+      <c r="BL55">
+        <v>1.47</v>
+      </c>
+      <c r="BM55">
+        <v>3.5</v>
+      </c>
+      <c r="BN55">
+        <v>1.28</v>
+      </c>
+      <c r="BO55">
+        <v>0</v>
+      </c>
+      <c r="BP55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7537337</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45585.58333333334</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>119</v>
+      </c>
+      <c r="P56" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q56">
+        <v>2.2</v>
+      </c>
+      <c r="R56">
+        <v>2.25</v>
+      </c>
+      <c r="S56">
+        <v>6</v>
+      </c>
+      <c r="T56">
+        <v>1.4</v>
+      </c>
+      <c r="U56">
+        <v>2.75</v>
+      </c>
+      <c r="V56">
+        <v>2.75</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56">
+        <v>8</v>
+      </c>
+      <c r="Y56">
+        <v>1.08</v>
+      </c>
+      <c r="Z56">
+        <v>1.53</v>
+      </c>
+      <c r="AA56">
+        <v>3.7</v>
+      </c>
+      <c r="AB56">
+        <v>5</v>
+      </c>
+      <c r="AC56">
+        <v>1.01</v>
+      </c>
+      <c r="AD56">
+        <v>8.1</v>
+      </c>
+      <c r="AE56">
+        <v>1.31</v>
+      </c>
+      <c r="AF56">
+        <v>3.5</v>
+      </c>
+      <c r="AG56">
+        <v>1.91</v>
+      </c>
+      <c r="AH56">
+        <v>1.83</v>
+      </c>
+      <c r="AI56">
+        <v>1.95</v>
+      </c>
+      <c r="AJ56">
+        <v>1.8</v>
+      </c>
+      <c r="AK56">
+        <v>1.13</v>
+      </c>
+      <c r="AL56">
+        <v>1.22</v>
+      </c>
+      <c r="AM56">
+        <v>2.14</v>
+      </c>
+      <c r="AN56">
+        <v>2.33</v>
+      </c>
+      <c r="AO56">
+        <v>0.75</v>
+      </c>
+      <c r="AP56">
+        <v>2.5</v>
+      </c>
+      <c r="AQ56">
+        <v>0.6</v>
+      </c>
+      <c r="AR56">
+        <v>1.14</v>
+      </c>
+      <c r="AS56">
+        <v>0.77</v>
+      </c>
+      <c r="AT56">
+        <v>1.91</v>
+      </c>
+      <c r="AU56">
+        <v>9</v>
+      </c>
+      <c r="AV56">
+        <v>3</v>
+      </c>
+      <c r="AW56">
+        <v>10</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>23</v>
+      </c>
+      <c r="AZ56">
+        <v>5</v>
+      </c>
+      <c r="BA56">
+        <v>10</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>10</v>
+      </c>
+      <c r="BD56">
+        <v>1.41</v>
+      </c>
+      <c r="BE56">
+        <v>8.5</v>
+      </c>
+      <c r="BF56">
+        <v>3.59</v>
+      </c>
+      <c r="BG56">
+        <v>1.5</v>
+      </c>
+      <c r="BH56">
+        <v>2.48</v>
+      </c>
+      <c r="BI56">
+        <v>1.85</v>
+      </c>
+      <c r="BJ56">
+        <v>1.95</v>
+      </c>
+      <c r="BK56">
+        <v>2.41</v>
+      </c>
+      <c r="BL56">
+        <v>1.53</v>
+      </c>
+      <c r="BM56">
+        <v>3.27</v>
+      </c>
+      <c r="BN56">
+        <v>1.31</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7537336</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45585.60416666666</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s">
+        <v>71</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>120</v>
+      </c>
+      <c r="P57" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q57">
+        <v>2.6</v>
+      </c>
+      <c r="R57">
+        <v>2.2</v>
+      </c>
+      <c r="S57">
+        <v>4.33</v>
+      </c>
+      <c r="T57">
+        <v>1.4</v>
+      </c>
+      <c r="U57">
+        <v>2.75</v>
+      </c>
+      <c r="V57">
+        <v>2.75</v>
+      </c>
+      <c r="W57">
+        <v>1.4</v>
+      </c>
+      <c r="X57">
+        <v>8</v>
+      </c>
+      <c r="Y57">
+        <v>1.08</v>
+      </c>
+      <c r="Z57">
+        <v>1.91</v>
+      </c>
+      <c r="AA57">
+        <v>3.2</v>
+      </c>
+      <c r="AB57">
+        <v>3.6</v>
+      </c>
+      <c r="AC57">
+        <v>1.06</v>
+      </c>
+      <c r="AD57">
+        <v>8.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.3</v>
+      </c>
+      <c r="AF57">
+        <v>3.55</v>
+      </c>
+      <c r="AG57">
+        <v>1.85</v>
+      </c>
+      <c r="AH57">
+        <v>1.83</v>
+      </c>
+      <c r="AI57">
+        <v>1.75</v>
+      </c>
+      <c r="AJ57">
+        <v>2</v>
+      </c>
+      <c r="AK57">
+        <v>1.23</v>
+      </c>
+      <c r="AL57">
+        <v>1.28</v>
+      </c>
+      <c r="AM57">
+        <v>1.73</v>
+      </c>
+      <c r="AN57">
+        <v>2.5</v>
+      </c>
+      <c r="AO57">
+        <v>3</v>
+      </c>
+      <c r="AP57">
+        <v>2.2</v>
+      </c>
+      <c r="AQ57">
+        <v>2.5</v>
+      </c>
+      <c r="AR57">
+        <v>1.84</v>
+      </c>
+      <c r="AS57">
+        <v>1.36</v>
+      </c>
+      <c r="AT57">
+        <v>3.2</v>
+      </c>
+      <c r="AU57">
+        <v>3</v>
+      </c>
+      <c r="AV57">
+        <v>4</v>
+      </c>
+      <c r="AW57">
+        <v>7</v>
+      </c>
+      <c r="AX57">
+        <v>4</v>
+      </c>
+      <c r="AY57">
+        <v>14</v>
+      </c>
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+      <c r="BA57">
+        <v>5</v>
+      </c>
+      <c r="BB57">
+        <v>2</v>
+      </c>
+      <c r="BC57">
+        <v>7</v>
+      </c>
+      <c r="BD57">
+        <v>1.51</v>
+      </c>
+      <c r="BE57">
+        <v>8.5</v>
+      </c>
+      <c r="BF57">
+        <v>3.16</v>
+      </c>
+      <c r="BG57">
+        <v>1.39</v>
+      </c>
+      <c r="BH57">
+        <v>2.85</v>
+      </c>
+      <c r="BI57">
+        <v>1.68</v>
+      </c>
+      <c r="BJ57">
+        <v>2.11</v>
+      </c>
+      <c r="BK57">
+        <v>2.05</v>
+      </c>
+      <c r="BL57">
+        <v>1.7</v>
+      </c>
+      <c r="BM57">
+        <v>2.8</v>
+      </c>
+      <c r="BN57">
+        <v>1.4</v>
+      </c>
+      <c r="BO57">
+        <v>3.82</v>
+      </c>
+      <c r="BP57">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -373,12 +373,12 @@
     <t>['2', '21']</t>
   </si>
   <si>
+    <t>['25']</t>
+  </si>
+  <si>
     <t>['65', '88']</t>
   </si>
   <si>
-    <t>['25']</t>
-  </si>
-  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -478,10 +478,10 @@
     <t>['14', '37']</t>
   </si>
   <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['45+1', '57']</t>
-  </si>
-  <si>
-    <t>['6']</t>
   </si>
 </sst>
 </file>
@@ -11772,7 +11772,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7537340</v>
+        <v>7537341</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -11781,196 +11781,196 @@
         <v>69</v>
       </c>
       <c r="E54" s="2">
-        <v>45585.41666666666</v>
+        <v>45584.875</v>
       </c>
       <c r="F54">
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O54" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="P54" t="s">
         <v>154</v>
       </c>
       <c r="Q54">
-        <v>1.73</v>
+        <v>5</v>
       </c>
       <c r="R54">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="S54">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="T54">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U54">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V54">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W54">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y54">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z54">
-        <v>1.11</v>
+        <v>4.5</v>
       </c>
       <c r="AA54">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB54">
-        <v>17</v>
+        <v>1.6</v>
       </c>
       <c r="AC54">
         <v>1.01</v>
       </c>
       <c r="AD54">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE54">
+        <v>1.26</v>
+      </c>
+      <c r="AF54">
+        <v>3.95</v>
+      </c>
+      <c r="AG54">
+        <v>1.75</v>
+      </c>
+      <c r="AH54">
+        <v>1.95</v>
+      </c>
+      <c r="AI54">
+        <v>1.8</v>
+      </c>
+      <c r="AJ54">
+        <v>1.95</v>
+      </c>
+      <c r="AK54">
+        <v>2.04</v>
+      </c>
+      <c r="AL54">
         <v>1.22</v>
       </c>
-      <c r="AF54">
-        <v>4.3</v>
-      </c>
-      <c r="AG54">
-        <v>1.62</v>
-      </c>
-      <c r="AH54">
-        <v>2.16</v>
-      </c>
-      <c r="AI54">
-        <v>2.25</v>
-      </c>
-      <c r="AJ54">
-        <v>1.57</v>
-      </c>
-      <c r="AK54">
-        <v>1.05</v>
-      </c>
-      <c r="AL54">
-        <v>1.11</v>
-      </c>
       <c r="AM54">
-        <v>3.1</v>
+        <v>1.16</v>
       </c>
       <c r="AN54">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO54">
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR54">
-        <v>2.03</v>
+        <v>1.16</v>
       </c>
       <c r="AS54">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="AT54">
-        <v>3.11</v>
+        <v>2.43</v>
       </c>
       <c r="AU54">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV54">
         <v>3</v>
       </c>
       <c r="AW54">
+        <v>6</v>
+      </c>
+      <c r="AX54">
+        <v>3</v>
+      </c>
+      <c r="AY54">
+        <v>18</v>
+      </c>
+      <c r="AZ54">
+        <v>10</v>
+      </c>
+      <c r="BA54">
+        <v>3</v>
+      </c>
+      <c r="BB54">
+        <v>4</v>
+      </c>
+      <c r="BC54">
         <v>7</v>
       </c>
-      <c r="AX54">
-        <v>2</v>
-      </c>
-      <c r="AY54">
-        <v>21</v>
-      </c>
-      <c r="AZ54">
-        <v>7</v>
-      </c>
-      <c r="BA54">
-        <v>7</v>
-      </c>
-      <c r="BB54">
-        <v>2</v>
-      </c>
-      <c r="BC54">
-        <v>9</v>
-      </c>
       <c r="BD54">
-        <v>1.26</v>
+        <v>3.17</v>
       </c>
       <c r="BE54">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="BF54">
-        <v>4.66</v>
+        <v>1.51</v>
       </c>
       <c r="BG54">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="BH54">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="BI54">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="BJ54">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="BK54">
-        <v>2.36</v>
+        <v>2.55</v>
       </c>
       <c r="BL54">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="BM54">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="BN54">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="BO54">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="BP54">
-        <v>1.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -11978,7 +11978,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7537341</v>
+        <v>7537340</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -11987,196 +11987,196 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45585.5</v>
+        <v>45584.875</v>
       </c>
       <c r="F55">
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O55" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="P55" t="s">
         <v>155</v>
       </c>
       <c r="Q55">
-        <v>5</v>
+        <v>1.73</v>
       </c>
       <c r="R55">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="S55">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="T55">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U55">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V55">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W55">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y55">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z55">
-        <v>4.5</v>
+        <v>1.11</v>
       </c>
       <c r="AA55">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB55">
-        <v>1.6</v>
+        <v>17</v>
       </c>
       <c r="AC55">
         <v>1.01</v>
       </c>
       <c r="AD55">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE55">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AF55">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="AG55">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AH55">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="AI55">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AJ55">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="AK55">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="AL55">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AM55">
-        <v>1.16</v>
+        <v>3.1</v>
       </c>
       <c r="AN55">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AO55">
         <v>0.67</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR55">
-        <v>1.16</v>
+        <v>2.03</v>
       </c>
       <c r="AS55">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="AT55">
-        <v>2.43</v>
+        <v>3.11</v>
       </c>
       <c r="AU55">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV55">
         <v>3</v>
       </c>
       <c r="AW55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY55">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ55">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA55">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BB55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC55">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD55">
-        <v>3.17</v>
+        <v>1.26</v>
       </c>
       <c r="BE55">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="BF55">
-        <v>1.51</v>
+        <v>4.66</v>
       </c>
       <c r="BG55">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="BH55">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BI55">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="BJ55">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="BK55">
-        <v>2.55</v>
+        <v>2.36</v>
       </c>
       <c r="BL55">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BM55">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="BN55">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="BO55">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BP55">
-        <v>0</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12184,7 +12184,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7537337</v>
+        <v>7537336</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12193,31 +12193,31 @@
         <v>69</v>
       </c>
       <c r="E56" s="2">
-        <v>45585.58333333334</v>
+        <v>45584.875</v>
       </c>
       <c r="F56">
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -12226,16 +12226,16 @@
         <v>119</v>
       </c>
       <c r="P56" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="Q56">
+        <v>2.6</v>
+      </c>
+      <c r="R56">
         <v>2.2</v>
       </c>
-      <c r="R56">
-        <v>2.25</v>
-      </c>
       <c r="S56">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="T56">
         <v>1.4</v>
@@ -12256,133 +12256,133 @@
         <v>1.08</v>
       </c>
       <c r="Z56">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="AA56">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="AB56">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AC56">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AD56">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="AE56">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AF56">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AG56">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AH56">
         <v>1.83</v>
       </c>
       <c r="AI56">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ56">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK56">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AL56">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM56">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="AN56">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AO56">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="AP56">
+        <v>2.2</v>
+      </c>
+      <c r="AQ56">
         <v>2.5</v>
       </c>
-      <c r="AQ56">
-        <v>0.6</v>
-      </c>
       <c r="AR56">
-        <v>1.14</v>
+        <v>1.84</v>
       </c>
       <c r="AS56">
-        <v>0.77</v>
+        <v>1.36</v>
       </c>
       <c r="AT56">
-        <v>1.91</v>
+        <v>3.2</v>
       </c>
       <c r="AU56">
+        <v>3</v>
+      </c>
+      <c r="AV56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
+        <v>7</v>
+      </c>
+      <c r="AX56">
+        <v>4</v>
+      </c>
+      <c r="AY56">
+        <v>14</v>
+      </c>
+      <c r="AZ56">
         <v>9</v>
       </c>
-      <c r="AV56">
-        <v>3</v>
-      </c>
-      <c r="AW56">
-        <v>10</v>
-      </c>
-      <c r="AX56">
-        <v>2</v>
-      </c>
-      <c r="AY56">
-        <v>23</v>
-      </c>
-      <c r="AZ56">
+      <c r="BA56">
         <v>5</v>
       </c>
-      <c r="BA56">
-        <v>10</v>
-      </c>
       <c r="BB56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC56">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD56">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="BE56">
         <v>8.5</v>
       </c>
       <c r="BF56">
-        <v>3.59</v>
+        <v>3.16</v>
       </c>
       <c r="BG56">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="BH56">
-        <v>2.48</v>
+        <v>2.85</v>
       </c>
       <c r="BI56">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="BJ56">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="BK56">
-        <v>2.41</v>
+        <v>2.05</v>
       </c>
       <c r="BL56">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="BM56">
-        <v>3.27</v>
+        <v>2.8</v>
       </c>
       <c r="BN56">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="BO56">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="BP56">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12390,7 +12390,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7537336</v>
+        <v>7537337</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12399,31 +12399,31 @@
         <v>69</v>
       </c>
       <c r="E57" s="2">
-        <v>45585.60416666666</v>
+        <v>45584.875</v>
       </c>
       <c r="F57">
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -12432,16 +12432,16 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="Q57">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="R57">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S57">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="T57">
         <v>1.4</v>
@@ -12462,133 +12462,133 @@
         <v>1.08</v>
       </c>
       <c r="Z57">
+        <v>1.53</v>
+      </c>
+      <c r="AA57">
+        <v>3.7</v>
+      </c>
+      <c r="AB57">
+        <v>5</v>
+      </c>
+      <c r="AC57">
+        <v>1.01</v>
+      </c>
+      <c r="AD57">
+        <v>8.1</v>
+      </c>
+      <c r="AE57">
+        <v>1.31</v>
+      </c>
+      <c r="AF57">
+        <v>3.5</v>
+      </c>
+      <c r="AG57">
         <v>1.91</v>
-      </c>
-      <c r="AA57">
-        <v>3.2</v>
-      </c>
-      <c r="AB57">
-        <v>3.6</v>
-      </c>
-      <c r="AC57">
-        <v>1.06</v>
-      </c>
-      <c r="AD57">
-        <v>8.5</v>
-      </c>
-      <c r="AE57">
-        <v>1.3</v>
-      </c>
-      <c r="AF57">
-        <v>3.55</v>
-      </c>
-      <c r="AG57">
-        <v>1.85</v>
       </c>
       <c r="AH57">
         <v>1.83</v>
       </c>
       <c r="AI57">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ57">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK57">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AL57">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM57">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="AN57">
+        <v>2.33</v>
+      </c>
+      <c r="AO57">
+        <v>0.75</v>
+      </c>
+      <c r="AP57">
         <v>2.5</v>
       </c>
-      <c r="AO57">
+      <c r="AQ57">
+        <v>0.6</v>
+      </c>
+      <c r="AR57">
+        <v>1.14</v>
+      </c>
+      <c r="AS57">
+        <v>0.77</v>
+      </c>
+      <c r="AT57">
+        <v>1.91</v>
+      </c>
+      <c r="AU57">
+        <v>9</v>
+      </c>
+      <c r="AV57">
         <v>3</v>
       </c>
-      <c r="AP57">
-        <v>2.2</v>
-      </c>
-      <c r="AQ57">
-        <v>2.5</v>
-      </c>
-      <c r="AR57">
-        <v>1.84</v>
-      </c>
-      <c r="AS57">
-        <v>1.36</v>
-      </c>
-      <c r="AT57">
-        <v>3.2</v>
-      </c>
-      <c r="AU57">
-        <v>3</v>
-      </c>
-      <c r="AV57">
-        <v>4</v>
-      </c>
       <c r="AW57">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY57">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AZ57">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA57">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BB57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC57">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD57">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="BE57">
         <v>8.5</v>
       </c>
       <c r="BF57">
-        <v>3.16</v>
+        <v>3.59</v>
       </c>
       <c r="BG57">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="BH57">
-        <v>2.85</v>
+        <v>2.48</v>
       </c>
       <c r="BI57">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="BJ57">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
       <c r="BK57">
-        <v>2.05</v>
+        <v>2.41</v>
       </c>
       <c r="BL57">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="BM57">
-        <v>2.8</v>
+        <v>3.27</v>
       </c>
       <c r="BN57">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="BO57">
-        <v>3.82</v>
+        <v>0</v>
       </c>
       <c r="BP57">
-        <v>1.24</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -373,12 +373,12 @@
     <t>['2', '21']</t>
   </si>
   <si>
+    <t>['65', '88']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
-    <t>['65', '88']</t>
-  </si>
-  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -478,10 +478,10 @@
     <t>['14', '37']</t>
   </si>
   <si>
+    <t>['45+1', '57']</t>
+  </si>
+  <si>
     <t>['6']</t>
-  </si>
-  <si>
-    <t>['45+1', '57']</t>
   </si>
 </sst>
 </file>
@@ -11154,7 +11154,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7537342</v>
+        <v>7537339</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11163,16 +11163,16 @@
         <v>69</v>
       </c>
       <c r="E51" s="2">
-        <v>45583.875</v>
+        <v>45584.45833333334</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -11187,166 +11187,166 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="s">
         <v>84</v>
       </c>
       <c r="P51" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Q51">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="R51">
         <v>2.05</v>
       </c>
       <c r="S51">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="T51">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U51">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V51">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W51">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y51">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z51">
-        <v>3.47</v>
+        <v>2.07</v>
       </c>
       <c r="AA51">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB51">
-        <v>2.11</v>
+        <v>3.17</v>
       </c>
       <c r="AC51">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD51">
-        <v>7.5</v>
+        <v>6.45</v>
       </c>
       <c r="AE51">
+        <v>1.41</v>
+      </c>
+      <c r="AF51">
+        <v>2.95</v>
+      </c>
+      <c r="AG51">
+        <v>2.15</v>
+      </c>
+      <c r="AH51">
+        <v>1.61</v>
+      </c>
+      <c r="AI51">
+        <v>1.95</v>
+      </c>
+      <c r="AJ51">
+        <v>1.8</v>
+      </c>
+      <c r="AK51">
+        <v>1.27</v>
+      </c>
+      <c r="AL51">
         <v>1.32</v>
       </c>
-      <c r="AF51">
-        <v>2.81</v>
-      </c>
-      <c r="AG51">
-        <v>2.02</v>
-      </c>
-      <c r="AH51">
-        <v>1.71</v>
-      </c>
-      <c r="AI51">
-        <v>1.91</v>
-      </c>
-      <c r="AJ51">
-        <v>1.91</v>
-      </c>
-      <c r="AK51">
-        <v>1.58</v>
-      </c>
-      <c r="AL51">
-        <v>1.3</v>
-      </c>
       <c r="AM51">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AN51">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AO51">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AQ51">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AR51">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="AS51">
-        <v>1.05</v>
+        <v>1.42</v>
       </c>
       <c r="AT51">
-        <v>2.15</v>
+        <v>2.77</v>
       </c>
       <c r="AU51">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV51">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW51">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY51">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AZ51">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB51">
         <v>5</v>
       </c>
       <c r="BC51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD51">
-        <v>3.08</v>
+        <v>1.65</v>
       </c>
       <c r="BE51">
-        <v>6.45</v>
+        <v>6.25</v>
       </c>
       <c r="BF51">
-        <v>1.63</v>
+        <v>3.05</v>
       </c>
       <c r="BG51">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="BH51">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="BI51">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="BJ51">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="BK51">
-        <v>2.48</v>
+        <v>2.88</v>
       </c>
       <c r="BL51">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="BM51">
-        <v>3.34</v>
+        <v>3.98</v>
       </c>
       <c r="BN51">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="BO51">
         <v>0</v>
@@ -11369,7 +11369,7 @@
         <v>69</v>
       </c>
       <c r="E52" s="2">
-        <v>45583.875</v>
+        <v>45584.58333333334</v>
       </c>
       <c r="F52">
         <v>8</v>
@@ -11498,19 +11498,19 @@
         <v>5</v>
       </c>
       <c r="AV52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX52">
         <v>3</v>
       </c>
       <c r="AY52">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AZ52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA52">
         <v>8</v>
@@ -11566,7 +11566,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7537339</v>
+        <v>7537342</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11575,16 +11575,16 @@
         <v>69</v>
       </c>
       <c r="E53" s="2">
-        <v>45584.45833333334</v>
+        <v>45584.60416666666</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -11599,166 +11599,166 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="s">
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Q53">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="R53">
         <v>2.05</v>
       </c>
       <c r="S53">
+        <v>2.88</v>
+      </c>
+      <c r="T53">
+        <v>1.44</v>
+      </c>
+      <c r="U53">
+        <v>2.63</v>
+      </c>
+      <c r="V53">
+        <v>3.25</v>
+      </c>
+      <c r="W53">
+        <v>1.33</v>
+      </c>
+      <c r="X53">
+        <v>9</v>
+      </c>
+      <c r="Y53">
+        <v>1.07</v>
+      </c>
+      <c r="Z53">
+        <v>3.47</v>
+      </c>
+      <c r="AA53">
+        <v>3.2</v>
+      </c>
+      <c r="AB53">
+        <v>2.11</v>
+      </c>
+      <c r="AC53">
+        <v>1.02</v>
+      </c>
+      <c r="AD53">
+        <v>7.5</v>
+      </c>
+      <c r="AE53">
+        <v>1.32</v>
+      </c>
+      <c r="AF53">
+        <v>2.81</v>
+      </c>
+      <c r="AG53">
+        <v>2.02</v>
+      </c>
+      <c r="AH53">
+        <v>1.71</v>
+      </c>
+      <c r="AI53">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53">
+        <v>1.91</v>
+      </c>
+      <c r="AK53">
+        <v>1.58</v>
+      </c>
+      <c r="AL53">
+        <v>1.3</v>
+      </c>
+      <c r="AM53">
+        <v>1.3</v>
+      </c>
+      <c r="AN53">
+        <v>0.33</v>
+      </c>
+      <c r="AO53">
+        <v>2</v>
+      </c>
+      <c r="AP53">
+        <v>0.5</v>
+      </c>
+      <c r="AQ53">
+        <v>1.8</v>
+      </c>
+      <c r="AR53">
+        <v>1.1</v>
+      </c>
+      <c r="AS53">
+        <v>1.05</v>
+      </c>
+      <c r="AT53">
+        <v>2.15</v>
+      </c>
+      <c r="AU53">
         <v>4</v>
       </c>
-      <c r="T53">
-        <v>1.5</v>
-      </c>
-      <c r="U53">
-        <v>2.5</v>
-      </c>
-      <c r="V53">
-        <v>3.4</v>
-      </c>
-      <c r="W53">
-        <v>1.3</v>
-      </c>
-      <c r="X53">
-        <v>10</v>
-      </c>
-      <c r="Y53">
-        <v>1.06</v>
-      </c>
-      <c r="Z53">
-        <v>2.07</v>
-      </c>
-      <c r="AA53">
-        <v>3.1</v>
-      </c>
-      <c r="AB53">
-        <v>3.17</v>
-      </c>
-      <c r="AC53">
-        <v>1.04</v>
-      </c>
-      <c r="AD53">
-        <v>6.45</v>
-      </c>
-      <c r="AE53">
-        <v>1.41</v>
-      </c>
-      <c r="AF53">
-        <v>2.95</v>
-      </c>
-      <c r="AG53">
-        <v>2.15</v>
-      </c>
-      <c r="AH53">
-        <v>1.61</v>
-      </c>
-      <c r="AI53">
-        <v>1.95</v>
-      </c>
-      <c r="AJ53">
-        <v>1.8</v>
-      </c>
-      <c r="AK53">
-        <v>1.27</v>
-      </c>
-      <c r="AL53">
-        <v>1.32</v>
-      </c>
-      <c r="AM53">
-        <v>1.6</v>
-      </c>
-      <c r="AN53">
-        <v>0.25</v>
-      </c>
-      <c r="AO53">
-        <v>0.75</v>
-      </c>
-      <c r="AP53">
-        <v>0.2</v>
-      </c>
-      <c r="AQ53">
-        <v>1.2</v>
-      </c>
-      <c r="AR53">
-        <v>1.35</v>
-      </c>
-      <c r="AS53">
-        <v>1.42</v>
-      </c>
-      <c r="AT53">
-        <v>2.77</v>
-      </c>
-      <c r="AU53">
+      <c r="AV53">
+        <v>4</v>
+      </c>
+      <c r="AW53">
+        <v>5</v>
+      </c>
+      <c r="AX53">
+        <v>3</v>
+      </c>
+      <c r="AY53">
+        <v>9</v>
+      </c>
+      <c r="AZ53">
         <v>7</v>
       </c>
-      <c r="AV53">
-        <v>7</v>
-      </c>
-      <c r="AW53">
-        <v>7</v>
-      </c>
-      <c r="AX53">
+      <c r="BA53">
         <v>6</v>
-      </c>
-      <c r="AY53">
-        <v>28</v>
-      </c>
-      <c r="AZ53">
-        <v>15</v>
-      </c>
-      <c r="BA53">
-        <v>8</v>
       </c>
       <c r="BB53">
         <v>5</v>
       </c>
       <c r="BC53">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD53">
-        <v>1.65</v>
+        <v>3.08</v>
       </c>
       <c r="BE53">
-        <v>6.25</v>
+        <v>6.45</v>
       </c>
       <c r="BF53">
-        <v>3.05</v>
+        <v>1.63</v>
       </c>
       <c r="BG53">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="BH53">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BI53">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="BJ53">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="BK53">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="BL53">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="BM53">
-        <v>3.98</v>
+        <v>3.34</v>
       </c>
       <c r="BN53">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="BO53">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7537341</v>
+        <v>7537340</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -11781,196 +11781,196 @@
         <v>69</v>
       </c>
       <c r="E54" s="2">
-        <v>45584.875</v>
+        <v>45585.41666666666</v>
       </c>
       <c r="F54">
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O54" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="P54" t="s">
         <v>154</v>
       </c>
       <c r="Q54">
-        <v>5</v>
+        <v>1.73</v>
       </c>
       <c r="R54">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="S54">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="T54">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U54">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V54">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W54">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y54">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z54">
-        <v>4.5</v>
+        <v>1.11</v>
       </c>
       <c r="AA54">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB54">
-        <v>1.6</v>
+        <v>17</v>
       </c>
       <c r="AC54">
         <v>1.01</v>
       </c>
       <c r="AD54">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE54">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AF54">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="AG54">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AH54">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="AI54">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AJ54">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="AK54">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="AL54">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AM54">
-        <v>1.16</v>
+        <v>3.1</v>
       </c>
       <c r="AN54">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AO54">
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR54">
-        <v>1.16</v>
+        <v>2.03</v>
       </c>
       <c r="AS54">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="AT54">
+        <v>3.11</v>
+      </c>
+      <c r="AU54">
+        <v>8</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>4</v>
+      </c>
+      <c r="AX54">
+        <v>2</v>
+      </c>
+      <c r="AY54">
+        <v>12</v>
+      </c>
+      <c r="AZ54">
+        <v>2</v>
+      </c>
+      <c r="BA54">
+        <v>7</v>
+      </c>
+      <c r="BB54">
+        <v>2</v>
+      </c>
+      <c r="BC54">
+        <v>9</v>
+      </c>
+      <c r="BD54">
+        <v>1.26</v>
+      </c>
+      <c r="BE54">
+        <v>9.5</v>
+      </c>
+      <c r="BF54">
+        <v>4.66</v>
+      </c>
+      <c r="BG54">
+        <v>1.49</v>
+      </c>
+      <c r="BH54">
         <v>2.43</v>
       </c>
-      <c r="AU54">
-        <v>6</v>
-      </c>
-      <c r="AV54">
-        <v>3</v>
-      </c>
-      <c r="AW54">
-        <v>6</v>
-      </c>
-      <c r="AX54">
-        <v>3</v>
-      </c>
-      <c r="AY54">
-        <v>18</v>
-      </c>
-      <c r="AZ54">
-        <v>10</v>
-      </c>
-      <c r="BA54">
-        <v>3</v>
-      </c>
-      <c r="BB54">
-        <v>4</v>
-      </c>
-      <c r="BC54">
-        <v>7</v>
-      </c>
-      <c r="BD54">
-        <v>3.17</v>
-      </c>
-      <c r="BE54">
-        <v>8</v>
-      </c>
-      <c r="BF54">
-        <v>1.51</v>
-      </c>
-      <c r="BG54">
-        <v>1.55</v>
-      </c>
-      <c r="BH54">
-        <v>2.35</v>
-      </c>
       <c r="BI54">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="BJ54">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="BK54">
-        <v>2.55</v>
+        <v>2.36</v>
       </c>
       <c r="BL54">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BM54">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="BN54">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="BO54">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BP54">
-        <v>0</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -11978,7 +11978,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7537340</v>
+        <v>7537341</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -11987,196 +11987,196 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45584.875</v>
+        <v>45585.5</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="P55" t="s">
         <v>155</v>
       </c>
       <c r="Q55">
-        <v>1.73</v>
+        <v>5</v>
       </c>
       <c r="R55">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="S55">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="T55">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U55">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V55">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W55">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y55">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z55">
-        <v>1.11</v>
+        <v>4.5</v>
       </c>
       <c r="AA55">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB55">
-        <v>17</v>
+        <v>1.6</v>
       </c>
       <c r="AC55">
         <v>1.01</v>
       </c>
       <c r="AD55">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE55">
+        <v>1.26</v>
+      </c>
+      <c r="AF55">
+        <v>3.95</v>
+      </c>
+      <c r="AG55">
+        <v>1.75</v>
+      </c>
+      <c r="AH55">
+        <v>1.95</v>
+      </c>
+      <c r="AI55">
+        <v>1.8</v>
+      </c>
+      <c r="AJ55">
+        <v>1.95</v>
+      </c>
+      <c r="AK55">
+        <v>2.04</v>
+      </c>
+      <c r="AL55">
         <v>1.22</v>
       </c>
-      <c r="AF55">
-        <v>4.3</v>
-      </c>
-      <c r="AG55">
-        <v>1.62</v>
-      </c>
-      <c r="AH55">
-        <v>2.16</v>
-      </c>
-      <c r="AI55">
-        <v>2.25</v>
-      </c>
-      <c r="AJ55">
-        <v>1.57</v>
-      </c>
-      <c r="AK55">
-        <v>1.05</v>
-      </c>
-      <c r="AL55">
-        <v>1.11</v>
-      </c>
       <c r="AM55">
-        <v>3.1</v>
+        <v>1.16</v>
       </c>
       <c r="AN55">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO55">
         <v>0.67</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR55">
-        <v>2.03</v>
+        <v>1.16</v>
       </c>
       <c r="AS55">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="AT55">
-        <v>3.11</v>
+        <v>2.43</v>
       </c>
       <c r="AU55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV55">
         <v>3</v>
       </c>
       <c r="AW55">
+        <v>4</v>
+      </c>
+      <c r="AX55">
+        <v>3</v>
+      </c>
+      <c r="AY55">
+        <v>9</v>
+      </c>
+      <c r="AZ55">
+        <v>6</v>
+      </c>
+      <c r="BA55">
+        <v>3</v>
+      </c>
+      <c r="BB55">
+        <v>4</v>
+      </c>
+      <c r="BC55">
         <v>7</v>
       </c>
-      <c r="AX55">
-        <v>2</v>
-      </c>
-      <c r="AY55">
-        <v>21</v>
-      </c>
-      <c r="AZ55">
-        <v>7</v>
-      </c>
-      <c r="BA55">
-        <v>7</v>
-      </c>
-      <c r="BB55">
-        <v>2</v>
-      </c>
-      <c r="BC55">
-        <v>9</v>
-      </c>
       <c r="BD55">
-        <v>1.26</v>
+        <v>3.17</v>
       </c>
       <c r="BE55">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="BF55">
-        <v>4.66</v>
+        <v>1.51</v>
       </c>
       <c r="BG55">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="BH55">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="BI55">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="BJ55">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="BK55">
-        <v>2.36</v>
+        <v>2.55</v>
       </c>
       <c r="BL55">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="BM55">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="BN55">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="BO55">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="BP55">
-        <v>1.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12184,7 +12184,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7537336</v>
+        <v>7537337</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12193,31 +12193,31 @@
         <v>69</v>
       </c>
       <c r="E56" s="2">
-        <v>45584.875</v>
+        <v>45585.58333333334</v>
       </c>
       <c r="F56">
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -12226,16 +12226,16 @@
         <v>119</v>
       </c>
       <c r="P56" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="Q56">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="R56">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S56">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="T56">
         <v>1.4</v>
@@ -12256,133 +12256,133 @@
         <v>1.08</v>
       </c>
       <c r="Z56">
+        <v>1.53</v>
+      </c>
+      <c r="AA56">
+        <v>3.7</v>
+      </c>
+      <c r="AB56">
+        <v>5</v>
+      </c>
+      <c r="AC56">
+        <v>1.01</v>
+      </c>
+      <c r="AD56">
+        <v>8.1</v>
+      </c>
+      <c r="AE56">
+        <v>1.31</v>
+      </c>
+      <c r="AF56">
+        <v>3.5</v>
+      </c>
+      <c r="AG56">
         <v>1.91</v>
-      </c>
-      <c r="AA56">
-        <v>3.2</v>
-      </c>
-      <c r="AB56">
-        <v>3.6</v>
-      </c>
-      <c r="AC56">
-        <v>1.06</v>
-      </c>
-      <c r="AD56">
-        <v>8.5</v>
-      </c>
-      <c r="AE56">
-        <v>1.3</v>
-      </c>
-      <c r="AF56">
-        <v>3.55</v>
-      </c>
-      <c r="AG56">
-        <v>1.85</v>
       </c>
       <c r="AH56">
         <v>1.83</v>
       </c>
       <c r="AI56">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ56">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK56">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AL56">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM56">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="AN56">
+        <v>2.33</v>
+      </c>
+      <c r="AO56">
+        <v>0.75</v>
+      </c>
+      <c r="AP56">
         <v>2.5</v>
       </c>
-      <c r="AO56">
+      <c r="AQ56">
+        <v>0.6</v>
+      </c>
+      <c r="AR56">
+        <v>1.14</v>
+      </c>
+      <c r="AS56">
+        <v>0.77</v>
+      </c>
+      <c r="AT56">
+        <v>1.91</v>
+      </c>
+      <c r="AU56">
+        <v>11</v>
+      </c>
+      <c r="AV56">
         <v>3</v>
       </c>
-      <c r="AP56">
-        <v>2.2</v>
-      </c>
-      <c r="AQ56">
-        <v>2.5</v>
-      </c>
-      <c r="AR56">
-        <v>1.84</v>
-      </c>
-      <c r="AS56">
-        <v>1.36</v>
-      </c>
-      <c r="AT56">
-        <v>3.2</v>
-      </c>
-      <c r="AU56">
-        <v>3</v>
-      </c>
-      <c r="AV56">
-        <v>4</v>
-      </c>
       <c r="AW56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY56">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ56">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BB56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC56">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD56">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="BE56">
         <v>8.5</v>
       </c>
       <c r="BF56">
-        <v>3.16</v>
+        <v>3.59</v>
       </c>
       <c r="BG56">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="BH56">
-        <v>2.85</v>
+        <v>2.48</v>
       </c>
       <c r="BI56">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="BJ56">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
       <c r="BK56">
-        <v>2.05</v>
+        <v>2.41</v>
       </c>
       <c r="BL56">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="BM56">
-        <v>2.8</v>
+        <v>3.27</v>
       </c>
       <c r="BN56">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="BO56">
-        <v>3.82</v>
+        <v>0</v>
       </c>
       <c r="BP56">
-        <v>1.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12390,7 +12390,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7537337</v>
+        <v>7537336</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12399,31 +12399,31 @@
         <v>69</v>
       </c>
       <c r="E57" s="2">
-        <v>45584.875</v>
+        <v>45585.60416666666</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -12432,16 +12432,16 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="Q57">
+        <v>2.6</v>
+      </c>
+      <c r="R57">
         <v>2.2</v>
       </c>
-      <c r="R57">
-        <v>2.25</v>
-      </c>
       <c r="S57">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="T57">
         <v>1.4</v>
@@ -12462,133 +12462,133 @@
         <v>1.08</v>
       </c>
       <c r="Z57">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="AA57">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="AB57">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AC57">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AD57">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="AE57">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AF57">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AG57">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AH57">
         <v>1.83</v>
       </c>
       <c r="AI57">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ57">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK57">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AL57">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM57">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="AN57">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AO57">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="AP57">
+        <v>2.2</v>
+      </c>
+      <c r="AQ57">
         <v>2.5</v>
       </c>
-      <c r="AQ57">
-        <v>0.6</v>
-      </c>
       <c r="AR57">
-        <v>1.14</v>
+        <v>1.84</v>
       </c>
       <c r="AS57">
-        <v>0.77</v>
+        <v>1.36</v>
       </c>
       <c r="AT57">
-        <v>1.91</v>
+        <v>3.2</v>
       </c>
       <c r="AU57">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AV57">
         <v>3</v>
       </c>
       <c r="AW57">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX57">
         <v>2</v>
       </c>
       <c r="AY57">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AZ57">
         <v>5</v>
       </c>
       <c r="BA57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BB57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC57">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD57">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="BE57">
         <v>8.5</v>
       </c>
       <c r="BF57">
-        <v>3.59</v>
+        <v>3.16</v>
       </c>
       <c r="BG57">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="BH57">
-        <v>2.48</v>
+        <v>2.85</v>
       </c>
       <c r="BI57">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="BJ57">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="BK57">
-        <v>2.41</v>
+        <v>2.05</v>
       </c>
       <c r="BL57">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="BM57">
-        <v>3.27</v>
+        <v>2.8</v>
       </c>
       <c r="BN57">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="BO57">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="BP57">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,9 @@
     <t>['25']</t>
   </si>
   <si>
+    <t>['25', '58']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -482,6 +485,12 @@
   </si>
   <si>
     <t>['6']</t>
+  </si>
+  <si>
+    <t>['90+11']</t>
+  </si>
+  <si>
+    <t>['3', '71']</t>
   </si>
 </sst>
 </file>
@@ -843,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1102,7 +1111,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1308,7 +1317,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1592,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ4">
         <v>0.6</v>
@@ -1720,7 +1729,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1926,7 +1935,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2338,7 +2347,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2416,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2544,7 +2553,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2750,7 +2759,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2956,7 +2965,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3162,7 +3171,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3243,7 +3252,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3780,7 +3789,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3986,7 +3995,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4192,7 +4201,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4476,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
         <v>1.2</v>
@@ -4604,7 +4613,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4682,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -4810,7 +4819,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5016,7 +5025,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5222,7 +5231,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5634,7 +5643,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5840,7 +5849,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6458,7 +6467,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6745,7 +6754,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -6870,7 +6879,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7282,7 +7291,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7360,7 +7369,7 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ32">
         <v>1.8</v>
@@ -7488,7 +7497,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7566,7 +7575,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -7694,7 +7703,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7900,7 +7909,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8312,7 +8321,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8518,7 +8527,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8724,7 +8733,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9548,7 +9557,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9754,7 +9763,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -9835,7 +9844,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR44">
         <v>1.35</v>
@@ -10038,7 +10047,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ45">
         <v>1.33</v>
@@ -10372,7 +10381,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10578,7 +10587,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10784,7 +10793,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10862,7 +10871,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ49">
         <v>2.5</v>
@@ -11402,7 +11411,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11814,7 +11823,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12020,7 +12029,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12432,7 +12441,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12589,6 +12598,418 @@
       </c>
       <c r="BP57">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7537348</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>70</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P58" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q58">
+        <v>3</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>1.5</v>
+      </c>
+      <c r="U58">
+        <v>2.5</v>
+      </c>
+      <c r="V58">
+        <v>3.5</v>
+      </c>
+      <c r="W58">
+        <v>1.29</v>
+      </c>
+      <c r="X58">
+        <v>11</v>
+      </c>
+      <c r="Y58">
+        <v>1.05</v>
+      </c>
+      <c r="Z58">
+        <v>2.2</v>
+      </c>
+      <c r="AA58">
+        <v>3.1</v>
+      </c>
+      <c r="AB58">
+        <v>3.3</v>
+      </c>
+      <c r="AC58">
+        <v>1.04</v>
+      </c>
+      <c r="AD58">
+        <v>6.4</v>
+      </c>
+      <c r="AE58">
+        <v>1.44</v>
+      </c>
+      <c r="AF58">
+        <v>2.8</v>
+      </c>
+      <c r="AG58">
+        <v>2.2</v>
+      </c>
+      <c r="AH58">
+        <v>1.6</v>
+      </c>
+      <c r="AI58">
+        <v>2</v>
+      </c>
+      <c r="AJ58">
+        <v>1.75</v>
+      </c>
+      <c r="AK58">
+        <v>1.28</v>
+      </c>
+      <c r="AL58">
+        <v>1.33</v>
+      </c>
+      <c r="AM58">
+        <v>1.57</v>
+      </c>
+      <c r="AN58">
+        <v>1.75</v>
+      </c>
+      <c r="AO58">
+        <v>2</v>
+      </c>
+      <c r="AP58">
+        <v>1.4</v>
+      </c>
+      <c r="AQ58">
+        <v>2.25</v>
+      </c>
+      <c r="AR58">
+        <v>1.3</v>
+      </c>
+      <c r="AS58">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT58">
+        <v>2.11</v>
+      </c>
+      <c r="AU58">
+        <v>4</v>
+      </c>
+      <c r="AV58">
+        <v>5</v>
+      </c>
+      <c r="AW58">
+        <v>7</v>
+      </c>
+      <c r="AX58">
+        <v>10</v>
+      </c>
+      <c r="AY58">
+        <v>12</v>
+      </c>
+      <c r="AZ58">
+        <v>19</v>
+      </c>
+      <c r="BA58">
+        <v>2</v>
+      </c>
+      <c r="BB58">
+        <v>5</v>
+      </c>
+      <c r="BC58">
+        <v>7</v>
+      </c>
+      <c r="BD58">
+        <v>1.65</v>
+      </c>
+      <c r="BE58">
+        <v>6.7</v>
+      </c>
+      <c r="BF58">
+        <v>2.7</v>
+      </c>
+      <c r="BG58">
+        <v>1.45</v>
+      </c>
+      <c r="BH58">
+        <v>2.52</v>
+      </c>
+      <c r="BI58">
+        <v>1.88</v>
+      </c>
+      <c r="BJ58">
+        <v>1.92</v>
+      </c>
+      <c r="BK58">
+        <v>2.42</v>
+      </c>
+      <c r="BL58">
+        <v>1.48</v>
+      </c>
+      <c r="BM58">
+        <v>3.4</v>
+      </c>
+      <c r="BN58">
+        <v>1.26</v>
+      </c>
+      <c r="BO58">
+        <v>0</v>
+      </c>
+      <c r="BP58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7537346</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45591.47916666666</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59" t="s">
+        <v>121</v>
+      </c>
+      <c r="P59" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q59">
+        <v>2.75</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+      <c r="S59">
+        <v>4.75</v>
+      </c>
+      <c r="T59">
+        <v>1.53</v>
+      </c>
+      <c r="U59">
+        <v>2.38</v>
+      </c>
+      <c r="V59">
+        <v>3.5</v>
+      </c>
+      <c r="W59">
+        <v>1.29</v>
+      </c>
+      <c r="X59">
+        <v>11</v>
+      </c>
+      <c r="Y59">
+        <v>1.05</v>
+      </c>
+      <c r="Z59">
+        <v>2.05</v>
+      </c>
+      <c r="AA59">
+        <v>3.2</v>
+      </c>
+      <c r="AB59">
+        <v>3.7</v>
+      </c>
+      <c r="AC59">
+        <v>1.04</v>
+      </c>
+      <c r="AD59">
+        <v>6.45</v>
+      </c>
+      <c r="AE59">
+        <v>1.46</v>
+      </c>
+      <c r="AF59">
+        <v>2.75</v>
+      </c>
+      <c r="AG59">
+        <v>2.25</v>
+      </c>
+      <c r="AH59">
+        <v>1.55</v>
+      </c>
+      <c r="AI59">
+        <v>2.1</v>
+      </c>
+      <c r="AJ59">
+        <v>1.67</v>
+      </c>
+      <c r="AK59">
+        <v>1.24</v>
+      </c>
+      <c r="AL59">
+        <v>1.3</v>
+      </c>
+      <c r="AM59">
+        <v>1.69</v>
+      </c>
+      <c r="AN59">
+        <v>0.5</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59">
+        <v>0.6</v>
+      </c>
+      <c r="AQ59">
+        <v>1</v>
+      </c>
+      <c r="AR59">
+        <v>0.99</v>
+      </c>
+      <c r="AS59">
+        <v>0.88</v>
+      </c>
+      <c r="AT59">
+        <v>1.87</v>
+      </c>
+      <c r="AU59">
+        <v>6</v>
+      </c>
+      <c r="AV59">
+        <v>5</v>
+      </c>
+      <c r="AW59">
+        <v>3</v>
+      </c>
+      <c r="AX59">
+        <v>7</v>
+      </c>
+      <c r="AY59">
+        <v>10</v>
+      </c>
+      <c r="AZ59">
+        <v>13</v>
+      </c>
+      <c r="BA59">
+        <v>3</v>
+      </c>
+      <c r="BB59">
+        <v>2</v>
+      </c>
+      <c r="BC59">
+        <v>5</v>
+      </c>
+      <c r="BD59">
+        <v>1.72</v>
+      </c>
+      <c r="BE59">
+        <v>6.6</v>
+      </c>
+      <c r="BF59">
+        <v>2.5</v>
+      </c>
+      <c r="BG59">
+        <v>1.45</v>
+      </c>
+      <c r="BH59">
+        <v>2.52</v>
+      </c>
+      <c r="BI59">
+        <v>1.8</v>
+      </c>
+      <c r="BJ59">
+        <v>2</v>
+      </c>
+      <c r="BK59">
+        <v>2.42</v>
+      </c>
+      <c r="BL59">
+        <v>1.48</v>
+      </c>
+      <c r="BM59">
+        <v>3.4</v>
+      </c>
+      <c r="BN59">
+        <v>1.26</v>
+      </c>
+      <c r="BO59">
+        <v>0</v>
+      </c>
+      <c r="BP59">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>['25']</t>
+  </si>
+  <si>
+    <t>['23']</t>
   </si>
   <si>
     <t>['25', '58']</t>
@@ -852,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1111,7 +1114,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1317,7 +1320,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1729,7 +1732,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1935,7 +1938,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2347,7 +2350,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2553,7 +2556,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2759,7 +2762,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2837,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.75</v>
@@ -2965,7 +2968,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3171,7 +3174,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3789,7 +3792,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3995,7 +3998,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4201,7 +4204,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4613,7 +4616,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4694,7 +4697,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -4819,7 +4822,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5025,7 +5028,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5231,7 +5234,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5643,7 +5646,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5849,7 +5852,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5927,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6467,7 +6470,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6879,7 +6882,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7291,7 +7294,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7497,7 +7500,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7703,7 +7706,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7909,7 +7912,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8196,7 +8199,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>2.14</v>
@@ -8321,7 +8324,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8527,7 +8530,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8733,7 +8736,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9557,7 +9560,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9763,7 +9766,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10050,7 +10053,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.33</v>
@@ -10381,7 +10384,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10459,7 +10462,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1.75</v>
@@ -10587,7 +10590,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10793,7 +10796,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11411,7 +11414,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11823,7 +11826,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12029,7 +12032,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12441,7 +12444,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12605,7 +12608,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7537348</v>
+        <v>7537349</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12614,94 +12617,94 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45591.45833333334</v>
+        <v>45590.875</v>
       </c>
       <c r="F58">
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <v>1</v>
       </c>
       <c r="O58" t="s">
+        <v>121</v>
+      </c>
+      <c r="P58" t="s">
         <v>84</v>
       </c>
-      <c r="P58" t="s">
-        <v>157</v>
-      </c>
       <c r="Q58">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="S58">
-        <v>4</v>
+        <v>1.83</v>
       </c>
       <c r="T58">
+        <v>1.33</v>
+      </c>
+      <c r="U58">
+        <v>3.25</v>
+      </c>
+      <c r="V58">
+        <v>2.5</v>
+      </c>
+      <c r="W58">
         <v>1.5</v>
       </c>
-      <c r="U58">
-        <v>2.5</v>
-      </c>
-      <c r="V58">
-        <v>3.5</v>
-      </c>
-      <c r="W58">
-        <v>1.29</v>
-      </c>
       <c r="X58">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="Y58">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="Z58">
-        <v>2.2</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="AA58">
-        <v>3.1</v>
+        <v>5.47</v>
       </c>
       <c r="AB58">
-        <v>3.3</v>
+        <v>1.28</v>
       </c>
       <c r="AC58">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD58">
-        <v>6.4</v>
+        <v>13</v>
       </c>
       <c r="AE58">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AF58">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="AG58">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="AH58">
-        <v>1.6</v>
+        <v>2.12</v>
       </c>
       <c r="AI58">
         <v>2</v>
@@ -12710,100 +12713,100 @@
         <v>1.75</v>
       </c>
       <c r="AK58">
+        <v>2.7</v>
+      </c>
+      <c r="AL58">
+        <v>1.15</v>
+      </c>
+      <c r="AM58">
+        <v>1.08</v>
+      </c>
+      <c r="AN58">
+        <v>0.33</v>
+      </c>
+      <c r="AO58">
+        <v>1.33</v>
+      </c>
+      <c r="AP58">
+        <v>1</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>1.32</v>
+      </c>
+      <c r="AS58">
+        <v>1.79</v>
+      </c>
+      <c r="AT58">
+        <v>3.11</v>
+      </c>
+      <c r="AU58">
+        <v>2</v>
+      </c>
+      <c r="AV58">
+        <v>6</v>
+      </c>
+      <c r="AW58">
+        <v>4</v>
+      </c>
+      <c r="AX58">
+        <v>14</v>
+      </c>
+      <c r="AY58">
+        <v>7</v>
+      </c>
+      <c r="AZ58">
+        <v>30</v>
+      </c>
+      <c r="BA58">
+        <v>2</v>
+      </c>
+      <c r="BB58">
+        <v>11</v>
+      </c>
+      <c r="BC58">
+        <v>13</v>
+      </c>
+      <c r="BD58">
+        <v>6.4</v>
+      </c>
+      <c r="BE58">
+        <v>8</v>
+      </c>
+      <c r="BF58">
+        <v>1.18</v>
+      </c>
+      <c r="BG58">
+        <v>1.43</v>
+      </c>
+      <c r="BH58">
+        <v>2.6</v>
+      </c>
+      <c r="BI58">
+        <v>1.82</v>
+      </c>
+      <c r="BJ58">
+        <v>1.98</v>
+      </c>
+      <c r="BK58">
+        <v>2.38</v>
+      </c>
+      <c r="BL58">
+        <v>1.5</v>
+      </c>
+      <c r="BM58">
+        <v>3.3</v>
+      </c>
+      <c r="BN58">
         <v>1.28</v>
       </c>
-      <c r="AL58">
-        <v>1.33</v>
-      </c>
-      <c r="AM58">
-        <v>1.57</v>
-      </c>
-      <c r="AN58">
-        <v>1.75</v>
-      </c>
-      <c r="AO58">
-        <v>2</v>
-      </c>
-      <c r="AP58">
-        <v>1.4</v>
-      </c>
-      <c r="AQ58">
-        <v>2.25</v>
-      </c>
-      <c r="AR58">
-        <v>1.3</v>
-      </c>
-      <c r="AS58">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AT58">
-        <v>2.11</v>
-      </c>
-      <c r="AU58">
-        <v>4</v>
-      </c>
-      <c r="AV58">
-        <v>5</v>
-      </c>
-      <c r="AW58">
-        <v>7</v>
-      </c>
-      <c r="AX58">
-        <v>10</v>
-      </c>
-      <c r="AY58">
-        <v>12</v>
-      </c>
-      <c r="AZ58">
-        <v>19</v>
-      </c>
-      <c r="BA58">
-        <v>2</v>
-      </c>
-      <c r="BB58">
-        <v>5</v>
-      </c>
-      <c r="BC58">
-        <v>7</v>
-      </c>
-      <c r="BD58">
-        <v>1.65</v>
-      </c>
-      <c r="BE58">
-        <v>6.7</v>
-      </c>
-      <c r="BF58">
-        <v>2.7</v>
-      </c>
-      <c r="BG58">
-        <v>1.45</v>
-      </c>
-      <c r="BH58">
-        <v>2.52</v>
-      </c>
-      <c r="BI58">
-        <v>1.88</v>
-      </c>
-      <c r="BJ58">
-        <v>1.92</v>
-      </c>
-      <c r="BK58">
-        <v>2.42</v>
-      </c>
-      <c r="BL58">
-        <v>1.48</v>
-      </c>
-      <c r="BM58">
-        <v>3.4</v>
-      </c>
-      <c r="BN58">
-        <v>1.26</v>
-      </c>
       <c r="BO58">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BP58">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12811,7 +12814,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7537346</v>
+        <v>7537348</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12820,55 +12823,55 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45591.47916666666</v>
+        <v>45591.45833333334</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O59" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="P59" t="s">
         <v>158</v>
       </c>
       <c r="Q59">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R59">
         <v>2</v>
       </c>
       <c r="S59">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T59">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U59">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V59">
         <v>3.5</v>
@@ -12883,103 +12886,103 @@
         <v>1.05</v>
       </c>
       <c r="Z59">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AA59">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB59">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AC59">
         <v>1.04</v>
       </c>
       <c r="AD59">
-        <v>6.45</v>
+        <v>6.4</v>
       </c>
       <c r="AE59">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AF59">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AG59">
+        <v>2.2</v>
+      </c>
+      <c r="AH59">
+        <v>1.6</v>
+      </c>
+      <c r="AI59">
+        <v>2</v>
+      </c>
+      <c r="AJ59">
+        <v>1.75</v>
+      </c>
+      <c r="AK59">
+        <v>1.28</v>
+      </c>
+      <c r="AL59">
+        <v>1.33</v>
+      </c>
+      <c r="AM59">
+        <v>1.57</v>
+      </c>
+      <c r="AN59">
+        <v>1.75</v>
+      </c>
+      <c r="AO59">
+        <v>2</v>
+      </c>
+      <c r="AP59">
+        <v>1.4</v>
+      </c>
+      <c r="AQ59">
         <v>2.25</v>
       </c>
-      <c r="AH59">
-        <v>1.55</v>
-      </c>
-      <c r="AI59">
-        <v>2.1</v>
-      </c>
-      <c r="AJ59">
-        <v>1.67</v>
-      </c>
-      <c r="AK59">
-        <v>1.24</v>
-      </c>
-      <c r="AL59">
+      <c r="AR59">
         <v>1.3</v>
       </c>
-      <c r="AM59">
-        <v>1.69</v>
-      </c>
-      <c r="AN59">
-        <v>0.5</v>
-      </c>
-      <c r="AO59">
-        <v>1</v>
-      </c>
-      <c r="AP59">
-        <v>0.6</v>
-      </c>
-      <c r="AQ59">
-        <v>1</v>
-      </c>
-      <c r="AR59">
-        <v>0.99</v>
-      </c>
       <c r="AS59">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT59">
-        <v>1.87</v>
+        <v>2.11</v>
       </c>
       <c r="AU59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV59">
         <v>5</v>
       </c>
       <c r="AW59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX59">
+        <v>10</v>
+      </c>
+      <c r="AY59">
+        <v>12</v>
+      </c>
+      <c r="AZ59">
+        <v>19</v>
+      </c>
+      <c r="BA59">
+        <v>2</v>
+      </c>
+      <c r="BB59">
+        <v>5</v>
+      </c>
+      <c r="BC59">
         <v>7</v>
       </c>
-      <c r="AY59">
-        <v>10</v>
-      </c>
-      <c r="AZ59">
-        <v>13</v>
-      </c>
-      <c r="BA59">
-        <v>3</v>
-      </c>
-      <c r="BB59">
-        <v>2</v>
-      </c>
-      <c r="BC59">
-        <v>5</v>
-      </c>
       <c r="BD59">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="BE59">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="BF59">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BG59">
         <v>1.45</v>
@@ -12988,10 +12991,10 @@
         <v>2.52</v>
       </c>
       <c r="BI59">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="BJ59">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BK59">
         <v>2.42</v>
@@ -13009,6 +13012,212 @@
         <v>0</v>
       </c>
       <c r="BP59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7537346</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45591.47916666666</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60" t="s">
+        <v>122</v>
+      </c>
+      <c r="P60" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q60">
+        <v>2.75</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>4.75</v>
+      </c>
+      <c r="T60">
+        <v>1.53</v>
+      </c>
+      <c r="U60">
+        <v>2.38</v>
+      </c>
+      <c r="V60">
+        <v>3.5</v>
+      </c>
+      <c r="W60">
+        <v>1.29</v>
+      </c>
+      <c r="X60">
+        <v>11</v>
+      </c>
+      <c r="Y60">
+        <v>1.05</v>
+      </c>
+      <c r="Z60">
+        <v>2.05</v>
+      </c>
+      <c r="AA60">
+        <v>3.2</v>
+      </c>
+      <c r="AB60">
+        <v>3.7</v>
+      </c>
+      <c r="AC60">
+        <v>1.04</v>
+      </c>
+      <c r="AD60">
+        <v>6.45</v>
+      </c>
+      <c r="AE60">
+        <v>1.46</v>
+      </c>
+      <c r="AF60">
+        <v>2.75</v>
+      </c>
+      <c r="AG60">
+        <v>2.25</v>
+      </c>
+      <c r="AH60">
+        <v>1.55</v>
+      </c>
+      <c r="AI60">
+        <v>2.1</v>
+      </c>
+      <c r="AJ60">
+        <v>1.67</v>
+      </c>
+      <c r="AK60">
+        <v>1.24</v>
+      </c>
+      <c r="AL60">
+        <v>1.3</v>
+      </c>
+      <c r="AM60">
+        <v>1.69</v>
+      </c>
+      <c r="AN60">
+        <v>0.5</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>0.6</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>0.99</v>
+      </c>
+      <c r="AS60">
+        <v>0.88</v>
+      </c>
+      <c r="AT60">
+        <v>1.87</v>
+      </c>
+      <c r="AU60">
+        <v>6</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>3</v>
+      </c>
+      <c r="AX60">
+        <v>7</v>
+      </c>
+      <c r="AY60">
+        <v>10</v>
+      </c>
+      <c r="AZ60">
+        <v>13</v>
+      </c>
+      <c r="BA60">
+        <v>3</v>
+      </c>
+      <c r="BB60">
+        <v>2</v>
+      </c>
+      <c r="BC60">
+        <v>5</v>
+      </c>
+      <c r="BD60">
+        <v>1.72</v>
+      </c>
+      <c r="BE60">
+        <v>6.6</v>
+      </c>
+      <c r="BF60">
+        <v>2.5</v>
+      </c>
+      <c r="BG60">
+        <v>1.45</v>
+      </c>
+      <c r="BH60">
+        <v>2.52</v>
+      </c>
+      <c r="BI60">
+        <v>1.8</v>
+      </c>
+      <c r="BJ60">
+        <v>2</v>
+      </c>
+      <c r="BK60">
+        <v>2.42</v>
+      </c>
+      <c r="BL60">
+        <v>1.48</v>
+      </c>
+      <c r="BM60">
+        <v>3.4</v>
+      </c>
+      <c r="BN60">
+        <v>1.26</v>
+      </c>
+      <c r="BO60">
+        <v>0</v>
+      </c>
+      <c r="BP60">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="165">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,10 +379,16 @@
     <t>['25']</t>
   </si>
   <si>
+    <t>['25', '58']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
-    <t>['25', '58']</t>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
   <si>
     <t>['13', '73']</t>
@@ -494,6 +500,15 @@
   </si>
   <si>
     <t>['3', '71']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['77', '79']</t>
+  </si>
+  <si>
+    <t>['45', '53', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,7 +1129,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1195,7 +1210,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1320,7 +1335,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1398,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
         <v>1.2</v>
@@ -1732,7 +1747,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1810,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ5">
         <v>1.8</v>
@@ -1938,7 +1953,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2019,7 +2034,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ6">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2225,7 +2240,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2350,7 +2365,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2556,7 +2571,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2637,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2762,7 +2777,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2843,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2968,7 +2983,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3174,7 +3189,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3252,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>2.25</v>
@@ -3458,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
         <v>1.75</v>
@@ -3664,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ14">
         <v>0.75</v>
@@ -3792,7 +3807,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3998,7 +4013,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4079,7 +4094,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4204,7 +4219,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4616,7 +4631,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4822,7 +4837,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -4903,7 +4918,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ20">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -5028,7 +5043,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5234,7 +5249,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5312,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ22">
         <v>1.25</v>
@@ -5646,7 +5661,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5724,10 +5739,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>2.26</v>
@@ -5852,7 +5867,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6342,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27">
         <v>1.25</v>
@@ -6470,7 +6485,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6551,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR28">
         <v>1</v>
@@ -6882,7 +6897,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7169,7 +7184,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7294,7 +7309,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7500,7 +7515,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7581,7 +7596,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>0.97</v>
@@ -7706,7 +7721,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7784,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ34">
         <v>1.2</v>
@@ -7912,7 +7927,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8196,7 +8211,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8324,7 +8339,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8530,7 +8545,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8608,7 +8623,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>0.75</v>
@@ -8736,7 +8751,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9023,7 +9038,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
         <v>2.09</v>
@@ -9226,10 +9241,10 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR41">
         <v>1.71</v>
@@ -9560,7 +9575,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9766,7 +9781,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10384,7 +10399,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10465,7 +10480,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR47">
         <v>1.06</v>
@@ -10590,7 +10605,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10668,7 +10683,7 @@
         <v>1.67</v>
       </c>
       <c r="AP48">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ48">
         <v>1.8</v>
@@ -10796,7 +10811,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11080,10 +11095,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ50">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR50">
         <v>1.74</v>
@@ -11414,7 +11429,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11826,7 +11841,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12032,7 +12047,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12444,7 +12459,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12608,7 +12623,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7537349</v>
+        <v>7537348</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12617,94 +12632,94 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45590.875</v>
+        <v>45591.45833333334</v>
       </c>
       <c r="F58">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58">
         <v>1</v>
       </c>
       <c r="O58" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="Q58">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>1.5</v>
+      </c>
+      <c r="U58">
         <v>2.5</v>
       </c>
-      <c r="S58">
-        <v>1.83</v>
-      </c>
-      <c r="T58">
-        <v>1.33</v>
-      </c>
-      <c r="U58">
-        <v>3.25</v>
-      </c>
       <c r="V58">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="W58">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="X58">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Y58">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="Z58">
-        <v>9.210000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="AA58">
-        <v>5.47</v>
+        <v>3.1</v>
       </c>
       <c r="AB58">
-        <v>1.28</v>
+        <v>3.3</v>
       </c>
       <c r="AC58">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD58">
-        <v>13</v>
+        <v>6.4</v>
       </c>
       <c r="AE58">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AF58">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="AG58">
-        <v>1.63</v>
+        <v>2.2</v>
       </c>
       <c r="AH58">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="AI58">
         <v>2</v>
@@ -12713,100 +12728,100 @@
         <v>1.75</v>
       </c>
       <c r="AK58">
+        <v>1.28</v>
+      </c>
+      <c r="AL58">
+        <v>1.33</v>
+      </c>
+      <c r="AM58">
+        <v>1.57</v>
+      </c>
+      <c r="AN58">
+        <v>1.75</v>
+      </c>
+      <c r="AO58">
+        <v>2</v>
+      </c>
+      <c r="AP58">
+        <v>1.4</v>
+      </c>
+      <c r="AQ58">
+        <v>2.25</v>
+      </c>
+      <c r="AR58">
+        <v>1.3</v>
+      </c>
+      <c r="AS58">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT58">
+        <v>2.11</v>
+      </c>
+      <c r="AU58">
+        <v>4</v>
+      </c>
+      <c r="AV58">
+        <v>5</v>
+      </c>
+      <c r="AW58">
+        <v>7</v>
+      </c>
+      <c r="AX58">
+        <v>10</v>
+      </c>
+      <c r="AY58">
+        <v>12</v>
+      </c>
+      <c r="AZ58">
+        <v>19</v>
+      </c>
+      <c r="BA58">
+        <v>2</v>
+      </c>
+      <c r="BB58">
+        <v>5</v>
+      </c>
+      <c r="BC58">
+        <v>7</v>
+      </c>
+      <c r="BD58">
+        <v>1.65</v>
+      </c>
+      <c r="BE58">
+        <v>6.7</v>
+      </c>
+      <c r="BF58">
         <v>2.7</v>
       </c>
-      <c r="AL58">
-        <v>1.15</v>
-      </c>
-      <c r="AM58">
-        <v>1.08</v>
-      </c>
-      <c r="AN58">
-        <v>0.33</v>
-      </c>
-      <c r="AO58">
-        <v>1.33</v>
-      </c>
-      <c r="AP58">
-        <v>1</v>
-      </c>
-      <c r="AQ58">
-        <v>1</v>
-      </c>
-      <c r="AR58">
-        <v>1.32</v>
-      </c>
-      <c r="AS58">
-        <v>1.79</v>
-      </c>
-      <c r="AT58">
-        <v>3.11</v>
-      </c>
-      <c r="AU58">
-        <v>2</v>
-      </c>
-      <c r="AV58">
-        <v>6</v>
-      </c>
-      <c r="AW58">
-        <v>4</v>
-      </c>
-      <c r="AX58">
-        <v>14</v>
-      </c>
-      <c r="AY58">
-        <v>7</v>
-      </c>
-      <c r="AZ58">
-        <v>30</v>
-      </c>
-      <c r="BA58">
-        <v>2</v>
-      </c>
-      <c r="BB58">
-        <v>11</v>
-      </c>
-      <c r="BC58">
-        <v>13</v>
-      </c>
-      <c r="BD58">
-        <v>6.4</v>
-      </c>
-      <c r="BE58">
-        <v>8</v>
-      </c>
-      <c r="BF58">
-        <v>1.18</v>
-      </c>
       <c r="BG58">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="BH58">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="BI58">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="BJ58">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="BK58">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="BL58">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BM58">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BN58">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BO58">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="BP58">
-        <v>1.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12814,7 +12829,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7537348</v>
+        <v>7537346</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12823,55 +12838,55 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45591.45833333334</v>
+        <v>45591.47916666666</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H59" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O59" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q59">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R59">
         <v>2</v>
       </c>
       <c r="S59">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="T59">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U59">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V59">
         <v>3.5</v>
@@ -12886,103 +12901,103 @@
         <v>1.05</v>
       </c>
       <c r="Z59">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AA59">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB59">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AC59">
         <v>1.04</v>
       </c>
       <c r="AD59">
-        <v>6.4</v>
+        <v>6.45</v>
       </c>
       <c r="AE59">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AF59">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AG59">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AH59">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AI59">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ59">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AK59">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AL59">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AM59">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AN59">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AO59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="AQ59">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AR59">
-        <v>1.3</v>
+        <v>0.99</v>
       </c>
       <c r="AS59">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="AT59">
-        <v>2.11</v>
+        <v>1.87</v>
       </c>
       <c r="AU59">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV59">
         <v>5</v>
       </c>
       <c r="AW59">
+        <v>3</v>
+      </c>
+      <c r="AX59">
         <v>7</v>
       </c>
-      <c r="AX59">
+      <c r="AY59">
         <v>10</v>
       </c>
-      <c r="AY59">
-        <v>12</v>
-      </c>
       <c r="AZ59">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BA59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB59">
+        <v>2</v>
+      </c>
+      <c r="BC59">
         <v>5</v>
       </c>
-      <c r="BC59">
-        <v>7</v>
-      </c>
       <c r="BD59">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="BE59">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="BF59">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BG59">
         <v>1.45</v>
@@ -12991,10 +13006,10 @@
         <v>2.52</v>
       </c>
       <c r="BI59">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BJ59">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BK59">
         <v>2.42</v>
@@ -13020,7 +13035,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7537346</v>
+        <v>7537349</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13029,195 +13044,1019 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45591.47916666666</v>
+        <v>45591.58333333334</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O60" t="s">
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="Q60">
+        <v>7.5</v>
+      </c>
+      <c r="R60">
+        <v>2.5</v>
+      </c>
+      <c r="S60">
+        <v>1.83</v>
+      </c>
+      <c r="T60">
+        <v>1.33</v>
+      </c>
+      <c r="U60">
+        <v>3.25</v>
+      </c>
+      <c r="V60">
+        <v>2.5</v>
+      </c>
+      <c r="W60">
+        <v>1.5</v>
+      </c>
+      <c r="X60">
+        <v>6.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.11</v>
+      </c>
+      <c r="Z60">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="AA60">
+        <v>5.47</v>
+      </c>
+      <c r="AB60">
+        <v>1.28</v>
+      </c>
+      <c r="AC60">
+        <v>1.01</v>
+      </c>
+      <c r="AD60">
+        <v>13</v>
+      </c>
+      <c r="AE60">
+        <v>1.23</v>
+      </c>
+      <c r="AF60">
+        <v>4.2</v>
+      </c>
+      <c r="AG60">
+        <v>1.63</v>
+      </c>
+      <c r="AH60">
+        <v>2.12</v>
+      </c>
+      <c r="AI60">
+        <v>2</v>
+      </c>
+      <c r="AJ60">
+        <v>1.75</v>
+      </c>
+      <c r="AK60">
+        <v>2.7</v>
+      </c>
+      <c r="AL60">
+        <v>1.15</v>
+      </c>
+      <c r="AM60">
+        <v>1.08</v>
+      </c>
+      <c r="AN60">
+        <v>0.33</v>
+      </c>
+      <c r="AO60">
+        <v>1.33</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1.32</v>
+      </c>
+      <c r="AS60">
+        <v>1.79</v>
+      </c>
+      <c r="AT60">
+        <v>3.11</v>
+      </c>
+      <c r="AU60">
+        <v>2</v>
+      </c>
+      <c r="AV60">
+        <v>6</v>
+      </c>
+      <c r="AW60">
+        <v>4</v>
+      </c>
+      <c r="AX60">
+        <v>14</v>
+      </c>
+      <c r="AY60">
+        <v>7</v>
+      </c>
+      <c r="AZ60">
+        <v>30</v>
+      </c>
+      <c r="BA60">
+        <v>2</v>
+      </c>
+      <c r="BB60">
+        <v>11</v>
+      </c>
+      <c r="BC60">
+        <v>13</v>
+      </c>
+      <c r="BD60">
+        <v>6.4</v>
+      </c>
+      <c r="BE60">
+        <v>8</v>
+      </c>
+      <c r="BF60">
+        <v>1.18</v>
+      </c>
+      <c r="BG60">
+        <v>1.43</v>
+      </c>
+      <c r="BH60">
+        <v>2.6</v>
+      </c>
+      <c r="BI60">
+        <v>1.82</v>
+      </c>
+      <c r="BJ60">
+        <v>1.98</v>
+      </c>
+      <c r="BK60">
+        <v>2.38</v>
+      </c>
+      <c r="BL60">
+        <v>1.5</v>
+      </c>
+      <c r="BM60">
+        <v>3.3</v>
+      </c>
+      <c r="BN60">
+        <v>1.28</v>
+      </c>
+      <c r="BO60">
+        <v>4.2</v>
+      </c>
+      <c r="BP60">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7537344</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45592.5</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>123</v>
+      </c>
+      <c r="P61" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q61">
+        <v>7.5</v>
+      </c>
+      <c r="R61">
+        <v>2.3</v>
+      </c>
+      <c r="S61">
+        <v>1.91</v>
+      </c>
+      <c r="T61">
+        <v>1.36</v>
+      </c>
+      <c r="U61">
+        <v>3</v>
+      </c>
+      <c r="V61">
         <v>2.75</v>
       </c>
-      <c r="R60">
-        <v>2</v>
-      </c>
-      <c r="S60">
-        <v>4.75</v>
-      </c>
-      <c r="T60">
+      <c r="W61">
+        <v>1.4</v>
+      </c>
+      <c r="X61">
+        <v>7</v>
+      </c>
+      <c r="Y61">
+        <v>1.1</v>
+      </c>
+      <c r="Z61">
+        <v>7.11</v>
+      </c>
+      <c r="AA61">
+        <v>4.42</v>
+      </c>
+      <c r="AB61">
+        <v>1.42</v>
+      </c>
+      <c r="AC61">
+        <v>1</v>
+      </c>
+      <c r="AD61">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE61">
+        <v>1.3</v>
+      </c>
+      <c r="AF61">
+        <v>3.6</v>
+      </c>
+      <c r="AG61">
+        <v>1.85</v>
+      </c>
+      <c r="AH61">
+        <v>1.85</v>
+      </c>
+      <c r="AI61">
+        <v>2.1</v>
+      </c>
+      <c r="AJ61">
+        <v>1.67</v>
+      </c>
+      <c r="AK61">
+        <v>2.5</v>
+      </c>
+      <c r="AL61">
+        <v>1.18</v>
+      </c>
+      <c r="AM61">
+        <v>1.08</v>
+      </c>
+      <c r="AN61">
+        <v>0.33</v>
+      </c>
+      <c r="AO61">
+        <v>1.75</v>
+      </c>
+      <c r="AP61">
+        <v>1</v>
+      </c>
+      <c r="AQ61">
+        <v>1.4</v>
+      </c>
+      <c r="AR61">
+        <v>1.69</v>
+      </c>
+      <c r="AS61">
+        <v>1.62</v>
+      </c>
+      <c r="AT61">
+        <v>3.31</v>
+      </c>
+      <c r="AU61">
+        <v>4</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
+      <c r="AX61">
+        <v>12</v>
+      </c>
+      <c r="AY61">
+        <v>10</v>
+      </c>
+      <c r="AZ61">
+        <v>24</v>
+      </c>
+      <c r="BA61">
+        <v>3</v>
+      </c>
+      <c r="BB61">
+        <v>8</v>
+      </c>
+      <c r="BC61">
+        <v>11</v>
+      </c>
+      <c r="BD61">
+        <v>5.2</v>
+      </c>
+      <c r="BE61">
+        <v>7.2</v>
+      </c>
+      <c r="BF61">
+        <v>1.26</v>
+      </c>
+      <c r="BG61">
+        <v>1.45</v>
+      </c>
+      <c r="BH61">
+        <v>2.52</v>
+      </c>
+      <c r="BI61">
+        <v>1.95</v>
+      </c>
+      <c r="BJ61">
+        <v>1.85</v>
+      </c>
+      <c r="BK61">
+        <v>2.45</v>
+      </c>
+      <c r="BL61">
+        <v>1.47</v>
+      </c>
+      <c r="BM61">
+        <v>3.55</v>
+      </c>
+      <c r="BN61">
+        <v>1.24</v>
+      </c>
+      <c r="BO61">
+        <v>4.6</v>
+      </c>
+      <c r="BP61">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7537347</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45592.54166666666</v>
+      </c>
+      <c r="F62">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s">
+        <v>82</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>124</v>
+      </c>
+      <c r="P62" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q62">
+        <v>2.3</v>
+      </c>
+      <c r="R62">
+        <v>2.2</v>
+      </c>
+      <c r="S62">
+        <v>5.5</v>
+      </c>
+      <c r="T62">
+        <v>1.4</v>
+      </c>
+      <c r="U62">
+        <v>2.75</v>
+      </c>
+      <c r="V62">
+        <v>2.75</v>
+      </c>
+      <c r="W62">
+        <v>1.4</v>
+      </c>
+      <c r="X62">
+        <v>8</v>
+      </c>
+      <c r="Y62">
+        <v>1.08</v>
+      </c>
+      <c r="Z62">
+        <v>1.73</v>
+      </c>
+      <c r="AA62">
+        <v>3.63</v>
+      </c>
+      <c r="AB62">
+        <v>4.61</v>
+      </c>
+      <c r="AC62">
+        <v>1.02</v>
+      </c>
+      <c r="AD62">
+        <v>10.9</v>
+      </c>
+      <c r="AE62">
+        <v>1.25</v>
+      </c>
+      <c r="AF62">
+        <v>3.2</v>
+      </c>
+      <c r="AG62">
+        <v>1.9</v>
+      </c>
+      <c r="AH62">
+        <v>1.8</v>
+      </c>
+      <c r="AI62">
+        <v>1.91</v>
+      </c>
+      <c r="AJ62">
+        <v>1.91</v>
+      </c>
+      <c r="AK62">
+        <v>1.16</v>
+      </c>
+      <c r="AL62">
+        <v>1.25</v>
+      </c>
+      <c r="AM62">
+        <v>1.96</v>
+      </c>
+      <c r="AN62">
+        <v>1.75</v>
+      </c>
+      <c r="AO62">
+        <v>1.75</v>
+      </c>
+      <c r="AP62">
+        <v>1.6</v>
+      </c>
+      <c r="AQ62">
+        <v>1.6</v>
+      </c>
+      <c r="AR62">
+        <v>1.7</v>
+      </c>
+      <c r="AS62">
+        <v>1.38</v>
+      </c>
+      <c r="AT62">
+        <v>3.08</v>
+      </c>
+      <c r="AU62">
+        <v>6</v>
+      </c>
+      <c r="AV62">
+        <v>2</v>
+      </c>
+      <c r="AW62">
+        <v>5</v>
+      </c>
+      <c r="AX62">
+        <v>5</v>
+      </c>
+      <c r="AY62">
+        <v>16</v>
+      </c>
+      <c r="AZ62">
+        <v>11</v>
+      </c>
+      <c r="BA62">
+        <v>5</v>
+      </c>
+      <c r="BB62">
+        <v>2</v>
+      </c>
+      <c r="BC62">
+        <v>7</v>
+      </c>
+      <c r="BD62">
+        <v>1.3</v>
+      </c>
+      <c r="BE62">
+        <v>8</v>
+      </c>
+      <c r="BF62">
+        <v>4.3</v>
+      </c>
+      <c r="BG62">
+        <v>1.39</v>
+      </c>
+      <c r="BH62">
+        <v>2.67</v>
+      </c>
+      <c r="BI62">
+        <v>1.74</v>
+      </c>
+      <c r="BJ62">
+        <v>2.02</v>
+      </c>
+      <c r="BK62">
+        <v>2.19</v>
+      </c>
+      <c r="BL62">
+        <v>1.57</v>
+      </c>
+      <c r="BM62">
+        <v>2.88</v>
+      </c>
+      <c r="BN62">
+        <v>1.3</v>
+      </c>
+      <c r="BO62">
+        <v>0</v>
+      </c>
+      <c r="BP62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7537350</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45592.66666666666</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>104</v>
+      </c>
+      <c r="P63" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q63">
+        <v>1.73</v>
+      </c>
+      <c r="R63">
+        <v>2.75</v>
+      </c>
+      <c r="S63">
+        <v>8</v>
+      </c>
+      <c r="T63">
+        <v>1.25</v>
+      </c>
+      <c r="U63">
+        <v>3.75</v>
+      </c>
+      <c r="V63">
+        <v>2.2</v>
+      </c>
+      <c r="W63">
+        <v>1.62</v>
+      </c>
+      <c r="X63">
+        <v>5</v>
+      </c>
+      <c r="Y63">
+        <v>1.17</v>
+      </c>
+      <c r="Z63">
+        <v>1.27</v>
+      </c>
+      <c r="AA63">
+        <v>5.5</v>
+      </c>
+      <c r="AB63">
+        <v>11</v>
+      </c>
+      <c r="AC63">
+        <v>1.01</v>
+      </c>
+      <c r="AD63">
+        <v>17.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.11</v>
+      </c>
+      <c r="AF63">
+        <v>4.55</v>
+      </c>
+      <c r="AG63">
         <v>1.53</v>
       </c>
-      <c r="U60">
-        <v>2.38</v>
-      </c>
-      <c r="V60">
-        <v>3.5</v>
-      </c>
-      <c r="W60">
-        <v>1.29</v>
-      </c>
-      <c r="X60">
+      <c r="AH63">
+        <v>2.4</v>
+      </c>
+      <c r="AI63">
+        <v>1.95</v>
+      </c>
+      <c r="AJ63">
+        <v>1.8</v>
+      </c>
+      <c r="AK63">
+        <v>1.06</v>
+      </c>
+      <c r="AL63">
+        <v>1.12</v>
+      </c>
+      <c r="AM63">
+        <v>3.05</v>
+      </c>
+      <c r="AN63">
+        <v>1.75</v>
+      </c>
+      <c r="AO63">
+        <v>1.75</v>
+      </c>
+      <c r="AP63">
+        <v>1.4</v>
+      </c>
+      <c r="AQ63">
+        <v>2</v>
+      </c>
+      <c r="AR63">
+        <v>1.69</v>
+      </c>
+      <c r="AS63">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT63">
+        <v>2.5</v>
+      </c>
+      <c r="AU63">
+        <v>7</v>
+      </c>
+      <c r="AV63">
+        <v>7</v>
+      </c>
+      <c r="AW63">
+        <v>9</v>
+      </c>
+      <c r="AX63">
+        <v>5</v>
+      </c>
+      <c r="AY63">
+        <v>22</v>
+      </c>
+      <c r="AZ63">
+        <v>16</v>
+      </c>
+      <c r="BA63">
+        <v>5</v>
+      </c>
+      <c r="BB63">
+        <v>4</v>
+      </c>
+      <c r="BC63">
+        <v>9</v>
+      </c>
+      <c r="BD63">
+        <v>1.02</v>
+      </c>
+      <c r="BE63">
+        <v>14</v>
+      </c>
+      <c r="BF63">
+        <v>12</v>
+      </c>
+      <c r="BG63">
+        <v>1.43</v>
+      </c>
+      <c r="BH63">
+        <v>2.54</v>
+      </c>
+      <c r="BI63">
+        <v>1.81</v>
+      </c>
+      <c r="BJ63">
+        <v>1.94</v>
+      </c>
+      <c r="BK63">
+        <v>2.3</v>
+      </c>
+      <c r="BL63">
+        <v>1.52</v>
+      </c>
+      <c r="BM63">
+        <v>3.02</v>
+      </c>
+      <c r="BN63">
+        <v>1.27</v>
+      </c>
+      <c r="BO63">
+        <v>4.1</v>
+      </c>
+      <c r="BP63">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7537345</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45592.6875</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>83</v>
+      </c>
+      <c r="H64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>84</v>
+      </c>
+      <c r="P64" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q64">
+        <v>3.4</v>
+      </c>
+      <c r="R64">
+        <v>2.05</v>
+      </c>
+      <c r="S64">
+        <v>3.4</v>
+      </c>
+      <c r="T64">
+        <v>1.44</v>
+      </c>
+      <c r="U64">
+        <v>2.63</v>
+      </c>
+      <c r="V64">
+        <v>3.25</v>
+      </c>
+      <c r="W64">
+        <v>1.33</v>
+      </c>
+      <c r="X64">
+        <v>10</v>
+      </c>
+      <c r="Y64">
+        <v>1.06</v>
+      </c>
+      <c r="Z64">
+        <v>3.22</v>
+      </c>
+      <c r="AA64">
+        <v>3.2</v>
+      </c>
+      <c r="AB64">
+        <v>2.26</v>
+      </c>
+      <c r="AC64">
+        <v>1.02</v>
+      </c>
+      <c r="AD64">
+        <v>7.3</v>
+      </c>
+      <c r="AE64">
+        <v>1.37</v>
+      </c>
+      <c r="AF64">
+        <v>3.08</v>
+      </c>
+      <c r="AG64">
+        <v>2.17</v>
+      </c>
+      <c r="AH64">
+        <v>1.61</v>
+      </c>
+      <c r="AI64">
+        <v>1.91</v>
+      </c>
+      <c r="AJ64">
+        <v>1.91</v>
+      </c>
+      <c r="AK64">
+        <v>1.42</v>
+      </c>
+      <c r="AL64">
+        <v>1.32</v>
+      </c>
+      <c r="AM64">
+        <v>1.41</v>
+      </c>
+      <c r="AN64">
+        <v>0.67</v>
+      </c>
+      <c r="AO64">
+        <v>1.33</v>
+      </c>
+      <c r="AP64">
+        <v>0.5</v>
+      </c>
+      <c r="AQ64">
+        <v>1.75</v>
+      </c>
+      <c r="AR64">
+        <v>1.31</v>
+      </c>
+      <c r="AS64">
+        <v>1.06</v>
+      </c>
+      <c r="AT64">
+        <v>2.37</v>
+      </c>
+      <c r="AU64">
+        <v>4</v>
+      </c>
+      <c r="AV64">
+        <v>8</v>
+      </c>
+      <c r="AW64">
+        <v>7</v>
+      </c>
+      <c r="AX64">
+        <v>7</v>
+      </c>
+      <c r="AY64">
+        <v>12</v>
+      </c>
+      <c r="AZ64">
+        <v>20</v>
+      </c>
+      <c r="BA64">
+        <v>4</v>
+      </c>
+      <c r="BB64">
+        <v>7</v>
+      </c>
+      <c r="BC64">
         <v>11</v>
       </c>
-      <c r="Y60">
-        <v>1.05</v>
-      </c>
-      <c r="Z60">
-        <v>2.05</v>
-      </c>
-      <c r="AA60">
-        <v>3.2</v>
-      </c>
-      <c r="AB60">
-        <v>3.7</v>
-      </c>
-      <c r="AC60">
-        <v>1.04</v>
-      </c>
-      <c r="AD60">
-        <v>6.45</v>
-      </c>
-      <c r="AE60">
-        <v>1.46</v>
-      </c>
-      <c r="AF60">
-        <v>2.75</v>
-      </c>
-      <c r="AG60">
-        <v>2.25</v>
-      </c>
-      <c r="AH60">
-        <v>1.55</v>
-      </c>
-      <c r="AI60">
-        <v>2.1</v>
-      </c>
-      <c r="AJ60">
-        <v>1.67</v>
-      </c>
-      <c r="AK60">
-        <v>1.24</v>
-      </c>
-      <c r="AL60">
-        <v>1.3</v>
-      </c>
-      <c r="AM60">
-        <v>1.69</v>
-      </c>
-      <c r="AN60">
-        <v>0.5</v>
-      </c>
-      <c r="AO60">
-        <v>1</v>
-      </c>
-      <c r="AP60">
-        <v>0.6</v>
-      </c>
-      <c r="AQ60">
-        <v>1</v>
-      </c>
-      <c r="AR60">
-        <v>0.99</v>
-      </c>
-      <c r="AS60">
-        <v>0.88</v>
-      </c>
-      <c r="AT60">
-        <v>1.87</v>
-      </c>
-      <c r="AU60">
-        <v>6</v>
-      </c>
-      <c r="AV60">
-        <v>5</v>
-      </c>
-      <c r="AW60">
-        <v>3</v>
-      </c>
-      <c r="AX60">
-        <v>7</v>
-      </c>
-      <c r="AY60">
-        <v>10</v>
-      </c>
-      <c r="AZ60">
-        <v>13</v>
-      </c>
-      <c r="BA60">
-        <v>3</v>
-      </c>
-      <c r="BB60">
-        <v>2</v>
-      </c>
-      <c r="BC60">
-        <v>5</v>
-      </c>
-      <c r="BD60">
-        <v>1.72</v>
-      </c>
-      <c r="BE60">
+      <c r="BD64">
+        <v>1.82</v>
+      </c>
+      <c r="BE64">
         <v>6.6</v>
       </c>
-      <c r="BF60">
-        <v>2.5</v>
-      </c>
-      <c r="BG60">
-        <v>1.45</v>
-      </c>
-      <c r="BH60">
-        <v>2.52</v>
-      </c>
-      <c r="BI60">
-        <v>1.8</v>
-      </c>
-      <c r="BJ60">
-        <v>2</v>
-      </c>
-      <c r="BK60">
-        <v>2.42</v>
-      </c>
-      <c r="BL60">
-        <v>1.48</v>
-      </c>
-      <c r="BM60">
-        <v>3.4</v>
-      </c>
-      <c r="BN60">
-        <v>1.26</v>
-      </c>
-      <c r="BO60">
-        <v>0</v>
-      </c>
-      <c r="BP60">
+      <c r="BF64">
+        <v>2.35</v>
+      </c>
+      <c r="BG64">
+        <v>1.43</v>
+      </c>
+      <c r="BH64">
+        <v>2.63</v>
+      </c>
+      <c r="BI64">
+        <v>1.74</v>
+      </c>
+      <c r="BJ64">
+        <v>1.97</v>
+      </c>
+      <c r="BK64">
+        <v>2.22</v>
+      </c>
+      <c r="BL64">
+        <v>1.58</v>
+      </c>
+      <c r="BM64">
+        <v>2.95</v>
+      </c>
+      <c r="BN64">
+        <v>1.35</v>
+      </c>
+      <c r="BO64">
+        <v>0</v>
+      </c>
+      <c r="BP64">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -502,13 +502,13 @@
     <t>['3', '71']</t>
   </si>
   <si>
+    <t>['45', '53', '90+4']</t>
+  </si>
+  <si>
     <t>['72']</t>
   </si>
   <si>
     <t>['77', '79']</t>
-  </si>
-  <si>
-    <t>['45', '53', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -13241,7 +13241,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7537344</v>
+        <v>7537345</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13250,196 +13250,196 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45592.5</v>
+        <v>45591.875</v>
       </c>
       <c r="F61">
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O61" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="Q61">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="R61">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="S61">
+        <v>3.4</v>
+      </c>
+      <c r="T61">
+        <v>1.44</v>
+      </c>
+      <c r="U61">
+        <v>2.63</v>
+      </c>
+      <c r="V61">
+        <v>3.25</v>
+      </c>
+      <c r="W61">
+        <v>1.33</v>
+      </c>
+      <c r="X61">
+        <v>10</v>
+      </c>
+      <c r="Y61">
+        <v>1.06</v>
+      </c>
+      <c r="Z61">
+        <v>3.22</v>
+      </c>
+      <c r="AA61">
+        <v>3.2</v>
+      </c>
+      <c r="AB61">
+        <v>2.26</v>
+      </c>
+      <c r="AC61">
+        <v>1.02</v>
+      </c>
+      <c r="AD61">
+        <v>7.3</v>
+      </c>
+      <c r="AE61">
+        <v>1.37</v>
+      </c>
+      <c r="AF61">
+        <v>3.08</v>
+      </c>
+      <c r="AG61">
+        <v>2.17</v>
+      </c>
+      <c r="AH61">
+        <v>1.61</v>
+      </c>
+      <c r="AI61">
         <v>1.91</v>
       </c>
-      <c r="T61">
-        <v>1.36</v>
-      </c>
-      <c r="U61">
-        <v>3</v>
-      </c>
-      <c r="V61">
-        <v>2.75</v>
-      </c>
-      <c r="W61">
-        <v>1.4</v>
-      </c>
-      <c r="X61">
-        <v>7</v>
-      </c>
-      <c r="Y61">
-        <v>1.1</v>
-      </c>
-      <c r="Z61">
-        <v>7.11</v>
-      </c>
-      <c r="AA61">
-        <v>4.42</v>
-      </c>
-      <c r="AB61">
+      <c r="AJ61">
+        <v>1.91</v>
+      </c>
+      <c r="AK61">
         <v>1.42</v>
       </c>
-      <c r="AC61">
-        <v>1</v>
-      </c>
-      <c r="AD61">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AE61">
-        <v>1.3</v>
-      </c>
-      <c r="AF61">
-        <v>3.6</v>
-      </c>
-      <c r="AG61">
-        <v>1.85</v>
-      </c>
-      <c r="AH61">
-        <v>1.85</v>
-      </c>
-      <c r="AI61">
-        <v>2.1</v>
-      </c>
-      <c r="AJ61">
-        <v>1.67</v>
-      </c>
-      <c r="AK61">
-        <v>2.5</v>
-      </c>
       <c r="AL61">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AM61">
-        <v>1.08</v>
+        <v>1.41</v>
       </c>
       <c r="AN61">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO61">
+        <v>1.33</v>
+      </c>
+      <c r="AP61">
+        <v>0.5</v>
+      </c>
+      <c r="AQ61">
         <v>1.75</v>
       </c>
-      <c r="AP61">
-        <v>1</v>
-      </c>
-      <c r="AQ61">
-        <v>1.4</v>
-      </c>
       <c r="AR61">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="AS61">
-        <v>1.62</v>
+        <v>1.06</v>
       </c>
       <c r="AT61">
-        <v>3.31</v>
+        <v>2.37</v>
       </c>
       <c r="AU61">
         <v>4</v>
       </c>
       <c r="AV61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW61">
+        <v>7</v>
+      </c>
+      <c r="AX61">
+        <v>7</v>
+      </c>
+      <c r="AY61">
+        <v>12</v>
+      </c>
+      <c r="AZ61">
+        <v>20</v>
+      </c>
+      <c r="BA61">
         <v>4</v>
       </c>
-      <c r="AX61">
-        <v>12</v>
-      </c>
-      <c r="AY61">
-        <v>10</v>
-      </c>
-      <c r="AZ61">
-        <v>24</v>
-      </c>
-      <c r="BA61">
-        <v>3</v>
-      </c>
       <c r="BB61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC61">
         <v>11</v>
       </c>
       <c r="BD61">
-        <v>5.2</v>
+        <v>1.82</v>
       </c>
       <c r="BE61">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="BF61">
-        <v>1.26</v>
+        <v>2.35</v>
       </c>
       <c r="BG61">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="BH61">
-        <v>2.52</v>
+        <v>2.63</v>
       </c>
       <c r="BI61">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="BJ61">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="BK61">
-        <v>2.45</v>
+        <v>2.22</v>
       </c>
       <c r="BL61">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="BM61">
-        <v>3.55</v>
+        <v>2.95</v>
       </c>
       <c r="BN61">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="BO61">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="BP61">
-        <v>1.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13447,7 +13447,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7537347</v>
+        <v>7537344</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13456,16 +13456,16 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45592.54166666666</v>
+        <v>45592.5</v>
       </c>
       <c r="F62">
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -13480,31 +13480,31 @@
         <v>1</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="Q62">
+        <v>7.5</v>
+      </c>
+      <c r="R62">
         <v>2.3</v>
       </c>
-      <c r="R62">
-        <v>2.2</v>
-      </c>
       <c r="S62">
-        <v>5.5</v>
+        <v>1.91</v>
       </c>
       <c r="T62">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U62">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V62">
         <v>2.75</v>
@@ -13513,139 +13513,139 @@
         <v>1.4</v>
       </c>
       <c r="X62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y62">
+        <v>1.1</v>
+      </c>
+      <c r="Z62">
+        <v>7.11</v>
+      </c>
+      <c r="AA62">
+        <v>4.42</v>
+      </c>
+      <c r="AB62">
+        <v>1.42</v>
+      </c>
+      <c r="AC62">
+        <v>1</v>
+      </c>
+      <c r="AD62">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE62">
+        <v>1.3</v>
+      </c>
+      <c r="AF62">
+        <v>3.6</v>
+      </c>
+      <c r="AG62">
+        <v>1.85</v>
+      </c>
+      <c r="AH62">
+        <v>1.85</v>
+      </c>
+      <c r="AI62">
+        <v>2.1</v>
+      </c>
+      <c r="AJ62">
+        <v>1.67</v>
+      </c>
+      <c r="AK62">
+        <v>2.5</v>
+      </c>
+      <c r="AL62">
+        <v>1.18</v>
+      </c>
+      <c r="AM62">
         <v>1.08</v>
       </c>
-      <c r="Z62">
-        <v>1.73</v>
-      </c>
-      <c r="AA62">
-        <v>3.63</v>
-      </c>
-      <c r="AB62">
-        <v>4.61</v>
-      </c>
-      <c r="AC62">
-        <v>1.02</v>
-      </c>
-      <c r="AD62">
-        <v>10.9</v>
-      </c>
-      <c r="AE62">
-        <v>1.25</v>
-      </c>
-      <c r="AF62">
-        <v>3.2</v>
-      </c>
-      <c r="AG62">
-        <v>1.9</v>
-      </c>
-      <c r="AH62">
-        <v>1.8</v>
-      </c>
-      <c r="AI62">
-        <v>1.91</v>
-      </c>
-      <c r="AJ62">
-        <v>1.91</v>
-      </c>
-      <c r="AK62">
-        <v>1.16</v>
-      </c>
-      <c r="AL62">
-        <v>1.25</v>
-      </c>
-      <c r="AM62">
-        <v>1.96</v>
-      </c>
       <c r="AN62">
-        <v>1.75</v>
+        <v>0.33</v>
       </c>
       <c r="AO62">
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR62">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AS62">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="AT62">
-        <v>3.08</v>
+        <v>3.31</v>
       </c>
       <c r="AU62">
+        <v>4</v>
+      </c>
+      <c r="AV62">
         <v>6</v>
       </c>
-      <c r="AV62">
-        <v>2</v>
-      </c>
       <c r="AW62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX62">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AY62">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AZ62">
+        <v>24</v>
+      </c>
+      <c r="BA62">
+        <v>3</v>
+      </c>
+      <c r="BB62">
+        <v>8</v>
+      </c>
+      <c r="BC62">
         <v>11</v>
       </c>
-      <c r="BA62">
-        <v>5</v>
-      </c>
-      <c r="BB62">
-        <v>2</v>
-      </c>
-      <c r="BC62">
-        <v>7</v>
-      </c>
       <c r="BD62">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="BE62">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="BF62">
-        <v>4.3</v>
+        <v>1.26</v>
       </c>
       <c r="BG62">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="BH62">
-        <v>2.67</v>
+        <v>2.52</v>
       </c>
       <c r="BI62">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="BJ62">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="BK62">
-        <v>2.19</v>
+        <v>2.45</v>
       </c>
       <c r="BL62">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="BM62">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="BN62">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="BO62">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BP62">
-        <v>0</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13653,7 +13653,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7537350</v>
+        <v>7537347</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13662,16 +13662,16 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45592.66666666666</v>
+        <v>45592.54166666666</v>
       </c>
       <c r="F63">
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H63" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -13686,85 +13686,85 @@
         <v>1</v>
       </c>
       <c r="M63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O63" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="P63" t="s">
         <v>163</v>
       </c>
       <c r="Q63">
+        <v>2.3</v>
+      </c>
+      <c r="R63">
+        <v>2.2</v>
+      </c>
+      <c r="S63">
+        <v>5.5</v>
+      </c>
+      <c r="T63">
+        <v>1.4</v>
+      </c>
+      <c r="U63">
+        <v>2.75</v>
+      </c>
+      <c r="V63">
+        <v>2.75</v>
+      </c>
+      <c r="W63">
+        <v>1.4</v>
+      </c>
+      <c r="X63">
+        <v>8</v>
+      </c>
+      <c r="Y63">
+        <v>1.08</v>
+      </c>
+      <c r="Z63">
         <v>1.73</v>
       </c>
-      <c r="R63">
-        <v>2.75</v>
-      </c>
-      <c r="S63">
-        <v>8</v>
-      </c>
-      <c r="T63">
+      <c r="AA63">
+        <v>3.63</v>
+      </c>
+      <c r="AB63">
+        <v>4.61</v>
+      </c>
+      <c r="AC63">
+        <v>1.02</v>
+      </c>
+      <c r="AD63">
+        <v>10.9</v>
+      </c>
+      <c r="AE63">
         <v>1.25</v>
       </c>
-      <c r="U63">
-        <v>3.75</v>
-      </c>
-      <c r="V63">
-        <v>2.2</v>
-      </c>
-      <c r="W63">
-        <v>1.62</v>
-      </c>
-      <c r="X63">
-        <v>5</v>
-      </c>
-      <c r="Y63">
-        <v>1.17</v>
-      </c>
-      <c r="Z63">
-        <v>1.27</v>
-      </c>
-      <c r="AA63">
-        <v>5.5</v>
-      </c>
-      <c r="AB63">
-        <v>11</v>
-      </c>
-      <c r="AC63">
-        <v>1.01</v>
-      </c>
-      <c r="AD63">
-        <v>17.5</v>
-      </c>
-      <c r="AE63">
-        <v>1.11</v>
-      </c>
       <c r="AF63">
-        <v>4.55</v>
+        <v>3.2</v>
       </c>
       <c r="AG63">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="AH63">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AI63">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AJ63">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AK63">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AL63">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AM63">
-        <v>3.05</v>
+        <v>1.96</v>
       </c>
       <c r="AN63">
         <v>1.75</v>
@@ -13773,85 +13773,85 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR63">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AS63">
-        <v>0.8100000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="AT63">
-        <v>2.5</v>
+        <v>3.08</v>
       </c>
       <c r="AU63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV63">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW63">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX63">
         <v>5</v>
       </c>
       <c r="AY63">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AZ63">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA63">
         <v>5</v>
       </c>
       <c r="BB63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC63">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD63">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="BE63">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BF63">
-        <v>12</v>
+        <v>4.3</v>
       </c>
       <c r="BG63">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="BH63">
-        <v>2.54</v>
+        <v>2.67</v>
       </c>
       <c r="BI63">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="BJ63">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="BK63">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="BL63">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="BM63">
-        <v>3.02</v>
+        <v>2.88</v>
       </c>
       <c r="BN63">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BO63">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="BP63">
-        <v>1.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13859,7 +13859,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7537345</v>
+        <v>7537350</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13868,196 +13868,196 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45592.6875</v>
+        <v>45592.66666666666</v>
       </c>
       <c r="F64">
         <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N64">
         <v>3</v>
       </c>
       <c r="O64" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="P64" t="s">
         <v>164</v>
       </c>
       <c r="Q64">
-        <v>3.4</v>
+        <v>1.73</v>
       </c>
       <c r="R64">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="S64">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="T64">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="U64">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="V64">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="W64">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="X64">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y64">
+        <v>1.17</v>
+      </c>
+      <c r="Z64">
+        <v>1.27</v>
+      </c>
+      <c r="AA64">
+        <v>5.5</v>
+      </c>
+      <c r="AB64">
+        <v>11</v>
+      </c>
+      <c r="AC64">
+        <v>1.01</v>
+      </c>
+      <c r="AD64">
+        <v>17.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.11</v>
+      </c>
+      <c r="AF64">
+        <v>4.55</v>
+      </c>
+      <c r="AG64">
+        <v>1.53</v>
+      </c>
+      <c r="AH64">
+        <v>2.4</v>
+      </c>
+      <c r="AI64">
+        <v>1.95</v>
+      </c>
+      <c r="AJ64">
+        <v>1.8</v>
+      </c>
+      <c r="AK64">
         <v>1.06</v>
       </c>
-      <c r="Z64">
-        <v>3.22</v>
-      </c>
-      <c r="AA64">
-        <v>3.2</v>
-      </c>
-      <c r="AB64">
-        <v>2.26</v>
-      </c>
-      <c r="AC64">
+      <c r="AL64">
+        <v>1.12</v>
+      </c>
+      <c r="AM64">
+        <v>3.05</v>
+      </c>
+      <c r="AN64">
+        <v>1.75</v>
+      </c>
+      <c r="AO64">
+        <v>1.75</v>
+      </c>
+      <c r="AP64">
+        <v>1.4</v>
+      </c>
+      <c r="AQ64">
+        <v>2</v>
+      </c>
+      <c r="AR64">
+        <v>1.69</v>
+      </c>
+      <c r="AS64">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT64">
+        <v>2.5</v>
+      </c>
+      <c r="AU64">
+        <v>7</v>
+      </c>
+      <c r="AV64">
+        <v>7</v>
+      </c>
+      <c r="AW64">
+        <v>9</v>
+      </c>
+      <c r="AX64">
+        <v>5</v>
+      </c>
+      <c r="AY64">
+        <v>22</v>
+      </c>
+      <c r="AZ64">
+        <v>16</v>
+      </c>
+      <c r="BA64">
+        <v>5</v>
+      </c>
+      <c r="BB64">
+        <v>4</v>
+      </c>
+      <c r="BC64">
+        <v>9</v>
+      </c>
+      <c r="BD64">
         <v>1.02</v>
       </c>
-      <c r="AD64">
-        <v>7.3</v>
-      </c>
-      <c r="AE64">
-        <v>1.37</v>
-      </c>
-      <c r="AF64">
-        <v>3.08</v>
-      </c>
-      <c r="AG64">
-        <v>2.17</v>
-      </c>
-      <c r="AH64">
-        <v>1.61</v>
-      </c>
-      <c r="AI64">
-        <v>1.91</v>
-      </c>
-      <c r="AJ64">
-        <v>1.91</v>
-      </c>
-      <c r="AK64">
-        <v>1.42</v>
-      </c>
-      <c r="AL64">
-        <v>1.32</v>
-      </c>
-      <c r="AM64">
-        <v>1.41</v>
-      </c>
-      <c r="AN64">
-        <v>0.67</v>
-      </c>
-      <c r="AO64">
-        <v>1.33</v>
-      </c>
-      <c r="AP64">
-        <v>0.5</v>
-      </c>
-      <c r="AQ64">
-        <v>1.75</v>
-      </c>
-      <c r="AR64">
-        <v>1.31</v>
-      </c>
-      <c r="AS64">
-        <v>1.06</v>
-      </c>
-      <c r="AT64">
-        <v>2.37</v>
-      </c>
-      <c r="AU64">
-        <v>4</v>
-      </c>
-      <c r="AV64">
-        <v>8</v>
-      </c>
-      <c r="AW64">
-        <v>7</v>
-      </c>
-      <c r="AX64">
-        <v>7</v>
-      </c>
-      <c r="AY64">
+      <c r="BE64">
+        <v>14</v>
+      </c>
+      <c r="BF64">
         <v>12</v>
-      </c>
-      <c r="AZ64">
-        <v>20</v>
-      </c>
-      <c r="BA64">
-        <v>4</v>
-      </c>
-      <c r="BB64">
-        <v>7</v>
-      </c>
-      <c r="BC64">
-        <v>11</v>
-      </c>
-      <c r="BD64">
-        <v>1.82</v>
-      </c>
-      <c r="BE64">
-        <v>6.6</v>
-      </c>
-      <c r="BF64">
-        <v>2.35</v>
       </c>
       <c r="BG64">
         <v>1.43</v>
       </c>
       <c r="BH64">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="BI64">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="BJ64">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="BK64">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="BL64">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="BM64">
-        <v>2.95</v>
+        <v>3.02</v>
       </c>
       <c r="BN64">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="BO64">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BP64">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -502,13 +502,13 @@
     <t>['3', '71']</t>
   </si>
   <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['77', '79']</t>
+  </si>
+  <si>
     <t>['45', '53', '90+4']</t>
-  </si>
-  <si>
-    <t>['72']</t>
-  </si>
-  <si>
-    <t>['77', '79']</t>
   </si>
 </sst>
 </file>
@@ -13241,7 +13241,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7537345</v>
+        <v>7537344</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13250,196 +13250,196 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45591.875</v>
+        <v>45592.5</v>
       </c>
       <c r="F61">
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>123</v>
+      </c>
+      <c r="P61" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q61">
+        <v>7.5</v>
+      </c>
+      <c r="R61">
+        <v>2.3</v>
+      </c>
+      <c r="S61">
+        <v>1.91</v>
+      </c>
+      <c r="T61">
+        <v>1.36</v>
+      </c>
+      <c r="U61">
         <v>3</v>
       </c>
-      <c r="N61">
-        <v>3</v>
-      </c>
-      <c r="O61" t="s">
-        <v>84</v>
-      </c>
-      <c r="P61" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q61">
-        <v>3.4</v>
-      </c>
-      <c r="R61">
-        <v>2.05</v>
-      </c>
-      <c r="S61">
-        <v>3.4</v>
-      </c>
-      <c r="T61">
-        <v>1.44</v>
-      </c>
-      <c r="U61">
-        <v>2.63</v>
-      </c>
       <c r="V61">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W61">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X61">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y61">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z61">
-        <v>3.22</v>
+        <v>7.11</v>
       </c>
       <c r="AA61">
-        <v>3.2</v>
+        <v>4.42</v>
       </c>
       <c r="AB61">
-        <v>2.26</v>
+        <v>1.42</v>
       </c>
       <c r="AC61">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="AD61">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE61">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AF61">
-        <v>3.08</v>
+        <v>3.6</v>
       </c>
       <c r="AG61">
-        <v>2.17</v>
+        <v>1.85</v>
       </c>
       <c r="AH61">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="AI61">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AJ61">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AK61">
-        <v>1.42</v>
+        <v>2.5</v>
       </c>
       <c r="AL61">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AM61">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="AN61">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AO61">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR61">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="AS61">
-        <v>1.06</v>
+        <v>1.62</v>
       </c>
       <c r="AT61">
-        <v>2.37</v>
+        <v>3.31</v>
       </c>
       <c r="AU61">
         <v>4</v>
       </c>
       <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
+      <c r="AX61">
+        <v>12</v>
+      </c>
+      <c r="AY61">
+        <v>10</v>
+      </c>
+      <c r="AZ61">
+        <v>24</v>
+      </c>
+      <c r="BA61">
+        <v>3</v>
+      </c>
+      <c r="BB61">
         <v>8</v>
-      </c>
-      <c r="AW61">
-        <v>7</v>
-      </c>
-      <c r="AX61">
-        <v>7</v>
-      </c>
-      <c r="AY61">
-        <v>12</v>
-      </c>
-      <c r="AZ61">
-        <v>20</v>
-      </c>
-      <c r="BA61">
-        <v>4</v>
-      </c>
-      <c r="BB61">
-        <v>7</v>
       </c>
       <c r="BC61">
         <v>11</v>
       </c>
       <c r="BD61">
-        <v>1.82</v>
+        <v>5.2</v>
       </c>
       <c r="BE61">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BF61">
-        <v>2.35</v>
+        <v>1.26</v>
       </c>
       <c r="BG61">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="BH61">
-        <v>2.63</v>
+        <v>2.52</v>
       </c>
       <c r="BI61">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="BJ61">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="BK61">
-        <v>2.22</v>
+        <v>2.45</v>
       </c>
       <c r="BL61">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="BM61">
-        <v>2.95</v>
+        <v>3.55</v>
       </c>
       <c r="BN61">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="BO61">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BP61">
-        <v>0</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13447,7 +13447,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7537344</v>
+        <v>7537347</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13456,16 +13456,16 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45592.5</v>
+        <v>45592.54166666666</v>
       </c>
       <c r="F62">
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -13480,31 +13480,31 @@
         <v>1</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="Q62">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="R62">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S62">
-        <v>1.91</v>
+        <v>5.5</v>
       </c>
       <c r="T62">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U62">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V62">
         <v>2.75</v>
@@ -13513,139 +13513,139 @@
         <v>1.4</v>
       </c>
       <c r="X62">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y62">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z62">
-        <v>7.11</v>
+        <v>1.73</v>
       </c>
       <c r="AA62">
-        <v>4.42</v>
+        <v>3.63</v>
       </c>
       <c r="AB62">
-        <v>1.42</v>
+        <v>4.61</v>
       </c>
       <c r="AC62">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="AD62">
-        <v>8.300000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="AE62">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF62">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AG62">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AH62">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AI62">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AJ62">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AK62">
-        <v>2.5</v>
+        <v>1.16</v>
       </c>
       <c r="AL62">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AM62">
-        <v>1.08</v>
+        <v>1.96</v>
       </c>
       <c r="AN62">
-        <v>0.33</v>
+        <v>1.75</v>
       </c>
       <c r="AO62">
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AR62">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AS62">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="AT62">
-        <v>3.31</v>
+        <v>3.08</v>
       </c>
       <c r="AU62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV62">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX62">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AY62">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ62">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="BA62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB62">
+        <v>2</v>
+      </c>
+      <c r="BC62">
+        <v>7</v>
+      </c>
+      <c r="BD62">
+        <v>1.3</v>
+      </c>
+      <c r="BE62">
         <v>8</v>
       </c>
-      <c r="BC62">
-        <v>11</v>
-      </c>
-      <c r="BD62">
-        <v>5.2</v>
-      </c>
-      <c r="BE62">
-        <v>7.2</v>
-      </c>
       <c r="BF62">
-        <v>1.26</v>
+        <v>4.3</v>
       </c>
       <c r="BG62">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="BH62">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="BI62">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="BJ62">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="BK62">
-        <v>2.45</v>
+        <v>2.19</v>
       </c>
       <c r="BL62">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="BM62">
-        <v>3.55</v>
+        <v>2.88</v>
       </c>
       <c r="BN62">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="BO62">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="BP62">
-        <v>1.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13653,7 +13653,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7537347</v>
+        <v>7537350</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13662,16 +13662,16 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45592.54166666666</v>
+        <v>45592.66666666666</v>
       </c>
       <c r="F63">
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -13686,85 +13686,85 @@
         <v>1</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O63" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="P63" t="s">
         <v>163</v>
       </c>
       <c r="Q63">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="R63">
+        <v>2.75</v>
+      </c>
+      <c r="S63">
+        <v>8</v>
+      </c>
+      <c r="T63">
+        <v>1.25</v>
+      </c>
+      <c r="U63">
+        <v>3.75</v>
+      </c>
+      <c r="V63">
         <v>2.2</v>
       </c>
-      <c r="S63">
+      <c r="W63">
+        <v>1.62</v>
+      </c>
+      <c r="X63">
+        <v>5</v>
+      </c>
+      <c r="Y63">
+        <v>1.17</v>
+      </c>
+      <c r="Z63">
+        <v>1.27</v>
+      </c>
+      <c r="AA63">
         <v>5.5</v>
       </c>
-      <c r="T63">
-        <v>1.4</v>
-      </c>
-      <c r="U63">
-        <v>2.75</v>
-      </c>
-      <c r="V63">
-        <v>2.75</v>
-      </c>
-      <c r="W63">
-        <v>1.4</v>
-      </c>
-      <c r="X63">
-        <v>8</v>
-      </c>
-      <c r="Y63">
-        <v>1.08</v>
-      </c>
-      <c r="Z63">
-        <v>1.73</v>
-      </c>
-      <c r="AA63">
-        <v>3.63</v>
-      </c>
       <c r="AB63">
-        <v>4.61</v>
+        <v>11</v>
       </c>
       <c r="AC63">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD63">
-        <v>10.9</v>
+        <v>17.5</v>
       </c>
       <c r="AE63">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AF63">
-        <v>3.2</v>
+        <v>4.55</v>
       </c>
       <c r="AG63">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="AH63">
+        <v>2.4</v>
+      </c>
+      <c r="AI63">
+        <v>1.95</v>
+      </c>
+      <c r="AJ63">
         <v>1.8</v>
       </c>
-      <c r="AI63">
-        <v>1.91</v>
-      </c>
-      <c r="AJ63">
-        <v>1.91</v>
-      </c>
       <c r="AK63">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="AL63">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AM63">
-        <v>1.96</v>
+        <v>3.05</v>
       </c>
       <c r="AN63">
         <v>1.75</v>
@@ -13773,85 +13773,85 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AQ63">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AR63">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AS63">
-        <v>1.38</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT63">
-        <v>3.08</v>
+        <v>2.5</v>
       </c>
       <c r="AU63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV63">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW63">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX63">
         <v>5</v>
       </c>
       <c r="AY63">
+        <v>22</v>
+      </c>
+      <c r="AZ63">
         <v>16</v>
-      </c>
-      <c r="AZ63">
-        <v>11</v>
       </c>
       <c r="BA63">
         <v>5</v>
       </c>
       <c r="BB63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC63">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD63">
-        <v>1.3</v>
+        <v>1.02</v>
       </c>
       <c r="BE63">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BF63">
-        <v>4.3</v>
+        <v>12</v>
       </c>
       <c r="BG63">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="BH63">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="BI63">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="BJ63">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="BK63">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="BL63">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="BM63">
-        <v>2.88</v>
+        <v>3.02</v>
       </c>
       <c r="BN63">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BO63">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BP63">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13859,7 +13859,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7537350</v>
+        <v>7537345</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13868,196 +13868,196 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45592.66666666666</v>
+        <v>45592.6875</v>
       </c>
       <c r="F64">
         <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N64">
         <v>3</v>
       </c>
       <c r="O64" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="P64" t="s">
         <v>164</v>
       </c>
       <c r="Q64">
-        <v>1.73</v>
+        <v>3.4</v>
       </c>
       <c r="R64">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="S64">
+        <v>3.4</v>
+      </c>
+      <c r="T64">
+        <v>1.44</v>
+      </c>
+      <c r="U64">
+        <v>2.63</v>
+      </c>
+      <c r="V64">
+        <v>3.25</v>
+      </c>
+      <c r="W64">
+        <v>1.33</v>
+      </c>
+      <c r="X64">
+        <v>10</v>
+      </c>
+      <c r="Y64">
+        <v>1.06</v>
+      </c>
+      <c r="Z64">
+        <v>3.22</v>
+      </c>
+      <c r="AA64">
+        <v>3.2</v>
+      </c>
+      <c r="AB64">
+        <v>2.26</v>
+      </c>
+      <c r="AC64">
+        <v>1.02</v>
+      </c>
+      <c r="AD64">
+        <v>7.3</v>
+      </c>
+      <c r="AE64">
+        <v>1.37</v>
+      </c>
+      <c r="AF64">
+        <v>3.08</v>
+      </c>
+      <c r="AG64">
+        <v>2.17</v>
+      </c>
+      <c r="AH64">
+        <v>1.61</v>
+      </c>
+      <c r="AI64">
+        <v>1.91</v>
+      </c>
+      <c r="AJ64">
+        <v>1.91</v>
+      </c>
+      <c r="AK64">
+        <v>1.42</v>
+      </c>
+      <c r="AL64">
+        <v>1.32</v>
+      </c>
+      <c r="AM64">
+        <v>1.41</v>
+      </c>
+      <c r="AN64">
+        <v>0.67</v>
+      </c>
+      <c r="AO64">
+        <v>1.33</v>
+      </c>
+      <c r="AP64">
+        <v>0.5</v>
+      </c>
+      <c r="AQ64">
+        <v>1.75</v>
+      </c>
+      <c r="AR64">
+        <v>1.31</v>
+      </c>
+      <c r="AS64">
+        <v>1.06</v>
+      </c>
+      <c r="AT64">
+        <v>2.37</v>
+      </c>
+      <c r="AU64">
+        <v>4</v>
+      </c>
+      <c r="AV64">
         <v>8</v>
       </c>
-      <c r="T64">
-        <v>1.25</v>
-      </c>
-      <c r="U64">
-        <v>3.75</v>
-      </c>
-      <c r="V64">
-        <v>2.2</v>
-      </c>
-      <c r="W64">
-        <v>1.62</v>
-      </c>
-      <c r="X64">
-        <v>5</v>
-      </c>
-      <c r="Y64">
-        <v>1.17</v>
-      </c>
-      <c r="Z64">
-        <v>1.27</v>
-      </c>
-      <c r="AA64">
-        <v>5.5</v>
-      </c>
-      <c r="AB64">
+      <c r="AW64">
+        <v>7</v>
+      </c>
+      <c r="AX64">
+        <v>7</v>
+      </c>
+      <c r="AY64">
+        <v>12</v>
+      </c>
+      <c r="AZ64">
+        <v>20</v>
+      </c>
+      <c r="BA64">
+        <v>4</v>
+      </c>
+      <c r="BB64">
+        <v>7</v>
+      </c>
+      <c r="BC64">
         <v>11</v>
       </c>
-      <c r="AC64">
-        <v>1.01</v>
-      </c>
-      <c r="AD64">
-        <v>17.5</v>
-      </c>
-      <c r="AE64">
-        <v>1.11</v>
-      </c>
-      <c r="AF64">
-        <v>4.55</v>
-      </c>
-      <c r="AG64">
-        <v>1.53</v>
-      </c>
-      <c r="AH64">
-        <v>2.4</v>
-      </c>
-      <c r="AI64">
-        <v>1.95</v>
-      </c>
-      <c r="AJ64">
-        <v>1.8</v>
-      </c>
-      <c r="AK64">
-        <v>1.06</v>
-      </c>
-      <c r="AL64">
-        <v>1.12</v>
-      </c>
-      <c r="AM64">
-        <v>3.05</v>
-      </c>
-      <c r="AN64">
-        <v>1.75</v>
-      </c>
-      <c r="AO64">
-        <v>1.75</v>
-      </c>
-      <c r="AP64">
-        <v>1.4</v>
-      </c>
-      <c r="AQ64">
-        <v>2</v>
-      </c>
-      <c r="AR64">
-        <v>1.69</v>
-      </c>
-      <c r="AS64">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AT64">
-        <v>2.5</v>
-      </c>
-      <c r="AU64">
-        <v>7</v>
-      </c>
-      <c r="AV64">
-        <v>7</v>
-      </c>
-      <c r="AW64">
-        <v>9</v>
-      </c>
-      <c r="AX64">
-        <v>5</v>
-      </c>
-      <c r="AY64">
-        <v>22</v>
-      </c>
-      <c r="AZ64">
-        <v>16</v>
-      </c>
-      <c r="BA64">
-        <v>5</v>
-      </c>
-      <c r="BB64">
-        <v>4</v>
-      </c>
-      <c r="BC64">
-        <v>9</v>
-      </c>
       <c r="BD64">
-        <v>1.02</v>
+        <v>1.82</v>
       </c>
       <c r="BE64">
-        <v>14</v>
+        <v>6.6</v>
       </c>
       <c r="BF64">
-        <v>12</v>
+        <v>2.35</v>
       </c>
       <c r="BG64">
         <v>1.43</v>
       </c>
       <c r="BH64">
-        <v>2.54</v>
+        <v>2.63</v>
       </c>
       <c r="BI64">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="BJ64">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="BK64">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="BL64">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="BM64">
-        <v>3.02</v>
+        <v>2.95</v>
       </c>
       <c r="BN64">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="BO64">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="BP64">
-        <v>1.19</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,15 @@
     <t>['33']</t>
   </si>
   <si>
+    <t>['12', '66']</t>
+  </si>
+  <si>
+    <t>['9', '33', '63']</t>
+  </si>
+  <si>
+    <t>['47', '56', '75']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -509,6 +518,21 @@
   </si>
   <si>
     <t>['45', '53', '90+4']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['59', '75']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
   </si>
 </sst>
 </file>
@@ -870,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1129,7 +1153,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1207,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ2">
         <v>1.4</v>
@@ -1335,7 +1359,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1416,7 +1440,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1747,7 +1771,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1953,7 +1977,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2031,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ6">
         <v>1.6</v>
@@ -2240,7 +2264,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2365,7 +2389,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2571,7 +2595,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2777,7 +2801,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2983,7 +3007,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3189,7 +3213,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3267,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ12">
         <v>2.25</v>
@@ -3476,7 +3500,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR13">
         <v>1.83</v>
@@ -3682,7 +3706,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR14">
         <v>1.21</v>
@@ -3807,7 +3831,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3885,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ15">
         <v>0.6</v>
@@ -4013,7 +4037,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4091,7 +4115,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ16">
         <v>1.4</v>
@@ -4219,7 +4243,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4297,7 +4321,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ17">
         <v>1.8</v>
@@ -4506,7 +4530,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4631,7 +4655,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4712,7 +4736,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -4837,7 +4861,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -4915,10 +4939,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -5043,7 +5067,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5121,10 +5145,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ21">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR21">
         <v>1.23</v>
@@ -5249,7 +5273,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5327,10 +5351,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5533,7 +5557,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ23">
         <v>0.6</v>
@@ -5661,7 +5685,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5739,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -5867,7 +5891,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5948,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR25">
         <v>0.98</v>
@@ -6151,10 +6175,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ26">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR26">
         <v>1.48</v>
@@ -6360,7 +6384,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR27">
         <v>1.95</v>
@@ -6485,7 +6509,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6897,7 +6921,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -6975,10 +6999,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ30">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR30">
         <v>0.96</v>
@@ -7181,7 +7205,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ31">
         <v>1.4</v>
@@ -7309,7 +7333,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7515,7 +7539,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7596,7 +7620,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>0.97</v>
@@ -7721,7 +7745,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7802,7 +7826,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ34">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.44</v>
@@ -7927,7 +7951,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8005,7 +8029,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8211,10 +8235,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR36">
         <v>2.14</v>
@@ -8339,7 +8363,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8417,7 +8441,7 @@
         <v>0.67</v>
       </c>
       <c r="AP37">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ37">
         <v>0.6</v>
@@ -8545,7 +8569,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8623,10 +8647,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -8751,7 +8775,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8832,7 +8856,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR39">
         <v>1.2</v>
@@ -9035,7 +9059,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ40">
         <v>1.75</v>
@@ -9450,7 +9474,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR42">
         <v>1.99</v>
@@ -9575,7 +9599,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9653,10 +9677,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ43">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.06</v>
@@ -9781,7 +9805,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -9859,7 +9883,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ44">
         <v>2.25</v>
@@ -10068,7 +10092,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR45">
         <v>1.33</v>
@@ -10271,7 +10295,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10399,7 +10423,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10480,7 +10504,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR47">
         <v>1.06</v>
@@ -10605,7 +10629,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10683,7 +10707,7 @@
         <v>1.67</v>
       </c>
       <c r="AP48">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ48">
         <v>1.8</v>
@@ -10811,7 +10835,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10892,7 +10916,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ49">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR49">
         <v>1.09</v>
@@ -11301,10 +11325,10 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ51">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -11429,7 +11453,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11507,10 +11531,10 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ52">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -11713,7 +11737,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ53">
         <v>1.8</v>
@@ -11841,7 +11865,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -11919,10 +11943,10 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ54">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR54">
         <v>2.03</v>
@@ -12047,7 +12071,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12128,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR55">
         <v>1.16</v>
@@ -12331,7 +12355,7 @@
         <v>0.75</v>
       </c>
       <c r="AP56">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ56">
         <v>0.6</v>
@@ -12459,7 +12483,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12540,7 +12564,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ57">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR57">
         <v>1.84</v>
@@ -12665,7 +12689,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12871,7 +12895,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13158,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR60">
         <v>1.32</v>
@@ -13361,7 +13385,7 @@
         <v>1.75</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ61">
         <v>1.4</v>
@@ -13489,7 +13513,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13695,7 +13719,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -13776,7 +13800,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -13901,7 +13925,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -13979,7 +14003,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ64">
         <v>1.75</v>
@@ -14057,6 +14081,1448 @@
         <v>0</v>
       </c>
       <c r="BP64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7537356</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45598.5</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s">
+        <v>78</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>125</v>
+      </c>
+      <c r="P65" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q65">
+        <v>1.53</v>
+      </c>
+      <c r="R65">
+        <v>2.88</v>
+      </c>
+      <c r="S65">
+        <v>13</v>
+      </c>
+      <c r="T65">
+        <v>1.25</v>
+      </c>
+      <c r="U65">
+        <v>3.75</v>
+      </c>
+      <c r="V65">
+        <v>2.2</v>
+      </c>
+      <c r="W65">
+        <v>1.62</v>
+      </c>
+      <c r="X65">
+        <v>5</v>
+      </c>
+      <c r="Y65">
+        <v>1.17</v>
+      </c>
+      <c r="Z65">
+        <v>1.17</v>
+      </c>
+      <c r="AA65">
+        <v>6.4</v>
+      </c>
+      <c r="AB65">
+        <v>14</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>17</v>
+      </c>
+      <c r="AE65">
+        <v>1.16</v>
+      </c>
+      <c r="AF65">
+        <v>5.4</v>
+      </c>
+      <c r="AG65">
+        <v>1.55</v>
+      </c>
+      <c r="AH65">
+        <v>2.3</v>
+      </c>
+      <c r="AI65">
+        <v>2.38</v>
+      </c>
+      <c r="AJ65">
+        <v>1.53</v>
+      </c>
+      <c r="AK65">
+        <v>1.03</v>
+      </c>
+      <c r="AL65">
+        <v>1.07</v>
+      </c>
+      <c r="AM65">
+        <v>3.8</v>
+      </c>
+      <c r="AN65">
+        <v>2</v>
+      </c>
+      <c r="AO65">
+        <v>1.2</v>
+      </c>
+      <c r="AP65">
+        <v>2.2</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>1.98</v>
+      </c>
+      <c r="AS65">
+        <v>1.43</v>
+      </c>
+      <c r="AT65">
+        <v>3.41</v>
+      </c>
+      <c r="AU65">
+        <v>9</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>8</v>
+      </c>
+      <c r="AX65">
+        <v>2</v>
+      </c>
+      <c r="AY65">
+        <v>20</v>
+      </c>
+      <c r="AZ65">
+        <v>6</v>
+      </c>
+      <c r="BA65">
+        <v>8</v>
+      </c>
+      <c r="BB65">
+        <v>1</v>
+      </c>
+      <c r="BC65">
+        <v>9</v>
+      </c>
+      <c r="BD65">
+        <v>1.14</v>
+      </c>
+      <c r="BE65">
+        <v>9.6</v>
+      </c>
+      <c r="BF65">
+        <v>6.6</v>
+      </c>
+      <c r="BG65">
+        <v>1.48</v>
+      </c>
+      <c r="BH65">
+        <v>2.45</v>
+      </c>
+      <c r="BI65">
+        <v>1.92</v>
+      </c>
+      <c r="BJ65">
+        <v>1.88</v>
+      </c>
+      <c r="BK65">
+        <v>2.55</v>
+      </c>
+      <c r="BL65">
+        <v>1.44</v>
+      </c>
+      <c r="BM65">
+        <v>3.55</v>
+      </c>
+      <c r="BN65">
+        <v>1.24</v>
+      </c>
+      <c r="BO65">
+        <v>4.3</v>
+      </c>
+      <c r="BP65">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7537352</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45598.64583333334</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H66" t="s">
+        <v>76</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>104</v>
+      </c>
+      <c r="P66" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q66">
+        <v>3.2</v>
+      </c>
+      <c r="R66">
+        <v>2.05</v>
+      </c>
+      <c r="S66">
+        <v>3.6</v>
+      </c>
+      <c r="T66">
+        <v>1.5</v>
+      </c>
+      <c r="U66">
+        <v>2.5</v>
+      </c>
+      <c r="V66">
+        <v>3.4</v>
+      </c>
+      <c r="W66">
+        <v>1.3</v>
+      </c>
+      <c r="X66">
+        <v>10</v>
+      </c>
+      <c r="Y66">
+        <v>1.06</v>
+      </c>
+      <c r="Z66">
+        <v>2.59</v>
+      </c>
+      <c r="AA66">
+        <v>2.93</v>
+      </c>
+      <c r="AB66">
+        <v>2.31</v>
+      </c>
+      <c r="AC66">
+        <v>1.02</v>
+      </c>
+      <c r="AD66">
+        <v>7</v>
+      </c>
+      <c r="AE66">
+        <v>1.4</v>
+      </c>
+      <c r="AF66">
+        <v>3</v>
+      </c>
+      <c r="AG66">
+        <v>2.22</v>
+      </c>
+      <c r="AH66">
+        <v>1.56</v>
+      </c>
+      <c r="AI66">
+        <v>1.95</v>
+      </c>
+      <c r="AJ66">
+        <v>1.8</v>
+      </c>
+      <c r="AK66">
+        <v>1.37</v>
+      </c>
+      <c r="AL66">
+        <v>1.31</v>
+      </c>
+      <c r="AM66">
+        <v>1.48</v>
+      </c>
+      <c r="AN66">
+        <v>0.5</v>
+      </c>
+      <c r="AO66">
+        <v>1.75</v>
+      </c>
+      <c r="AP66">
+        <v>0.6</v>
+      </c>
+      <c r="AQ66">
+        <v>1.6</v>
+      </c>
+      <c r="AR66">
+        <v>1.31</v>
+      </c>
+      <c r="AS66">
+        <v>0.84</v>
+      </c>
+      <c r="AT66">
+        <v>2.15</v>
+      </c>
+      <c r="AU66">
+        <v>4</v>
+      </c>
+      <c r="AV66">
+        <v>5</v>
+      </c>
+      <c r="AW66">
+        <v>12</v>
+      </c>
+      <c r="AX66">
+        <v>6</v>
+      </c>
+      <c r="AY66">
+        <v>20</v>
+      </c>
+      <c r="AZ66">
+        <v>13</v>
+      </c>
+      <c r="BA66">
+        <v>6</v>
+      </c>
+      <c r="BB66">
+        <v>5</v>
+      </c>
+      <c r="BC66">
+        <v>11</v>
+      </c>
+      <c r="BD66">
+        <v>2.05</v>
+      </c>
+      <c r="BE66">
+        <v>6.5</v>
+      </c>
+      <c r="BF66">
+        <v>2.05</v>
+      </c>
+      <c r="BG66">
+        <v>1.43</v>
+      </c>
+      <c r="BH66">
+        <v>2.6</v>
+      </c>
+      <c r="BI66">
+        <v>1.78</v>
+      </c>
+      <c r="BJ66">
+        <v>1.9</v>
+      </c>
+      <c r="BK66">
+        <v>2.35</v>
+      </c>
+      <c r="BL66">
+        <v>1.5</v>
+      </c>
+      <c r="BM66">
+        <v>3.3</v>
+      </c>
+      <c r="BN66">
+        <v>1.28</v>
+      </c>
+      <c r="BO66">
+        <v>0</v>
+      </c>
+      <c r="BP66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7537357</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45598.875</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" t="s">
+        <v>71</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67" t="s">
+        <v>124</v>
+      </c>
+      <c r="P67" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q67">
+        <v>7.5</v>
+      </c>
+      <c r="R67">
+        <v>2.4</v>
+      </c>
+      <c r="S67">
+        <v>1.83</v>
+      </c>
+      <c r="T67">
+        <v>1.33</v>
+      </c>
+      <c r="U67">
+        <v>3.25</v>
+      </c>
+      <c r="V67">
+        <v>2.63</v>
+      </c>
+      <c r="W67">
+        <v>1.44</v>
+      </c>
+      <c r="X67">
+        <v>6.5</v>
+      </c>
+      <c r="Y67">
+        <v>1.11</v>
+      </c>
+      <c r="Z67">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AA67">
+        <v>4.9</v>
+      </c>
+      <c r="AB67">
+        <v>1.35</v>
+      </c>
+      <c r="AC67">
+        <v>1.01</v>
+      </c>
+      <c r="AD67">
+        <v>11</v>
+      </c>
+      <c r="AE67">
+        <v>1.24</v>
+      </c>
+      <c r="AF67">
+        <v>4.1</v>
+      </c>
+      <c r="AG67">
+        <v>1.83</v>
+      </c>
+      <c r="AH67">
+        <v>1.87</v>
+      </c>
+      <c r="AI67">
+        <v>2.05</v>
+      </c>
+      <c r="AJ67">
+        <v>1.7</v>
+      </c>
+      <c r="AK67">
+        <v>2.6</v>
+      </c>
+      <c r="AL67">
+        <v>1.15</v>
+      </c>
+      <c r="AM67">
+        <v>1.08</v>
+      </c>
+      <c r="AN67">
+        <v>0.5</v>
+      </c>
+      <c r="AO67">
+        <v>2.5</v>
+      </c>
+      <c r="AP67">
+        <v>0.4</v>
+      </c>
+      <c r="AQ67">
+        <v>2.6</v>
+      </c>
+      <c r="AR67">
+        <v>1.11</v>
+      </c>
+      <c r="AS67">
+        <v>1.21</v>
+      </c>
+      <c r="AT67">
+        <v>2.32</v>
+      </c>
+      <c r="AU67">
+        <v>5</v>
+      </c>
+      <c r="AV67">
+        <v>7</v>
+      </c>
+      <c r="AW67">
+        <v>3</v>
+      </c>
+      <c r="AX67">
+        <v>7</v>
+      </c>
+      <c r="AY67">
+        <v>9</v>
+      </c>
+      <c r="AZ67">
+        <v>17</v>
+      </c>
+      <c r="BA67">
+        <v>1</v>
+      </c>
+      <c r="BB67">
+        <v>9</v>
+      </c>
+      <c r="BC67">
+        <v>10</v>
+      </c>
+      <c r="BD67">
+        <v>6.9</v>
+      </c>
+      <c r="BE67">
+        <v>10</v>
+      </c>
+      <c r="BF67">
+        <v>1.13</v>
+      </c>
+      <c r="BG67">
+        <v>1.45</v>
+      </c>
+      <c r="BH67">
+        <v>2.52</v>
+      </c>
+      <c r="BI67">
+        <v>1.92</v>
+      </c>
+      <c r="BJ67">
+        <v>1.88</v>
+      </c>
+      <c r="BK67">
+        <v>2.42</v>
+      </c>
+      <c r="BL67">
+        <v>1.48</v>
+      </c>
+      <c r="BM67">
+        <v>3.4</v>
+      </c>
+      <c r="BN67">
+        <v>1.26</v>
+      </c>
+      <c r="BO67">
+        <v>4.4</v>
+      </c>
+      <c r="BP67">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7537355</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45598.875</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>70</v>
+      </c>
+      <c r="H68" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>84</v>
+      </c>
+      <c r="P68" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q68">
+        <v>6.5</v>
+      </c>
+      <c r="R68">
+        <v>2.2</v>
+      </c>
+      <c r="S68">
+        <v>2.1</v>
+      </c>
+      <c r="T68">
+        <v>1.4</v>
+      </c>
+      <c r="U68">
+        <v>2.75</v>
+      </c>
+      <c r="V68">
+        <v>3</v>
+      </c>
+      <c r="W68">
+        <v>1.36</v>
+      </c>
+      <c r="X68">
+        <v>8</v>
+      </c>
+      <c r="Y68">
+        <v>1.08</v>
+      </c>
+      <c r="Z68">
+        <v>6.8</v>
+      </c>
+      <c r="AA68">
+        <v>4.45</v>
+      </c>
+      <c r="AB68">
+        <v>1.47</v>
+      </c>
+      <c r="AC68">
+        <v>1</v>
+      </c>
+      <c r="AD68">
+        <v>8.1</v>
+      </c>
+      <c r="AE68">
+        <v>1.33</v>
+      </c>
+      <c r="AF68">
+        <v>3.35</v>
+      </c>
+      <c r="AG68">
+        <v>1.76</v>
+      </c>
+      <c r="AH68">
+        <v>1.95</v>
+      </c>
+      <c r="AI68">
+        <v>2.05</v>
+      </c>
+      <c r="AJ68">
+        <v>1.7</v>
+      </c>
+      <c r="AK68">
+        <v>2.22</v>
+      </c>
+      <c r="AL68">
+        <v>1.21</v>
+      </c>
+      <c r="AM68">
+        <v>1.12</v>
+      </c>
+      <c r="AN68">
+        <v>0.2</v>
+      </c>
+      <c r="AO68">
+        <v>1.25</v>
+      </c>
+      <c r="AP68">
+        <v>0.17</v>
+      </c>
+      <c r="AQ68">
+        <v>1.6</v>
+      </c>
+      <c r="AR68">
+        <v>1.45</v>
+      </c>
+      <c r="AS68">
+        <v>1.19</v>
+      </c>
+      <c r="AT68">
+        <v>2.64</v>
+      </c>
+      <c r="AU68">
+        <v>3</v>
+      </c>
+      <c r="AV68">
+        <v>6</v>
+      </c>
+      <c r="AW68">
+        <v>7</v>
+      </c>
+      <c r="AX68">
+        <v>9</v>
+      </c>
+      <c r="AY68">
+        <v>10</v>
+      </c>
+      <c r="AZ68">
+        <v>24</v>
+      </c>
+      <c r="BA68">
+        <v>2</v>
+      </c>
+      <c r="BB68">
+        <v>6</v>
+      </c>
+      <c r="BC68">
+        <v>8</v>
+      </c>
+      <c r="BD68">
+        <v>4.2</v>
+      </c>
+      <c r="BE68">
+        <v>6.5</v>
+      </c>
+      <c r="BF68">
+        <v>1.35</v>
+      </c>
+      <c r="BG68">
+        <v>1.45</v>
+      </c>
+      <c r="BH68">
+        <v>2.52</v>
+      </c>
+      <c r="BI68">
+        <v>1.9</v>
+      </c>
+      <c r="BJ68">
+        <v>1.9</v>
+      </c>
+      <c r="BK68">
+        <v>2.42</v>
+      </c>
+      <c r="BL68">
+        <v>1.48</v>
+      </c>
+      <c r="BM68">
+        <v>3.4</v>
+      </c>
+      <c r="BN68">
+        <v>1.26</v>
+      </c>
+      <c r="BO68">
+        <v>4.4</v>
+      </c>
+      <c r="BP68">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7537353</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45598.875</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>4</v>
+      </c>
+      <c r="O69" t="s">
+        <v>126</v>
+      </c>
+      <c r="P69" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q69">
+        <v>2.1</v>
+      </c>
+      <c r="R69">
+        <v>2.2</v>
+      </c>
+      <c r="S69">
+        <v>6.5</v>
+      </c>
+      <c r="T69">
+        <v>1.44</v>
+      </c>
+      <c r="U69">
+        <v>2.63</v>
+      </c>
+      <c r="V69">
+        <v>3.25</v>
+      </c>
+      <c r="W69">
+        <v>1.33</v>
+      </c>
+      <c r="X69">
+        <v>9</v>
+      </c>
+      <c r="Y69">
+        <v>1.07</v>
+      </c>
+      <c r="Z69">
+        <v>1.49</v>
+      </c>
+      <c r="AA69">
+        <v>4.1</v>
+      </c>
+      <c r="AB69">
+        <v>6.75</v>
+      </c>
+      <c r="AC69">
+        <v>1.01</v>
+      </c>
+      <c r="AD69">
+        <v>7.6</v>
+      </c>
+      <c r="AE69">
+        <v>1.37</v>
+      </c>
+      <c r="AF69">
+        <v>3.1</v>
+      </c>
+      <c r="AG69">
+        <v>2</v>
+      </c>
+      <c r="AH69">
+        <v>1.71</v>
+      </c>
+      <c r="AI69">
+        <v>2.2</v>
+      </c>
+      <c r="AJ69">
+        <v>1.62</v>
+      </c>
+      <c r="AK69">
+        <v>1.12</v>
+      </c>
+      <c r="AL69">
+        <v>1.21</v>
+      </c>
+      <c r="AM69">
+        <v>2.2</v>
+      </c>
+      <c r="AN69">
+        <v>2.5</v>
+      </c>
+      <c r="AO69">
+        <v>0.75</v>
+      </c>
+      <c r="AP69">
+        <v>2.6</v>
+      </c>
+      <c r="AQ69">
+        <v>0.6</v>
+      </c>
+      <c r="AR69">
+        <v>1.46</v>
+      </c>
+      <c r="AS69">
+        <v>0.87</v>
+      </c>
+      <c r="AT69">
+        <v>2.33</v>
+      </c>
+      <c r="AU69">
+        <v>8</v>
+      </c>
+      <c r="AV69">
+        <v>6</v>
+      </c>
+      <c r="AW69">
+        <v>6</v>
+      </c>
+      <c r="AX69">
+        <v>4</v>
+      </c>
+      <c r="AY69">
+        <v>15</v>
+      </c>
+      <c r="AZ69">
+        <v>13</v>
+      </c>
+      <c r="BA69">
+        <v>0</v>
+      </c>
+      <c r="BB69">
+        <v>5</v>
+      </c>
+      <c r="BC69">
+        <v>5</v>
+      </c>
+      <c r="BD69">
+        <v>1.07</v>
+      </c>
+      <c r="BE69">
+        <v>11</v>
+      </c>
+      <c r="BF69">
+        <v>9</v>
+      </c>
+      <c r="BG69">
+        <v>1.48</v>
+      </c>
+      <c r="BH69">
+        <v>2.45</v>
+      </c>
+      <c r="BI69">
+        <v>1.9</v>
+      </c>
+      <c r="BJ69">
+        <v>1.9</v>
+      </c>
+      <c r="BK69">
+        <v>2.52</v>
+      </c>
+      <c r="BL69">
+        <v>1.45</v>
+      </c>
+      <c r="BM69">
+        <v>3.55</v>
+      </c>
+      <c r="BN69">
+        <v>1.24</v>
+      </c>
+      <c r="BO69">
+        <v>4.7</v>
+      </c>
+      <c r="BP69">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7537354</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45598.875</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s">
+        <v>75</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P70" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q70">
+        <v>6</v>
+      </c>
+      <c r="R70">
+        <v>2.3</v>
+      </c>
+      <c r="S70">
+        <v>2.1</v>
+      </c>
+      <c r="T70">
+        <v>1.36</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>2.63</v>
+      </c>
+      <c r="W70">
+        <v>1.44</v>
+      </c>
+      <c r="X70">
+        <v>7</v>
+      </c>
+      <c r="Y70">
+        <v>1.1</v>
+      </c>
+      <c r="Z70">
+        <v>6</v>
+      </c>
+      <c r="AA70">
+        <v>4.15</v>
+      </c>
+      <c r="AB70">
+        <v>1.55</v>
+      </c>
+      <c r="AC70">
+        <v>1.01</v>
+      </c>
+      <c r="AD70">
+        <v>11</v>
+      </c>
+      <c r="AE70">
+        <v>1.27</v>
+      </c>
+      <c r="AF70">
+        <v>3.8</v>
+      </c>
+      <c r="AG70">
+        <v>1.84</v>
+      </c>
+      <c r="AH70">
+        <v>1.86</v>
+      </c>
+      <c r="AI70">
+        <v>1.91</v>
+      </c>
+      <c r="AJ70">
+        <v>1.91</v>
+      </c>
+      <c r="AK70">
+        <v>2.16</v>
+      </c>
+      <c r="AL70">
+        <v>1.21</v>
+      </c>
+      <c r="AM70">
+        <v>1.14</v>
+      </c>
+      <c r="AN70">
+        <v>0.8</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AP70">
+        <v>0.67</v>
+      </c>
+      <c r="AQ70">
+        <v>1.4</v>
+      </c>
+      <c r="AR70">
+        <v>1.44</v>
+      </c>
+      <c r="AS70">
+        <v>1.98</v>
+      </c>
+      <c r="AT70">
+        <v>3.42</v>
+      </c>
+      <c r="AU70">
+        <v>3</v>
+      </c>
+      <c r="AV70">
+        <v>4</v>
+      </c>
+      <c r="AW70">
+        <v>3</v>
+      </c>
+      <c r="AX70">
+        <v>3</v>
+      </c>
+      <c r="AY70">
+        <v>6</v>
+      </c>
+      <c r="AZ70">
+        <v>8</v>
+      </c>
+      <c r="BA70">
+        <v>5</v>
+      </c>
+      <c r="BB70">
+        <v>2</v>
+      </c>
+      <c r="BC70">
+        <v>7</v>
+      </c>
+      <c r="BD70">
+        <v>4.95</v>
+      </c>
+      <c r="BE70">
+        <v>8.5</v>
+      </c>
+      <c r="BF70">
+        <v>1.24</v>
+      </c>
+      <c r="BG70">
+        <v>1.4</v>
+      </c>
+      <c r="BH70">
+        <v>2.7</v>
+      </c>
+      <c r="BI70">
+        <v>1.72</v>
+      </c>
+      <c r="BJ70">
+        <v>1.95</v>
+      </c>
+      <c r="BK70">
+        <v>2.28</v>
+      </c>
+      <c r="BL70">
+        <v>1.52</v>
+      </c>
+      <c r="BM70">
+        <v>3.15</v>
+      </c>
+      <c r="BN70">
+        <v>1.3</v>
+      </c>
+      <c r="BO70">
+        <v>4.1</v>
+      </c>
+      <c r="BP70">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7537351</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45600.52083333334</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>127</v>
+      </c>
+      <c r="P71" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q71">
+        <v>2.75</v>
+      </c>
+      <c r="R71">
+        <v>2.1</v>
+      </c>
+      <c r="S71">
+        <v>4</v>
+      </c>
+      <c r="T71">
+        <v>1.44</v>
+      </c>
+      <c r="U71">
+        <v>2.63</v>
+      </c>
+      <c r="V71">
+        <v>3.25</v>
+      </c>
+      <c r="W71">
+        <v>1.33</v>
+      </c>
+      <c r="X71">
+        <v>9</v>
+      </c>
+      <c r="Y71">
+        <v>1.07</v>
+      </c>
+      <c r="Z71">
+        <v>2.11</v>
+      </c>
+      <c r="AA71">
+        <v>3.23</v>
+      </c>
+      <c r="AB71">
+        <v>3.53</v>
+      </c>
+      <c r="AC71">
+        <v>1.01</v>
+      </c>
+      <c r="AD71">
+        <v>7.7</v>
+      </c>
+      <c r="AE71">
+        <v>1.35</v>
+      </c>
+      <c r="AF71">
+        <v>3.25</v>
+      </c>
+      <c r="AG71">
+        <v>1.95</v>
+      </c>
+      <c r="AH71">
+        <v>1.7</v>
+      </c>
+      <c r="AI71">
+        <v>1.91</v>
+      </c>
+      <c r="AJ71">
+        <v>1.91</v>
+      </c>
+      <c r="AK71">
+        <v>1.28</v>
+      </c>
+      <c r="AL71">
+        <v>1.29</v>
+      </c>
+      <c r="AM71">
+        <v>1.63</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>2</v>
+      </c>
+      <c r="AP71">
+        <v>1.4</v>
+      </c>
+      <c r="AQ71">
+        <v>1.67</v>
+      </c>
+      <c r="AR71">
+        <v>1.51</v>
+      </c>
+      <c r="AS71">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT71">
+        <v>2.45</v>
+      </c>
+      <c r="AU71">
+        <v>8</v>
+      </c>
+      <c r="AV71">
+        <v>5</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>7</v>
+      </c>
+      <c r="AY71">
+        <v>15</v>
+      </c>
+      <c r="AZ71">
+        <v>18</v>
+      </c>
+      <c r="BA71">
+        <v>6</v>
+      </c>
+      <c r="BB71">
+        <v>5</v>
+      </c>
+      <c r="BC71">
+        <v>11</v>
+      </c>
+      <c r="BD71">
+        <v>1.5</v>
+      </c>
+      <c r="BE71">
+        <v>6.9</v>
+      </c>
+      <c r="BF71">
+        <v>3.15</v>
+      </c>
+      <c r="BG71">
+        <v>1.46</v>
+      </c>
+      <c r="BH71">
+        <v>2.45</v>
+      </c>
+      <c r="BI71">
+        <v>1.87</v>
+      </c>
+      <c r="BJ71">
+        <v>1.87</v>
+      </c>
+      <c r="BK71">
+        <v>2.4</v>
+      </c>
+      <c r="BL71">
+        <v>1.48</v>
+      </c>
+      <c r="BM71">
+        <v>3.22</v>
+      </c>
+      <c r="BN71">
+        <v>1.24</v>
+      </c>
+      <c r="BO71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -523,16 +523,16 @@
     <t>['19']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['59', '75']</t>
-  </si>
-  <si>
-    <t>['14']</t>
-  </si>
-  <si>
-    <t>['30']</t>
-  </si>
-  <si>
-    <t>['45+1']</t>
   </si>
 </sst>
 </file>
@@ -14501,7 +14501,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7537357</v>
+        <v>7537353</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14510,196 +14510,196 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45598.875</v>
+        <v>45599.47916666666</v>
       </c>
       <c r="F67">
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O67" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P67" t="s">
         <v>169</v>
       </c>
       <c r="Q67">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="R67">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S67">
-        <v>1.83</v>
+        <v>6.5</v>
       </c>
       <c r="T67">
+        <v>1.44</v>
+      </c>
+      <c r="U67">
+        <v>2.63</v>
+      </c>
+      <c r="V67">
+        <v>3.25</v>
+      </c>
+      <c r="W67">
         <v>1.33</v>
       </c>
-      <c r="U67">
-        <v>3.25</v>
-      </c>
-      <c r="V67">
-        <v>2.63</v>
-      </c>
-      <c r="W67">
-        <v>1.44</v>
-      </c>
       <c r="X67">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y67">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z67">
-        <v>9.300000000000001</v>
+        <v>1.49</v>
       </c>
       <c r="AA67">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="AB67">
-        <v>1.35</v>
+        <v>6.75</v>
       </c>
       <c r="AC67">
         <v>1.01</v>
       </c>
       <c r="AD67">
+        <v>7.6</v>
+      </c>
+      <c r="AE67">
+        <v>1.37</v>
+      </c>
+      <c r="AF67">
+        <v>3.1</v>
+      </c>
+      <c r="AG67">
+        <v>2</v>
+      </c>
+      <c r="AH67">
+        <v>1.71</v>
+      </c>
+      <c r="AI67">
+        <v>2.2</v>
+      </c>
+      <c r="AJ67">
+        <v>1.62</v>
+      </c>
+      <c r="AK67">
+        <v>1.12</v>
+      </c>
+      <c r="AL67">
+        <v>1.21</v>
+      </c>
+      <c r="AM67">
+        <v>2.2</v>
+      </c>
+      <c r="AN67">
+        <v>2.5</v>
+      </c>
+      <c r="AO67">
+        <v>0.75</v>
+      </c>
+      <c r="AP67">
+        <v>2.6</v>
+      </c>
+      <c r="AQ67">
+        <v>0.6</v>
+      </c>
+      <c r="AR67">
+        <v>1.46</v>
+      </c>
+      <c r="AS67">
+        <v>0.87</v>
+      </c>
+      <c r="AT67">
+        <v>2.33</v>
+      </c>
+      <c r="AU67">
+        <v>8</v>
+      </c>
+      <c r="AV67">
+        <v>6</v>
+      </c>
+      <c r="AW67">
+        <v>6</v>
+      </c>
+      <c r="AX67">
+        <v>4</v>
+      </c>
+      <c r="AY67">
+        <v>15</v>
+      </c>
+      <c r="AZ67">
+        <v>13</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>5</v>
+      </c>
+      <c r="BC67">
+        <v>5</v>
+      </c>
+      <c r="BD67">
+        <v>1.07</v>
+      </c>
+      <c r="BE67">
         <v>11</v>
       </c>
-      <c r="AE67">
+      <c r="BF67">
+        <v>9</v>
+      </c>
+      <c r="BG67">
+        <v>1.48</v>
+      </c>
+      <c r="BH67">
+        <v>2.45</v>
+      </c>
+      <c r="BI67">
+        <v>1.9</v>
+      </c>
+      <c r="BJ67">
+        <v>1.9</v>
+      </c>
+      <c r="BK67">
+        <v>2.52</v>
+      </c>
+      <c r="BL67">
+        <v>1.45</v>
+      </c>
+      <c r="BM67">
+        <v>3.55</v>
+      </c>
+      <c r="BN67">
         <v>1.24</v>
       </c>
-      <c r="AF67">
-        <v>4.1</v>
-      </c>
-      <c r="AG67">
-        <v>1.83</v>
-      </c>
-      <c r="AH67">
-        <v>1.87</v>
-      </c>
-      <c r="AI67">
-        <v>2.05</v>
-      </c>
-      <c r="AJ67">
-        <v>1.7</v>
-      </c>
-      <c r="AK67">
-        <v>2.6</v>
-      </c>
-      <c r="AL67">
+      <c r="BO67">
+        <v>4.7</v>
+      </c>
+      <c r="BP67">
         <v>1.15</v>
-      </c>
-      <c r="AM67">
-        <v>1.08</v>
-      </c>
-      <c r="AN67">
-        <v>0.5</v>
-      </c>
-      <c r="AO67">
-        <v>2.5</v>
-      </c>
-      <c r="AP67">
-        <v>0.4</v>
-      </c>
-      <c r="AQ67">
-        <v>2.6</v>
-      </c>
-      <c r="AR67">
-        <v>1.11</v>
-      </c>
-      <c r="AS67">
-        <v>1.21</v>
-      </c>
-      <c r="AT67">
-        <v>2.32</v>
-      </c>
-      <c r="AU67">
-        <v>5</v>
-      </c>
-      <c r="AV67">
-        <v>7</v>
-      </c>
-      <c r="AW67">
-        <v>3</v>
-      </c>
-      <c r="AX67">
-        <v>7</v>
-      </c>
-      <c r="AY67">
-        <v>9</v>
-      </c>
-      <c r="AZ67">
-        <v>17</v>
-      </c>
-      <c r="BA67">
-        <v>1</v>
-      </c>
-      <c r="BB67">
-        <v>9</v>
-      </c>
-      <c r="BC67">
-        <v>10</v>
-      </c>
-      <c r="BD67">
-        <v>6.9</v>
-      </c>
-      <c r="BE67">
-        <v>10</v>
-      </c>
-      <c r="BF67">
-        <v>1.13</v>
-      </c>
-      <c r="BG67">
-        <v>1.45</v>
-      </c>
-      <c r="BH67">
-        <v>2.52</v>
-      </c>
-      <c r="BI67">
-        <v>1.92</v>
-      </c>
-      <c r="BJ67">
-        <v>1.88</v>
-      </c>
-      <c r="BK67">
-        <v>2.42</v>
-      </c>
-      <c r="BL67">
-        <v>1.48</v>
-      </c>
-      <c r="BM67">
-        <v>3.4</v>
-      </c>
-      <c r="BN67">
-        <v>1.26</v>
-      </c>
-      <c r="BO67">
-        <v>4.4</v>
-      </c>
-      <c r="BP67">
-        <v>1.17</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14716,7 +14716,7 @@
         <v>69</v>
       </c>
       <c r="E68" s="2">
-        <v>45598.875</v>
+        <v>45599.5</v>
       </c>
       <c r="F68">
         <v>10</v>
@@ -14913,7 +14913,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7537353</v>
+        <v>7537354</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -14922,196 +14922,196 @@
         <v>69</v>
       </c>
       <c r="E69" s="2">
-        <v>45598.875</v>
+        <v>45599.64583333334</v>
       </c>
       <c r="F69">
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O69" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="P69" t="s">
         <v>171</v>
       </c>
       <c r="Q69">
+        <v>6</v>
+      </c>
+      <c r="R69">
+        <v>2.3</v>
+      </c>
+      <c r="S69">
         <v>2.1</v>
       </c>
-      <c r="R69">
-        <v>2.2</v>
-      </c>
-      <c r="S69">
-        <v>6.5</v>
-      </c>
       <c r="T69">
+        <v>1.36</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>2.63</v>
+      </c>
+      <c r="W69">
         <v>1.44</v>
       </c>
-      <c r="U69">
-        <v>2.63</v>
-      </c>
-      <c r="V69">
-        <v>3.25</v>
-      </c>
-      <c r="W69">
-        <v>1.33</v>
-      </c>
       <c r="X69">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y69">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z69">
-        <v>1.49</v>
+        <v>6</v>
       </c>
       <c r="AA69">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AB69">
-        <v>6.75</v>
+        <v>1.55</v>
       </c>
       <c r="AC69">
         <v>1.01</v>
       </c>
       <c r="AD69">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AE69">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AF69">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="AG69">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="AH69">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AI69">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AJ69">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="AK69">
-        <v>1.12</v>
+        <v>2.16</v>
       </c>
       <c r="AL69">
         <v>1.21</v>
       </c>
       <c r="AM69">
-        <v>2.2</v>
+        <v>1.14</v>
       </c>
       <c r="AN69">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO69">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ69">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AR69">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AS69">
-        <v>0.87</v>
+        <v>1.98</v>
       </c>
       <c r="AT69">
-        <v>2.33</v>
+        <v>3.42</v>
       </c>
       <c r="AU69">
+        <v>3</v>
+      </c>
+      <c r="AV69">
+        <v>4</v>
+      </c>
+      <c r="AW69">
+        <v>3</v>
+      </c>
+      <c r="AX69">
+        <v>3</v>
+      </c>
+      <c r="AY69">
+        <v>6</v>
+      </c>
+      <c r="AZ69">
         <v>8</v>
       </c>
-      <c r="AV69">
-        <v>6</v>
-      </c>
-      <c r="AW69">
-        <v>6</v>
-      </c>
-      <c r="AX69">
-        <v>4</v>
-      </c>
-      <c r="AY69">
-        <v>15</v>
-      </c>
-      <c r="AZ69">
-        <v>13</v>
-      </c>
       <c r="BA69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD69">
-        <v>1.07</v>
+        <v>4.95</v>
       </c>
       <c r="BE69">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="BF69">
-        <v>9</v>
+        <v>1.24</v>
       </c>
       <c r="BG69">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BH69">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="BI69">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="BJ69">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BK69">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="BL69">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="BM69">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="BN69">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="BO69">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="BP69">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15119,7 +15119,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7537354</v>
+        <v>7537357</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15128,55 +15128,55 @@
         <v>69</v>
       </c>
       <c r="E70" s="2">
-        <v>45598.875</v>
+        <v>45599.64583333334</v>
       </c>
       <c r="F70">
         <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O70" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="P70" t="s">
         <v>172</v>
       </c>
       <c r="Q70">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="R70">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S70">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="T70">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V70">
         <v>2.63</v>
@@ -15185,19 +15185,19 @@
         <v>1.44</v>
       </c>
       <c r="X70">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y70">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z70">
-        <v>6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AA70">
-        <v>4.15</v>
+        <v>4.9</v>
       </c>
       <c r="AB70">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="AC70">
         <v>1.01</v>
@@ -15206,118 +15206,118 @@
         <v>11</v>
       </c>
       <c r="AE70">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AF70">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AG70">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AH70">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AI70">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AJ70">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AK70">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="AL70">
+        <v>1.15</v>
+      </c>
+      <c r="AM70">
+        <v>1.08</v>
+      </c>
+      <c r="AN70">
+        <v>0.5</v>
+      </c>
+      <c r="AO70">
+        <v>2.5</v>
+      </c>
+      <c r="AP70">
+        <v>0.4</v>
+      </c>
+      <c r="AQ70">
+        <v>2.6</v>
+      </c>
+      <c r="AR70">
+        <v>1.11</v>
+      </c>
+      <c r="AS70">
         <v>1.21</v>
       </c>
-      <c r="AM70">
-        <v>1.14</v>
-      </c>
-      <c r="AN70">
-        <v>0.8</v>
-      </c>
-      <c r="AO70">
-        <v>1</v>
-      </c>
-      <c r="AP70">
-        <v>0.67</v>
-      </c>
-      <c r="AQ70">
-        <v>1.4</v>
-      </c>
-      <c r="AR70">
-        <v>1.44</v>
-      </c>
-      <c r="AS70">
-        <v>1.98</v>
-      </c>
       <c r="AT70">
-        <v>3.42</v>
+        <v>2.32</v>
       </c>
       <c r="AU70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV70">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW70">
         <v>3</v>
       </c>
       <c r="AX70">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY70">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ70">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BA70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB70">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BC70">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD70">
-        <v>4.95</v>
+        <v>6.9</v>
       </c>
       <c r="BE70">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BF70">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="BG70">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="BH70">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="BI70">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="BJ70">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="BK70">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="BL70">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BM70">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BN70">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BO70">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BP70">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15337,7 +15337,7 @@
         <v>45600.52083333334</v>
       </c>
       <c r="F71">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s">
         <v>79</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,15 @@
     <t>['47', '56', '75']</t>
   </si>
   <si>
+    <t>['17', '90+10']</t>
+  </si>
+  <si>
+    <t>['19', '64']</t>
+  </si>
+  <si>
+    <t>['9', '31', '58']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -533,6 +542,9 @@
   </si>
   <si>
     <t>['59', '75']</t>
+  </si>
+  <si>
+    <t>['8', '13', '25']</t>
   </si>
 </sst>
 </file>
@@ -894,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1153,7 +1165,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1359,7 +1371,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1771,7 +1783,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1852,7 +1864,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ5">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1977,7 +1989,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2058,7 +2070,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ6">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2261,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ7">
         <v>1.67</v>
@@ -2389,7 +2401,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2467,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2595,7 +2607,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2676,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2801,7 +2813,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -2879,10 +2891,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ10">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3007,7 +3019,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3085,7 +3097,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3213,7 +3225,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3831,7 +3843,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -4037,7 +4049,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4243,7 +4255,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4324,7 +4336,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ17">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4527,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4655,7 +4667,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4861,7 +4873,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5067,7 +5079,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5273,7 +5285,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5685,7 +5697,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5766,7 +5778,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>2.26</v>
@@ -5891,7 +5903,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5969,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ25">
         <v>0.6</v>
@@ -6509,7 +6521,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6590,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>1</v>
@@ -6793,7 +6805,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>2.25</v>
@@ -6921,7 +6933,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7333,7 +7345,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7411,10 +7423,10 @@
         <v>2</v>
       </c>
       <c r="AP32">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ32">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7539,7 +7551,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7745,7 +7757,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7951,7 +7963,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8363,7 +8375,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8569,7 +8581,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8775,7 +8787,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9062,7 +9074,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>2.09</v>
@@ -9268,7 +9280,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ41">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>1.71</v>
@@ -9471,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ42">
         <v>1.6</v>
@@ -9599,7 +9611,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9805,7 +9817,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -10089,7 +10101,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
         <v>1.4</v>
@@ -10423,7 +10435,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10501,7 +10513,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ47">
         <v>1.67</v>
@@ -10629,7 +10641,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10710,7 +10722,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ48">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>1.58</v>
@@ -10835,7 +10847,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -11453,7 +11465,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11740,7 +11752,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ53">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>1.1</v>
@@ -11865,7 +11877,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12071,7 +12083,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12483,7 +12495,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12561,7 +12573,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ57">
         <v>2.6</v>
@@ -12689,7 +12701,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12767,7 +12779,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58">
         <v>2.25</v>
@@ -12895,7 +12907,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13179,7 +13191,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ60">
         <v>1.4</v>
@@ -13513,7 +13525,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13594,7 +13606,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.7</v>
@@ -13719,7 +13731,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -13925,7 +13937,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14006,7 +14018,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ64">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR64">
         <v>1.31</v>
@@ -14337,7 +14349,7 @@
         <v>104</v>
       </c>
       <c r="P66" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14543,7 +14555,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14749,7 +14761,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -14955,7 +14967,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15161,7 +15173,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15524,6 +15536,624 @@
       </c>
       <c r="BP71">
         <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7537362</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s">
+        <v>82</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>128</v>
+      </c>
+      <c r="P72" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q72">
+        <v>4.75</v>
+      </c>
+      <c r="R72">
+        <v>2.05</v>
+      </c>
+      <c r="S72">
+        <v>2.63</v>
+      </c>
+      <c r="T72">
+        <v>1.5</v>
+      </c>
+      <c r="U72">
+        <v>2.5</v>
+      </c>
+      <c r="V72">
+        <v>3.4</v>
+      </c>
+      <c r="W72">
+        <v>1.3</v>
+      </c>
+      <c r="X72">
+        <v>10</v>
+      </c>
+      <c r="Y72">
+        <v>1.06</v>
+      </c>
+      <c r="Z72">
+        <v>4.33</v>
+      </c>
+      <c r="AA72">
+        <v>3.25</v>
+      </c>
+      <c r="AB72">
+        <v>1.9</v>
+      </c>
+      <c r="AC72">
+        <v>1.03</v>
+      </c>
+      <c r="AD72">
+        <v>6.75</v>
+      </c>
+      <c r="AE72">
+        <v>1.42</v>
+      </c>
+      <c r="AF72">
+        <v>2.9</v>
+      </c>
+      <c r="AG72">
+        <v>2.19</v>
+      </c>
+      <c r="AH72">
+        <v>1.6</v>
+      </c>
+      <c r="AI72">
+        <v>2</v>
+      </c>
+      <c r="AJ72">
+        <v>1.75</v>
+      </c>
+      <c r="AK72">
+        <v>1.73</v>
+      </c>
+      <c r="AL72">
+        <v>1.3</v>
+      </c>
+      <c r="AM72">
+        <v>1.21</v>
+      </c>
+      <c r="AN72">
+        <v>1.4</v>
+      </c>
+      <c r="AO72">
+        <v>1.6</v>
+      </c>
+      <c r="AP72">
+        <v>1.67</v>
+      </c>
+      <c r="AQ72">
+        <v>1.33</v>
+      </c>
+      <c r="AR72">
+        <v>1.28</v>
+      </c>
+      <c r="AS72">
+        <v>1.26</v>
+      </c>
+      <c r="AT72">
+        <v>2.54</v>
+      </c>
+      <c r="AU72">
+        <v>5</v>
+      </c>
+      <c r="AV72">
+        <v>4</v>
+      </c>
+      <c r="AW72">
+        <v>5</v>
+      </c>
+      <c r="AX72">
+        <v>4</v>
+      </c>
+      <c r="AY72">
+        <v>11</v>
+      </c>
+      <c r="AZ72">
+        <v>10</v>
+      </c>
+      <c r="BA72">
+        <v>7</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>11</v>
+      </c>
+      <c r="BD72">
+        <v>3.6</v>
+      </c>
+      <c r="BE72">
+        <v>7.3</v>
+      </c>
+      <c r="BF72">
+        <v>1.4</v>
+      </c>
+      <c r="BG72">
+        <v>1.44</v>
+      </c>
+      <c r="BH72">
+        <v>2.55</v>
+      </c>
+      <c r="BI72">
+        <v>1.9</v>
+      </c>
+      <c r="BJ72">
+        <v>1.9</v>
+      </c>
+      <c r="BK72">
+        <v>2.45</v>
+      </c>
+      <c r="BL72">
+        <v>1.47</v>
+      </c>
+      <c r="BM72">
+        <v>3.55</v>
+      </c>
+      <c r="BN72">
+        <v>1.24</v>
+      </c>
+      <c r="BO72">
+        <v>3.9</v>
+      </c>
+      <c r="BP72">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7537363</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45605.57291666666</v>
+      </c>
+      <c r="F73">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>5</v>
+      </c>
+      <c r="O73" t="s">
+        <v>129</v>
+      </c>
+      <c r="P73" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q73">
+        <v>3.5</v>
+      </c>
+      <c r="R73">
+        <v>2.1</v>
+      </c>
+      <c r="S73">
+        <v>3.2</v>
+      </c>
+      <c r="T73">
+        <v>1.44</v>
+      </c>
+      <c r="U73">
+        <v>2.63</v>
+      </c>
+      <c r="V73">
+        <v>3.25</v>
+      </c>
+      <c r="W73">
+        <v>1.33</v>
+      </c>
+      <c r="X73">
+        <v>9</v>
+      </c>
+      <c r="Y73">
+        <v>1.07</v>
+      </c>
+      <c r="Z73">
+        <v>2.48</v>
+      </c>
+      <c r="AA73">
+        <v>3.35</v>
+      </c>
+      <c r="AB73">
+        <v>2.83</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>7.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.35</v>
+      </c>
+      <c r="AF73">
+        <v>3.25</v>
+      </c>
+      <c r="AG73">
+        <v>2.05</v>
+      </c>
+      <c r="AH73">
+        <v>1.66</v>
+      </c>
+      <c r="AI73">
+        <v>1.8</v>
+      </c>
+      <c r="AJ73">
+        <v>1.95</v>
+      </c>
+      <c r="AK73">
+        <v>1.47</v>
+      </c>
+      <c r="AL73">
+        <v>1.31</v>
+      </c>
+      <c r="AM73">
+        <v>1.38</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>1.75</v>
+      </c>
+      <c r="AP73">
+        <v>0.8</v>
+      </c>
+      <c r="AQ73">
+        <v>2</v>
+      </c>
+      <c r="AR73">
+        <v>1.13</v>
+      </c>
+      <c r="AS73">
+        <v>1.27</v>
+      </c>
+      <c r="AT73">
+        <v>2.4</v>
+      </c>
+      <c r="AU73">
+        <v>4</v>
+      </c>
+      <c r="AV73">
+        <v>6</v>
+      </c>
+      <c r="AW73">
+        <v>4</v>
+      </c>
+      <c r="AX73">
+        <v>1</v>
+      </c>
+      <c r="AY73">
+        <v>12</v>
+      </c>
+      <c r="AZ73">
+        <v>11</v>
+      </c>
+      <c r="BA73">
+        <v>3</v>
+      </c>
+      <c r="BB73">
+        <v>3</v>
+      </c>
+      <c r="BC73">
+        <v>6</v>
+      </c>
+      <c r="BD73">
+        <v>2.05</v>
+      </c>
+      <c r="BE73">
+        <v>6.4</v>
+      </c>
+      <c r="BF73">
+        <v>2.05</v>
+      </c>
+      <c r="BG73">
+        <v>1.5</v>
+      </c>
+      <c r="BH73">
+        <v>2.38</v>
+      </c>
+      <c r="BI73">
+        <v>1.98</v>
+      </c>
+      <c r="BJ73">
+        <v>1.82</v>
+      </c>
+      <c r="BK73">
+        <v>2.62</v>
+      </c>
+      <c r="BL73">
+        <v>1.42</v>
+      </c>
+      <c r="BM73">
+        <v>3.75</v>
+      </c>
+      <c r="BN73">
+        <v>1.22</v>
+      </c>
+      <c r="BO73">
+        <v>4.25</v>
+      </c>
+      <c r="BP73">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7537358</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45605.625</v>
+      </c>
+      <c r="F74">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>75</v>
+      </c>
+      <c r="H74" t="s">
+        <v>79</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>130</v>
+      </c>
+      <c r="P74" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q74">
+        <v>1.73</v>
+      </c>
+      <c r="R74">
+        <v>2.5</v>
+      </c>
+      <c r="S74">
+        <v>10</v>
+      </c>
+      <c r="T74">
+        <v>1.33</v>
+      </c>
+      <c r="U74">
+        <v>3.25</v>
+      </c>
+      <c r="V74">
+        <v>2.63</v>
+      </c>
+      <c r="W74">
+        <v>1.44</v>
+      </c>
+      <c r="X74">
+        <v>6.5</v>
+      </c>
+      <c r="Y74">
+        <v>1.11</v>
+      </c>
+      <c r="Z74">
+        <v>1.29</v>
+      </c>
+      <c r="AA74">
+        <v>5.35</v>
+      </c>
+      <c r="AB74">
+        <v>11.5</v>
+      </c>
+      <c r="AC74">
+        <v>1.01</v>
+      </c>
+      <c r="AD74">
+        <v>11</v>
+      </c>
+      <c r="AE74">
+        <v>1.25</v>
+      </c>
+      <c r="AF74">
+        <v>4</v>
+      </c>
+      <c r="AG74">
+        <v>1.84</v>
+      </c>
+      <c r="AH74">
+        <v>1.94</v>
+      </c>
+      <c r="AI74">
+        <v>2.38</v>
+      </c>
+      <c r="AJ74">
+        <v>1.53</v>
+      </c>
+      <c r="AK74">
+        <v>1.05</v>
+      </c>
+      <c r="AL74">
+        <v>1.12</v>
+      </c>
+      <c r="AM74">
+        <v>3.15</v>
+      </c>
+      <c r="AN74">
+        <v>2.2</v>
+      </c>
+      <c r="AO74">
+        <v>1.8</v>
+      </c>
+      <c r="AP74">
+        <v>2.33</v>
+      </c>
+      <c r="AQ74">
+        <v>1.5</v>
+      </c>
+      <c r="AR74">
+        <v>1.64</v>
+      </c>
+      <c r="AS74">
+        <v>1.05</v>
+      </c>
+      <c r="AT74">
+        <v>2.69</v>
+      </c>
+      <c r="AU74">
+        <v>14</v>
+      </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
+      <c r="AW74">
+        <v>11</v>
+      </c>
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
+        <v>30</v>
+      </c>
+      <c r="AZ74">
+        <v>5</v>
+      </c>
+      <c r="BA74">
+        <v>6</v>
+      </c>
+      <c r="BB74">
+        <v>0</v>
+      </c>
+      <c r="BC74">
+        <v>6</v>
+      </c>
+      <c r="BD74">
+        <v>1.1</v>
+      </c>
+      <c r="BE74">
+        <v>9.5</v>
+      </c>
+      <c r="BF74">
+        <v>8.6</v>
+      </c>
+      <c r="BG74">
+        <v>1.4</v>
+      </c>
+      <c r="BH74">
+        <v>2.7</v>
+      </c>
+      <c r="BI74">
+        <v>1.72</v>
+      </c>
+      <c r="BJ74">
+        <v>1.95</v>
+      </c>
+      <c r="BK74">
+        <v>2.28</v>
+      </c>
+      <c r="BL74">
+        <v>1.52</v>
+      </c>
+      <c r="BM74">
+        <v>3.15</v>
+      </c>
+      <c r="BN74">
+        <v>1.3</v>
+      </c>
+      <c r="BO74">
+        <v>4.35</v>
+      </c>
+      <c r="BP74">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="183">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,15 @@
     <t>['9', '31', '58']</t>
   </si>
   <si>
+    <t>['34', '88', '90+4']</t>
+  </si>
+  <si>
+    <t>['14', '29']</t>
+  </si>
+  <si>
+    <t>['59', '81']</t>
+  </si>
+  <si>
     <t>['13', '73']</t>
   </si>
   <si>
@@ -545,6 +554,15 @@
   </si>
   <si>
     <t>['8', '13', '25']</t>
+  </si>
+  <si>
+    <t>['13', '63']</t>
+  </si>
+  <si>
+    <t>['57', '77']</t>
+  </si>
+  <si>
+    <t>['32', '50', '69']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1183,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q2">
         <v>8.5</v>
@@ -1246,7 +1264,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ2">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1371,7 +1389,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>1.57</v>
@@ -1449,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1655,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1783,7 +1801,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>1.8</v>
@@ -1861,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -1989,7 +2007,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>3.4</v>
@@ -2401,7 +2419,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>2.88</v>
@@ -2482,7 +2500,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2607,7 +2625,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2813,7 +2831,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3019,7 +3037,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>1.45</v>
@@ -3100,7 +3118,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR11">
         <v>2.01</v>
@@ -3225,7 +3243,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3306,7 +3324,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ12">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3509,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
         <v>1.6</v>
@@ -3715,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ14">
         <v>0.6</v>
@@ -3843,7 +3861,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q15">
         <v>1.44</v>
@@ -3924,7 +3942,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ15">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4049,7 +4067,7 @@
         <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q16">
         <v>8.5</v>
@@ -4130,7 +4148,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ16">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4255,7 +4273,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4667,7 +4685,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4745,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -4873,7 +4891,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>3.1</v>
@@ -5079,7 +5097,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5285,7 +5303,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5572,7 +5590,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ23">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR23">
         <v>0.92</v>
@@ -5697,7 +5715,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>2.63</v>
@@ -5903,7 +5921,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6393,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ27">
         <v>1.6</v>
@@ -6521,7 +6539,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6808,7 +6826,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ29">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -6933,7 +6951,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>7.5</v>
@@ -7220,7 +7238,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR31">
         <v>1.29</v>
@@ -7345,7 +7363,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7551,7 +7569,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>3.25</v>
@@ -7629,7 +7647,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -7757,7 +7775,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>1.57</v>
@@ -7835,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -7963,7 +7981,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8044,7 +8062,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8375,7 +8393,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8456,7 +8474,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ37">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR37">
         <v>1.17</v>
@@ -8581,7 +8599,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -8787,7 +8805,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9277,7 +9295,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ41">
         <v>1.33</v>
@@ -9611,7 +9629,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9817,7 +9835,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>2.5</v>
@@ -9898,7 +9916,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ44">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR44">
         <v>1.35</v>
@@ -10310,7 +10328,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>1.16</v>
@@ -10435,7 +10453,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10641,7 +10659,7 @@
         <v>117</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q48">
         <v>3.25</v>
@@ -10847,7 +10865,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10925,7 +10943,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>2.6</v>
@@ -11131,10 +11149,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ50">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR50">
         <v>1.74</v>
@@ -11465,7 +11483,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -11877,7 +11895,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>1.73</v>
@@ -12083,7 +12101,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -12370,7 +12388,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ56">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR56">
         <v>1.14</v>
@@ -12495,7 +12513,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q57">
         <v>2.6</v>
@@ -12701,7 +12719,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12782,7 +12800,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ58">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR58">
         <v>1.3</v>
@@ -12907,7 +12925,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -12985,10 +13003,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR59">
         <v>0.99</v>
@@ -13400,7 +13418,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ61">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR61">
         <v>1.69</v>
@@ -13525,7 +13543,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -13603,7 +13621,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ62">
         <v>1.33</v>
@@ -13731,7 +13749,7 @@
         <v>104</v>
       </c>
       <c r="P63" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q63">
         <v>1.73</v>
@@ -13809,7 +13827,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ63">
         <v>1.67</v>
@@ -13937,7 +13955,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14349,7 +14367,7 @@
         <v>104</v>
       </c>
       <c r="P66" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14555,7 +14573,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q67">
         <v>2.1</v>
@@ -14761,7 +14779,7 @@
         <v>84</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>6.5</v>
@@ -14967,7 +14985,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -15173,7 +15191,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q70">
         <v>7.5</v>
@@ -15555,7 +15573,7 @@
         <v>45605.5</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
         <v>76</v>
@@ -15791,7 +15809,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q73">
         <v>3.5</v>
@@ -16153,6 +16171,830 @@
         <v>4.35</v>
       </c>
       <c r="BP74">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7537359</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F75">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" t="s">
+        <v>70</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>5</v>
+      </c>
+      <c r="O75" t="s">
+        <v>131</v>
+      </c>
+      <c r="P75" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q75">
+        <v>3</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>1.5</v>
+      </c>
+      <c r="U75">
+        <v>2.5</v>
+      </c>
+      <c r="V75">
+        <v>3.5</v>
+      </c>
+      <c r="W75">
+        <v>1.29</v>
+      </c>
+      <c r="X75">
+        <v>10</v>
+      </c>
+      <c r="Y75">
+        <v>1.06</v>
+      </c>
+      <c r="Z75">
+        <v>2.3</v>
+      </c>
+      <c r="AA75">
+        <v>3.25</v>
+      </c>
+      <c r="AB75">
+        <v>3.25</v>
+      </c>
+      <c r="AC75">
+        <v>1.03</v>
+      </c>
+      <c r="AD75">
+        <v>6.75</v>
+      </c>
+      <c r="AE75">
+        <v>1.44</v>
+      </c>
+      <c r="AF75">
+        <v>2.85</v>
+      </c>
+      <c r="AG75">
+        <v>2.22</v>
+      </c>
+      <c r="AH75">
+        <v>1.66</v>
+      </c>
+      <c r="AI75">
+        <v>2</v>
+      </c>
+      <c r="AJ75">
+        <v>1.75</v>
+      </c>
+      <c r="AK75">
+        <v>1.29</v>
+      </c>
+      <c r="AL75">
+        <v>1.32</v>
+      </c>
+      <c r="AM75">
+        <v>1.58</v>
+      </c>
+      <c r="AN75">
+        <v>0.6</v>
+      </c>
+      <c r="AO75">
+        <v>2.25</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+      <c r="AQ75">
+        <v>1.8</v>
+      </c>
+      <c r="AR75">
+        <v>1.06</v>
+      </c>
+      <c r="AS75">
+        <v>1.09</v>
+      </c>
+      <c r="AT75">
+        <v>2.15</v>
+      </c>
+      <c r="AU75">
+        <v>7</v>
+      </c>
+      <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75">
+        <v>8</v>
+      </c>
+      <c r="AX75">
+        <v>1</v>
+      </c>
+      <c r="AY75">
+        <v>21</v>
+      </c>
+      <c r="AZ75">
+        <v>6</v>
+      </c>
+      <c r="BA75">
+        <v>6</v>
+      </c>
+      <c r="BB75">
+        <v>1</v>
+      </c>
+      <c r="BC75">
+        <v>7</v>
+      </c>
+      <c r="BD75">
+        <v>1.72</v>
+      </c>
+      <c r="BE75">
+        <v>6.3</v>
+      </c>
+      <c r="BF75">
+        <v>2.55</v>
+      </c>
+      <c r="BG75">
+        <v>1.68</v>
+      </c>
+      <c r="BH75">
+        <v>2.02</v>
+      </c>
+      <c r="BI75">
+        <v>1.9</v>
+      </c>
+      <c r="BJ75">
+        <v>1.9</v>
+      </c>
+      <c r="BK75">
+        <v>3.25</v>
+      </c>
+      <c r="BL75">
+        <v>1.29</v>
+      </c>
+      <c r="BM75">
+        <v>3.3</v>
+      </c>
+      <c r="BN75">
+        <v>1.28</v>
+      </c>
+      <c r="BO75">
+        <v>3.8</v>
+      </c>
+      <c r="BP75">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7537360</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F76">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s">
+        <v>83</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>132</v>
+      </c>
+      <c r="P76" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q76">
+        <v>2.5</v>
+      </c>
+      <c r="R76">
+        <v>2.1</v>
+      </c>
+      <c r="S76">
+        <v>4.75</v>
+      </c>
+      <c r="T76">
+        <v>1.44</v>
+      </c>
+      <c r="U76">
+        <v>2.63</v>
+      </c>
+      <c r="V76">
+        <v>3.25</v>
+      </c>
+      <c r="W76">
+        <v>1.33</v>
+      </c>
+      <c r="X76">
+        <v>9</v>
+      </c>
+      <c r="Y76">
+        <v>1.07</v>
+      </c>
+      <c r="Z76">
+        <v>1.95</v>
+      </c>
+      <c r="AA76">
+        <v>3.25</v>
+      </c>
+      <c r="AB76">
+        <v>3.8</v>
+      </c>
+      <c r="AC76">
+        <v>1.01</v>
+      </c>
+      <c r="AD76">
+        <v>7.7</v>
+      </c>
+      <c r="AE76">
+        <v>1.36</v>
+      </c>
+      <c r="AF76">
+        <v>3.2</v>
+      </c>
+      <c r="AG76">
+        <v>2</v>
+      </c>
+      <c r="AH76">
+        <v>1.73</v>
+      </c>
+      <c r="AI76">
+        <v>1.95</v>
+      </c>
+      <c r="AJ76">
+        <v>1.8</v>
+      </c>
+      <c r="AK76">
+        <v>1.21</v>
+      </c>
+      <c r="AL76">
+        <v>1.27</v>
+      </c>
+      <c r="AM76">
+        <v>1.8</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>0.6</v>
+      </c>
+      <c r="AP76">
+        <v>1</v>
+      </c>
+      <c r="AQ76">
+        <v>0.67</v>
+      </c>
+      <c r="AR76">
+        <v>1.19</v>
+      </c>
+      <c r="AS76">
+        <v>0.75</v>
+      </c>
+      <c r="AT76">
+        <v>1.94</v>
+      </c>
+      <c r="AU76">
+        <v>7</v>
+      </c>
+      <c r="AV76">
+        <v>7</v>
+      </c>
+      <c r="AW76">
+        <v>3</v>
+      </c>
+      <c r="AX76">
+        <v>10</v>
+      </c>
+      <c r="AY76">
+        <v>13</v>
+      </c>
+      <c r="AZ76">
+        <v>22</v>
+      </c>
+      <c r="BA76">
+        <v>2</v>
+      </c>
+      <c r="BB76">
+        <v>7</v>
+      </c>
+      <c r="BC76">
+        <v>9</v>
+      </c>
+      <c r="BD76">
+        <v>1.35</v>
+      </c>
+      <c r="BE76">
+        <v>6.5</v>
+      </c>
+      <c r="BF76">
+        <v>4.2</v>
+      </c>
+      <c r="BG76">
+        <v>1.45</v>
+      </c>
+      <c r="BH76">
+        <v>2.52</v>
+      </c>
+      <c r="BI76">
+        <v>1.88</v>
+      </c>
+      <c r="BJ76">
+        <v>1.92</v>
+      </c>
+      <c r="BK76">
+        <v>2.42</v>
+      </c>
+      <c r="BL76">
+        <v>1.48</v>
+      </c>
+      <c r="BM76">
+        <v>3.4</v>
+      </c>
+      <c r="BN76">
+        <v>1.26</v>
+      </c>
+      <c r="BO76">
+        <v>4.25</v>
+      </c>
+      <c r="BP76">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7537361</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H77" t="s">
+        <v>81</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>86</v>
+      </c>
+      <c r="P77" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q77">
+        <v>1.73</v>
+      </c>
+      <c r="R77">
+        <v>2.6</v>
+      </c>
+      <c r="S77">
+        <v>9.5</v>
+      </c>
+      <c r="T77">
+        <v>1.3</v>
+      </c>
+      <c r="U77">
+        <v>3.4</v>
+      </c>
+      <c r="V77">
+        <v>2.5</v>
+      </c>
+      <c r="W77">
+        <v>1.5</v>
+      </c>
+      <c r="X77">
+        <v>6</v>
+      </c>
+      <c r="Y77">
+        <v>1.13</v>
+      </c>
+      <c r="Z77">
+        <v>1.28</v>
+      </c>
+      <c r="AA77">
+        <v>5.75</v>
+      </c>
+      <c r="AB77">
+        <v>8.34</v>
+      </c>
+      <c r="AC77">
+        <v>1.01</v>
+      </c>
+      <c r="AD77">
+        <v>13</v>
+      </c>
+      <c r="AE77">
+        <v>1.21</v>
+      </c>
+      <c r="AF77">
+        <v>4.4</v>
+      </c>
+      <c r="AG77">
+        <v>1.65</v>
+      </c>
+      <c r="AH77">
+        <v>2.11</v>
+      </c>
+      <c r="AI77">
+        <v>2.2</v>
+      </c>
+      <c r="AJ77">
+        <v>1.62</v>
+      </c>
+      <c r="AK77">
+        <v>1.05</v>
+      </c>
+      <c r="AL77">
+        <v>1.12</v>
+      </c>
+      <c r="AM77">
+        <v>3.05</v>
+      </c>
+      <c r="AN77">
+        <v>1.6</v>
+      </c>
+      <c r="AO77">
+        <v>1</v>
+      </c>
+      <c r="AP77">
+        <v>1.83</v>
+      </c>
+      <c r="AQ77">
+        <v>0.83</v>
+      </c>
+      <c r="AR77">
+        <v>1.69</v>
+      </c>
+      <c r="AS77">
+        <v>0.98</v>
+      </c>
+      <c r="AT77">
+        <v>2.67</v>
+      </c>
+      <c r="AU77">
+        <v>6</v>
+      </c>
+      <c r="AV77">
+        <v>3</v>
+      </c>
+      <c r="AW77">
+        <v>7</v>
+      </c>
+      <c r="AX77">
+        <v>0</v>
+      </c>
+      <c r="AY77">
+        <v>15</v>
+      </c>
+      <c r="AZ77">
+        <v>4</v>
+      </c>
+      <c r="BA77">
+        <v>7</v>
+      </c>
+      <c r="BB77">
+        <v>1</v>
+      </c>
+      <c r="BC77">
+        <v>8</v>
+      </c>
+      <c r="BD77">
+        <v>1.02</v>
+      </c>
+      <c r="BE77">
+        <v>14</v>
+      </c>
+      <c r="BF77">
+        <v>12</v>
+      </c>
+      <c r="BG77">
+        <v>1.31</v>
+      </c>
+      <c r="BH77">
+        <v>3.1</v>
+      </c>
+      <c r="BI77">
+        <v>1.58</v>
+      </c>
+      <c r="BJ77">
+        <v>2.2</v>
+      </c>
+      <c r="BK77">
+        <v>2.02</v>
+      </c>
+      <c r="BL77">
+        <v>1.68</v>
+      </c>
+      <c r="BM77">
+        <v>2.72</v>
+      </c>
+      <c r="BN77">
+        <v>1.39</v>
+      </c>
+      <c r="BO77">
+        <v>3.85</v>
+      </c>
+      <c r="BP77">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7537365</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>71</v>
+      </c>
+      <c r="H78" t="s">
+        <v>80</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>5</v>
+      </c>
+      <c r="O78" t="s">
+        <v>133</v>
+      </c>
+      <c r="P78" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q78">
+        <v>3.25</v>
+      </c>
+      <c r="R78">
+        <v>2.1</v>
+      </c>
+      <c r="S78">
+        <v>3.4</v>
+      </c>
+      <c r="T78">
+        <v>1.44</v>
+      </c>
+      <c r="U78">
+        <v>2.63</v>
+      </c>
+      <c r="V78">
+        <v>3.25</v>
+      </c>
+      <c r="W78">
+        <v>1.33</v>
+      </c>
+      <c r="X78">
+        <v>9</v>
+      </c>
+      <c r="Y78">
+        <v>1.07</v>
+      </c>
+      <c r="Z78">
+        <v>2.62</v>
+      </c>
+      <c r="AA78">
+        <v>3</v>
+      </c>
+      <c r="AB78">
+        <v>2.78</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>7.8</v>
+      </c>
+      <c r="AE78">
+        <v>1.34</v>
+      </c>
+      <c r="AF78">
+        <v>3.3</v>
+      </c>
+      <c r="AG78">
+        <v>2</v>
+      </c>
+      <c r="AH78">
+        <v>1.72</v>
+      </c>
+      <c r="AI78">
+        <v>1.8</v>
+      </c>
+      <c r="AJ78">
+        <v>1.95</v>
+      </c>
+      <c r="AK78">
+        <v>1.4</v>
+      </c>
+      <c r="AL78">
+        <v>1.32</v>
+      </c>
+      <c r="AM78">
+        <v>1.44</v>
+      </c>
+      <c r="AN78">
+        <v>1.4</v>
+      </c>
+      <c r="AO78">
+        <v>1.4</v>
+      </c>
+      <c r="AP78">
+        <v>1.17</v>
+      </c>
+      <c r="AQ78">
+        <v>1.67</v>
+      </c>
+      <c r="AR78">
+        <v>1.72</v>
+      </c>
+      <c r="AS78">
+        <v>1.77</v>
+      </c>
+      <c r="AT78">
+        <v>3.49</v>
+      </c>
+      <c r="AU78">
+        <v>4</v>
+      </c>
+      <c r="AV78">
+        <v>10</v>
+      </c>
+      <c r="AW78">
+        <v>7</v>
+      </c>
+      <c r="AX78">
+        <v>4</v>
+      </c>
+      <c r="AY78">
+        <v>16</v>
+      </c>
+      <c r="AZ78">
+        <v>17</v>
+      </c>
+      <c r="BA78">
+        <v>4</v>
+      </c>
+      <c r="BB78">
+        <v>5</v>
+      </c>
+      <c r="BC78">
+        <v>9</v>
+      </c>
+      <c r="BD78">
+        <v>1.6</v>
+      </c>
+      <c r="BE78">
+        <v>6.7</v>
+      </c>
+      <c r="BF78">
+        <v>2.8</v>
+      </c>
+      <c r="BG78">
+        <v>1.44</v>
+      </c>
+      <c r="BH78">
+        <v>2.55</v>
+      </c>
+      <c r="BI78">
+        <v>1.88</v>
+      </c>
+      <c r="BJ78">
+        <v>1.92</v>
+      </c>
+      <c r="BK78">
+        <v>2.42</v>
+      </c>
+      <c r="BL78">
+        <v>1.48</v>
+      </c>
+      <c r="BM78">
+        <v>3.4</v>
+      </c>
+      <c r="BN78">
+        <v>1.26</v>
+      </c>
+      <c r="BO78">
+        <v>3.78</v>
+      </c>
+      <c r="BP78">
         <v>1.17</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20242025.xlsx
@@ -409,12 +409,12 @@
     <t>['9', '31', '58']</t>
   </si>
   <si>
+    <t>['14', '29']</t>
+  </si>
+  <si>
     <t>['34', '88', '90+4']</t>
   </si>
   <si>
-    <t>['14', '29']</t>
-  </si>
-  <si>
     <t>['59', '81']</t>
   </si>
   <si>
@@ -556,10 +556,10 @@
     <t>['8', '13', '25']</t>
   </si>
   <si>
+    <t>['57', '77']</t>
+  </si>
+  <si>
     <t>['13', '63']</t>
-  </si>
-  <si>
-    <t>['57', '77']</t>
   </si>
   <si>
     <t>['32', '50', '69']</t>
@@ -16179,7 +16179,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7537359</v>
+        <v>7537360</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16188,34 +16188,34 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45605.875</v>
+        <v>45606.45833333334</v>
       </c>
       <c r="F75">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75">
         <v>2</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M75">
         <v>2</v>
       </c>
       <c r="N75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O75" t="s">
         <v>131</v>
@@ -16224,160 +16224,160 @@
         <v>180</v>
       </c>
       <c r="Q75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S75">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="T75">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U75">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V75">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W75">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y75">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z75">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="AA75">
         <v>3.25</v>
       </c>
       <c r="AB75">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="AC75">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD75">
-        <v>6.75</v>
+        <v>7.7</v>
       </c>
       <c r="AE75">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AF75">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="AG75">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AH75">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="AI75">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ75">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AK75">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AL75">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AM75">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>0.6</v>
       </c>
-      <c r="AO75">
-        <v>2.25</v>
-      </c>
       <c r="AP75">
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>1.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR75">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AS75">
-        <v>1.09</v>
+        <v>0.75</v>
       </c>
       <c r="AT75">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="AU75">
         <v>7</v>
       </c>
       <c r="AV75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW75">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX75">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AY75">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AZ75">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="BA75">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB75">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BC75">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD75">
-        <v>1.72</v>
+        <v>1.35</v>
       </c>
       <c r="BE75">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="BF75">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="BG75">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="BH75">
-        <v>2.02</v>
+        <v>2.52</v>
       </c>
       <c r="BI75">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="BJ75">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="BK75">
-        <v>3.25</v>
+        <v>2.42</v>
       </c>
       <c r="BL75">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="BM75">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BN75">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BO75">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="BP75">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16385,7 +16385,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7537360</v>
+        <v>7537359</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16394,34 +16394,34 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45605.875</v>
+        <v>45606.47916666666</v>
       </c>
       <c r="F76">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H76" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76">
         <v>2</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M76">
         <v>2</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O76" t="s">
         <v>132</v>
@@ -16430,160 +16430,160 @@
         <v>181</v>
       </c>
       <c r="Q76">
+        <v>3</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>4</v>
+      </c>
+      <c r="T76">
+        <v>1.5</v>
+      </c>
+      <c r="U76">
         <v>2.5</v>
       </c>
-      <c r="R76">
-        <v>2.1</v>
-      </c>
-      <c r="S76">
-        <v>4.75</v>
-      </c>
-      <c r="T76">
-        <v>1.44</v>
-      </c>
-      <c r="U76">
-        <v>2.63</v>
-      </c>
       <c r="V76">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W76">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X76">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y76">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z76">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="AA76">
         <v>3.25</v>
       </c>
       <c r="AB76">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="AC76">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD76">
-        <v>7.7</v>
+        <v>6.75</v>
       </c>
       <c r="AE76">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AF76">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="AG76">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AH76">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="AI76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AJ76">
+        <v>1.75</v>
+      </c>
+      <c r="AK76">
+        <v>1.29</v>
+      </c>
+      <c r="AL76">
+        <v>1.32</v>
+      </c>
+      <c r="AM76">
+        <v>1.58</v>
+      </c>
+      <c r="AN76">
+        <v>0.6</v>
+      </c>
+      <c r="AO76">
+        <v>2.25</v>
+      </c>
+      <c r="AP76">
+        <v>1</v>
+      </c>
+      <c r="AQ76">
         <v>1.8</v>
       </c>
-      <c r="AK76">
-        <v>1.21</v>
-      </c>
-      <c r="AL76">
-        <v>1.27</v>
-      </c>
-      <c r="AM76">
-        <v>1.8</v>
-      </c>
-      <c r="AN76">
-        <v>1</v>
-      </c>
-      <c r="AO76">
-        <v>0.6</v>
-      </c>
-      <c r="AP76">
-        <v>1</v>
-      </c>
-      <c r="AQ76">
-        <v>0.67</v>
-      </c>
       <c r="AR76">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="AS76">
-        <v>0.75</v>
+        <v>1.09</v>
       </c>
       <c r="AT76">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="AU76">
         <v>7</v>
       </c>
       <c r="AV76">
+        <v>4</v>
+      </c>
+      <c r="AW76">
+        <v>8</v>
+      </c>
+      <c r="AX76">
+        <v>1</v>
+      </c>
+      <c r="AY76">
+        <v>21</v>
+      </c>
+      <c r="AZ76">
+        <v>6</v>
+      </c>
+      <c r="BA76">
+        <v>6</v>
+      </c>
+      <c r="BB76">
+        <v>1</v>
+      </c>
+      <c r="BC76">
         <v>7</v>
       </c>
-      <c r="AW76">
-        <v>3</v>
-      </c>
-      <c r="AX76">
-        <v>10</v>
-      </c>
-      <c r="AY76">
-        <v>13</v>
-      </c>
-      <c r="AZ76">
-        <v>22</v>
-      </c>
-      <c r="BA76">
-        <v>2</v>
-      </c>
-      <c r="BB76">
-        <v>7</v>
-      </c>
-      <c r="BC76">
-        <v>9</v>
-      </c>
       <c r="BD76">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="BE76">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="BF76">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="BG76">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="BH76">
-        <v>2.52</v>
+        <v>2.02</v>
       </c>
       <c r="BI76">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="BJ76">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="BK76">
-        <v>2.42</v>
+        <v>3.25</v>
       </c>
       <c r="BL76">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="BM76">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BN76">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BO76">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="BP76">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16600,10 +16600,10 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45605.875</v>
+        <v>45606.60416666666</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
         <v>73</v>
@@ -16806,10 +16806,10 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45605.875</v>
+        <v>45606.64583333334</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
         <v>71</v>
